--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -190,6 +190,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4251,10 +4284,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4361,10 +4394,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4377,84 +4410,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>2526871722.5859</v>
+        <v>6271017175.4697</v>
       </c>
       <c r="AA2" t="n">
-        <v>2628650269.6456</v>
+        <v>5462701070.0159</v>
       </c>
       <c r="AB2" t="n">
-        <v>3761977137.1761</v>
+        <v>6870303597.4269</v>
       </c>
       <c r="AC2" t="n">
-        <v>4595945628.2328</v>
+        <v>7766156006.8904</v>
       </c>
       <c r="AD2" t="n">
-        <v>5794732197.7678</v>
+        <v>8176281494.9251</v>
       </c>
       <c r="AE2" t="n">
-        <v>8534494057.8153</v>
+        <v>9126333804.2327</v>
       </c>
       <c r="AF2" t="n">
-        <v>8789690100.7834</v>
+        <v>9361270101.9756</v>
       </c>
       <c r="AG2" t="n">
-        <v>8295843482.2792</v>
+        <v>9065766799.9883</v>
       </c>
       <c r="AH2" t="n">
-        <v>9284666022.7292</v>
+        <v>9040425044.3047</v>
       </c>
       <c r="AI2" t="n">
-        <v>10501611274.7887</v>
+        <v>10925233114.2902</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13559324540.7012</v>
+        <v>11122529684.8693</v>
       </c>
       <c r="AK2" t="n">
-        <v>14762254308.6643</v>
+        <v>11141785269.072</v>
       </c>
       <c r="AL2" t="n">
-        <v>15515425637.4548</v>
+        <v>11138064932.0544</v>
       </c>
       <c r="AM2" t="n">
-        <v>12141188720.0403</v>
+        <v>10088368654.9534</v>
       </c>
       <c r="AN2" t="n">
-        <v>12741597981.1852</v>
+        <v>9824107038.4001</v>
       </c>
       <c r="AO2" t="n">
-        <v>13242842770.8344</v>
+        <v>10215391236.3396</v>
       </c>
       <c r="AP2" t="n">
-        <v>13525835430.0727</v>
+        <v>9343548754.2237</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13561593160.8861</v>
+        <v>9404790061.3202</v>
       </c>
       <c r="AR2" t="n">
-        <v>13957182419.5419</v>
+        <v>10759304071.8315</v>
       </c>
       <c r="AS2" t="n">
-        <v>14739728564.973</v>
+        <v>12409335974.5661</v>
       </c>
       <c r="AT2" t="n">
-        <v>15492691525.9092</v>
+        <v>13179581963.7275</v>
       </c>
       <c r="AU2" t="n">
-        <v>17770856848.6998</v>
+        <v>17507035081.1277</v>
       </c>
       <c r="AV2" t="n">
-        <v>18938722248.4085</v>
+        <v>19436284053.7692</v>
       </c>
       <c r="AW2" t="n">
-        <v>8921178070.9692</v>
+        <v>13282635696.7505</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4467,84 +4500,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>94728582</v>
+        <v>180613800</v>
       </c>
       <c r="AA3" t="n">
-        <v>126171926</v>
+        <v>207696935.6699</v>
       </c>
       <c r="AB3" t="n">
-        <v>142387916</v>
+        <v>277660182.21</v>
       </c>
       <c r="AC3" t="n">
-        <v>122293882</v>
+        <v>334222378.09</v>
       </c>
       <c r="AD3" t="n">
-        <v>154809741.5601</v>
+        <v>438331188.4861</v>
       </c>
       <c r="AE3" t="n">
-        <v>390063038.6563</v>
+        <v>626849177.5709</v>
       </c>
       <c r="AF3" t="n">
-        <v>401806186.3927</v>
+        <v>652063984.1709</v>
       </c>
       <c r="AG3" t="n">
-        <v>273678603.766</v>
+        <v>699164742.5933</v>
       </c>
       <c r="AH3" t="n">
-        <v>448560074.8284</v>
+        <v>792044934.5504</v>
       </c>
       <c r="AI3" t="n">
-        <v>265758973.2957</v>
+        <v>918793300.3838</v>
       </c>
       <c r="AJ3" t="n">
-        <v>342760337.4267</v>
+        <v>870467853.5533</v>
       </c>
       <c r="AK3" t="n">
-        <v>240595110.3673</v>
+        <v>801172094.9453</v>
       </c>
       <c r="AL3" t="n">
-        <v>165068862.2906</v>
+        <v>596522964.0268</v>
       </c>
       <c r="AM3" t="n">
-        <v>37057729.2465</v>
+        <v>460475144.7347</v>
       </c>
       <c r="AN3" t="n">
-        <v>21377986.7054</v>
+        <v>483111976.1876</v>
       </c>
       <c r="AO3" t="n">
-        <v>20581211.4037</v>
+        <v>563521363.0512</v>
       </c>
       <c r="AP3" t="n">
-        <v>12037218.327</v>
+        <v>591559178.4025</v>
       </c>
       <c r="AQ3" t="n">
-        <v>61635056.7136</v>
+        <v>590133373.3203</v>
       </c>
       <c r="AR3" t="n">
-        <v>74258106.801</v>
+        <v>623049142.8178</v>
       </c>
       <c r="AS3" t="n">
-        <v>57129361.3409</v>
+        <v>723800769.9278</v>
       </c>
       <c r="AT3" t="n">
-        <v>53011459.3802</v>
+        <v>666123822.4483</v>
       </c>
       <c r="AU3" t="n">
-        <v>59882975.4903</v>
+        <v>711256682.1468</v>
       </c>
       <c r="AV3" t="n">
-        <v>22152557.3492</v>
+        <v>711489580.2949</v>
       </c>
       <c r="AW3" t="n">
-        <v>12693082.6274</v>
+        <v>565216046.2794</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4557,84 +4590,84 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>1040234215.7181</v>
+        <v>1927173</v>
       </c>
       <c r="AA4" t="n">
-        <v>956001709.13</v>
+        <v>3651959</v>
       </c>
       <c r="AB4" t="n">
-        <v>1424542472.5764</v>
+        <v>439591</v>
       </c>
       <c r="AC4" t="n">
-        <v>1687784043.0481</v>
+        <v>260024</v>
       </c>
       <c r="AD4" t="n">
-        <v>2213685904.6534</v>
+        <v>662789</v>
       </c>
       <c r="AE4" t="n">
-        <v>2553315733.3979</v>
+        <v>377782.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>3251255807.9771</v>
+        <v>30745.5903</v>
       </c>
       <c r="AG4" t="n">
-        <v>3353815832.8083</v>
+        <v>726517.5613</v>
       </c>
       <c r="AH4" t="n">
-        <v>3970583754.1267</v>
+        <v>553950.72</v>
       </c>
       <c r="AI4" t="n">
-        <v>3802095023.9926</v>
+        <v>1619936.4727</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4027646293.2761</v>
+        <v>84738935.1693</v>
       </c>
       <c r="AK4" t="n">
-        <v>2923748313.0268</v>
+        <v>299335439.1314</v>
       </c>
       <c r="AL4" t="n">
-        <v>2907234407.5828</v>
+        <v>790223242.5627</v>
       </c>
       <c r="AM4" t="n">
-        <v>2591117363.5723</v>
+        <v>983948827.3485</v>
       </c>
       <c r="AN4" t="n">
-        <v>1640462823.2053</v>
+        <v>1201776519.2544</v>
       </c>
       <c r="AO4" t="n">
-        <v>1060708871.9086</v>
+        <v>1640338311.9802</v>
       </c>
       <c r="AP4" t="n">
-        <v>1231070996.0363</v>
+        <v>1837525425.3985</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1384107541.6294</v>
+        <v>2132451977.5959</v>
       </c>
       <c r="AR4" t="n">
-        <v>2253683572.4918</v>
+        <v>1906189467.228</v>
       </c>
       <c r="AS4" t="n">
-        <v>2818908907.3165</v>
+        <v>2012555086.0805</v>
       </c>
       <c r="AT4" t="n">
-        <v>3007175068.2425</v>
+        <v>2069365412.0399</v>
       </c>
       <c r="AU4" t="n">
-        <v>2887157551.8173</v>
+        <v>1771937599.0814</v>
       </c>
       <c r="AV4" t="n">
-        <v>2286773853.6606</v>
+        <v>1358778972.4948</v>
       </c>
       <c r="AW4" t="n">
-        <v>1296031213.0585</v>
+        <v>848864670.4563</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4647,84 +4680,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>189997975</v>
+        <v>598093950.9453</v>
       </c>
       <c r="AA5" t="n">
-        <v>247265050</v>
+        <v>916370419.4629</v>
       </c>
       <c r="AB5" t="n">
-        <v>406050243</v>
+        <v>1235618524.4805</v>
       </c>
       <c r="AC5" t="n">
-        <v>579250799.0469</v>
+        <v>1657588846.8712</v>
       </c>
       <c r="AD5" t="n">
-        <v>612106250</v>
+        <v>2174918553.6565</v>
       </c>
       <c r="AE5" t="n">
-        <v>479530244.6875</v>
+        <v>2949984735.5231</v>
       </c>
       <c r="AF5" t="n">
-        <v>554477945.5431</v>
+        <v>3392988156.1162</v>
       </c>
       <c r="AG5" t="n">
-        <v>468543353.1756</v>
+        <v>2969658602.8259</v>
       </c>
       <c r="AH5" t="n">
-        <v>335276935.0406</v>
+        <v>2759947259.6236</v>
       </c>
       <c r="AI5" t="n">
-        <v>483288292.6509</v>
+        <v>2606847439.0442</v>
       </c>
       <c r="AJ5" t="n">
-        <v>673536704.1128</v>
+        <v>2248617845.3752</v>
       </c>
       <c r="AK5" t="n">
-        <v>559887425.0005</v>
+        <v>2074688347.6369</v>
       </c>
       <c r="AL5" t="n">
-        <v>552854123.8964</v>
+        <v>1726644279.2421</v>
       </c>
       <c r="AM5" t="n">
-        <v>553947496.5383</v>
+        <v>1624727049.4162</v>
       </c>
       <c r="AN5" t="n">
-        <v>727478299.3611</v>
+        <v>1612472068.8563</v>
       </c>
       <c r="AO5" t="n">
-        <v>1249846343.6193</v>
+        <v>1535548012.3237</v>
       </c>
       <c r="AP5" t="n">
-        <v>1576301585.0537</v>
+        <v>1539966134.6575</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1515336963.1023</v>
+        <v>1588850044.3354</v>
       </c>
       <c r="AR5" t="n">
-        <v>1363817873.8574</v>
+        <v>1709995922.6836</v>
       </c>
       <c r="AS5" t="n">
-        <v>1397596506.8604</v>
+        <v>2023376978.097</v>
       </c>
       <c r="AT5" t="n">
-        <v>1340138768.1312</v>
+        <v>2252470550.0335</v>
       </c>
       <c r="AU5" t="n">
-        <v>4019281959.6482</v>
+        <v>2383870675.9671</v>
       </c>
       <c r="AV5" t="n">
-        <v>4341233380.0041</v>
+        <v>2410117179.4506</v>
       </c>
       <c r="AW5" t="n">
-        <v>5061412826.7791</v>
+        <v>1237137200.5873</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -4737,84 +4770,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>7414000992.9404</v>
+        <v>1057003135.3984</v>
       </c>
       <c r="AA6" t="n">
-        <v>7038127593.5094</v>
+        <v>1206091135.6701</v>
       </c>
       <c r="AB6" t="n">
-        <v>8671200350.1544</v>
+        <v>2014681791.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9720487145.2928</v>
+        <v>2028106759.1153</v>
       </c>
       <c r="AD6" t="n">
-        <v>9811121752.9673</v>
+        <v>2479785462.2314</v>
       </c>
       <c r="AE6" t="n">
-        <v>11215915674.0691</v>
+        <v>3300345103.3939</v>
       </c>
       <c r="AF6" t="n">
-        <v>12262854338.515</v>
+        <v>4309803379.4762</v>
       </c>
       <c r="AG6" t="n">
-        <v>12256315404.0209</v>
+        <v>5555599147.8499</v>
       </c>
       <c r="AH6" t="n">
-        <v>12822459284.7238</v>
+        <v>6878885403.0467</v>
       </c>
       <c r="AI6" t="n">
-        <v>15948914661.7072</v>
+        <v>8250297524.481</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19705492042.0632</v>
+        <v>9496404240.5198</v>
       </c>
       <c r="AK6" t="n">
-        <v>20303258287.7956</v>
+        <v>10136574640.0809</v>
       </c>
       <c r="AL6" t="n">
-        <v>20255087860.8599</v>
+        <v>10916347079.7894</v>
       </c>
       <c r="AM6" t="n">
-        <v>18133540555.0846</v>
+        <v>10051927006.0261</v>
       </c>
       <c r="AN6" t="n">
-        <v>17845664848.4782</v>
+        <v>9819414579.3114</v>
       </c>
       <c r="AO6" t="n">
-        <v>17133245270.403</v>
+        <v>9636489162.8508</v>
       </c>
       <c r="AP6" t="n">
-        <v>16291890770.7339</v>
+        <v>10760397583.8317</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17171687116.5288</v>
+        <v>11911183628.2584</v>
       </c>
       <c r="AR6" t="n">
-        <v>20148162862.9166</v>
+        <v>13361162262.7677</v>
       </c>
       <c r="AS6" t="n">
-        <v>22303852570.6603</v>
+        <v>14488495439.8378</v>
       </c>
       <c r="AT6" t="n">
-        <v>23134715212.8296</v>
+        <v>15280648811.2408</v>
       </c>
       <c r="AU6" t="n">
-        <v>26349687899.4673</v>
+        <v>17381429515.2406</v>
       </c>
       <c r="AV6" t="n">
-        <v>28655235993.9868</v>
+        <v>18538313854.4563</v>
       </c>
       <c r="AW6" t="n">
-        <v>15684924657.8426</v>
+        <v>8472330609.9175</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -4827,84 +4860,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>192311242</v>
+        <v>4126558334.2503</v>
       </c>
       <c r="AA7" t="n">
-        <v>213986669</v>
+        <v>4597132425.0834</v>
       </c>
       <c r="AB7" t="n">
-        <v>162915729</v>
+        <v>5405934601.1509</v>
       </c>
       <c r="AC7" t="n">
-        <v>252677121</v>
+        <v>6607544034.3013</v>
       </c>
       <c r="AD7" t="n">
-        <v>438129472.25</v>
+        <v>7230279239.6493</v>
       </c>
       <c r="AE7" t="n">
-        <v>558385929.5</v>
+        <v>9397180299.0491</v>
       </c>
       <c r="AF7" t="n">
-        <v>720459166.4083</v>
+        <v>10994324851.378</v>
       </c>
       <c r="AG7" t="n">
-        <v>757928846.1705</v>
+        <v>11990263946.4206</v>
       </c>
       <c r="AH7" t="n">
-        <v>445819238.5459</v>
+        <v>14317173466.4284</v>
       </c>
       <c r="AI7" t="n">
-        <v>378181272.3348</v>
+        <v>15814840602.5353</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1176419509.774</v>
+        <v>16148160506.9644</v>
       </c>
       <c r="AK7" t="n">
-        <v>789678533.8682</v>
+        <v>15337937898.1212</v>
       </c>
       <c r="AL7" t="n">
-        <v>472570418.8814</v>
+        <v>14847218246.9347</v>
       </c>
       <c r="AM7" t="n">
-        <v>412100084.5611</v>
+        <v>10655845009.9496</v>
       </c>
       <c r="AN7" t="n">
-        <v>350994285.1707</v>
+        <v>10456711543.2085</v>
       </c>
       <c r="AO7" t="n">
-        <v>88385208.6262</v>
+        <v>9461979773.0459</v>
       </c>
       <c r="AP7" t="n">
-        <v>628314359.7392</v>
+        <v>9292689305.6482</v>
       </c>
       <c r="AQ7" t="n">
-        <v>720232138.4067</v>
+        <v>8996331767.5234</v>
       </c>
       <c r="AR7" t="n">
-        <v>855299554.4468</v>
+        <v>10292703522.7269</v>
       </c>
       <c r="AS7" t="n">
-        <v>1233314148.2219</v>
+        <v>10892965810.8638</v>
       </c>
       <c r="AT7" t="n">
-        <v>1219563836.6646</v>
+        <v>10799016848.6673</v>
       </c>
       <c r="AU7" t="n">
-        <v>1065707291.0857</v>
+        <v>12397044972.645</v>
       </c>
       <c r="AV7" t="n">
-        <v>736277731.9829</v>
+        <v>12525412124.9263</v>
       </c>
       <c r="AW7" t="n">
-        <v>474901040.8798</v>
+        <v>7044956668.1656</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -4917,66 +4950,70 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="n">
-        <v>1640382</v>
+        <v>181881761</v>
       </c>
       <c r="AA8" t="n">
-        <v>196362728</v>
+        <v>28439559</v>
       </c>
       <c r="AB8" t="n">
-        <v>10876129.1602</v>
+        <v>33025559</v>
       </c>
       <c r="AC8" t="n">
-        <v>60933248</v>
+        <v>31459164</v>
       </c>
       <c r="AD8" t="n">
-        <v>167128391.6299</v>
+        <v>38439581</v>
       </c>
       <c r="AE8" t="n">
-        <v>393353333.3425</v>
+        <v>24121130</v>
       </c>
       <c r="AF8" t="n">
-        <v>1961977491.3969</v>
+        <v>10698463.15</v>
       </c>
       <c r="AG8" t="n">
-        <v>4793586819.0848</v>
+        <v>14973448.1719</v>
       </c>
       <c r="AH8" t="n">
-        <v>6054351675.739</v>
+        <v>4832054.2947</v>
       </c>
       <c r="AI8" t="n">
-        <v>6919999050.2569</v>
+        <v>1836197.1511</v>
       </c>
       <c r="AJ8" t="n">
-        <v>423276507.4227</v>
+        <v>102945514.3884</v>
       </c>
       <c r="AK8" t="n">
-        <v>105524709.4594</v>
+        <v>70774601.5106</v>
       </c>
       <c r="AL8" t="n">
-        <v>8120839.0782</v>
+        <v>106713220.8043</v>
       </c>
       <c r="AM8" t="n">
-        <v>-32566429.6293</v>
+        <v>78859195.32</v>
       </c>
       <c r="AN8" t="n">
-        <v>-15220698.7913</v>
+        <v>74418163.1416</v>
       </c>
       <c r="AO8" t="n">
-        <v>-28665.0601</v>
-      </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
+        <v>92459117.5767</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2337251.7597</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>35448469.2009</v>
+      </c>
       <c r="AR8"/>
       <c r="AS8"/>
-      <c r="AT8"/>
+      <c r="AT8" t="n">
+        <v>88463</v>
+      </c>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>7773865381</v>
@@ -5009,84 +5046,78 @@
         <v>11285682035</v>
       </c>
       <c r="Z9" t="n">
-        <v>957310217.8193</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1015517558.6172</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1257829632.084</v>
+        <v>115762.3828</v>
       </c>
       <c r="AC9" t="n">
-        <v>1405965346.6476</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1346984598.1199</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1300350575.8011</v>
+        <v>216555</v>
       </c>
       <c r="AF9" t="n">
-        <v>778658644.8407</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>96440864.1059</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>432145127.2349</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>219619565.3315</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>165408646.063</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>177321602.3162</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>245371815.3703</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>107765368.3347</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>159656363.0453</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>350145965.433</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>102573273.959</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>244597344.2876</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
+      <c r="AR9"/>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5193,10 +5224,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5209,84 +5240,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>4082742574.09403</v>
+        <v>10132270893.025</v>
       </c>
       <c r="AA14" t="n">
-        <v>4146635708.89696</v>
+        <v>8617286059.51508</v>
       </c>
       <c r="AB14" t="n">
-        <v>5842221986.46905</v>
+        <v>10669346800.1068</v>
       </c>
       <c r="AC14" t="n">
-        <v>7003478136.97451</v>
+        <v>11834366244.1246</v>
       </c>
       <c r="AD14" t="n">
-        <v>8619544359.44908</v>
+        <v>12162049709.2165</v>
       </c>
       <c r="AE14" t="n">
-        <v>12320862511.0065</v>
+        <v>13175274746.197</v>
       </c>
       <c r="AF14" t="n">
-        <v>12289171464.675</v>
+        <v>13088317345.8027</v>
       </c>
       <c r="AG14" t="n">
-        <v>11289124374.7702</v>
+        <v>12336849071.0257</v>
       </c>
       <c r="AH14" t="n">
-        <v>12376606242.8203</v>
+        <v>12051029166.4967</v>
       </c>
       <c r="AI14" t="n">
-        <v>13857989192.5783</v>
+        <v>14417003111.4847</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17738684175.5641</v>
+        <v>14550801606.7466</v>
       </c>
       <c r="AK14" t="n">
-        <v>18930862364.9647</v>
+        <v>14288034809.4936</v>
       </c>
       <c r="AL14" t="n">
-        <v>19538575501.5189</v>
+        <v>14026165166.2599</v>
       </c>
       <c r="AM14" t="n">
-        <v>15014631197.4365</v>
+        <v>12475972347.5743</v>
       </c>
       <c r="AN14" t="n">
-        <v>15458087033.7476</v>
+        <v>11918591518.3235</v>
       </c>
       <c r="AO14" t="n">
-        <v>15884095542.6417</v>
+        <v>12252826165.1527</v>
       </c>
       <c r="AP14" t="n">
-        <v>16090198910.2926</v>
+        <v>11114992398.1197</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15849758028.7903</v>
+        <v>10991602904.9906</v>
       </c>
       <c r="AR14" t="n">
-        <v>15937867082.986</v>
+        <v>12286173028.8905</v>
       </c>
       <c r="AS14" t="n">
-        <v>16508128944.4276</v>
+        <v>13898147274.5483</v>
       </c>
       <c r="AT14" t="n">
-        <v>17123000218.7331</v>
+        <v>14566480231.6829</v>
       </c>
       <c r="AU14" t="n">
-        <v>19002156779.4902</v>
+        <v>18720055436.1543</v>
       </c>
       <c r="AV14" t="n">
-        <v>18938722248.4085</v>
+        <v>19436284053.7692</v>
       </c>
       <c r="AW14" t="n">
-        <v>8509005186.74433</v>
+        <v>12668956402.1904</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5299,84 +5330,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>153055816.509423</v>
+        <v>291823144.062999</v>
       </c>
       <c r="AA15" t="n">
-        <v>199033328.94963</v>
+        <v>327637168.02593</v>
       </c>
       <c r="AB15" t="n">
-        <v>221123569.636348</v>
+        <v>431196778.216446</v>
       </c>
       <c r="AC15" t="n">
-        <v>186356105.609994</v>
+        <v>509300872.373675</v>
       </c>
       <c r="AD15" t="n">
-        <v>230276290.449825</v>
+        <v>652008581.991311</v>
       </c>
       <c r="AE15" t="n">
-        <v>563116341.443671</v>
+        <v>904953765.234168</v>
       </c>
       <c r="AF15" t="n">
-        <v>561779205.356394</v>
+        <v>911673337.231892</v>
       </c>
       <c r="AG15" t="n">
-        <v>372426481.192361</v>
+        <v>951435228.310437</v>
       </c>
       <c r="AH15" t="n">
-        <v>597937654.279696</v>
+        <v>1055808389.61283</v>
       </c>
       <c r="AI15" t="n">
-        <v>350697134.315382</v>
+        <v>1212445147.10798</v>
       </c>
       <c r="AJ15" t="n">
-        <v>448408573.396946</v>
+        <v>1138770171.9812</v>
       </c>
       <c r="AK15" t="n">
-        <v>308535053.306432</v>
+        <v>1027409387.68126</v>
       </c>
       <c r="AL15" t="n">
-        <v>207871218.242891</v>
+        <v>751201368.45562</v>
       </c>
       <c r="AM15" t="n">
-        <v>45828143.3952382</v>
+        <v>569455317.201822</v>
       </c>
       <c r="AN15" t="n">
-        <v>25935740.5237827</v>
+        <v>586110704.950923</v>
       </c>
       <c r="AO15" t="n">
-        <v>24686083.9456361</v>
+        <v>675914327.906876</v>
       </c>
       <c r="AP15" t="n">
-        <v>14319354.8531152</v>
+        <v>703712897.951053</v>
       </c>
       <c r="AQ15" t="n">
-        <v>72034363.7662624</v>
+        <v>689702976.698747</v>
       </c>
       <c r="AR15" t="n">
-        <v>84796185.9674084</v>
+        <v>711466979.932501</v>
       </c>
       <c r="AS15" t="n">
-        <v>63983462.067919</v>
+        <v>810638838.250951</v>
       </c>
       <c r="AT15" t="n">
-        <v>58589898.9239223</v>
+        <v>736220581.066286</v>
       </c>
       <c r="AU15" t="n">
-        <v>64032122.8389334</v>
+        <v>760537947.026586</v>
       </c>
       <c r="AV15" t="n">
-        <v>22152557.3492</v>
+        <v>711489580.2949</v>
       </c>
       <c r="AW15" t="n">
-        <v>12106641.6400527</v>
+        <v>539102148.97213</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5389,84 +5420,84 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>1680737681.1338</v>
+        <v>3113791.3272038</v>
       </c>
       <c r="AA16" t="n">
-        <v>1508070841.763</v>
+        <v>5760881.83798954</v>
       </c>
       <c r="AB16" t="n">
-        <v>2212265798.13615</v>
+        <v>682669.806755314</v>
       </c>
       <c r="AC16" t="n">
-        <v>2571910027.13557</v>
+        <v>396234.539395299</v>
       </c>
       <c r="AD16" t="n">
-        <v>3292812023.37485</v>
+        <v>985884.936780269</v>
       </c>
       <c r="AE16" t="n">
-        <v>3686106274.75654</v>
+        <v>545387.484018688</v>
       </c>
       <c r="AF16" t="n">
-        <v>4545693834.66546</v>
+        <v>42986.4792327176</v>
       </c>
       <c r="AG16" t="n">
-        <v>4563929412.06315</v>
+        <v>988657.407470408</v>
       </c>
       <c r="AH16" t="n">
-        <v>5292850766.91643</v>
+        <v>738425.046478028</v>
       </c>
       <c r="AI16" t="n">
-        <v>5017267386.20928</v>
+        <v>2137677.88046331</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5269078511.45892</v>
+        <v>110857823.620179</v>
       </c>
       <c r="AK16" t="n">
-        <v>3749364815.59069</v>
+        <v>383862645.952854</v>
       </c>
       <c r="AL16" t="n">
-        <v>3661080288.77049</v>
+        <v>995128129.169338</v>
       </c>
       <c r="AM16" t="n">
-        <v>3204354408.81468</v>
+        <v>1216818970.56772</v>
       </c>
       <c r="AN16" t="n">
-        <v>1990206968.87315</v>
+        <v>1457993421.01208</v>
       </c>
       <c r="AO16" t="n">
-        <v>1272264675.78625</v>
+        <v>1967499797.48551</v>
       </c>
       <c r="AP16" t="n">
-        <v>1464469777.21432</v>
+        <v>2185901917.13008</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1617639561.98907</v>
+        <v>2492247588.60868</v>
       </c>
       <c r="AR16" t="n">
-        <v>2573507184.02822</v>
+        <v>2176699669.77941</v>
       </c>
       <c r="AS16" t="n">
-        <v>3157107779.79726</v>
+        <v>2254011579.81509</v>
       </c>
       <c r="AT16" t="n">
-        <v>3323622578.11516</v>
+        <v>2287126439.18201</v>
       </c>
       <c r="AU16" t="n">
-        <v>3087201754.75024</v>
+        <v>1894710893.67768</v>
       </c>
       <c r="AV16" t="n">
-        <v>2286773853.6606</v>
+        <v>1358778972.4948</v>
       </c>
       <c r="AW16" t="n">
-        <v>1236152470.71279</v>
+        <v>809645747.041115</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5479,84 +5510,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>306985437.602792</v>
+        <v>966358369.12749</v>
       </c>
       <c r="AA17" t="n">
-        <v>390054963.846685</v>
+        <v>1445553388.29233</v>
       </c>
       <c r="AB17" t="n">
-        <v>630582156.872543</v>
+        <v>1918873360.30626</v>
       </c>
       <c r="AC17" t="n">
-        <v>882684573.557469</v>
+        <v>2525897429.64801</v>
       </c>
       <c r="AD17" t="n">
-        <v>910495393.834324</v>
+        <v>3235146390.13905</v>
       </c>
       <c r="AE17" t="n">
-        <v>692276094.474947</v>
+        <v>4258759346.45061</v>
       </c>
       <c r="AF17" t="n">
-        <v>775234902.25811</v>
+        <v>4743854760.52304</v>
       </c>
       <c r="AG17" t="n">
-        <v>637601733.961115</v>
+        <v>4041161744.37482</v>
       </c>
       <c r="AH17" t="n">
-        <v>446929442.280291</v>
+        <v>3679053226.00621</v>
       </c>
       <c r="AI17" t="n">
-        <v>637750128.16693</v>
+        <v>3440011507.91993</v>
       </c>
       <c r="AJ17" t="n">
-        <v>881139384.122263</v>
+        <v>2941704188.2077</v>
       </c>
       <c r="AK17" t="n">
-        <v>717990054.969997</v>
+        <v>2660544842.14233</v>
       </c>
       <c r="AL17" t="n">
-        <v>696209198.0899</v>
+        <v>2174363140.43471</v>
       </c>
       <c r="AM17" t="n">
-        <v>685049673.063497</v>
+        <v>2009249506.45216</v>
       </c>
       <c r="AN17" t="n">
-        <v>882575551.61386</v>
+        <v>1956248628.83558</v>
       </c>
       <c r="AO17" t="n">
-        <v>1499125156.07248</v>
+        <v>1841809327.5094</v>
       </c>
       <c r="AP17" t="n">
-        <v>1875152642.30797</v>
+        <v>1831928352.95501</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1771010523.05009</v>
+        <v>1856927017.93919</v>
       </c>
       <c r="AR17" t="n">
-        <v>1557359311.18204</v>
+        <v>1952664005.45288</v>
       </c>
       <c r="AS17" t="n">
-        <v>1565273284.77133</v>
+        <v>2266131829.38709</v>
       </c>
       <c r="AT17" t="n">
-        <v>1481162674.7662</v>
+        <v>2489499881.69665</v>
       </c>
       <c r="AU17" t="n">
-        <v>4297768339.95483</v>
+        <v>2549043341.71541</v>
       </c>
       <c r="AV17" t="n">
-        <v>4341233380.0041</v>
+        <v>2410117179.4506</v>
       </c>
       <c r="AW17" t="n">
-        <v>4827567351.83504</v>
+        <v>1179979457.05931</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5569,84 +5600,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>11979024193.3123</v>
+        <v>1707831728.56343</v>
       </c>
       <c r="AA18" t="n">
-        <v>11102485385.7618</v>
+        <v>1902581195.03589</v>
       </c>
       <c r="AB18" t="n">
-        <v>13466077939.2128</v>
+        <v>3128732001.51221</v>
       </c>
       <c r="AC18" t="n">
-        <v>14812450953.4236</v>
+        <v>3090506828.37947</v>
       </c>
       <c r="AD18" t="n">
-        <v>14593840798.7575</v>
+        <v>3688629614.64453</v>
       </c>
       <c r="AE18" t="n">
-        <v>16191909446.431</v>
+        <v>4764558740.36885</v>
       </c>
       <c r="AF18" t="n">
-        <v>17145123193.6964</v>
+        <v>6025686014.19729</v>
       </c>
       <c r="AG18" t="n">
-        <v>16678601671.7844</v>
+        <v>7560153454.00583</v>
       </c>
       <c r="AH18" t="n">
-        <v>17092540457.9035</v>
+        <v>9169662733.64855</v>
       </c>
       <c r="AI18" t="n">
-        <v>21046283397.0912</v>
+        <v>10887142071.6449</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25779270848.5592</v>
+        <v>12423459230.6142</v>
       </c>
       <c r="AK18" t="n">
-        <v>26036551069.3715</v>
+        <v>12998969896.5514</v>
       </c>
       <c r="AL18" t="n">
-        <v>25507232138.3141</v>
+        <v>13746955874.9559</v>
       </c>
       <c r="AM18" t="n">
-        <v>22425186694.3594</v>
+        <v>12430906091.5852</v>
       </c>
       <c r="AN18" t="n">
-        <v>21650333090.8896</v>
+        <v>11912898634.1889</v>
       </c>
       <c r="AO18" t="n">
-        <v>20550429355.694</v>
+        <v>11558463481.5316</v>
       </c>
       <c r="AP18" t="n">
-        <v>19380670752.7314</v>
+        <v>12800461633.0566</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20068961110.5613</v>
+        <v>13920884965.7048</v>
       </c>
       <c r="AR18" t="n">
-        <v>23007418834.4713</v>
+        <v>15257264812.9929</v>
       </c>
       <c r="AS18" t="n">
-        <v>24979759469.1756</v>
+        <v>16226754100.477</v>
       </c>
       <c r="AT18" t="n">
-        <v>25569200354.0594</v>
+        <v>16888644074.5102</v>
       </c>
       <c r="AU18" t="n">
-        <v>28175394401.0272</v>
+        <v>18585746962.6978</v>
       </c>
       <c r="AV18" t="n">
-        <v>28655235993.9868</v>
+        <v>18538313854.4563</v>
       </c>
       <c r="AW18" t="n">
-        <v>14960255720.2154</v>
+        <v>8080895205.77956</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5659,84 +5690,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>310723052.607831</v>
+        <v>6667404302.77363</v>
       </c>
       <c r="AA19" t="n">
-        <v>337559078.569606</v>
+        <v>7251871309.20576</v>
       </c>
       <c r="AB19" t="n">
-        <v>253002562.003842</v>
+        <v>8395231771.12258</v>
       </c>
       <c r="AC19" t="n">
-        <v>385039083.52754</v>
+        <v>10068828904.1224</v>
       </c>
       <c r="AD19" t="n">
-        <v>651708533.259852</v>
+        <v>10754890909.6037</v>
       </c>
       <c r="AE19" t="n">
-        <v>806116474.959644</v>
+        <v>13566283563.0776</v>
       </c>
       <c r="AF19" t="n">
-        <v>1007299020.53081</v>
+        <v>15371547994.0391</v>
       </c>
       <c r="AG19" t="n">
-        <v>1031402416.15239</v>
+        <v>16316554340.3281</v>
       </c>
       <c r="AH19" t="n">
-        <v>594284076.287607</v>
+        <v>19085018036.2278</v>
       </c>
       <c r="AI19" t="n">
-        <v>499050274.069167</v>
+        <v>20869358464.8696</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1539024608.43184</v>
+        <v>21125471139.0325</v>
       </c>
       <c r="AK19" t="n">
-        <v>1012670241.59392</v>
+        <v>19669109150.9844</v>
       </c>
       <c r="AL19" t="n">
-        <v>595107928.3838</v>
+        <v>18697101934.7975</v>
       </c>
       <c r="AM19" t="n">
-        <v>509631381.967085</v>
+        <v>13177752739.9234</v>
       </c>
       <c r="AN19" t="n">
-        <v>425825725.825641</v>
+        <v>12686066328.6031</v>
       </c>
       <c r="AO19" t="n">
-        <v>106013423.452163</v>
+        <v>11349148618.4982</v>
       </c>
       <c r="AP19" t="n">
-        <v>747436495.044101</v>
+        <v>11054490505.4064</v>
       </c>
       <c r="AQ19" t="n">
-        <v>841752512.619875</v>
+        <v>10514227935.4919</v>
       </c>
       <c r="AR19" t="n">
-        <v>976676395.360725</v>
+        <v>11753356496.9474</v>
       </c>
       <c r="AS19" t="n">
-        <v>1381281134.05128</v>
+        <v>12199850451.8126</v>
       </c>
       <c r="AT19" t="n">
-        <v>1347899543.9265</v>
+        <v>11935406288.3519</v>
       </c>
       <c r="AU19" t="n">
-        <v>1139547586.17831</v>
+        <v>13256006402.9679</v>
       </c>
       <c r="AV19" t="n">
-        <v>736277731.9829</v>
+        <v>12525412124.9263</v>
       </c>
       <c r="AW19" t="n">
-        <v>452959843.1833</v>
+        <v>6719468253.2884</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O20" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -5749,66 +5780,70 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20" t="n">
-        <v>2650414.49050045</v>
+        <v>293871826.752634</v>
       </c>
       <c r="AA20" t="n">
-        <v>309757714.528909</v>
+        <v>44862754.1885141</v>
       </c>
       <c r="AB20" t="n">
-        <v>16890257.0617678</v>
+        <v>51287564.9877186</v>
       </c>
       <c r="AC20" t="n">
-        <v>92852419.2195317</v>
+        <v>47938680.1114557</v>
       </c>
       <c r="AD20" t="n">
-        <v>248600027.785965</v>
+        <v>57178082.1408398</v>
       </c>
       <c r="AE20" t="n">
-        <v>567866390.85196</v>
+        <v>34822582.8416819</v>
       </c>
       <c r="AF20" t="n">
-        <v>2743108974.85004</v>
+        <v>14957893.4582846</v>
       </c>
       <c r="AG20" t="n">
-        <v>6523194165.54852</v>
+        <v>20376121.9811868</v>
       </c>
       <c r="AH20" t="n">
-        <v>8070546270.88831</v>
+        <v>6441204.58431429</v>
       </c>
       <c r="AI20" t="n">
-        <v>9131672230.2732</v>
+        <v>2423056.76810521</v>
       </c>
       <c r="AJ20" t="n">
-        <v>553742058.578887</v>
+        <v>134676175.169739</v>
       </c>
       <c r="AK20" t="n">
-        <v>135323082.038108</v>
+        <v>90760138.1278208</v>
       </c>
       <c r="AL20" t="n">
-        <v>10226572.649226</v>
+        <v>134383958.933215</v>
       </c>
       <c r="AM20" t="n">
-        <v>-40273892.5797363</v>
+        <v>97522718.8670603</v>
       </c>
       <c r="AN20" t="n">
-        <v>-18465728.3158519</v>
+        <v>90284000.8320115</v>
       </c>
       <c r="AO20" t="n">
-        <v>-34382.2365970203</v>
-      </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
+        <v>110899863.631328</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2780371.37975161</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41429473.1201462</v>
+      </c>
       <c r="AR20"/>
       <c r="AS20"/>
-      <c r="AT20"/>
+      <c r="AT20" t="n">
+        <v>97772.0343696636</v>
+      </c>
       <c r="AU20"/>
       <c r="AV20"/>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>15450802838.8303</v>
@@ -5841,74 +5876,68 @@
         <v>18614354149.9422</v>
       </c>
       <c r="Z21" t="n">
-        <v>1546754885.88171</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1601955733.78488</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1953366451.69235</v>
+        <v>179775.026093825</v>
       </c>
       <c r="AC21" t="n">
-        <v>2142463893.85081</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2003611745.76137</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1877257228.37457</v>
+        <v>312630.644886058</v>
       </c>
       <c r="AF21" t="n">
-        <v>1088669735.69933</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>131238361.96132</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>576056270.246718</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>289811294.972342</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>216392175.260044</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>227394189.098394</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>308996727.036862</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>133270085.714972</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>193694853.588238</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>419981726.359942</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>122020143.555109</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>285866761.777262</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AR21"/>
       <c r="AS21" t="n">
         <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -229,14 +230,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,8 +269,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2670,88 +2683,89 @@
       <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>2526871722.5859</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2628650269.6456</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>3761977137.1761</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>4595945628.2328</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>5794732197.7678</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>8534494057.8153</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>8789690100.7834</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>8295843482.2792</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>9284666022.7292</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>10501611274.7887</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>13559324540.7012</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>14762254308.6643</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>15515425637.4548</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>12141188720.0403</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>12741597981.1852</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>13242842770.8344</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>13525835430.0727</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>13561593160.8861</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>13957182419.5419</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>14739728564.973</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>15492691525.9092</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>17770856848.6998</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>8921178070.9692</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -2763,88 +2777,89 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>94728582</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>126171926</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>142387916</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>122293882</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>154809741.5601</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>390063038.6563</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>401806186.3927</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>273678603.766</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>448560074.8284</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>265758973.2957</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>342760337.4267</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>240595110.3673</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>165068862.2906</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>37057729.2465</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>21377986.7054</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>20581211.4037</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>12037218.327</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>61635056.7136</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>74258106.801</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>57129361.3409</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>53011459.3802</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>59882975.4903</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>12693082.6274</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -2856,88 +2871,89 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>1040234215.7181</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>956001709.13</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>1424542472.5764</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>1687784043.0481</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>2213685904.6534</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>2553315733.3979</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>3251255807.9771</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>3353815832.8083</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>3970583754.1267</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>3802095023.9926</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>4027646293.2761</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>2923748313.0268</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>2907234407.5828</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>2591117363.5723</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>1640462823.2053</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>1060708871.9086</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>1231070996.0363</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>1384107541.6294</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>2253683572.4918</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>2818908907.3165</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>3007175068.2425</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>2887157551.8173</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>1296031213.0585</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -2949,88 +2965,89 @@
       <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>189997975</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>247265050</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>406050243</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>579250799.0469</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>612106250</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>479530244.6875</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>554477945.5431</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>468543353.1756</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>335276935.0406</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>483288292.6509</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>673536704.1128</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>559887425.0005</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>552854123.8964</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>553947496.5383</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>727478299.3611</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>1249846343.6193</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>1576301585.0537</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>1515336963.1023</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>1363817873.8574</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>1397596506.8604</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>1340138768.1312</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>4019281959.6482</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>5061412826.7791</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3042,88 +3059,89 @@
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>7414000992.9404</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>7038127593.5094</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>8671200350.1544</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>9720487145.2928</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>9811121752.9673</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>11215915674.0691</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>12262854338.515</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>12256315404.0209</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>12822459284.7238</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>15948914661.7072</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>19705492042.0632</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>20303258287.7956</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>20255087860.8599</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>18133540555.0846</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>17845664848.4782</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>17133245270.403</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>16291890770.7339</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>17171687116.5288</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>20148162862.9166</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>22303852570.6603</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>23134715212.8296</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>26349687899.4673</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>15684924657.8426</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3135,88 +3153,89 @@
       <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>192311242</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>213986669</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>162915729</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>252677121</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>438129472.25</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>558385929.5</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>720459166.4083</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>757928846.1705</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>445819238.5459</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>378181272.3348</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1176419509.774</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>789678533.8682</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>472570418.8814</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>412100084.5611</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>350994285.1707</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>88385208.6262</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>628314359.7392</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>720232138.4067</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>855299554.4468</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>1233314148.2219</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>1219563836.6646</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>1065707291.0857</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>474901040.8798</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3228,72 +3247,73 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="n">
         <v>1640382</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="1" t="n">
         <v>196362728</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="1" t="n">
         <v>10876129.1602</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="1" t="n">
         <v>60933248</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="1" t="n">
         <v>167128391.6299</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>393353333.3425</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>1961977491.3969</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>4793586819.0848</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>6054351675.739</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>6919999050.2569</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>423276507.4227</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>105524709.4594</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>8120839.0782</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-32566429.6293</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-15220698.7913</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>-28665.0601</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3303,108 +3323,109 @@
         <v>56</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>957310217.8193</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>1015517558.6172</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>1257829632.084</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>1405965346.6476</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>1346984598.1199</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>1300350575.8011</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>778658644.8407</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>96440864.1059</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>432145127.2349</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>219619565.3315</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>165408646.063</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>177321602.3162</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>245371815.3703</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>107765368.3347</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>159656363.0453</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>350145965.433</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>102573273.959</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>244597344.2876</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3529,88 +3550,89 @@
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>4082742574.09403</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>4146635708.89696</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>5842221986.46905</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>7003478136.97451</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>8619544359.44908</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>12320862511.0065</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>12289171464.675</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>11289124374.7702</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>12376606242.8203</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>13857989192.5783</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>17738684175.5641</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>18930862364.9647</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>19538575501.5189</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>15014631197.4365</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>15458087033.7476</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>15884095542.6417</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>16090198910.2926</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>15849758028.7903</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>15937867082.986</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>16508128944.4276</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>17123000218.7331</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>19002156779.4902</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>8509005186.74433</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3622,88 +3644,89 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>153055816.509423</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>199033328.94963</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>221123569.636348</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>186356105.609994</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>230276290.449825</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>563116341.443671</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>561779205.356394</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>372426481.192361</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>597937654.279696</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>350697134.315382</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>448408573.396946</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>308535053.306432</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>207871218.242891</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>45828143.3952382</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>25935740.5237827</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>24686083.9456361</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>14319354.8531152</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>72034363.7662624</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>84796185.9674084</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>63983462.067919</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>58589898.9239223</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>64032122.8389334</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>12106641.6400527</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -3715,88 +3738,89 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>1680737681.1338</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>1508070841.763</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>2212265798.13615</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>2571910027.13557</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>3292812023.37485</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>3686106274.75654</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>4545693834.66546</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>4563929412.06315</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>5292850766.91643</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>5017267386.20928</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>5269078511.45892</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>3749364815.59069</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>3661080288.77049</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>3204354408.81468</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>1990206968.87315</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>1272264675.78625</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>1464469777.21432</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>1617639561.98907</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>2573507184.02822</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>3157107779.79726</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>3323622578.11516</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>3087201754.75024</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>1236152470.71279</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -3808,88 +3832,89 @@
       <c r="O17" t="s">
         <v>51</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>306985437.602792</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>390054963.846685</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>630582156.872543</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>882684573.557469</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>910495393.834324</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>692276094.474947</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>775234902.25811</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>637601733.961115</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>446929442.280291</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>637750128.16693</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>881139384.122263</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>717990054.969997</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>696209198.0899</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>685049673.063497</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>882575551.61386</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>1499125156.07248</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>1875152642.30797</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>1771010523.05009</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>1557359311.18204</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>1565273284.77133</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>1481162674.7662</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>4297768339.95483</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>4827567351.83504</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -3901,88 +3926,89 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>11979024193.3123</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>11102485385.7618</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>13466077939.2128</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>14812450953.4236</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>14593840798.7575</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>16191909446.431</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>17145123193.6964</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>16678601671.7844</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>17092540457.9035</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>21046283397.0912</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>25779270848.5592</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>26036551069.3715</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>25507232138.3141</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>22425186694.3594</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>21650333090.8896</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>20550429355.694</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>19380670752.7314</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>20068961110.5613</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>23007418834.4713</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>24979759469.1756</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>25569200354.0594</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>28175394401.0272</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>14960255720.2154</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -3994,88 +4020,89 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>310723052.607831</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>337559078.569606</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>253002562.003842</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>385039083.52754</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>651708533.259852</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>806116474.959644</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>1007299020.53081</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>1031402416.15239</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>594284076.287607</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>499050274.069167</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>1539024608.43184</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>1012670241.59392</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>595107928.3838</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>509631381.967085</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>425825725.825641</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>106013423.452163</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>747436495.044101</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>841752512.619875</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>976676395.360725</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>1381281134.05128</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>1347899543.9265</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>1139547586.17831</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>452959843.1833</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4087,72 +4114,73 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="n">
         <v>2650414.49050045</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="1" t="n">
         <v>309757714.528909</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="1" t="n">
         <v>16890257.0617678</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="1" t="n">
         <v>92852419.2195317</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="1" t="n">
         <v>248600027.785965</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>567866390.85196</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>2743108974.85004</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>6523194165.54852</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>8070546270.88831</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>9131672230.2732</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>553742058.578887</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>135323082.038108</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>10226572.649226</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-40273892.5797363</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-18465728.3158519</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>-34382.2365970203</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4162,108 +4190,109 @@
         <v>56</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>1546754885.88171</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>1601955733.78488</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>1953366451.69235</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>2142463893.85081</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>2003611745.76137</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>1877257228.37457</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>1088669735.69933</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>131238361.96132</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>576056270.246718</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>289811294.972342</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>216392175.260044</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>227394189.098394</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>308996727.036862</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>133270085.714972</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>193694853.588238</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>419981726.359942</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>122020143.555109</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>285866761.777262</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4399,88 +4428,89 @@
       <c r="O2" t="s">
         <v>61</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>6271017175.4697</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>5462701070.0159</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>6870303597.4269</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>7766156006.8904</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>8176281494.9251</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>9126333804.2327</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>9361270101.9756</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>9065766799.9883</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>9040425044.3047</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>10925233114.2902</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>11122529684.8693</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>11141785269.072</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>11138064932.0544</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>10088368654.9534</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>9824107038.4001</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>10215391236.3396</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>9343548754.2237</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>9404790061.3202</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>10759304071.8315</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>12409335974.5661</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>13179581963.7275</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>17507035081.1277</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>19436284053.7692</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>13282635696.7505</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4489,88 +4519,89 @@
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>180613800</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>207696935.6699</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>277660182.21</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>334222378.09</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>438331188.4861</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>626849177.5709</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>652063984.1709</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>699164742.5933</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>792044934.5504</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>918793300.3838</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>870467853.5533</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>801172094.9453</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>596522964.0268</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>460475144.7347</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>483111976.1876</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>563521363.0512</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>591559178.4025</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>590133373.3203</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>623049142.8178</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>723800769.9278</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>666123822.4483</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>711256682.1468</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>711489580.2949</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>565216046.2794</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4579,88 +4610,89 @@
       <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>1927173</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>3651959</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>439591</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>260024</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>662789</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>377782.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>30745.5903</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>726517.5613</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>553950.72</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>1619936.4727</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>84738935.1693</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>299335439.1314</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>790223242.5627</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>983948827.3485</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>1201776519.2544</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>1640338311.9802</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>1837525425.3985</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>2132451977.5959</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>1906189467.228</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>2012555086.0805</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>2069365412.0399</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>1771937599.0814</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>1358778972.4948</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>848864670.4563</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4669,88 +4701,89 @@
       <c r="O5" t="s">
         <v>65</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>598093950.9453</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>916370419.4629</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>1235618524.4805</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>1657588846.8712</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>2174918553.6565</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>2949984735.5231</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>3392988156.1162</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>2969658602.8259</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>2759947259.6236</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>2606847439.0442</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>2248617845.3752</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>2074688347.6369</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>1726644279.2421</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>1624727049.4162</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>1612472068.8563</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>1535548012.3237</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>1539966134.6575</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>1588850044.3354</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>1709995922.6836</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>2023376978.097</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>2252470550.0335</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>2383870675.9671</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>2410117179.4506</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>1237137200.5873</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -4759,88 +4792,89 @@
       <c r="O6" t="s">
         <v>66</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>1057003135.3984</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>1206091135.6701</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>2014681791.5</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>2028106759.1153</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>2479785462.2314</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>3300345103.3939</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>4309803379.4762</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>5555599147.8499</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>6878885403.0467</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>8250297524.481</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>9496404240.5198</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>10136574640.0809</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>10916347079.7894</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>10051927006.0261</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>9819414579.3114</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>9636489162.8508</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>10760397583.8317</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>11911183628.2584</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>13361162262.7677</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>14488495439.8378</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>15280648811.2408</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>17381429515.2406</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>18538313854.4563</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>8472330609.9175</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -4849,88 +4883,89 @@
       <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>4126558334.2503</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>4597132425.0834</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>5405934601.1509</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>6607544034.3013</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>7230279239.6493</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>9397180299.0491</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>10994324851.378</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>11990263946.4206</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>14317173466.4284</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>15814840602.5353</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>16148160506.9644</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>15337937898.1212</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>14847218246.9347</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>10655845009.9496</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>10456711543.2085</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>9461979773.0459</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>9292689305.6482</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>8996331767.5234</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>10292703522.7269</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>10892965810.8638</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>10799016848.6673</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>12397044972.645</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>12525412124.9263</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>7044956668.1656</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -4939,178 +4974,180 @@
       <c r="O8" t="s">
         <v>68</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>181881761</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>28439559</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>33025559</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>31459164</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>38439581</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>24121130</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>10698463.15</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>14973448.1719</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>4832054.2947</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>1836197.1511</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>102945514.3884</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>70774601.5106</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>106713220.8043</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>78859195.32</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>74418163.1416</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>92459117.5767</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>2337251.7597</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>35448469.2009</v>
       </c>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8" t="n">
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2" t="n">
         <v>88463</v>
       </c>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
         <v>115762.3828</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
         <v>216555</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5229,88 +5266,89 @@
       <c r="O14" t="s">
         <v>61</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>10132270893.025</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>8617286059.51508</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>10669346800.1068</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>11834366244.1246</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>12162049709.2165</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>13175274746.197</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>13088317345.8027</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>12336849071.0257</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>12051029166.4967</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>14417003111.4847</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>14550801606.7466</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>14288034809.4936</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>14026165166.2599</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>12475972347.5743</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>11918591518.3235</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>12252826165.1527</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>11114992398.1197</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>10991602904.9906</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>12286173028.8905</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>13898147274.5483</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>14566480231.6829</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>18720055436.1543</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>19436284053.7692</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>12668956402.1904</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5319,88 +5357,89 @@
       <c r="O15" t="s">
         <v>62</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>291823144.062999</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>327637168.02593</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>431196778.216446</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>509300872.373675</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>652008581.991311</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>904953765.234168</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>911673337.231892</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>951435228.310437</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>1055808389.61283</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>1212445147.10798</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>1138770171.9812</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>1027409387.68126</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>751201368.45562</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>569455317.201822</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>586110704.950923</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>675914327.906876</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>703712897.951053</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>689702976.698747</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>711466979.932501</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>810638838.250951</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>736220581.066286</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>760537947.026586</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>711489580.2949</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>539102148.97213</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5409,88 +5448,89 @@
       <c r="O16" t="s">
         <v>64</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>3113791.3272038</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>5760881.83798954</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>682669.806755314</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>396234.539395299</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>985884.936780269</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="2" t="n">
         <v>545387.484018688</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="2" t="n">
         <v>42986.4792327176</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="2" t="n">
         <v>988657.407470408</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="2" t="n">
         <v>738425.046478028</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="2" t="n">
         <v>2137677.88046331</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>110857823.620179</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>383862645.952854</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>995128129.169338</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>1216818970.56772</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>1457993421.01208</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>1967499797.48551</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>2185901917.13008</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>2492247588.60868</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>2176699669.77941</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>2254011579.81509</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>2287126439.18201</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>1894710893.67768</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>1358778972.4948</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>809645747.041115</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5499,88 +5539,89 @@
       <c r="O17" t="s">
         <v>65</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>966358369.12749</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>1445553388.29233</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>1918873360.30626</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>2525897429.64801</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>3235146390.13905</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>4258759346.45061</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>4743854760.52304</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>4041161744.37482</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>3679053226.00621</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>3440011507.91993</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>2941704188.2077</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>2660544842.14233</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>2174363140.43471</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>2009249506.45216</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>1956248628.83558</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>1841809327.5094</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>1831928352.95501</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>1856927017.93919</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>1952664005.45288</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>2266131829.38709</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>2489499881.69665</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>2549043341.71541</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>2410117179.4506</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>1179979457.05931</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5589,88 +5630,89 @@
       <c r="O18" t="s">
         <v>66</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>1707831728.56343</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>1902581195.03589</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>3128732001.51221</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>3090506828.37947</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>3688629614.64453</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>4764558740.36885</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>6025686014.19729</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>7560153454.00583</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>9169662733.64855</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>10887142071.6449</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>12423459230.6142</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>12998969896.5514</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>13746955874.9559</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>12430906091.5852</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>11912898634.1889</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>11558463481.5316</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>12800461633.0566</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>13920884965.7048</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>15257264812.9929</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>16226754100.477</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>16888644074.5102</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>18585746962.6978</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>18538313854.4563</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>8080895205.77956</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5679,88 +5721,89 @@
       <c r="O19" t="s">
         <v>67</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>6667404302.77363</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>7251871309.20576</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>8395231771.12258</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>10068828904.1224</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>10754890909.6037</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>13566283563.0776</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>15371547994.0391</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>16316554340.3281</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>19085018036.2278</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>20869358464.8696</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>21125471139.0325</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>19669109150.9844</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>18697101934.7975</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>13177752739.9234</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>12686066328.6031</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>11349148618.4982</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>11054490505.4064</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>10514227935.4919</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>11753356496.9474</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>12199850451.8126</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>11935406288.3519</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>13256006402.9679</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>12525412124.9263</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>6719468253.2884</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -5769,178 +5812,1873 @@
       <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>293871826.752634</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>44862754.1885141</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>51287564.9877186</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>47938680.1114557</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>57178082.1408398</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>34822582.8416819</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>14957893.4582846</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>20376121.9811868</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>6441204.58431429</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>2423056.76810521</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>134676175.169739</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>90760138.1278208</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>134383958.933215</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>97522718.8670603</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>90284000.8320115</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>110899863.631328</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>2780371.37975161</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>41429473.1201462</v>
       </c>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20" t="n">
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2" t="n">
         <v>97772.0343696636</v>
       </c>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
         <v>179775.026093825</v>
       </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
         <v>312630.644886058</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>6271017175.4697</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>5462701070.0159</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>6870303597.4269</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>7766156006.8904</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>8176281494.9251</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>9126333804.2327</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>9361270101.9756</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>9065766799.9883</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>9040425044.3047</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>10925233114.2902</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>11122529684.8693</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>11141785269.072</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>11138064932.0544</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>10088368654.9534</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>9824107038.4001</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>10215391236.3396</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>9343548754.2237</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>9404790061.3202</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>10759304071.8315</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>12409335974.5661</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>13179581963.7275</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>17507035081.1277</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>19436284053.7692</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>13282635696.7505</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>180613800</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>207696935.6699</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>277660182.21</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>334222378.09</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>438331188.4861</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>626849177.5709</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>652063984.1709</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>699164742.5933</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>792044934.5504</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>918793300.3838</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>870467853.5533</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>801172094.9453</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>596522964.0268</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>460475144.7347</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>483111976.1876</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>563521363.0512</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>591559178.4025</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>590133373.3203</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>623049142.8178</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>723800769.9278</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>666123822.4483</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>711256682.1468</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>711489580.2949</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>565216046.2794</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>1927173</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>3651959</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>439591</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>260024</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>662789</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>377782.5</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>30745.5903</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>726517.5613</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>553950.72</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1619936.4727</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>84738935.1693</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>299335439.1314</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>790223242.5627</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>983948827.3485</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>1201776519.2544</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>1640338311.9802</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>1837525425.3985</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>2132451977.5959</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>1906189467.228</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>2012555086.0805</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>2069365412.0399</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>1771937599.0814</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>1358778972.4948</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>848864670.4563</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>598093950.9453</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>916370419.4629</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>1235618524.4805</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>1657588846.8712</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>2174918553.6565</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>2949984735.5231</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>3392988156.1162</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>2969658602.8259</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>2759947259.6236</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>2606847439.0442</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>2248617845.3752</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>2074688347.6369</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>1726644279.2421</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>1624727049.4162</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>1612472068.8563</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>1535548012.3237</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>1539966134.6575</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>1588850044.3354</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>1709995922.6836</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>2023376978.097</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>2252470550.0335</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>2383870675.9671</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>2410117179.4506</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>1237137200.5873</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>1057003135.3984</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1206091135.6701</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>2014681791.5</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>2028106759.1153</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>2479785462.2314</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>3300345103.3939</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>4309803379.4762</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>5555599147.8499</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>6878885403.0467</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>8250297524.481</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>9496404240.5198</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>10136574640.0809</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>10916347079.7894</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>10051927006.0261</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>9819414579.3114</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>9636489162.8508</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>10760397583.8317</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>11911183628.2584</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>13361162262.7677</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>14488495439.8378</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>15280648811.2408</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>17381429515.2406</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>18538313854.4563</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>8472330609.9175</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>4126558334.2503</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>4597132425.0834</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>5405934601.1509</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>6607544034.3013</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>7230279239.6493</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>9397180299.0491</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>10994324851.378</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>11990263946.4206</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>14317173466.4284</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>15814840602.5353</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>16148160506.9644</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>15337937898.1212</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>14847218246.9347</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>10655845009.9496</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>10456711543.2085</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>9461979773.0459</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>9292689305.6482</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>8996331767.5234</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>10292703522.7269</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>10892965810.8638</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>10799016848.6673</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>12397044972.645</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>12525412124.9263</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>7044956668.1656</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>181881761</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>28439559</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>33025559</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>31459164</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>38439581</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>24121130</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>10698463.15</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>14973448.1719</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>4832054.2947</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>1836197.1511</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>102945514.3884</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>70774601.5106</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>106713220.8043</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>78859195.32</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>74418163.1416</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>92459117.5767</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>2337251.7597</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>35448469.2009</v>
+      </c>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3" t="n">
+        <v>88463</v>
+      </c>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>7773865381</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>7927436229</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>8786567450</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>8567595442</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>8463162454</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>8878189431</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>9287693638</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>9695769466</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>10804672536</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>11285682035</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>115762.3828</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>216555</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>10132270893.025</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>8617286059.51508</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>10669346800.1068</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>11834366244.1246</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>12162049709.2165</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>13175274746.197</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>13088317345.8027</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>12336849071.0257</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>12051029166.4967</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>14417003111.4847</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>14550801606.7466</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>14288034809.4936</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>14026165166.2599</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>12475972347.5743</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>11918591518.3235</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>12252826165.1527</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>11114992398.1197</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>10991602904.9906</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>12286173028.8905</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>13898147274.5483</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>14566480231.6829</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>18720055436.1543</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>19436284053.7692</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>12668956402.1904</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>291823144.062999</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>327637168.02593</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>431196778.216446</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>509300872.373675</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>652008581.991311</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>904953765.234168</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>911673337.231892</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>951435228.310437</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>1055808389.61283</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>1212445147.10798</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>1138770171.9812</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>1027409387.68126</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>751201368.45562</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>569455317.201822</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>586110704.950923</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>675914327.906876</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>703712897.951053</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>689702976.698747</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>711466979.932501</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>810638838.250951</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>736220581.066286</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>760537947.026586</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>711489580.2949</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>539102148.97213</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>3113791.3272038</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>5760881.83798954</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>682669.806755314</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>396234.539395299</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>985884.936780269</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>545387.484018688</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>42986.4792327176</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>988657.407470408</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>738425.046478028</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>2137677.88046331</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>110857823.620179</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>383862645.952854</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>995128129.169338</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>1216818970.56772</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>1457993421.01208</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>1967499797.48551</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>2185901917.13008</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>2492247588.60868</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>2176699669.77941</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>2254011579.81509</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>2287126439.18201</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>1894710893.67768</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>1358778972.4948</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>809645747.041115</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>966358369.12749</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>1445553388.29233</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>1918873360.30626</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>2525897429.64801</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>3235146390.13905</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>4258759346.45061</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>4743854760.52304</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>4041161744.37482</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>3679053226.00621</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>3440011507.91993</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>2941704188.2077</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>2660544842.14233</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>2174363140.43471</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>2009249506.45216</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>1956248628.83558</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>1841809327.5094</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>1831928352.95501</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>1856927017.93919</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>1952664005.45288</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>2266131829.38709</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>2489499881.69665</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>2549043341.71541</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>2410117179.4506</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>1179979457.05931</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>1707831728.56343</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>1902581195.03589</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>3128732001.51221</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>3090506828.37947</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>3688629614.64453</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>4764558740.36885</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>6025686014.19729</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>7560153454.00583</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>9169662733.64855</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>10887142071.6449</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>12423459230.6142</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>12998969896.5514</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>13746955874.9559</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>12430906091.5852</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>11912898634.1889</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>11558463481.5316</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>12800461633.0566</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>13920884965.7048</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>15257264812.9929</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>16226754100.477</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>16888644074.5102</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>18585746962.6978</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>18538313854.4563</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>8080895205.77956</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>6667404302.77363</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>7251871309.20576</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>8395231771.12258</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>10068828904.1224</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>10754890909.6037</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>13566283563.0776</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>15371547994.0391</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>16316554340.3281</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>19085018036.2278</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>20869358464.8696</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>21125471139.0325</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>19669109150.9844</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>18697101934.7975</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>13177752739.9234</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>12686066328.6031</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>11349148618.4982</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>11054490505.4064</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>10514227935.4919</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>11753356496.9474</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>12199850451.8126</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>11935406288.3519</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>13256006402.9679</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>12525412124.9263</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>6719468253.2884</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>293871826.752634</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>44862754.1885141</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>51287564.9877186</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>47938680.1114557</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>57178082.1408398</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>34822582.8416819</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>14957893.4582846</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>20376121.9811868</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>6441204.58431429</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>2423056.76810521</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>134676175.169739</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>90760138.1278208</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>134383958.933215</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>97522718.8670603</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>90284000.8320115</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>110899863.631328</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>2780371.37975161</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>41429473.1201462</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3" t="n">
+        <v>97772.0343696636</v>
+      </c>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>15450802838.8303</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>15213380754.9149</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>16450972910.3526</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>15672825316.8589</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>15151635589.1872</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>15564950505.6706</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>15982498775.8522</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>16393504944.5084</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>18043129720.7719</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>18614354149.9422</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>179775.026093825</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>312630.644886058</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -225,15 +227,97 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF INT COM CTRL SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Vertical Lift Capability Set Three (FVL CS3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Operational Medicine Information Systems (OMIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other UAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS OF FORCES AGREEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk21A Reentry Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINEERING AND
+TECHNICAL SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER
+ADMINISTRATIVE
+SUPPORT SVCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER DEFENSE
+(APPLIED/EXPLORATORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER MANAGEMENT
+SUPPORT SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER PROFESSIONAL
+SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAM
+MANAGEMENT/SUPPORT
+SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- OTHER RESEARCH
+AND DEVELOPMENT
+(APPLIED
+RESEARCH/EXPLORATORY
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSTEMS ENGINEERING
+SERVICES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -269,11 +353,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7684,4 +7771,3029 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="n">
+        <v>59702802.75</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>91090785.6719</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>271492142.375</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>27528836</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>127260090</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="n">
+        <v>-165012.0156</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>-84608.1719</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="n">
+        <v>909692.2024</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>3439224.2188</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>11462197.2188</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>241489502.7929</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5" t="n">
+        <v>1090125576.75</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>2028271250</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>2640754000</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5" t="n">
+        <v>71524469.625</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>81518233.375</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>51339084.5</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>36562699</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>14247416</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>99829898</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>147096715</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>83464648</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>34861292</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>21857751.1992</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>51816068.6336</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>78242746.8925</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>24381571.0747</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>54854953.0328</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>43969084.2569</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>58133197.2631</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>20894141.6732</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>10898292.8708</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>22142966.7102</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>29001648.7199</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>64432938.0879</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>1329510.0837</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>38839565.6596</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>48521306.3126</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>33754463.92</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>106680564.0307</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>82811444.4219</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5" t="n">
+        <v>1165866</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>343000</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>3656942</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>8512102.3828</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>16198362.7578</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>14506557.2519</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>19891644.9688</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>13993209.91</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>13930868.06</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>15517157.5335</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>31147299.1155</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>37952179.6505</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>136240567.4659</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>93480910.7661</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>137118474.8078</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>109600387.3954</v>
+      </c>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5" t="n">
+        <v>24965901.6479</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>31108610.247</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>26047188.3093</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>27191633.2022</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>23272464.2015</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>10151601.5951</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="n">
+        <v>7542155</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="n">
+        <v>15916250</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>558742</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>16073180</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5" t="n">
+        <v>5136034</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>7102259</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>2208983.5</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>-5000.1</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>200291.7344</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>187760293.1446</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>2443759.6093</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>5794322.2656</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>21242987.1349</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>12049988.625</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>14550511.9219</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>1270294.6919</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>7758040.9219</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="5" t="n">
+        <v>12380532631.0637</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>12372765096.9022</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>15610689621.1511</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>18262324248.2682</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>20454654918.9484</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>25374474115.2697</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>28697156064.658</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>30243994136.7776</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>33711962424.076</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>38486739452.9164</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>40002895873.221</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>39798656614.9895</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>40036606864.1825</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>33907054552.6653</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>33447187727.5291</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>33107866561.19</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>33120114392.9418</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>34554360444.2068</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>38484074088.5924</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>42365857985.5654</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>44022649220.9002</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>50742685456.4253</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>34350609920.2947</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="4" t="n">
+        <v>12380532631.0637</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>12372765096.9022</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>15610689621.1511</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>18262324248.2682</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>20454654918.9484</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>25374474115.2697</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>28697156064.658</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>30243994136.7776</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>33711962424.076</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>38486739452.9164</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>40002895873.221</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>39798656614.9895</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>40036606864.1825</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>33907054552.6653</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>33447187727.5291</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>33107866561.19</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>33120114392.9418</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>34554360444.2068</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>38484074088.5924</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>42365857985.5654</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>44022649220.9002</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>50742685456.4253</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AK12" s="4" t="n">
+        <v>34350609920.2947</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5" t="n">
+        <v>63839466.3627871</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
+        <v>91090785.6719</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <v>258948765.426698</v>
+      </c>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="n">
+        <v>43426109.4753234</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>197630572.618556</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5" t="n">
+        <v>29749.5865737141</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5" t="n">
+        <v>-217750.844988915</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>-110686.755487034</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5" t="n">
+        <v>1005419.86230252</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>3677519.79332604</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>11462197.2188</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>230332296.414509</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5" t="n">
+        <v>1165657756.12847</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>2028271250</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>2518746885.68734</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5" t="n">
+        <v>76480228.1035521</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>81518233.375</v>
+      </c>
+      <c r="AK20" s="5" t="n">
+        <v>48967135.5977929</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>59075451.4749652</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>22474973.0412312</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>155032421.446441</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>224151613.368714</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>124151938.576029</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>50327668.2575843</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>30560082.2371694</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>70512184.1637769</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>104298815.625085</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>32174067.3512094</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>71762769.9221603</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>56385201.4046643</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>73207135.2994539</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>25839136.401221</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>13221792.1146832</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>26559327.5483849</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>34500072.0319362</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>75304314.5935601</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>1518182.8511342</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>43499346.3568854</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>53627243.3498355</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>36093229.5429757</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>106680564.0307</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>78985421.4883062</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="n">
+        <v>1630037.80731221</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>466760.211763583</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>4874761.36201692</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>11232621.3321332</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>21191147.1149856</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>18602960.8339708</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>25049548.5044304</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>17304968.3117245</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>16900907.660493</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>18612016.8514851</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>37052516.3401372</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>44355619.3575047</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>155574670.468008</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>104696292.198793</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>151547564.875983</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>117194334.640798</v>
+      </c>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5" t="n">
+        <v>28508850.1468616</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>34840868.8108265</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>28788155.3938932</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>29075676.0688441</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>23272464.2015</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>9682581.15007938</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="n">
+        <v>11897577.0973338</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="n">
+        <v>24253791.9101715</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>831117.175068508</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>23204121.9494802</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1398134.78333892</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5" t="n">
+        <v>6586362.13160972</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>8943874.75699351</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>2731781.32211855</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>-6066.11361397323</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>240239.433531428</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>223357771.855962</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>2856080.25756506</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>6616603.21755329</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>23791616.5987679</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>13318018.855313</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>15558681.8978857</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>1270294.6919</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>7399606.85890111</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="5" t="n">
+        <v>20003598604.1574</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>19517754096.4876</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>24242867727.0199</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>27828829788.0201</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>30425876367.3351</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>36631978972.0918</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>40122492076.9037</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>41156539673.058</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>44938577604.6357</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>50787332099.8374</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>52332897105.0905</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>51037116346.5634</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>50418099014.4452</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>41931801806.1366</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>40578076603.0845</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>39711149997.8823</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>39399357715.7706</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>40384506848.3455</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>43945406687.3121</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>47448705950.3257</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>48655188866.187</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>54258524091.701</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>32763556074.5919</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="n">
+        <v>11897577.0973338</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="n">
+        <v>24253791.9101715</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>831117.175068508</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>23204121.9494802</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>1398134.78333892</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4" t="n">
+        <v>6586362.13160972</v>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>8943874.75699351</v>
+      </c>
+      <c r="AA26" s="4" t="n">
+        <v>2731781.32211855</v>
+      </c>
+      <c r="AB26" s="4" t="n">
+        <v>-6066.11361397323</v>
+      </c>
+      <c r="AC26" s="4" t="n">
+        <v>240239.433531428</v>
+      </c>
+      <c r="AD26" s="4" t="n">
+        <v>223357771.855962</v>
+      </c>
+      <c r="AE26" s="4" t="n">
+        <v>2856080.25756506</v>
+      </c>
+      <c r="AF26" s="4" t="n">
+        <v>6616603.21755329</v>
+      </c>
+      <c r="AG26" s="4" t="n">
+        <v>23791616.5987679</v>
+      </c>
+      <c r="AH26" s="4" t="n">
+        <v>13318018.855313</v>
+      </c>
+      <c r="AI26" s="4" t="n">
+        <v>15558681.8978857</v>
+      </c>
+      <c r="AJ26" s="4" t="n">
+        <v>1270294.6919</v>
+      </c>
+      <c r="AK26" s="4" t="n">
+        <v>7399606.85890111</v>
+      </c>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="4" t="n">
+        <v>20003598604.1574</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>19517754096.4876</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>24242867727.0199</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>27828829788.0201</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>30425876367.3351</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>36631978972.0918</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>40122492076.9037</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>41156539673.058</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>44938577604.6357</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>50787332099.8374</v>
+      </c>
+      <c r="X27" s="4" t="n">
+        <v>52332897105.0905</v>
+      </c>
+      <c r="Y27" s="4" t="n">
+        <v>51037116346.5634</v>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>50418099014.4452</v>
+      </c>
+      <c r="AA27" s="4" t="n">
+        <v>41931801806.1366</v>
+      </c>
+      <c r="AB27" s="4" t="n">
+        <v>40578076603.0845</v>
+      </c>
+      <c r="AC27" s="4" t="n">
+        <v>39711149997.8823</v>
+      </c>
+      <c r="AD27" s="4" t="n">
+        <v>39399357715.7706</v>
+      </c>
+      <c r="AE27" s="4" t="n">
+        <v>40384506848.3455</v>
+      </c>
+      <c r="AF27" s="4" t="n">
+        <v>43945406687.3121</v>
+      </c>
+      <c r="AG27" s="4" t="n">
+        <v>47448705950.3257</v>
+      </c>
+      <c r="AH27" s="4" t="n">
+        <v>48655188866.187</v>
+      </c>
+      <c r="AI27" s="4" t="n">
+        <v>54258524091.701</v>
+      </c>
+      <c r="AJ27" s="4" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AK27" s="4" t="n">
+        <v>32763556074.5919</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>2253256588.7031</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>2356725457.6617</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>3261422140.6508</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>3458777754.0707</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>3801833913.6511</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>4290075733.6974</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>5031018120.9797</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>5697448972.4383</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>6497537792.0791</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>6936885686.2522</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>8028949088.9648</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>8593677529.5314</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>9270707378.5505</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>8601177221.6034</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>8734352057.864</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>9061990090.0105</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>9998014888.3651</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>10159374957.9971</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>11465986304.5813</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>13479400425.8606</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>14664642751.3353</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>14976763159.3398</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>14827213255.3454</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>10591498929.7813</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>84876704.9297</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>130342361</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>172118252.21</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>222723895.3301</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>338573357.855</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>510641311.6821</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>467425880.5427</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>667911647.5891</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>898466521.1004</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>859729893.9835</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>825540144.268</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>875349305.6998</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>915234334.3643</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>841989750.0914</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>706844558.8452</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>770617687.3089</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>765305328.3321</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>747297344.9113</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>752803679.1747</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>764256834.2896</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>670324625.9001</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>1763464353.9846</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>1689957733.3889</v>
+      </c>
+      <c r="AK3" s="6" t="n">
+        <v>413460627.7253</v>
+      </c>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>847357944.54</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>819650688.8401</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1081145589.5</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>1129871052.7808</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>1249125836.5049</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>1436048511.4066</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>1243701900.6084</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>1312785027.9232</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>1265722127.6901</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>1430104172.0184</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>1504490848.8396</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>1559541009.641</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>1479418097.7856</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>943882871.334</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>904534831.942</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>867396712.4156</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>1090687871.3464</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>1076423766.0198</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>1195708942.1695</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>1328042946.5523</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>1394817257.5643</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>897059712.5896</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>618603719.239</v>
+      </c>
+      <c r="AK4" s="6" t="n">
+        <v>171316326.6353</v>
+      </c>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>6470617305.3753</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>5991035199.6333</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>7724334097.0347</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>8705041600.4374</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>9470816536.5868</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>11258434878.3902</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>11598331210.9098</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>11384077900.3535</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>12284086665.1406</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>15401250929.386</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>14721376550.7756</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>14209921991.2827</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>12496517320.1122</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>11550182902.3393</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>11891306430.0061</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>11882943087.7271</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>11173198237.7071</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>11589097855.5074</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>12871871047.0278</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>14012276651.8061</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>14763585404.3502</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>21950760213.5561</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>25964574249.486</v>
+      </c>
+      <c r="AK5" s="6" t="n">
+        <v>19644500644.9885</v>
+      </c>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>811961408.6797</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>924273852.3243</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1042006743.5529</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>1365283680.879</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>1630825285.5192</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>1363532570.6089</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>1727601183.8567</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>1964980966.4105</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1741661160.8293</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1871245747.8667</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>1771537462.228</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>2037597631.0869</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>1936715858.9678</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>1774525049.2069</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>1103129625.5298</v>
+      </c>
+      <c r="AC6" s="6" t="n">
+        <v>1330082597.9687</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>1057394290.2443</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>1501029337.1616</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>1418107759.0907</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>1261931007.6937</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>1180027288.0243</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>1270464727.2348</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>1175788114.7549</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>721323183.4634</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>758457325.664</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>873328104.6694</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>847788230.5</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>1650330487.049</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>1886382056.4855</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>2876151792.2911</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>4066408259.0511</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>3775762601.7355</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>4582819017.1049</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>5132335855.9209</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>5406691786.2885</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>5061055770.8273</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>7079479685.003</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>4723145232.8716</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>4668112876.2695</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>4409541999.1491</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>4370932630.918</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>4637604272.5382</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>5097859913.174</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>5792188724.8195</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>5672900460.4931</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>5513434683.0236</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>5694495607.4403</v>
+      </c>
+      <c r="AK7" s="6" t="n">
+        <v>3478658272.0795</v>
+      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>551205560.7969</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>715139776.9609</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>862176551.2813</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>1144583815.6743</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>1307675220.8884</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>2266760554.0274</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>2901394582.9122</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>3181502649.8434</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>3894372118.9153</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>3783963177.1069</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>4366454331.9666</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>3561148999.406</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>3674087512.7499</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>3043104443.3618</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>2864454758.2778</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>2802864121.6051</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>2940451064.4736</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>2801956565.0307</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>3242484856.4049</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>3151841691.5132</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>3411255425.3439</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>3762381103.2859</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>3689900275.8295</v>
+      </c>
+      <c r="AK8" s="6" t="n">
+        <v>2037024126.6926</v>
+      </c>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>215746065</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>236488574</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>209499268</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>211897666</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>176537105</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>497575331.5963</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>708207548.6176</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>1109516695.2952</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>1359590225.3041</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>1640230024.9288</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>2082887850.9605</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>2486581245.0213</v>
+      </c>
+      <c r="Z9" s="6" t="n">
+        <v>2601824508.6562</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>2129036474.0579</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>2360767380.9871</v>
+      </c>
+      <c r="AC9" s="6" t="n">
+        <v>1814954229.5613</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>1875929074.2562</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>2086581251.8254</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>2578781108.0538</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>2761397191.0204</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>2503042110.9853</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>2018452223.2164</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>1321800589.4088</v>
+      </c>
+      <c r="AK9" s="6" t="n">
+        <v>598637343.1352</v>
+      </c>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>423616426.375</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>375099488.8125</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>637288736.4214</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>536827261.0469</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>676928996.4575</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>926187903.5697</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>977090994.379</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>1202166743.8225</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>1269606484.8047</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>1463722626.8949</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>1365936516.5481</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>1477394808.0019</v>
+      </c>
+      <c r="Z10" s="6" t="n">
+        <v>667749269.2249</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>337106942.8822</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>238509368.6384</v>
+      </c>
+      <c r="AC10" s="6" t="n">
+        <v>205336451.4218</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>96110248.279</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>59823970.563</v>
+      </c>
+      <c r="AF10" s="6" t="n">
+        <v>28800780.3788</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>-805414.1824</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>-13299452.8392</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>-205650.0222</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>-1937779.5007</v>
+      </c>
+      <c r="AK10" s="6" t="n">
+        <v>-13717.5996</v>
+      </c>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>18</v>
+      </c>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>3640654380.20797</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>3717680534.24775</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>5064877175.61457</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>5270618136.22939</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>5655149357.65228</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>6193388022.60786</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>7034041430.55012</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>7753185098.79741</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>8661320353.7469</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>9153955936.36349</v>
+      </c>
+      <c r="X15" s="6" t="n">
+        <v>10503693729.2353</v>
+      </c>
+      <c r="Y15" s="6" t="n">
+        <v>11020385038.6837</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <v>11674601799.5811</v>
+      </c>
+      <c r="AA15" s="6" t="n">
+        <v>10636808868.0643</v>
+      </c>
+      <c r="AB15" s="6" t="n">
+        <v>10596502455.4397</v>
+      </c>
+      <c r="AC15" s="6" t="n">
+        <v>10869381966.3261</v>
+      </c>
+      <c r="AD15" s="6" t="n">
+        <v>11893538783.1343</v>
+      </c>
+      <c r="AE15" s="6" t="n">
+        <v>11873504307.1801</v>
+      </c>
+      <c r="AF15" s="6" t="n">
+        <v>13093141595.8202</v>
+      </c>
+      <c r="AG15" s="6" t="n">
+        <v>15096592813.2806</v>
+      </c>
+      <c r="AH15" s="6" t="n">
+        <v>16207815189.4283</v>
+      </c>
+      <c r="AI15" s="6" t="n">
+        <v>16014467058.4012</v>
+      </c>
+      <c r="AJ15" s="6" t="n">
+        <v>14827213255.3454</v>
+      </c>
+      <c r="AK15" s="6" t="n">
+        <v>10102154515.0163</v>
+      </c>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>137137842.680307</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>205612094.825154</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>267293766.194629</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>339395209.974652</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>503620871.05302</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>737189732.754438</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>653524382.21957</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>908905487.078869</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>1197670042.92821</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>1134504721.95273</v>
+      </c>
+      <c r="X16" s="6" t="n">
+        <v>1079994497.47387</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>1122532973.68982</v>
+      </c>
+      <c r="Z16" s="6" t="n">
+        <v>1152554597.04506</v>
+      </c>
+      <c r="AA16" s="6" t="n">
+        <v>1041262586.48603</v>
+      </c>
+      <c r="AB16" s="6" t="n">
+        <v>857542729.420166</v>
+      </c>
+      <c r="AC16" s="6" t="n">
+        <v>924315510.188069</v>
+      </c>
+      <c r="AD16" s="6" t="n">
+        <v>910399584.826538</v>
+      </c>
+      <c r="AE16" s="6" t="n">
+        <v>873384266.279496</v>
+      </c>
+      <c r="AF16" s="6" t="n">
+        <v>859635176.901486</v>
+      </c>
+      <c r="AG16" s="6" t="n">
+        <v>855948622.900291</v>
+      </c>
+      <c r="AH16" s="6" t="n">
+        <v>740863438.526123</v>
+      </c>
+      <c r="AI16" s="6" t="n">
+        <v>1885650557.80692</v>
+      </c>
+      <c r="AJ16" s="6" t="n">
+        <v>1689957733.3889</v>
+      </c>
+      <c r="AK16" s="6" t="n">
+        <v>394358076.684701</v>
+      </c>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>1369101693.90392</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>1292980224.26718</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1678982169.01239</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>1721740824.59574</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>1858048860.72828</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>2073158191.72362</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>1738862887.34532</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1786460109.71864</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>1687227558.73994</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>1887174038.48971</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>1968216627.05124</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>1999928709.30992</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>1863031210.18594</v>
+      </c>
+      <c r="AA17" s="6" t="n">
+        <v>1167270646.51133</v>
+      </c>
+      <c r="AB17" s="6" t="n">
+        <v>1097380264.06599</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>1040396876.39625</v>
+      </c>
+      <c r="AD17" s="6" t="n">
+        <v>1297471412.37492</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>1258042180.25504</v>
+      </c>
+      <c r="AF17" s="6" t="n">
+        <v>1365393789.19007</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>1487375029.24723</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>1541595026.68886</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>959214822.578413</v>
+      </c>
+      <c r="AJ17" s="6" t="n">
+        <v>618603719.239</v>
+      </c>
+      <c r="AK17" s="6" t="n">
+        <v>163401234.715561</v>
+      </c>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>10454770820.8513</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>9450721071.16304</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>11995626992.6731</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>13265076104.3835</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>14087643823.9476</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>16253292495.8501</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>16216030294.6584</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>15491646097.6738</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>16374881264.9735</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>20323583052.8217</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>19258912822.6781</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>18222560850.7484</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>15736864258.2147</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>14283752648.9734</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>14426514634.3048</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>14252967176.2718</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>13291525173.3084</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>13544455625.7255</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>14698537547.9243</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>15693400916.6695</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>16317169659.3332</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>23471675595.5133</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>25964574249.486</v>
+      </c>
+      <c r="AK18" s="6" t="n">
+        <v>18736892880.0061</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>1311910447.2567</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>1458020872.95714</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>1618200878.22315</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>2080471611.99354</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>2425818900.90777</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>1968470212.52155</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>2415419306.88754</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>2673979393.56611</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>2321661796.25933</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>2469307106.50557</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>2317574408.17312</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>2612980341.80623</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>2438906280.73281</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>2194500042.69154</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>1338315161.57747</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>1595364336.14312</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>1257865700.39223</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>1754288858.68247</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>1619353555.34893</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>1413331304.0434</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>1304202531.70086</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>1358492172.62105</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>1175788114.7549</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>687996883.436517</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>1225462292.54289</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>1377655120.66148</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>1316586161.87516</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>2514836862.69683</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>2805954315.02581</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>4152170070.48628</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>5685386830.23599</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>5138121724.65038</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>6108970028.42793</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>6772661162.46193</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>7073184047.16262</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>6490211333.28591</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>8915188765.62326</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>5840967091.33949</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>5663347347.11349</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>5289014422.79697</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>5199617858.61985</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>5420078945.07666</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>5821304849.47237</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>6487107134.86296</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>6269864449.5327</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>5895447311.9825</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>5694495607.4403</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>3317938622.5187</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>890599388.179419</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>1128116649.91801</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>1338930732.5495</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>1744160696.71653</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>1945139859.70601</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>3272419541.49229</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>4056540686.56066</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>4329442713.02422</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>5191259455.19624</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>4993340492.36331</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>5712316578.10691</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>4566756550.8148</v>
+      </c>
+      <c r="Z21" s="6" t="n">
+        <v>4626778403.92316</v>
+      </c>
+      <c r="AA21" s="6" t="n">
+        <v>3763312799.58938</v>
+      </c>
+      <c r="AB21" s="6" t="n">
+        <v>3475152098.11791</v>
+      </c>
+      <c r="AC21" s="6" t="n">
+        <v>3361888551.50267</v>
+      </c>
+      <c r="AD21" s="6" t="n">
+        <v>3497931255.92594</v>
+      </c>
+      <c r="AE21" s="6" t="n">
+        <v>3274713600.09558</v>
+      </c>
+      <c r="AF21" s="6" t="n">
+        <v>3702630739.25435</v>
+      </c>
+      <c r="AG21" s="6" t="n">
+        <v>3529984207.41392</v>
+      </c>
+      <c r="AH21" s="6" t="n">
+        <v>3770224644.09329</v>
+      </c>
+      <c r="AI21" s="6" t="n">
+        <v>4023067441.1212</v>
+      </c>
+      <c r="AJ21" s="6" t="n">
+        <v>3689900275.8295</v>
+      </c>
+      <c r="AK21" s="6" t="n">
+        <v>1942910310.91005</v>
+      </c>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>348587400.339953</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>373055319.309074</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>325345206.796635</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>322897786.690647</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>262595294.433518</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>718326969.113367</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>990169607.545454</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>1509849118.51667</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>1812355213.31438</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>2164457373.63889</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>2724891616.12744</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>3188749246.86621</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>3276477603.1256</v>
+      </c>
+      <c r="AA22" s="6" t="n">
+        <v>2632913316.8901</v>
+      </c>
+      <c r="AB22" s="6" t="n">
+        <v>2864079348.25899</v>
+      </c>
+      <c r="AC22" s="6" t="n">
+        <v>2176942435.00083</v>
+      </c>
+      <c r="AD22" s="6" t="n">
+        <v>2231586514.743</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>2438637375.1594</v>
+      </c>
+      <c r="AF22" s="6" t="n">
+        <v>2944739797.8213</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>3092696089.70091</v>
+      </c>
+      <c r="AH22" s="6" t="n">
+        <v>2766439294.43914</v>
+      </c>
+      <c r="AI22" s="6" t="n">
+        <v>2158305923.23266</v>
+      </c>
+      <c r="AJ22" s="6" t="n">
+        <v>1321800589.4088</v>
+      </c>
+      <c r="AK22" s="6" t="n">
+        <v>570979327.751819</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>684449789.669917</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>591710868.752659</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>989687638.145765</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>818037960.018145</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>1006917889.21849</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>1337095525.7494</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>1366104905.72849</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>1635928874.40737</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>1692405468.03643</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>1931537153.07844</v>
+      </c>
+      <c r="X23" s="6" t="n">
+        <v>1786956009.36357</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>1894585825.72867</v>
+      </c>
+      <c r="Z23" s="6" t="n">
+        <v>840896654.574473</v>
+      </c>
+      <c r="AA23" s="6" t="n">
+        <v>416889691.626071</v>
+      </c>
+      <c r="AB23" s="6" t="n">
+        <v>289359198.447543</v>
+      </c>
+      <c r="AC23" s="6" t="n">
+        <v>246290307.089811</v>
+      </c>
+      <c r="AD23" s="6" t="n">
+        <v>114331792.673483</v>
+      </c>
+      <c r="AE23" s="6" t="n">
+        <v>69917704.0998234</v>
+      </c>
+      <c r="AF23" s="6" t="n">
+        <v>32887942.26268</v>
+      </c>
+      <c r="AG23" s="6" t="n">
+        <v>-902043.827884713</v>
+      </c>
+      <c r="AH23" s="6" t="n">
+        <v>-14698965.2181362</v>
+      </c>
+      <c r="AI23" s="6" t="n">
+        <v>-219899.017634366</v>
+      </c>
+      <c r="AJ23" s="6" t="n">
+        <v>-1937779.5007</v>
+      </c>
+      <c r="AK23" s="6" t="n">
+        <v>-13083.8242682226</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -306,18 +308,260 @@
     <t xml:space="preserve">SYSTEMS ENGINEERING
 SERVICES</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1GVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;60 KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH-64E New Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR TRAFFIC CNTL COMM CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/MLQ-34 COUNTERMEASURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Pilot Training (APT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force Integrated Personnel and Pay System Increment 1 (AFIPPS Inc 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOMETRICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSM ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCD/DCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAMS Inc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMHRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMLSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Enterprise Office Solution (DEOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Defense Healthcare Management System Modernization (DHMSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWD AREA AD CMD,CTRL&amp;INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTN-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTGR FAMILY OF TEST EQUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSTARS RECAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-9 Reaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVY EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVY ERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-SYSTEM TRAINING DEVIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QM-107 GD MSL TGT SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOTE SENSING CHEM AGENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ-7B Shadow Tactical Unmanned Aircraft System (RQ-7B Shadow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAC2ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -353,14 +597,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8382,81 +8628,93 @@
       <c r="AM11" s="5"/>
     </row>
     <row r="12">
-      <c r="M12"/>
-      <c r="N12" s="4" t="n">
+      <c r="M12" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>12380532631.0637</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <v>12372765096.9022</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <v>15610689621.1511</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>18262324248.2682</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>20454654918.9484</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>25374474115.2697</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>28697156064.658</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>30243994136.7776</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>33711962424.076</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>38486739452.9164</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>40002895873.221</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>39798656614.9895</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>40036606864.1825</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>33907054552.6653</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>33447187727.5291</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>33107866561.19</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>33120114392.9418</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>34554360444.2068</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>38484074088.5924</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>42365857985.5654</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="5" t="n">
         <v>44022649220.9002</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="5" t="n">
         <v>50742685456.4253</v>
       </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>52636829976.2023</v>
       </c>
-      <c r="AK12" s="4" t="n">
+      <c r="AK12" s="5" t="n">
         <v>34350609920.2947</v>
       </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Sum(A2:A11)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(B2:B11)</f>
+      </c>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -9056,74 +9314,76 @@
       <c r="AM25" s="5"/>
     </row>
     <row r="26">
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="n">
+      <c r="M26" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="n">
         <v>11897577.0973338</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="n">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5" t="n">
         <v>24253791.9101715</v>
       </c>
-      <c r="R26" s="4" t="n">
+      <c r="R26" s="5" t="n">
         <v>831117.175068508</v>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="S26" s="5" t="n">
         <v>23204121.9494802</v>
       </c>
-      <c r="T26" s="4" t="n">
+      <c r="T26" s="5" t="n">
         <v>1398134.78333892</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="n">
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5" t="n">
         <v>6586362.13160972</v>
       </c>
-      <c r="Z26" s="4" t="n">
+      <c r="Z26" s="5" t="n">
         <v>8943874.75699351</v>
       </c>
-      <c r="AA26" s="4" t="n">
+      <c r="AA26" s="5" t="n">
         <v>2731781.32211855</v>
       </c>
-      <c r="AB26" s="4" t="n">
+      <c r="AB26" s="5" t="n">
         <v>-6066.11361397323</v>
       </c>
-      <c r="AC26" s="4" t="n">
+      <c r="AC26" s="5" t="n">
         <v>240239.433531428</v>
       </c>
-      <c r="AD26" s="4" t="n">
+      <c r="AD26" s="5" t="n">
         <v>223357771.855962</v>
       </c>
-      <c r="AE26" s="4" t="n">
+      <c r="AE26" s="5" t="n">
         <v>2856080.25756506</v>
       </c>
-      <c r="AF26" s="4" t="n">
+      <c r="AF26" s="5" t="n">
         <v>6616603.21755329</v>
       </c>
-      <c r="AG26" s="4" t="n">
+      <c r="AG26" s="5" t="n">
         <v>23791616.5987679</v>
       </c>
-      <c r="AH26" s="4" t="n">
+      <c r="AH26" s="5" t="n">
         <v>13318018.855313</v>
       </c>
-      <c r="AI26" s="4" t="n">
+      <c r="AI26" s="5" t="n">
         <v>15558681.8978857</v>
       </c>
-      <c r="AJ26" s="4" t="n">
+      <c r="AJ26" s="5" t="n">
         <v>1270294.6919</v>
       </c>
-      <c r="AK26" s="4" t="n">
+      <c r="AK26" s="5" t="n">
         <v>7399606.85890111</v>
       </c>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
     </row>
     <row r="27">
-      <c r="M27"/>
+      <c r="M27" t="str">
+        <f>Sum(A16:A25)</f>
+      </c>
       <c r="N27" s="4" t="n">
         <v>20003598604.1574</v>
       </c>
@@ -9198,6 +9458,51 @@
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="str">
+        <f>Sum(B16:B25)</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="str">
+        <f>Sum(C16:C25)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="str">
+        <f>Sum(D16:D25)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="str">
+        <f>Sum(E16:E25)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="str">
+        <f>Sum(F16:F25)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="str">
+        <f>Sum(G16:G25)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="str">
+        <f>Sum(H16:H25)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="str">
+        <f>Sum(I16:I25)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="str">
+        <f>Sum(J16:J25)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10796,4 +11101,7944 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="n">
+        <v>541</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="n">
+        <v>39989.0454939485</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2041</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7" t="n">
+        <v>270977.882271663</v>
+      </c>
+      <c r="AH3" s="7" t="n">
+        <v>-71228.1762842372</v>
+      </c>
+      <c r="AI3" s="7" t="n">
+        <v>146816.751427445</v>
+      </c>
+      <c r="AJ3" s="7" t="n">
+        <v>78684.7556423783</v>
+      </c>
+      <c r="AK3" s="7" t="n">
+        <v>75491.6016</v>
+      </c>
+      <c r="AL3" s="7" t="n">
+        <v>-96927.6589969046</v>
+      </c>
+      <c r="AM3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2042</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7" t="n">
+        <v>10615540.7932276</v>
+      </c>
+      <c r="AK4" s="7" t="n">
+        <v>51705694</v>
+      </c>
+      <c r="AL4" s="7" t="n">
+        <v>20921439.6439309</v>
+      </c>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7" t="n">
+        <v>21504970.9952948</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>35222346.224029</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>63652528.6905296</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>-78004.9468725162</v>
+      </c>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7" t="n">
+        <v>1496.19329657744</v>
+      </c>
+      <c r="AJ5" s="7" t="n">
+        <v>-984790.150106764</v>
+      </c>
+      <c r="AK5" s="7" t="n">
+        <v>-463504.8438</v>
+      </c>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2047</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7" t="n">
+        <v>102772.034809861</v>
+      </c>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2048</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7" t="n">
+        <v>1057280.4054033</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7" t="n">
+        <v>-8692.88098308997</v>
+      </c>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2249</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7" t="n">
+        <v>63839466.3627871</v>
+      </c>
+      <c r="AK8" s="7" t="n">
+        <v>91090785.6719</v>
+      </c>
+      <c r="AL8" s="7" t="n">
+        <v>258948765.426698</v>
+      </c>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="n">
+        <v>568</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7" t="n">
+        <v>400149.280079645</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2255</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7" t="n">
+        <v>2455807.47659424</v>
+      </c>
+      <c r="AI10" s="7" t="n">
+        <v>2810461.49980703</v>
+      </c>
+      <c r="AJ10" s="7" t="n">
+        <v>2360829.82431639</v>
+      </c>
+      <c r="AK10" s="7" t="n">
+        <v>23402825</v>
+      </c>
+      <c r="AL10" s="7" t="n">
+        <v>41075057.7623398</v>
+      </c>
+      <c r="AM10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2190</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7" t="n">
+        <v>988925.843535999</v>
+      </c>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1890</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7" t="n">
+        <v>621186.336167313</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>426644.257222009</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1728</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="n">
+        <v>43426109.4753234</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>197630572.618556</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7" t="n">
+        <v>29749.5865737141</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7" t="n">
+        <v>-217750.844988915</v>
+      </c>
+      <c r="Y13" s="7" t="n">
+        <v>-110686.755487034</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2040</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7" t="n">
+        <v>3125214.18568404</v>
+      </c>
+      <c r="AF14" s="7" t="n">
+        <v>1100744.34248635</v>
+      </c>
+      <c r="AG14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7" t="n">
+        <v>383178.4175</v>
+      </c>
+      <c r="AL14" s="7" t="n">
+        <v>400269.805907342</v>
+      </c>
+      <c r="AM14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="n">
+        <v>574319.989672951</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>568062.480698285</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>629345.232633366</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>240741.091951138</v>
+      </c>
+      <c r="T15" s="7" t="n">
+        <v>434189.258451645</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7" t="n">
+        <v>509839.593757168</v>
+      </c>
+      <c r="W15" s="7" t="n">
+        <v>87251.2143177155</v>
+      </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7" t="n">
+        <v>-5374.14160901295</v>
+      </c>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="n">
+        <v>487</v>
+      </c>
+      <c r="O16" s="7" t="n">
+        <v>3397182.29928307</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2038</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7" t="n">
+        <v>1129517.64950508</v>
+      </c>
+      <c r="AJ17" s="7" t="n">
+        <v>555864.478088167</v>
+      </c>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2057</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7" t="n">
+        <v>6618015.17681525</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <v>105773673.812944</v>
+      </c>
+      <c r="S18" s="7" t="n">
+        <v>18654000.7801829</v>
+      </c>
+      <c r="T18" s="7" t="n">
+        <v>714609.079534522</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7" t="n">
+        <v>-444129.511864642</v>
+      </c>
+      <c r="Z18" s="7" t="n">
+        <v>-80.4823502686754</v>
+      </c>
+      <c r="AA18" s="7" t="n">
+        <v>-68625.6027255362</v>
+      </c>
+      <c r="AB18" s="7" t="n">
+        <v>-167163.869627148</v>
+      </c>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1907</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="n">
+        <v>2089195.62731967</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>3144268.21193139</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>47092.1080668607</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7" t="n">
+        <v>-321624.692883313</v>
+      </c>
+      <c r="Y19" s="7" t="n">
+        <v>-120592.533041486</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7" t="n">
+        <v>-181769.610183357</v>
+      </c>
+      <c r="AC19" s="7" t="n">
+        <v>-3870.94019058984</v>
+      </c>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1909</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>-3762813.93089558</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>-1331737.75096257</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>935348.219752251</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>-1143305.4264895</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7" t="n">
+        <v>-292919.52679337</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2058</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7" t="n">
+        <v>354310.851467218</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2059</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="n">
+        <v>3154359.57071976</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>10762053.2740987</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>14538559.0772435</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>3293917.36234216</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>4886237.02800996</v>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>5069159.9604258</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7" t="n">
+        <v>6869952.05172929</v>
+      </c>
+      <c r="X22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7" t="n">
+        <v>-111160.85087254</v>
+      </c>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2232</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7" t="n">
+        <v>125281.229575127</v>
+      </c>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2253</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7" t="n">
+        <v>9983.8725265847</v>
+      </c>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1992</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7" t="n">
+        <v>2355834.83273068</v>
+      </c>
+      <c r="AA25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7" t="n">
+        <v>4698603.95433545</v>
+      </c>
+      <c r="AD25" s="7" t="n">
+        <v>751647.491610176</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7" t="n">
+        <v>-13262.7698861215</v>
+      </c>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7" t="n">
+        <v>19614327.625</v>
+      </c>
+      <c r="AL25" s="7" t="n">
+        <v>13894415.9252953</v>
+      </c>
+      <c r="AM25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2061</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7" t="n">
+        <v>3151689.30462612</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>2797911.43027459</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>3074269.91497811</v>
+      </c>
+      <c r="U26" s="7" t="n">
+        <v>4568271.46212916</v>
+      </c>
+      <c r="V26" s="7" t="n">
+        <v>516006.816147001</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7" t="n">
+        <v>-130192.435235891</v>
+      </c>
+      <c r="AA26" s="7" t="n">
+        <v>-284679.788016893</v>
+      </c>
+      <c r="AB26" s="7" t="n">
+        <v>-47256.2249058304</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>115</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1972</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7" t="n">
+        <v>123097.839324714</v>
+      </c>
+      <c r="T27" s="7" t="n">
+        <v>1075105.53985704</v>
+      </c>
+      <c r="U27" s="7" t="n">
+        <v>40194.9768862105</v>
+      </c>
+      <c r="V27" s="7" t="n">
+        <v>1758729.34403713</v>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>2878295.64271896</v>
+      </c>
+      <c r="X27" s="7" t="n">
+        <v>2912065.60139335</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>2769010.48260237</v>
+      </c>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7" t="n">
+        <v>-46725.1409860648</v>
+      </c>
+      <c r="AB27" s="7" t="n">
+        <v>-29156.6843109111</v>
+      </c>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7" t="n">
+        <v>-326738.850532741</v>
+      </c>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7" t="n">
+        <v>420441.172473697</v>
+      </c>
+      <c r="X28" s="7" t="n">
+        <v>-416211.6483751</v>
+      </c>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7" t="n">
+        <v>1448118.21666177</v>
+      </c>
+      <c r="AA28" s="7" t="n">
+        <v>1462320.09558349</v>
+      </c>
+      <c r="AB28" s="7" t="n">
+        <v>723068.183004681</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7" t="n">
+        <v>-97766.1652835101</v>
+      </c>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2035</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7" t="n">
+        <v>14534.0513560885</v>
+      </c>
+      <c r="AI29" s="7" t="n">
+        <v>10338.3291262317</v>
+      </c>
+      <c r="AJ29" s="7" t="n">
+        <v>14182.1535224617</v>
+      </c>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1344</v>
+      </c>
+      <c r="O30" s="7" t="n">
+        <v>879760.164909164</v>
+      </c>
+      <c r="P30" s="7" t="n">
+        <v>1917317.77245942</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="n">
+        <v>146665.46180841</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>-74247.1615362838</v>
+      </c>
+      <c r="U30" s="7" t="n">
+        <v>-6990.67391669459</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1341</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7" t="n">
+        <v>64322.010029528</v>
+      </c>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1993</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7" t="n">
+        <v>499899.576590335</v>
+      </c>
+      <c r="X32" s="7" t="n">
+        <v>494808.701027457</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7" t="n">
+        <v>-5825.65686090773</v>
+      </c>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="M33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1814</v>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7" t="n">
+        <v>9596799.93514084</v>
+      </c>
+      <c r="Y33" s="7" t="n">
+        <v>12857501.2460509</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <v>2732423.5853907</v>
+      </c>
+      <c r="AA33" s="7" t="n">
+        <v>12630522.8185689</v>
+      </c>
+      <c r="AB33" s="7" t="n">
+        <v>11502220.3667681</v>
+      </c>
+      <c r="AC33" s="7" t="n">
+        <v>8611554.3080101</v>
+      </c>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="M34" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1915</v>
+      </c>
+      <c r="O34" s="7" t="n">
+        <v>5016622.06524651</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7" t="n">
+        <v>1853919.74953046</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>6488044.9579609</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>4493752.4008846</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>10955409.0531872</v>
+      </c>
+      <c r="U34" s="7" t="n">
+        <v>-983800.336565996</v>
+      </c>
+      <c r="V34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7" t="n">
+        <v>-266415.606745468</v>
+      </c>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7" t="n">
+        <v>-193059.913854908</v>
+      </c>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="M35" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2068</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="n">
+        <v>5124776.40261945</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>6495659.57812426</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>8758675.44428219</v>
+      </c>
+      <c r="T35" s="7" t="n">
+        <v>7017136.33872013</v>
+      </c>
+      <c r="U35" s="7" t="n">
+        <v>-1272343.19874713</v>
+      </c>
+      <c r="V35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7" t="n">
+        <v>-2048631.5637669</v>
+      </c>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="M36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2069</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7" t="n">
+        <v>3247806.93148709</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7" t="n">
+        <v>-43309.6411839104</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="M37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7" t="n">
+        <v>955073.991857244</v>
+      </c>
+      <c r="R37" s="7" t="n">
+        <v>1537834.79078718</v>
+      </c>
+      <c r="S37" s="7" t="n">
+        <v>882075.241910623</v>
+      </c>
+      <c r="T37" s="7" t="n">
+        <v>1768477.01500968</v>
+      </c>
+      <c r="U37" s="7" t="n">
+        <v>1109659.03162738</v>
+      </c>
+      <c r="V37" s="7" t="n">
+        <v>884531.013546149</v>
+      </c>
+      <c r="W37" s="7" t="n">
+        <v>-3340.11082541162</v>
+      </c>
+      <c r="X37" s="7" t="n">
+        <v>-26984.411585437</v>
+      </c>
+      <c r="Y37" s="7" t="n">
+        <v>-790.967559423369</v>
+      </c>
+      <c r="Z37" s="7" t="n">
+        <v>-5294.09989058183</v>
+      </c>
+      <c r="AA37" s="7" t="n">
+        <v>-3500.75312940206</v>
+      </c>
+      <c r="AB37" s="7" t="n">
+        <v>-53667.104414912</v>
+      </c>
+      <c r="AC37" s="7" t="n">
+        <v>-30505.3535718291</v>
+      </c>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="M38" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2071</v>
+      </c>
+      <c r="O38" s="7" t="n">
+        <v>6047827.83918064</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="M39" t="s">
+        <v>127</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2256</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7" t="n">
+        <v>534643.797462148</v>
+      </c>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="M40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1994</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7" t="n">
+        <v>534032.669614933</v>
+      </c>
+      <c r="Y40" s="7" t="n">
+        <v>771603.172769849</v>
+      </c>
+      <c r="Z40" s="7" t="n">
+        <v>331539.57846338</v>
+      </c>
+      <c r="AA40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7" t="n">
+        <v>63415.1474725444</v>
+      </c>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7" t="n">
+        <v>-920.369248182222</v>
+      </c>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="M41" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7" t="n">
+        <v>287705.276795732</v>
+      </c>
+      <c r="T41" s="7" t="n">
+        <v>347246.597429651</v>
+      </c>
+      <c r="U41" s="7" t="n">
+        <v>289886.469707924</v>
+      </c>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="M42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1996</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7" t="n">
+        <v>2049869.49269638</v>
+      </c>
+      <c r="AB42" s="7" t="n">
+        <v>2164872.11824582</v>
+      </c>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="M43" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2101</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7" t="n">
+        <v>1030368.01399042</v>
+      </c>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="M44" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1967</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7" t="n">
+        <v>565871.231422957</v>
+      </c>
+      <c r="W44" s="7" t="n">
+        <v>946437.740429973</v>
+      </c>
+      <c r="X44" s="7" t="n">
+        <v>409063.553838585</v>
+      </c>
+      <c r="Y44" s="7" t="n">
+        <v>7320482.80465686</v>
+      </c>
+      <c r="Z44" s="7" t="n">
+        <v>17089838.8064069</v>
+      </c>
+      <c r="AA44" s="7" t="n">
+        <v>33146185.3274333</v>
+      </c>
+      <c r="AB44" s="7" t="n">
+        <v>10660768.782999</v>
+      </c>
+      <c r="AC44" s="7" t="n">
+        <v>-1161965.92501621</v>
+      </c>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="M45" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7" t="n">
+        <v>548398.225908323</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7" t="n">
+        <v>-64332.3738438042</v>
+      </c>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="M46" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1968</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7" t="n">
+        <v>496995.456441846</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>42671.0735875037</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>42570.4364565603</v>
+      </c>
+      <c r="W46" s="7" t="n">
+        <v>42717.8234183627</v>
+      </c>
+      <c r="X46" s="7" t="n">
+        <v>44301.7093939846</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="M47" t="s">
+        <v>135</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1959</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7" t="n">
+        <v>141174.993712487</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>743783.936444987</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>1037152.07707423</v>
+      </c>
+      <c r="W47" s="7" t="n">
+        <v>1164882.49237361</v>
+      </c>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7" t="n">
+        <v>-93753.2321508619</v>
+      </c>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="M48" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1960</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="n">
+        <v>-7212.78726479698</v>
+      </c>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7" t="n">
+        <v>163945.284694321</v>
+      </c>
+      <c r="V48" s="7" t="n">
+        <v>8878.17413682048</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7" t="n">
+        <v>3888333.86920553</v>
+      </c>
+      <c r="Y48" s="7" t="n">
+        <v>4597182.83862643</v>
+      </c>
+      <c r="Z48" s="7" t="n">
+        <v>3383736.53368604</v>
+      </c>
+      <c r="AA48" s="7" t="n">
+        <v>1660793.13703563</v>
+      </c>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7" t="n">
+        <v>-48170.2429427069</v>
+      </c>
+      <c r="AG48" s="7" t="n">
+        <v>-72269.9238431473</v>
+      </c>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="M49" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1950</v>
+      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7" t="n">
+        <v>40139.6296845837</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7" t="n">
+        <v>-20491.1815415045</v>
+      </c>
+      <c r="W49" s="7" t="n">
+        <v>-4296.30983203467</v>
+      </c>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7" t="n">
+        <v>330103.830657102</v>
+      </c>
+      <c r="AA49" s="7" t="n">
+        <v>324161.96179174</v>
+      </c>
+      <c r="AB49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="7" t="n">
+        <v>-52049.1255599138</v>
+      </c>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="M50" t="s">
+        <v>138</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7" t="n">
+        <v>7909036.17661288</v>
+      </c>
+      <c r="T50" s="7" t="n">
+        <v>350682.495630241</v>
+      </c>
+      <c r="U50" s="7" t="n">
+        <v>1114840.51913444</v>
+      </c>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="M51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2251</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7" t="n">
+        <v>167976.052625256</v>
+      </c>
+      <c r="AI51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="M52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2237</v>
+      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7" t="n">
+        <v>12214613.122606</v>
+      </c>
+      <c r="AI52" s="7" t="n">
+        <v>18532234.3537319</v>
+      </c>
+      <c r="AJ52" s="7" t="n">
+        <v>13565368.0138886</v>
+      </c>
+      <c r="AK52" s="7" t="n">
+        <v>-81677.3438</v>
+      </c>
+      <c r="AL52" s="7" t="n">
+        <v>14306.9756915298</v>
+      </c>
+      <c r="AM52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="M53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1933</v>
+      </c>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7" t="n">
+        <v>48378422.0322481</v>
+      </c>
+      <c r="R53" s="7" t="n">
+        <v>57651055.7475043</v>
+      </c>
+      <c r="S53" s="7" t="n">
+        <v>47994241.9675187</v>
+      </c>
+      <c r="T53" s="7" t="n">
+        <v>10394313.8841385</v>
+      </c>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7" t="n">
+        <v>-43249.7067473481</v>
+      </c>
+      <c r="Z53" s="7" t="n">
+        <v>-759182.69409002</v>
+      </c>
+      <c r="AA53" s="7" t="n">
+        <v>-27439.3402871846</v>
+      </c>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7" t="n">
+        <v>-42942.8700599545</v>
+      </c>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="M54" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" t="n">
+        <v>79</v>
+      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7" t="n">
+        <v>753347.899988851</v>
+      </c>
+      <c r="Y54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7" t="n">
+        <v>-34664.8166198969</v>
+      </c>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="M55" t="s">
+        <v>143</v>
+      </c>
+      <c r="N55" t="n">
+        <v>510</v>
+      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7" t="n">
+        <v>2894344.7439771</v>
+      </c>
+      <c r="R55" s="7" t="n">
+        <v>902593.827633087</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="M56" t="s">
+        <v>73</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2246</v>
+      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7" t="n">
+        <v>1005419.86230252</v>
+      </c>
+      <c r="AJ56" s="7" t="n">
+        <v>3677519.79332604</v>
+      </c>
+      <c r="AK56" s="7" t="n">
+        <v>11462197.2188</v>
+      </c>
+      <c r="AL56" s="7" t="n">
+        <v>230332296.414509</v>
+      </c>
+      <c r="AM56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="M57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2187</v>
+      </c>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7" t="n">
+        <v>1165657756.12847</v>
+      </c>
+      <c r="AK57" s="7" t="n">
+        <v>2028271250</v>
+      </c>
+      <c r="AL57" s="7" t="n">
+        <v>2518746885.68734</v>
+      </c>
+      <c r="AM57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="M58" t="s">
+        <v>144</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2092</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7" t="n">
+        <v>732019.955232126</v>
+      </c>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="M59" t="s">
+        <v>145</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1985</v>
+      </c>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7" t="n">
+        <v>4269464.22740937</v>
+      </c>
+      <c r="X59" s="7" t="n">
+        <v>718714.167789958</v>
+      </c>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="M60" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2096</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7" t="n">
+        <v>93177.950425097</v>
+      </c>
+      <c r="R60" s="7" t="n">
+        <v>165927.708694872</v>
+      </c>
+      <c r="S60" s="7" t="n">
+        <v>260634.64049298</v>
+      </c>
+      <c r="T60" s="7" t="n">
+        <v>331030.024115689</v>
+      </c>
+      <c r="U60" s="7" t="n">
+        <v>339141.359990171</v>
+      </c>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7" t="n">
+        <v>-31466.9700956892</v>
+      </c>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="M61" t="s">
+        <v>147</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1973</v>
+      </c>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7" t="n">
+        <v>6829.03979817363</v>
+      </c>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="M62" t="s">
+        <v>148</v>
+      </c>
+      <c r="N62" t="n">
+        <v>492</v>
+      </c>
+      <c r="O62" s="7" t="n">
+        <v>2744382.11873493</v>
+      </c>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7" t="n">
+        <v>2421958.17395356</v>
+      </c>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="M63" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2254</v>
+      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="7" t="n">
+        <v>2097990.91382704</v>
+      </c>
+      <c r="AK63" s="7" t="n">
+        <v>1851573.1523</v>
+      </c>
+      <c r="AL63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="M64" t="s">
+        <v>150</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1954</v>
+      </c>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7" t="n">
+        <v>6261566.5462924</v>
+      </c>
+      <c r="T64" s="7" t="n">
+        <v>4282665.20654275</v>
+      </c>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7" t="n">
+        <v>108934.757177512</v>
+      </c>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7" t="n">
+        <v>-28683.800053495</v>
+      </c>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="M65" t="s">
+        <v>151</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2191</v>
+      </c>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7" t="n">
+        <v>343886.594033125</v>
+      </c>
+      <c r="AH65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="M66" t="s">
+        <v>75</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2241</v>
+      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7" t="n">
+        <v>5128035.58120567</v>
+      </c>
+      <c r="AI66" s="7" t="n">
+        <v>25105692.8196118</v>
+      </c>
+      <c r="AJ66" s="7" t="n">
+        <v>5964895.24880192</v>
+      </c>
+      <c r="AK66" s="7" t="n">
+        <v>8545593</v>
+      </c>
+      <c r="AL66" s="7" t="n">
+        <v>2275165.85554715</v>
+      </c>
+      <c r="AM66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="M67" t="s">
+        <v>152</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2001</v>
+      </c>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7" t="n">
+        <v>1941483.51581248</v>
+      </c>
+      <c r="Y67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7" t="n">
+        <v>147471.146123549</v>
+      </c>
+      <c r="AI67" s="7" t="n">
+        <v>149895.56618684</v>
+      </c>
+      <c r="AJ67" s="7" t="n">
+        <v>149371.440673076</v>
+      </c>
+      <c r="AK67" s="7" t="n">
+        <v>143883.2344</v>
+      </c>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="M68" t="s">
+        <v>153</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2098</v>
+      </c>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7" t="n">
+        <v>4183383.74723406</v>
+      </c>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7" t="n">
+        <v>11419.1149788735</v>
+      </c>
+      <c r="AH68" s="7" t="n">
+        <v>166938.168229992</v>
+      </c>
+      <c r="AI68" s="7" t="n">
+        <v>-162927.360072379</v>
+      </c>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="M69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1805</v>
+      </c>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7" t="n">
+        <v>9878032.18432339</v>
+      </c>
+      <c r="AG69" s="7" t="n">
+        <v>270642.160291284</v>
+      </c>
+      <c r="AH69" s="7" t="n">
+        <v>22483235.7787424</v>
+      </c>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="7" t="n">
+        <v>756762</v>
+      </c>
+      <c r="AL69" s="7" t="n">
+        <v>501693.178591081</v>
+      </c>
+      <c r="AM69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="M70" t="s">
+        <v>155</v>
+      </c>
+      <c r="N70" t="n">
+        <v>662</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7" t="n">
+        <v>1358.09531002932</v>
+      </c>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7" t="n">
+        <v>15599215.5079086</v>
+      </c>
+      <c r="AA70" s="7" t="n">
+        <v>11236454.3332561</v>
+      </c>
+      <c r="AB70" s="7" t="n">
+        <v>1486144.3381216</v>
+      </c>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="7" t="n">
+        <v>-3794296.71618527</v>
+      </c>
+      <c r="AF70" s="7" t="n">
+        <v>-267746.224372582</v>
+      </c>
+      <c r="AG70" s="7" t="n">
+        <v>-0.570955748943673</v>
+      </c>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="M71" t="s">
+        <v>80</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2247</v>
+      </c>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7" t="n">
+        <v>76480228.1035521</v>
+      </c>
+      <c r="AK71" s="7" t="n">
+        <v>81518233.375</v>
+      </c>
+      <c r="AL71" s="7" t="n">
+        <v>48967135.5977929</v>
+      </c>
+      <c r="AM71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="M72" t="s">
+        <v>156</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2194</v>
+      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7" t="n">
+        <v>781515.093862116</v>
+      </c>
+      <c r="AH72" s="7" t="n">
+        <v>781979.283159827</v>
+      </c>
+      <c r="AI72" s="7" t="n">
+        <v>1152343.56724836</v>
+      </c>
+      <c r="AJ72" s="7" t="n">
+        <v>1140648.27363261</v>
+      </c>
+      <c r="AK72" s="7" t="n">
+        <v>746418.1875</v>
+      </c>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="M73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1987</v>
+      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7" t="n">
+        <v>19288499.6947697</v>
+      </c>
+      <c r="V73" s="7" t="n">
+        <v>57877972.3063029</v>
+      </c>
+      <c r="W73" s="7" t="n">
+        <v>5413393.68804848</v>
+      </c>
+      <c r="X73" s="7" t="n">
+        <v>5731658.90534463</v>
+      </c>
+      <c r="Y73" s="7" t="n">
+        <v>5700505.47433317</v>
+      </c>
+      <c r="Z73" s="7" t="n">
+        <v>9215115.98599905</v>
+      </c>
+      <c r="AA73" s="7" t="n">
+        <v>9378810.55654466</v>
+      </c>
+      <c r="AB73" s="7" t="n">
+        <v>3041389.05061393</v>
+      </c>
+      <c r="AC73" s="7" t="n">
+        <v>1232994.21807813</v>
+      </c>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7" t="n">
+        <v>-53191.6615915584</v>
+      </c>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7" t="n">
+        <v>-93188.4365944545</v>
+      </c>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="M74" t="s">
+        <v>158</v>
+      </c>
+      <c r="N74" t="n">
+        <v>664</v>
+      </c>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7" t="n">
+        <v>192023.518139205</v>
+      </c>
+      <c r="W74" s="7" t="n">
+        <v>323922.895029896</v>
+      </c>
+      <c r="X74" s="7" t="n">
+        <v>830595.128197037</v>
+      </c>
+      <c r="Y74" s="7" t="n">
+        <v>1394241.74910297</v>
+      </c>
+      <c r="Z74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="M75" t="s">
+        <v>159</v>
+      </c>
+      <c r="N75" t="n">
+        <v>609</v>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="M76" t="s">
+        <v>160</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1965</v>
+      </c>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7" t="n">
+        <v>1432808.52832319</v>
+      </c>
+      <c r="U76" s="7" t="n">
+        <v>54990.039163503</v>
+      </c>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7" t="n">
+        <v>6710.94865863984</v>
+      </c>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="M77" t="s">
+        <v>77</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2258</v>
+      </c>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7" t="n">
+        <v>1630037.80731221</v>
+      </c>
+      <c r="V77" s="7" t="n">
+        <v>466760.211763583</v>
+      </c>
+      <c r="W77" s="7" t="n">
+        <v>4874761.36201692</v>
+      </c>
+      <c r="X77" s="7" t="n">
+        <v>11232621.3321332</v>
+      </c>
+      <c r="Y77" s="7" t="n">
+        <v>21191147.1149856</v>
+      </c>
+      <c r="Z77" s="7" t="n">
+        <v>18602960.8339708</v>
+      </c>
+      <c r="AA77" s="7" t="n">
+        <v>25049548.5044304</v>
+      </c>
+      <c r="AB77" s="7" t="n">
+        <v>17304968.3117245</v>
+      </c>
+      <c r="AC77" s="7" t="n">
+        <v>16900907.660493</v>
+      </c>
+      <c r="AD77" s="7" t="n">
+        <v>18612016.8514851</v>
+      </c>
+      <c r="AE77" s="7" t="n">
+        <v>37052516.3401372</v>
+      </c>
+      <c r="AF77" s="7" t="n">
+        <v>44355619.3575047</v>
+      </c>
+      <c r="AG77" s="7" t="n">
+        <v>155574670.468008</v>
+      </c>
+      <c r="AH77" s="7" t="n">
+        <v>104696292.198793</v>
+      </c>
+      <c r="AI77" s="7" t="n">
+        <v>151547564.875983</v>
+      </c>
+      <c r="AJ77" s="7" t="n">
+        <v>117194334.640798</v>
+      </c>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="M78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1979</v>
+      </c>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7" t="n">
+        <v>163622.726155427</v>
+      </c>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7" t="n">
+        <v>-1827.36216182396</v>
+      </c>
+      <c r="V78" s="7" t="n">
+        <v>1946619.45909225</v>
+      </c>
+      <c r="W78" s="7" t="n">
+        <v>566531.697753374</v>
+      </c>
+      <c r="X78" s="7" t="n">
+        <v>539227.391513466</v>
+      </c>
+      <c r="Y78" s="7" t="n">
+        <v>464182.619185625</v>
+      </c>
+      <c r="Z78" s="7" t="n">
+        <v>473532.065312874</v>
+      </c>
+      <c r="AA78" s="7" t="n">
+        <v>113336.999978375</v>
+      </c>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7" t="n">
+        <v>-9952.9006155861</v>
+      </c>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="M79" t="s">
+        <v>162</v>
+      </c>
+      <c r="N79" t="n">
+        <v>154</v>
+      </c>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7" t="n">
+        <v>808146.271151334</v>
+      </c>
+      <c r="Q79" s="7" t="n">
+        <v>860026.270560284</v>
+      </c>
+      <c r="R79" s="7" t="n">
+        <v>939050.135975752</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="M80" t="s">
+        <v>163</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1956</v>
+      </c>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7" t="n">
+        <v>14066358.6840717</v>
+      </c>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" s="7" t="n">
+        <v>77087391.2916141</v>
+      </c>
+      <c r="X80" s="7" t="n">
+        <v>1324638.971998</v>
+      </c>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="M81" t="s">
+        <v>164</v>
+      </c>
+      <c r="N81" t="n">
+        <v>583</v>
+      </c>
+      <c r="O81" s="7" t="n">
+        <v>743235.822893819</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="M82" t="s">
+        <v>165</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2233</v>
+      </c>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7" t="n">
+        <v>3608987.5062873</v>
+      </c>
+      <c r="AJ82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="M83" t="s">
+        <v>166</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O83" s="7" t="n">
+        <v>44009255.0956127</v>
+      </c>
+      <c r="P83" s="7" t="n">
+        <v>17312578.1426963</v>
+      </c>
+      <c r="Q83" s="7" t="n">
+        <v>72546799.2351401</v>
+      </c>
+      <c r="R83" s="7" t="n">
+        <v>18579834.7254694</v>
+      </c>
+      <c r="S83" s="7" t="n">
+        <v>7737916.55464088</v>
+      </c>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="M84" t="s">
+        <v>167</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1961</v>
+      </c>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7" t="n">
+        <v>2194476.42031344</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7" t="n">
+        <v>5082188.52271857</v>
+      </c>
+      <c r="W84" s="7" t="n">
+        <v>2718657.70414579</v>
+      </c>
+      <c r="X84" s="7" t="n">
+        <v>5199433.66561896</v>
+      </c>
+      <c r="Y84" s="7" t="n">
+        <v>36542512.3829346</v>
+      </c>
+      <c r="Z84" s="7" t="n">
+        <v>4183281.03577133</v>
+      </c>
+      <c r="AA84" s="7" t="n">
+        <v>1887970.37392481</v>
+      </c>
+      <c r="AB84" s="7" t="n">
+        <v>-3323728.09256246</v>
+      </c>
+      <c r="AC84" s="7" t="n">
+        <v>41479.7769825801</v>
+      </c>
+      <c r="AD84" s="7" t="n">
+        <v>-21644.977831954</v>
+      </c>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="7"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="M85" t="s">
+        <v>78</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7" t="n">
+        <v>28508850.1468616</v>
+      </c>
+      <c r="AH85" s="7" t="n">
+        <v>34840868.8108265</v>
+      </c>
+      <c r="AI85" s="7" t="n">
+        <v>28788155.3938932</v>
+      </c>
+      <c r="AJ85" s="7" t="n">
+        <v>29075676.0688441</v>
+      </c>
+      <c r="AK85" s="7" t="n">
+        <v>23272464.2015</v>
+      </c>
+      <c r="AL85" s="7" t="n">
+        <v>9682581.15007938</v>
+      </c>
+      <c r="AM85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="M86" t="s">
+        <v>168</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1952</v>
+      </c>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7" t="n">
+        <v>946061.77786145</v>
+      </c>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7" t="n">
+        <v>18642.2449542399</v>
+      </c>
+      <c r="Z86" s="7" t="n">
+        <v>49315.8925207763</v>
+      </c>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="M87" t="s">
+        <v>169</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1955</v>
+      </c>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7" t="n">
+        <v>90986.8333369154</v>
+      </c>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7" t="n">
+        <v>-47405.0891909551</v>
+      </c>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="M88" t="s">
+        <v>170</v>
+      </c>
+      <c r="N88" t="n">
+        <v>800</v>
+      </c>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7" t="n">
+        <v>-1199176.95906698</v>
+      </c>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="M89" t="s">
+        <v>79</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7" t="n">
+        <v>11897577.0973338</v>
+      </c>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7" t="n">
+        <v>24253791.9101715</v>
+      </c>
+      <c r="S89" s="7" t="n">
+        <v>831117.175068508</v>
+      </c>
+      <c r="T89" s="7" t="n">
+        <v>23204121.9494802</v>
+      </c>
+      <c r="U89" s="7" t="n">
+        <v>1398134.78333892</v>
+      </c>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7" t="n">
+        <v>6586362.13160972</v>
+      </c>
+      <c r="AA89" s="7" t="n">
+        <v>8943874.75699351</v>
+      </c>
+      <c r="AB89" s="7" t="n">
+        <v>2731781.32211855</v>
+      </c>
+      <c r="AC89" s="7" t="n">
+        <v>-6066.11361397323</v>
+      </c>
+      <c r="AD89" s="7" t="n">
+        <v>240239.433531428</v>
+      </c>
+      <c r="AE89" s="7" t="n">
+        <v>223357771.855962</v>
+      </c>
+      <c r="AF89" s="7" t="n">
+        <v>2856080.25756506</v>
+      </c>
+      <c r="AG89" s="7" t="n">
+        <v>6616603.21755329</v>
+      </c>
+      <c r="AH89" s="7" t="n">
+        <v>23791616.5987679</v>
+      </c>
+      <c r="AI89" s="7" t="n">
+        <v>13318018.855313</v>
+      </c>
+      <c r="AJ89" s="7" t="n">
+        <v>15558681.8978857</v>
+      </c>
+      <c r="AK89" s="7" t="n">
+        <v>1270294.6919</v>
+      </c>
+      <c r="AL89" s="7" t="n">
+        <v>7399606.85890111</v>
+      </c>
+      <c r="AM89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90" s="7" t="n">
+        <v>20003598604.1574</v>
+      </c>
+      <c r="P90" s="7" t="n">
+        <v>19517754096.4876</v>
+      </c>
+      <c r="Q90" s="7" t="n">
+        <v>24242867727.0199</v>
+      </c>
+      <c r="R90" s="7" t="n">
+        <v>27828829788.0201</v>
+      </c>
+      <c r="S90" s="7" t="n">
+        <v>30425876367.3351</v>
+      </c>
+      <c r="T90" s="7" t="n">
+        <v>36631978972.0918</v>
+      </c>
+      <c r="U90" s="7" t="n">
+        <v>40122492076.9037</v>
+      </c>
+      <c r="V90" s="7" t="n">
+        <v>41156539673.058</v>
+      </c>
+      <c r="W90" s="7" t="n">
+        <v>44938577604.6357</v>
+      </c>
+      <c r="X90" s="7" t="n">
+        <v>50787332099.8374</v>
+      </c>
+      <c r="Y90" s="7" t="n">
+        <v>52332897105.0905</v>
+      </c>
+      <c r="Z90" s="7" t="n">
+        <v>51037116346.5634</v>
+      </c>
+      <c r="AA90" s="7" t="n">
+        <v>50418099014.4452</v>
+      </c>
+      <c r="AB90" s="7" t="n">
+        <v>41931801806.1366</v>
+      </c>
+      <c r="AC90" s="7" t="n">
+        <v>40578076603.0845</v>
+      </c>
+      <c r="AD90" s="7" t="n">
+        <v>39711149997.8823</v>
+      </c>
+      <c r="AE90" s="7" t="n">
+        <v>39399357715.7706</v>
+      </c>
+      <c r="AF90" s="7" t="n">
+        <v>40384506848.3455</v>
+      </c>
+      <c r="AG90" s="7" t="n">
+        <v>43945406687.3121</v>
+      </c>
+      <c r="AH90" s="7" t="n">
+        <v>47448705950.3257</v>
+      </c>
+      <c r="AI90" s="7" t="n">
+        <v>48655188866.187</v>
+      </c>
+      <c r="AJ90" s="7" t="n">
+        <v>54258524091.701</v>
+      </c>
+      <c r="AK90" s="7" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AL90" s="7" t="n">
+        <v>32763556074.5919</v>
+      </c>
+      <c r="AM90" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>541</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="n">
+        <v>39989.0454939485</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2041</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8" t="n">
+        <v>270977.882271663</v>
+      </c>
+      <c r="AJ3" s="8" t="n">
+        <v>-71228.1762842372</v>
+      </c>
+      <c r="AK3" s="8" t="n">
+        <v>146816.751427445</v>
+      </c>
+      <c r="AL3" s="8" t="n">
+        <v>78684.7556423783</v>
+      </c>
+      <c r="AM3" s="8" t="n">
+        <v>75491.6016</v>
+      </c>
+      <c r="AN3" s="8" t="n">
+        <v>-96927.6589969046</v>
+      </c>
+      <c r="AO3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2042</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8" t="n">
+        <v>10615540.7932276</v>
+      </c>
+      <c r="AM4" s="8" t="n">
+        <v>51705694</v>
+      </c>
+      <c r="AN4" s="8" t="n">
+        <v>20921439.6439309</v>
+      </c>
+      <c r="AO4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8" t="n">
+        <v>21504970.9952948</v>
+      </c>
+      <c r="AG5" s="8" t="n">
+        <v>35222346.224029</v>
+      </c>
+      <c r="AH5" s="8" t="n">
+        <v>63652528.6905296</v>
+      </c>
+      <c r="AI5" s="8" t="n">
+        <v>-78004.9468725162</v>
+      </c>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8" t="n">
+        <v>1496.19329657744</v>
+      </c>
+      <c r="AL5" s="8" t="n">
+        <v>-984790.150106764</v>
+      </c>
+      <c r="AM5" s="8" t="n">
+        <v>-463504.8438</v>
+      </c>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2047</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8" t="n">
+        <v>102772.034809861</v>
+      </c>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2048</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8" t="n">
+        <v>1057280.4054033</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8" t="n">
+        <v>-8692.88098308997</v>
+      </c>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2249</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8" t="n">
+        <v>63839466.3627871</v>
+      </c>
+      <c r="AM8" s="8" t="n">
+        <v>91090785.6719</v>
+      </c>
+      <c r="AN8" s="8" t="n">
+        <v>258948765.426698</v>
+      </c>
+      <c r="AO8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>568</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8" t="n">
+        <v>400149.280079645</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2255</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8" t="n">
+        <v>2455807.47659424</v>
+      </c>
+      <c r="AK10" s="8" t="n">
+        <v>2810461.49980703</v>
+      </c>
+      <c r="AL10" s="8" t="n">
+        <v>2360829.82431639</v>
+      </c>
+      <c r="AM10" s="8" t="n">
+        <v>23402825</v>
+      </c>
+      <c r="AN10" s="8" t="n">
+        <v>41075057.7623398</v>
+      </c>
+      <c r="AO10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8" t="n">
+        <v>988925.843535999</v>
+      </c>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="n">
+        <v>621186.336167313</v>
+      </c>
+      <c r="T12" s="8" t="n">
+        <v>426644.257222009</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1728</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8" t="n">
+        <v>43426109.4753234</v>
+      </c>
+      <c r="S13" s="8" t="n">
+        <v>197630572.618556</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8" t="n">
+        <v>29749.5865737141</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8" t="n">
+        <v>-217750.844988915</v>
+      </c>
+      <c r="AA13" s="8" t="n">
+        <v>-110686.755487034</v>
+      </c>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2040</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8" t="n">
+        <v>3125214.18568404</v>
+      </c>
+      <c r="AH14" s="8" t="n">
+        <v>1100744.34248635</v>
+      </c>
+      <c r="AI14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8" t="n">
+        <v>383178.4175</v>
+      </c>
+      <c r="AN14" s="8" t="n">
+        <v>400269.805907342</v>
+      </c>
+      <c r="AO14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="n">
+        <v>574319.989672951</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <v>568062.480698285</v>
+      </c>
+      <c r="T15" s="8" t="n">
+        <v>629345.232633366</v>
+      </c>
+      <c r="U15" s="8" t="n">
+        <v>240741.091951138</v>
+      </c>
+      <c r="V15" s="8" t="n">
+        <v>434189.258451645</v>
+      </c>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8" t="n">
+        <v>509839.593757168</v>
+      </c>
+      <c r="Y15" s="8" t="n">
+        <v>87251.2143177155</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8" t="n">
+        <v>-5374.14160901295</v>
+      </c>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v>3397182.29928307</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="O17" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2038</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8" t="n">
+        <v>1129517.64950508</v>
+      </c>
+      <c r="AL17" s="8" t="n">
+        <v>555864.478088167</v>
+      </c>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2057</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="n">
+        <v>6618015.17681525</v>
+      </c>
+      <c r="T18" s="8" t="n">
+        <v>105773673.812944</v>
+      </c>
+      <c r="U18" s="8" t="n">
+        <v>18654000.7801829</v>
+      </c>
+      <c r="V18" s="8" t="n">
+        <v>714609.079534522</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8" t="n">
+        <v>-444129.511864642</v>
+      </c>
+      <c r="AB18" s="8" t="n">
+        <v>-80.4823502686754</v>
+      </c>
+      <c r="AC18" s="8" t="n">
+        <v>-68625.6027255362</v>
+      </c>
+      <c r="AD18" s="8" t="n">
+        <v>-167163.869627148</v>
+      </c>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1907</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8" t="n">
+        <v>2089195.62731967</v>
+      </c>
+      <c r="T19" s="8" t="n">
+        <v>3144268.21193139</v>
+      </c>
+      <c r="U19" s="8" t="n">
+        <v>47092.1080668607</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8" t="n">
+        <v>-321624.692883313</v>
+      </c>
+      <c r="AA19" s="8" t="n">
+        <v>-120592.533041486</v>
+      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8" t="n">
+        <v>-181769.610183357</v>
+      </c>
+      <c r="AE19" s="8" t="n">
+        <v>-3870.94019058984</v>
+      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1909</v>
+      </c>
+      <c r="Q20" s="8" t="n">
+        <v>-3762813.93089558</v>
+      </c>
+      <c r="R20" s="8" t="n">
+        <v>-1331737.75096257</v>
+      </c>
+      <c r="S20" s="8" t="n">
+        <v>935348.219752251</v>
+      </c>
+      <c r="T20" s="8" t="n">
+        <v>-1143305.4264895</v>
+      </c>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8" t="n">
+        <v>-292919.52679337</v>
+      </c>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2058</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8" t="n">
+        <v>354310.851467218</v>
+      </c>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2059</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8" t="n">
+        <v>3154359.57071976</v>
+      </c>
+      <c r="S22" s="8" t="n">
+        <v>10762053.2740987</v>
+      </c>
+      <c r="T22" s="8" t="n">
+        <v>14538559.0772435</v>
+      </c>
+      <c r="U22" s="8" t="n">
+        <v>3293917.36234216</v>
+      </c>
+      <c r="V22" s="8" t="n">
+        <v>4886237.02800996</v>
+      </c>
+      <c r="W22" s="8" t="n">
+        <v>5069159.9604258</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8" t="n">
+        <v>6869952.05172929</v>
+      </c>
+      <c r="Z22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8" t="n">
+        <v>-111160.85087254</v>
+      </c>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="O23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2232</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8" t="n">
+        <v>125281.229575127</v>
+      </c>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="O24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2253</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8" t="n">
+        <v>9983.8725265847</v>
+      </c>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+    </row>
+    <row r="25">
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1992</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8" t="n">
+        <v>2355834.83273068</v>
+      </c>
+      <c r="AC25" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8" t="n">
+        <v>4698603.95433545</v>
+      </c>
+      <c r="AF25" s="8" t="n">
+        <v>751647.491610176</v>
+      </c>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8" t="n">
+        <v>-13262.7698861215</v>
+      </c>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8" t="n">
+        <v>19614327.625</v>
+      </c>
+      <c r="AN25" s="8" t="n">
+        <v>13894415.9252953</v>
+      </c>
+      <c r="AO25" s="8"/>
+    </row>
+    <row r="26">
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2061</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8" t="n">
+        <v>3151689.30462612</v>
+      </c>
+      <c r="U26" s="8" t="n">
+        <v>2797911.43027459</v>
+      </c>
+      <c r="V26" s="8" t="n">
+        <v>3074269.91497811</v>
+      </c>
+      <c r="W26" s="8" t="n">
+        <v>4568271.46212916</v>
+      </c>
+      <c r="X26" s="8" t="n">
+        <v>516006.816147001</v>
+      </c>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8" t="n">
+        <v>-130192.435235891</v>
+      </c>
+      <c r="AC26" s="8" t="n">
+        <v>-284679.788016893</v>
+      </c>
+      <c r="AD26" s="8" t="n">
+        <v>-47256.2249058304</v>
+      </c>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1972</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8" t="n">
+        <v>123097.839324714</v>
+      </c>
+      <c r="V27" s="8" t="n">
+        <v>1075105.53985704</v>
+      </c>
+      <c r="W27" s="8" t="n">
+        <v>40194.9768862105</v>
+      </c>
+      <c r="X27" s="8" t="n">
+        <v>1758729.34403713</v>
+      </c>
+      <c r="Y27" s="8" t="n">
+        <v>2878295.64271896</v>
+      </c>
+      <c r="Z27" s="8" t="n">
+        <v>2912065.60139335</v>
+      </c>
+      <c r="AA27" s="8" t="n">
+        <v>2769010.48260237</v>
+      </c>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8" t="n">
+        <v>-46725.1409860648</v>
+      </c>
+      <c r="AD27" s="8" t="n">
+        <v>-29156.6843109111</v>
+      </c>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8" t="n">
+        <v>-326738.850532741</v>
+      </c>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="O28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8" t="n">
+        <v>420441.172473697</v>
+      </c>
+      <c r="Z28" s="8" t="n">
+        <v>-416211.6483751</v>
+      </c>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8" t="n">
+        <v>1448118.21666177</v>
+      </c>
+      <c r="AC28" s="8" t="n">
+        <v>1462320.09558349</v>
+      </c>
+      <c r="AD28" s="8" t="n">
+        <v>723068.183004681</v>
+      </c>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8" t="n">
+        <v>-97766.1652835101</v>
+      </c>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="O29" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2035</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8" t="n">
+        <v>14534.0513560885</v>
+      </c>
+      <c r="AK29" s="8" t="n">
+        <v>10338.3291262317</v>
+      </c>
+      <c r="AL29" s="8" t="n">
+        <v>14182.1535224617</v>
+      </c>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+    </row>
+    <row r="30">
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1344</v>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v>879760.164909164</v>
+      </c>
+      <c r="R30" s="8" t="n">
+        <v>1917317.77245942</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8" t="n">
+        <v>146665.46180841</v>
+      </c>
+      <c r="V30" s="8" t="n">
+        <v>-74247.1615362838</v>
+      </c>
+      <c r="W30" s="8" t="n">
+        <v>-6990.67391669459</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1341</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8" t="n">
+        <v>64322.010029528</v>
+      </c>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+    </row>
+    <row r="32">
+      <c r="O32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1993</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8" t="n">
+        <v>499899.576590335</v>
+      </c>
+      <c r="Z32" s="8" t="n">
+        <v>494808.701027457</v>
+      </c>
+      <c r="AA32" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8" t="n">
+        <v>-5825.65686090773</v>
+      </c>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+    </row>
+    <row r="33">
+      <c r="O33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1814</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8" t="n">
+        <v>9596799.93514084</v>
+      </c>
+      <c r="AA33" s="8" t="n">
+        <v>12857501.2460509</v>
+      </c>
+      <c r="AB33" s="8" t="n">
+        <v>2732423.5853907</v>
+      </c>
+      <c r="AC33" s="8" t="n">
+        <v>12630522.8185689</v>
+      </c>
+      <c r="AD33" s="8" t="n">
+        <v>11502220.3667681</v>
+      </c>
+      <c r="AE33" s="8" t="n">
+        <v>8611554.3080101</v>
+      </c>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="O34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1915</v>
+      </c>
+      <c r="Q34" s="8" t="n">
+        <v>5016622.06524651</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8" t="n">
+        <v>1853919.74953046</v>
+      </c>
+      <c r="T34" s="8" t="n">
+        <v>6488044.9579609</v>
+      </c>
+      <c r="U34" s="8" t="n">
+        <v>4493752.4008846</v>
+      </c>
+      <c r="V34" s="8" t="n">
+        <v>10955409.0531872</v>
+      </c>
+      <c r="W34" s="8" t="n">
+        <v>-983800.336565996</v>
+      </c>
+      <c r="X34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8" t="n">
+        <v>-266415.606745468</v>
+      </c>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8" t="n">
+        <v>-193059.913854908</v>
+      </c>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2068</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8" t="n">
+        <v>5124776.40261945</v>
+      </c>
+      <c r="T35" s="8" t="n">
+        <v>6495659.57812426</v>
+      </c>
+      <c r="U35" s="8" t="n">
+        <v>8758675.44428219</v>
+      </c>
+      <c r="V35" s="8" t="n">
+        <v>7017136.33872013</v>
+      </c>
+      <c r="W35" s="8" t="n">
+        <v>-1272343.19874713</v>
+      </c>
+      <c r="X35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8" t="n">
+        <v>-2048631.5637669</v>
+      </c>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="O36" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2069</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8" t="n">
+        <v>3247806.93148709</v>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8" t="n">
+        <v>-43309.6411839104</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="O37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8" t="n">
+        <v>955073.991857244</v>
+      </c>
+      <c r="T37" s="8" t="n">
+        <v>1537834.79078718</v>
+      </c>
+      <c r="U37" s="8" t="n">
+        <v>882075.241910623</v>
+      </c>
+      <c r="V37" s="8" t="n">
+        <v>1768477.01500968</v>
+      </c>
+      <c r="W37" s="8" t="n">
+        <v>1109659.03162738</v>
+      </c>
+      <c r="X37" s="8" t="n">
+        <v>884531.013546149</v>
+      </c>
+      <c r="Y37" s="8" t="n">
+        <v>-3340.11082541162</v>
+      </c>
+      <c r="Z37" s="8" t="n">
+        <v>-26984.411585437</v>
+      </c>
+      <c r="AA37" s="8" t="n">
+        <v>-790.967559423369</v>
+      </c>
+      <c r="AB37" s="8" t="n">
+        <v>-5294.09989058183</v>
+      </c>
+      <c r="AC37" s="8" t="n">
+        <v>-3500.75312940206</v>
+      </c>
+      <c r="AD37" s="8" t="n">
+        <v>-53667.104414912</v>
+      </c>
+      <c r="AE37" s="8" t="n">
+        <v>-30505.3535718291</v>
+      </c>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="O38" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2071</v>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v>6047827.83918064</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+    </row>
+    <row r="39">
+      <c r="O39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2256</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8" t="n">
+        <v>534643.797462148</v>
+      </c>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+    </row>
+    <row r="40">
+      <c r="O40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1994</v>
+      </c>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8" t="n">
+        <v>534032.669614933</v>
+      </c>
+      <c r="AA40" s="8" t="n">
+        <v>771603.172769849</v>
+      </c>
+      <c r="AB40" s="8" t="n">
+        <v>331539.57846338</v>
+      </c>
+      <c r="AC40" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="8" t="n">
+        <v>63415.1474725444</v>
+      </c>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8" t="n">
+        <v>-920.369248182222</v>
+      </c>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+    </row>
+    <row r="41">
+      <c r="O41" t="s">
+        <v>129</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1977</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8" t="n">
+        <v>287705.276795732</v>
+      </c>
+      <c r="V41" s="8" t="n">
+        <v>347246.597429651</v>
+      </c>
+      <c r="W41" s="8" t="n">
+        <v>289886.469707924</v>
+      </c>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+    </row>
+    <row r="42">
+      <c r="O42" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1996</v>
+      </c>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8" t="n">
+        <v>2049869.49269638</v>
+      </c>
+      <c r="AD42" s="8" t="n">
+        <v>2164872.11824582</v>
+      </c>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+    </row>
+    <row r="43">
+      <c r="O43" t="s">
+        <v>131</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2101</v>
+      </c>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8" t="n">
+        <v>1030368.01399042</v>
+      </c>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="O44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1967</v>
+      </c>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8" t="n">
+        <v>565871.231422957</v>
+      </c>
+      <c r="Y44" s="8" t="n">
+        <v>946437.740429973</v>
+      </c>
+      <c r="Z44" s="8" t="n">
+        <v>409063.553838585</v>
+      </c>
+      <c r="AA44" s="8" t="n">
+        <v>7320482.80465686</v>
+      </c>
+      <c r="AB44" s="8" t="n">
+        <v>17089838.8064069</v>
+      </c>
+      <c r="AC44" s="8" t="n">
+        <v>33146185.3274333</v>
+      </c>
+      <c r="AD44" s="8" t="n">
+        <v>10660768.782999</v>
+      </c>
+      <c r="AE44" s="8" t="n">
+        <v>-1161965.92501621</v>
+      </c>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+    </row>
+    <row r="45">
+      <c r="O45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1951</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8" t="n">
+        <v>548398.225908323</v>
+      </c>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8" t="n">
+        <v>-64332.3738438042</v>
+      </c>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+    </row>
+    <row r="46">
+      <c r="O46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1968</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8" t="n">
+        <v>496995.456441846</v>
+      </c>
+      <c r="W46" s="8" t="n">
+        <v>42671.0735875037</v>
+      </c>
+      <c r="X46" s="8" t="n">
+        <v>42570.4364565603</v>
+      </c>
+      <c r="Y46" s="8" t="n">
+        <v>42717.8234183627</v>
+      </c>
+      <c r="Z46" s="8" t="n">
+        <v>44301.7093939846</v>
+      </c>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+    </row>
+    <row r="47">
+      <c r="O47" t="s">
+        <v>135</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1959</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8" t="n">
+        <v>141174.993712487</v>
+      </c>
+      <c r="W47" s="8" t="n">
+        <v>743783.936444987</v>
+      </c>
+      <c r="X47" s="8" t="n">
+        <v>1037152.07707423</v>
+      </c>
+      <c r="Y47" s="8" t="n">
+        <v>1164882.49237361</v>
+      </c>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8" t="n">
+        <v>-93753.2321508619</v>
+      </c>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AO47" s="8"/>
+    </row>
+    <row r="48">
+      <c r="O48" t="s">
+        <v>136</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1960</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8" t="n">
+        <v>-7212.78726479698</v>
+      </c>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8" t="n">
+        <v>163945.284694321</v>
+      </c>
+      <c r="X48" s="8" t="n">
+        <v>8878.17413682048</v>
+      </c>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8" t="n">
+        <v>3888333.86920553</v>
+      </c>
+      <c r="AA48" s="8" t="n">
+        <v>4597182.83862643</v>
+      </c>
+      <c r="AB48" s="8" t="n">
+        <v>3383736.53368604</v>
+      </c>
+      <c r="AC48" s="8" t="n">
+        <v>1660793.13703563</v>
+      </c>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8" t="n">
+        <v>-48170.2429427069</v>
+      </c>
+      <c r="AI48" s="8" t="n">
+        <v>-72269.9238431473</v>
+      </c>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8"/>
+    </row>
+    <row r="49">
+      <c r="O49" t="s">
+        <v>137</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1950</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8" t="n">
+        <v>40139.6296845837</v>
+      </c>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8" t="n">
+        <v>-20491.1815415045</v>
+      </c>
+      <c r="Y49" s="8" t="n">
+        <v>-4296.30983203467</v>
+      </c>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8" t="n">
+        <v>330103.830657102</v>
+      </c>
+      <c r="AC49" s="8" t="n">
+        <v>324161.96179174</v>
+      </c>
+      <c r="AD49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="8" t="n">
+        <v>-52049.1255599138</v>
+      </c>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8"/>
+    </row>
+    <row r="50">
+      <c r="O50" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8" t="n">
+        <v>7909036.17661288</v>
+      </c>
+      <c r="V50" s="8" t="n">
+        <v>350682.495630241</v>
+      </c>
+      <c r="W50" s="8" t="n">
+        <v>1114840.51913444</v>
+      </c>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+    </row>
+    <row r="51">
+      <c r="O51" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2251</v>
+      </c>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8" t="n">
+        <v>167976.052625256</v>
+      </c>
+      <c r="AK51" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+    </row>
+    <row r="52">
+      <c r="O52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2237</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8" t="n">
+        <v>12214613.122606</v>
+      </c>
+      <c r="AK52" s="8" t="n">
+        <v>18532234.3537319</v>
+      </c>
+      <c r="AL52" s="8" t="n">
+        <v>13565368.0138886</v>
+      </c>
+      <c r="AM52" s="8" t="n">
+        <v>-81677.3438</v>
+      </c>
+      <c r="AN52" s="8" t="n">
+        <v>14306.9756915298</v>
+      </c>
+      <c r="AO52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="O53" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1933</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8" t="n">
+        <v>48378422.0322481</v>
+      </c>
+      <c r="T53" s="8" t="n">
+        <v>57651055.7475043</v>
+      </c>
+      <c r="U53" s="8" t="n">
+        <v>47994241.9675187</v>
+      </c>
+      <c r="V53" s="8" t="n">
+        <v>10394313.8841385</v>
+      </c>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8" t="n">
+        <v>-43249.7067473481</v>
+      </c>
+      <c r="AB53" s="8" t="n">
+        <v>-759182.69409002</v>
+      </c>
+      <c r="AC53" s="8" t="n">
+        <v>-27439.3402871846</v>
+      </c>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8" t="n">
+        <v>-42942.8700599545</v>
+      </c>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="O54" t="s">
+        <v>142</v>
+      </c>
+      <c r="P54" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8" t="n">
+        <v>753347.899988851</v>
+      </c>
+      <c r="AA54" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8" t="n">
+        <v>-34664.8166198969</v>
+      </c>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="O55" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" t="n">
+        <v>510</v>
+      </c>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8" t="n">
+        <v>2894344.7439771</v>
+      </c>
+      <c r="T55" s="8" t="n">
+        <v>902593.827633087</v>
+      </c>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2246</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8" t="n">
+        <v>1005419.86230252</v>
+      </c>
+      <c r="AL56" s="8" t="n">
+        <v>3677519.79332604</v>
+      </c>
+      <c r="AM56" s="8" t="n">
+        <v>11462197.2188</v>
+      </c>
+      <c r="AN56" s="8" t="n">
+        <v>230332296.414509</v>
+      </c>
+      <c r="AO56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2187</v>
+      </c>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8" t="n">
+        <v>1165657756.12847</v>
+      </c>
+      <c r="AM57" s="8" t="n">
+        <v>2028271250</v>
+      </c>
+      <c r="AN57" s="8" t="n">
+        <v>2518746885.68734</v>
+      </c>
+      <c r="AO57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="O58" t="s">
+        <v>144</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2092</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8" t="n">
+        <v>732019.955232126</v>
+      </c>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="8"/>
+      <c r="AO58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1985</v>
+      </c>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8" t="n">
+        <v>4269464.22740937</v>
+      </c>
+      <c r="Z59" s="8" t="n">
+        <v>718714.167789958</v>
+      </c>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+      <c r="AO59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="O60" t="s">
+        <v>146</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2096</v>
+      </c>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8" t="n">
+        <v>93177.950425097</v>
+      </c>
+      <c r="T60" s="8" t="n">
+        <v>165927.708694872</v>
+      </c>
+      <c r="U60" s="8" t="n">
+        <v>260634.64049298</v>
+      </c>
+      <c r="V60" s="8" t="n">
+        <v>331030.024115689</v>
+      </c>
+      <c r="W60" s="8" t="n">
+        <v>339141.359990171</v>
+      </c>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8" t="n">
+        <v>-31466.9700956892</v>
+      </c>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+      <c r="AO60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="O61" t="s">
+        <v>147</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1973</v>
+      </c>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8" t="n">
+        <v>6829.03979817363</v>
+      </c>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="O62" t="s">
+        <v>148</v>
+      </c>
+      <c r="P62" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q62" s="8" t="n">
+        <v>2744382.11873493</v>
+      </c>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8" t="n">
+        <v>2421958.17395356</v>
+      </c>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="O63" t="s">
+        <v>149</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2254</v>
+      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="8" t="n">
+        <v>2097990.91382704</v>
+      </c>
+      <c r="AM63" s="8" t="n">
+        <v>1851573.1523</v>
+      </c>
+      <c r="AN63" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="O64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1954</v>
+      </c>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8" t="n">
+        <v>6261566.5462924</v>
+      </c>
+      <c r="V64" s="8" t="n">
+        <v>4282665.20654275</v>
+      </c>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8" t="n">
+        <v>108934.757177512</v>
+      </c>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8" t="n">
+        <v>-28683.800053495</v>
+      </c>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="8"/>
+      <c r="AO64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="O65" t="s">
+        <v>151</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2191</v>
+      </c>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8" t="n">
+        <v>343886.594033125</v>
+      </c>
+      <c r="AJ65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+      <c r="AO65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="O66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2241</v>
+      </c>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8" t="n">
+        <v>5128035.58120567</v>
+      </c>
+      <c r="AK66" s="8" t="n">
+        <v>25105692.8196118</v>
+      </c>
+      <c r="AL66" s="8" t="n">
+        <v>5964895.24880192</v>
+      </c>
+      <c r="AM66" s="8" t="n">
+        <v>8545593</v>
+      </c>
+      <c r="AN66" s="8" t="n">
+        <v>2275165.85554715</v>
+      </c>
+      <c r="AO66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="O67" t="s">
+        <v>152</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2001</v>
+      </c>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8" t="n">
+        <v>1941483.51581248</v>
+      </c>
+      <c r="AA67" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8" t="n">
+        <v>147471.146123549</v>
+      </c>
+      <c r="AK67" s="8" t="n">
+        <v>149895.56618684</v>
+      </c>
+      <c r="AL67" s="8" t="n">
+        <v>149371.440673076</v>
+      </c>
+      <c r="AM67" s="8" t="n">
+        <v>143883.2344</v>
+      </c>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="O68" t="s">
+        <v>153</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2098</v>
+      </c>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8" t="n">
+        <v>4183383.74723406</v>
+      </c>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8" t="n">
+        <v>11419.1149788735</v>
+      </c>
+      <c r="AJ68" s="8" t="n">
+        <v>166938.168229992</v>
+      </c>
+      <c r="AK68" s="8" t="n">
+        <v>-162927.360072379</v>
+      </c>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="8"/>
+      <c r="AO68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="O69" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1805</v>
+      </c>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8" t="n">
+        <v>9878032.18432339</v>
+      </c>
+      <c r="AI69" s="8" t="n">
+        <v>270642.160291284</v>
+      </c>
+      <c r="AJ69" s="8" t="n">
+        <v>22483235.7787424</v>
+      </c>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="8" t="n">
+        <v>756762</v>
+      </c>
+      <c r="AN69" s="8" t="n">
+        <v>501693.178591081</v>
+      </c>
+      <c r="AO69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="O70" t="s">
+        <v>155</v>
+      </c>
+      <c r="P70" t="n">
+        <v>662</v>
+      </c>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8" t="n">
+        <v>1358.09531002932</v>
+      </c>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8" t="n">
+        <v>15599215.5079086</v>
+      </c>
+      <c r="AC70" s="8" t="n">
+        <v>11236454.3332561</v>
+      </c>
+      <c r="AD70" s="8" t="n">
+        <v>1486144.3381216</v>
+      </c>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8" t="n">
+        <v>-3794296.71618527</v>
+      </c>
+      <c r="AH70" s="8" t="n">
+        <v>-267746.224372582</v>
+      </c>
+      <c r="AI70" s="8" t="n">
+        <v>-0.570955748943673</v>
+      </c>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2247</v>
+      </c>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8" t="n">
+        <v>76480228.1035521</v>
+      </c>
+      <c r="AM71" s="8" t="n">
+        <v>81518233.375</v>
+      </c>
+      <c r="AN71" s="8" t="n">
+        <v>48967135.5977929</v>
+      </c>
+      <c r="AO71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="O72" t="s">
+        <v>156</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2194</v>
+      </c>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8" t="n">
+        <v>781515.093862116</v>
+      </c>
+      <c r="AJ72" s="8" t="n">
+        <v>781979.283159827</v>
+      </c>
+      <c r="AK72" s="8" t="n">
+        <v>1152343.56724836</v>
+      </c>
+      <c r="AL72" s="8" t="n">
+        <v>1140648.27363261</v>
+      </c>
+      <c r="AM72" s="8" t="n">
+        <v>746418.1875</v>
+      </c>
+      <c r="AN72" s="8"/>
+      <c r="AO72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1987</v>
+      </c>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8" t="n">
+        <v>19288499.6947697</v>
+      </c>
+      <c r="X73" s="8" t="n">
+        <v>57877972.3063029</v>
+      </c>
+      <c r="Y73" s="8" t="n">
+        <v>5413393.68804848</v>
+      </c>
+      <c r="Z73" s="8" t="n">
+        <v>5731658.90534463</v>
+      </c>
+      <c r="AA73" s="8" t="n">
+        <v>5700505.47433317</v>
+      </c>
+      <c r="AB73" s="8" t="n">
+        <v>9215115.98599905</v>
+      </c>
+      <c r="AC73" s="8" t="n">
+        <v>9378810.55654466</v>
+      </c>
+      <c r="AD73" s="8" t="n">
+        <v>3041389.05061393</v>
+      </c>
+      <c r="AE73" s="8" t="n">
+        <v>1232994.21807813</v>
+      </c>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8" t="n">
+        <v>-53191.6615915584</v>
+      </c>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8" t="n">
+        <v>-93188.4365944545</v>
+      </c>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="8"/>
+      <c r="AO73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="O74" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8" t="n">
+        <v>192023.518139205</v>
+      </c>
+      <c r="Y74" s="8" t="n">
+        <v>323922.895029896</v>
+      </c>
+      <c r="Z74" s="8" t="n">
+        <v>830595.128197037</v>
+      </c>
+      <c r="AA74" s="8" t="n">
+        <v>1394241.74910297</v>
+      </c>
+      <c r="AB74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="8"/>
+      <c r="AO74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="O75" t="s">
+        <v>159</v>
+      </c>
+      <c r="P75" t="n">
+        <v>609</v>
+      </c>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="O76" t="s">
+        <v>160</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1965</v>
+      </c>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8" t="n">
+        <v>1432808.52832319</v>
+      </c>
+      <c r="W76" s="8" t="n">
+        <v>54990.039163503</v>
+      </c>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8" t="n">
+        <v>6710.94865863984</v>
+      </c>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
+      <c r="AN76" s="8"/>
+      <c r="AO76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="O77" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2258</v>
+      </c>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8" t="n">
+        <v>1630037.80731221</v>
+      </c>
+      <c r="X77" s="8" t="n">
+        <v>466760.211763583</v>
+      </c>
+      <c r="Y77" s="8" t="n">
+        <v>4874761.36201692</v>
+      </c>
+      <c r="Z77" s="8" t="n">
+        <v>11232621.3321332</v>
+      </c>
+      <c r="AA77" s="8" t="n">
+        <v>21191147.1149856</v>
+      </c>
+      <c r="AB77" s="8" t="n">
+        <v>18602960.8339708</v>
+      </c>
+      <c r="AC77" s="8" t="n">
+        <v>25049548.5044304</v>
+      </c>
+      <c r="AD77" s="8" t="n">
+        <v>17304968.3117245</v>
+      </c>
+      <c r="AE77" s="8" t="n">
+        <v>16900907.660493</v>
+      </c>
+      <c r="AF77" s="8" t="n">
+        <v>18612016.8514851</v>
+      </c>
+      <c r="AG77" s="8" t="n">
+        <v>37052516.3401372</v>
+      </c>
+      <c r="AH77" s="8" t="n">
+        <v>44355619.3575047</v>
+      </c>
+      <c r="AI77" s="8" t="n">
+        <v>155574670.468008</v>
+      </c>
+      <c r="AJ77" s="8" t="n">
+        <v>104696292.198793</v>
+      </c>
+      <c r="AK77" s="8" t="n">
+        <v>151547564.875983</v>
+      </c>
+      <c r="AL77" s="8" t="n">
+        <v>117194334.640798</v>
+      </c>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+      <c r="AO77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="O78" t="s">
+        <v>161</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8" t="n">
+        <v>163622.726155427</v>
+      </c>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8" t="n">
+        <v>-1827.36216182396</v>
+      </c>
+      <c r="X78" s="8" t="n">
+        <v>1946619.45909225</v>
+      </c>
+      <c r="Y78" s="8" t="n">
+        <v>566531.697753374</v>
+      </c>
+      <c r="Z78" s="8" t="n">
+        <v>539227.391513466</v>
+      </c>
+      <c r="AA78" s="8" t="n">
+        <v>464182.619185625</v>
+      </c>
+      <c r="AB78" s="8" t="n">
+        <v>473532.065312874</v>
+      </c>
+      <c r="AC78" s="8" t="n">
+        <v>113336.999978375</v>
+      </c>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8" t="n">
+        <v>-9952.9006155861</v>
+      </c>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+      <c r="AO78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="O79" t="s">
+        <v>162</v>
+      </c>
+      <c r="P79" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8" t="n">
+        <v>808146.271151334</v>
+      </c>
+      <c r="S79" s="8" t="n">
+        <v>860026.270560284</v>
+      </c>
+      <c r="T79" s="8" t="n">
+        <v>939050.135975752</v>
+      </c>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="8"/>
+      <c r="AN79" s="8"/>
+      <c r="AO79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="O80" t="s">
+        <v>163</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1956</v>
+      </c>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8" t="n">
+        <v>14066358.6840717</v>
+      </c>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="8" t="n">
+        <v>77087391.2916141</v>
+      </c>
+      <c r="Z80" s="8" t="n">
+        <v>1324638.971998</v>
+      </c>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="8"/>
+      <c r="AN80" s="8"/>
+      <c r="AO80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="O81" t="s">
+        <v>164</v>
+      </c>
+      <c r="P81" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q81" s="8" t="n">
+        <v>743235.822893819</v>
+      </c>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="8"/>
+      <c r="AN81" s="8"/>
+      <c r="AO81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="O82" t="s">
+        <v>165</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2233</v>
+      </c>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
+      <c r="AI82" s="8"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8" t="n">
+        <v>3608987.5062873</v>
+      </c>
+      <c r="AL82" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="O83" t="s">
+        <v>166</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2008</v>
+      </c>
+      <c r="Q83" s="8" t="n">
+        <v>44009255.0956127</v>
+      </c>
+      <c r="R83" s="8" t="n">
+        <v>17312578.1426963</v>
+      </c>
+      <c r="S83" s="8" t="n">
+        <v>72546799.2351401</v>
+      </c>
+      <c r="T83" s="8" t="n">
+        <v>18579834.7254694</v>
+      </c>
+      <c r="U83" s="8" t="n">
+        <v>7737916.55464088</v>
+      </c>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="8"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="8"/>
+      <c r="AO83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="O84" t="s">
+        <v>167</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1961</v>
+      </c>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8" t="n">
+        <v>2194476.42031344</v>
+      </c>
+      <c r="W84" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" s="8" t="n">
+        <v>5082188.52271857</v>
+      </c>
+      <c r="Y84" s="8" t="n">
+        <v>2718657.70414579</v>
+      </c>
+      <c r="Z84" s="8" t="n">
+        <v>5199433.66561896</v>
+      </c>
+      <c r="AA84" s="8" t="n">
+        <v>36542512.3829346</v>
+      </c>
+      <c r="AB84" s="8" t="n">
+        <v>4183281.03577133</v>
+      </c>
+      <c r="AC84" s="8" t="n">
+        <v>1887970.37392481</v>
+      </c>
+      <c r="AD84" s="8" t="n">
+        <v>-3323728.09256246</v>
+      </c>
+      <c r="AE84" s="8" t="n">
+        <v>41479.7769825801</v>
+      </c>
+      <c r="AF84" s="8" t="n">
+        <v>-21644.977831954</v>
+      </c>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="8"/>
+      <c r="AO84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="O85" t="s">
+        <v>78</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2202</v>
+      </c>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8" t="n">
+        <v>28508850.1468616</v>
+      </c>
+      <c r="AJ85" s="8" t="n">
+        <v>34840868.8108265</v>
+      </c>
+      <c r="AK85" s="8" t="n">
+        <v>28788155.3938932</v>
+      </c>
+      <c r="AL85" s="8" t="n">
+        <v>29075676.0688441</v>
+      </c>
+      <c r="AM85" s="8" t="n">
+        <v>23272464.2015</v>
+      </c>
+      <c r="AN85" s="8" t="n">
+        <v>9682581.15007938</v>
+      </c>
+      <c r="AO85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="O86" t="s">
+        <v>168</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1952</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8" t="n">
+        <v>946061.77786145</v>
+      </c>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8" t="n">
+        <v>18642.2449542399</v>
+      </c>
+      <c r="AB86" s="8" t="n">
+        <v>49315.8925207763</v>
+      </c>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="8"/>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8"/>
+      <c r="AO86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="O87" t="s">
+        <v>169</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1955</v>
+      </c>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8" t="n">
+        <v>90986.8333369154</v>
+      </c>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8" t="n">
+        <v>-47405.0891909551</v>
+      </c>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+      <c r="AO87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="O88" t="s">
+        <v>170</v>
+      </c>
+      <c r="P88" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8" t="n">
+        <v>-1199176.95906698</v>
+      </c>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="O89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8" t="n">
+        <v>11897577.0973338</v>
+      </c>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8" t="n">
+        <v>24253791.9101715</v>
+      </c>
+      <c r="U89" s="8" t="n">
+        <v>831117.175068508</v>
+      </c>
+      <c r="V89" s="8" t="n">
+        <v>23204121.9494802</v>
+      </c>
+      <c r="W89" s="8" t="n">
+        <v>1398134.78333892</v>
+      </c>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8" t="n">
+        <v>6586362.13160972</v>
+      </c>
+      <c r="AC89" s="8" t="n">
+        <v>8943874.75699351</v>
+      </c>
+      <c r="AD89" s="8" t="n">
+        <v>2731781.32211855</v>
+      </c>
+      <c r="AE89" s="8" t="n">
+        <v>-6066.11361397323</v>
+      </c>
+      <c r="AF89" s="8" t="n">
+        <v>240239.433531428</v>
+      </c>
+      <c r="AG89" s="8" t="n">
+        <v>223357771.855962</v>
+      </c>
+      <c r="AH89" s="8" t="n">
+        <v>2856080.25756506</v>
+      </c>
+      <c r="AI89" s="8" t="n">
+        <v>6616603.21755329</v>
+      </c>
+      <c r="AJ89" s="8" t="n">
+        <v>23791616.5987679</v>
+      </c>
+      <c r="AK89" s="8" t="n">
+        <v>13318018.855313</v>
+      </c>
+      <c r="AL89" s="8" t="n">
+        <v>15558681.8978857</v>
+      </c>
+      <c r="AM89" s="8" t="n">
+        <v>1270294.6919</v>
+      </c>
+      <c r="AN89" s="8" t="n">
+        <v>7399606.85890111</v>
+      </c>
+      <c r="AO89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90" s="8" t="n">
+        <v>20003598604.1574</v>
+      </c>
+      <c r="R90" s="8" t="n">
+        <v>19517754096.4876</v>
+      </c>
+      <c r="S90" s="8" t="n">
+        <v>24242867727.0199</v>
+      </c>
+      <c r="T90" s="8" t="n">
+        <v>27828829788.0201</v>
+      </c>
+      <c r="U90" s="8" t="n">
+        <v>30425876367.3351</v>
+      </c>
+      <c r="V90" s="8" t="n">
+        <v>36631978972.0918</v>
+      </c>
+      <c r="W90" s="8" t="n">
+        <v>40122492076.9037</v>
+      </c>
+      <c r="X90" s="8" t="n">
+        <v>41156539673.058</v>
+      </c>
+      <c r="Y90" s="8" t="n">
+        <v>44938577604.6357</v>
+      </c>
+      <c r="Z90" s="8" t="n">
+        <v>50787332099.8374</v>
+      </c>
+      <c r="AA90" s="8" t="n">
+        <v>52332897105.0905</v>
+      </c>
+      <c r="AB90" s="8" t="n">
+        <v>51037116346.5634</v>
+      </c>
+      <c r="AC90" s="8" t="n">
+        <v>50418099014.4452</v>
+      </c>
+      <c r="AD90" s="8" t="n">
+        <v>41931801806.1366</v>
+      </c>
+      <c r="AE90" s="8" t="n">
+        <v>40578076603.0845</v>
+      </c>
+      <c r="AF90" s="8" t="n">
+        <v>39711149997.8823</v>
+      </c>
+      <c r="AG90" s="8" t="n">
+        <v>39399357715.7706</v>
+      </c>
+      <c r="AH90" s="8" t="n">
+        <v>40384506848.3455</v>
+      </c>
+      <c r="AI90" s="8" t="n">
+        <v>43945406687.3121</v>
+      </c>
+      <c r="AJ90" s="8" t="n">
+        <v>47448705950.3257</v>
+      </c>
+      <c r="AK90" s="8" t="n">
+        <v>48655188866.187</v>
+      </c>
+      <c r="AL90" s="8" t="n">
+        <v>54258524091.701</v>
+      </c>
+      <c r="AM90" s="8" t="n">
+        <v>52636829976.2023</v>
+      </c>
+      <c r="AN90" s="8" t="n">
+        <v>32763556074.5919</v>
+      </c>
+      <c r="AO90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="P91" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="8"/>
+      <c r="AM91" s="8"/>
+      <c r="AN91" s="8"/>
+      <c r="AO91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="P92" t="str">
+        <f>Sum(A2:A90)</f>
+      </c>
+    </row>
+    <row r="93">
+      <c r="P93" t="str">
+        <f>Sum(B2:B90)</f>
+      </c>
+    </row>
+    <row r="94">
+      <c r="P94" t="str">
+        <f>Sum(C2:C90)</f>
+      </c>
+    </row>
+    <row r="95">
+      <c r="P95" t="str">
+        <f>Sum(D2:D90)</f>
+      </c>
+    </row>
+    <row r="96">
+      <c r="P96" t="str">
+        <f>Sum(E2:E90)</f>
+      </c>
+    </row>
+    <row r="97">
+      <c r="P97" t="str">
+        <f>Sum(F2:F90)</f>
+      </c>
+    </row>
+    <row r="98">
+      <c r="P98" t="str">
+        <f>Sum(G2:G90)</f>
+      </c>
+    </row>
+    <row r="99">
+      <c r="P99" t="str">
+        <f>Sum(H2:H90)</f>
+      </c>
+    </row>
+    <row r="100">
+      <c r="P100" t="str">
+        <f>Sum(I2:I90)</f>
+      </c>
+    </row>
+    <row r="101">
+      <c r="P101" t="str">
+        <f>Sum(J2:J90)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -561,7 +561,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -569,7 +569,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -608,7 +608,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -617,7 +617,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,11 +1745,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>37</v>
       </c>
@@ -1860,556 +1869,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>39</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="11" t="n">
         <v>3248876000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="11" t="n">
         <v>2358897000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="11" t="n">
         <v>2517928221</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="11" t="n">
         <v>2476925819</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="11" t="n">
         <v>2642986465</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="11" t="n">
         <v>2375359748</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="11" t="n">
         <v>2503092777</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="11" t="n">
         <v>2412681890</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="11" t="n">
         <v>2652448189</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="11" t="n">
         <v>2557180328</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="11" t="n">
         <v>2687151780</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="11" t="n">
         <v>2941857273.25</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="11" t="n">
         <v>3230578439.4375</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="11" t="n">
         <v>3933227556.3825</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="11" t="n">
         <v>4053316591.0171</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="11" t="n">
         <v>5457658287.3238</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="11" t="n">
         <v>6531652818.5983</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="11" t="n">
         <v>5708352280.3827</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="11" t="n">
         <v>6904883683.4737</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="11" t="n">
         <v>8957635020.2135</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="11" t="n">
         <v>8226687739.0483</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>8024713489.618</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="11" t="n">
         <v>9089670056.4231</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="11" t="n">
         <v>6655596503.4397</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="11" t="n">
         <v>6892224078.1199</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="11" t="n">
         <v>7114105400.9507</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="11" t="n">
         <v>7690695521.3025</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="11" t="n">
         <v>8297418960.4978</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>10432603719.8459</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="11" t="n">
         <v>12554504269.6363</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="11" t="n">
         <v>12891709079.994</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="11" t="n">
         <v>17914241440.0409</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="11" t="n">
         <v>19664315190.4223</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="11" t="n">
         <v>14182394269.294</v>
       </c>
+      <c r="AW2" s="11"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
       <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="11" t="n">
         <v>1051935000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="11" t="n">
         <v>1681028000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="11" t="n">
         <v>1666037599</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="11" t="n">
         <v>1649478854</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="11" t="n">
         <v>2177882194</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="11" t="n">
         <v>2633075581</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="11" t="n">
         <v>2981342972</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="11" t="n">
         <v>2971400991</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="11" t="n">
         <v>3717640661</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="11" t="n">
         <v>3441122510</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="11" t="n">
         <v>3802681854.2123</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="11" t="n">
         <v>3699450918.4479</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="11" t="n">
         <v>5196869616.0995</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="11" t="n">
         <v>6879272646.0734</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="11" t="n">
         <v>8554512449.247</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="11" t="n">
         <v>10002826582.3674</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="11" t="n">
         <v>11528906945.328</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="11" t="n">
         <v>13729623297.9531</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="11" t="n">
         <v>15367757087.8612</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="11" t="n">
         <v>16481371010.1008</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="11" t="n">
         <v>17872362568.2523</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>17836329626.5941</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="11" t="n">
         <v>17809266724.1309</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="11" t="n">
         <v>14995005873.397</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="11" t="n">
         <v>12703479337.0776</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="11" t="n">
         <v>12241077609.7714</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="11" t="n">
         <v>11460581414.6774</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="11" t="n">
         <v>12058998982.9769</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>12574169186.3776</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="11" t="n">
         <v>12792838337.6297</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="11" t="n">
         <v>12664416370.1911</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="11" t="n">
         <v>12676861670.6676</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="11" t="n">
         <v>12158511317.18</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="11" t="n">
         <v>5419116622.6319</v>
       </c>
+      <c r="AW3" s="11"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="11" t="n">
         <v>20061000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="11" t="n">
         <v>11639000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="11" t="n">
         <v>14668086</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="11" t="n">
         <v>13692603</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="11" t="n">
         <v>14180731</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="11" t="n">
         <v>24403936</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="11" t="n">
         <v>20369928</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="11" t="n">
         <v>18141067</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="11" t="n">
         <v>46008358</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="11" t="n">
         <v>74619922</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="11" t="n">
         <v>123047746.7031</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="11" t="n">
         <v>205411421</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="11" t="n">
         <v>204871863.5</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="11" t="n">
         <v>216194604.5</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="11" t="n">
         <v>255746718.2368</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="11" t="n">
         <v>215784111.9181</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="11" t="n">
         <v>208625748.7659</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="11" t="n">
         <v>227899976.6789</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="11" t="n">
         <v>330287335.8236</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="11" t="n">
         <v>383728077.8428</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="11" t="n">
         <v>311685987.0935</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>267412125.9841</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="11" t="n">
         <v>289899637.5865</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="11" t="n">
         <v>368074982.9617</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="11" t="n">
         <v>452234227.4513</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="11" t="n">
         <v>380127250.7623</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="11" t="n">
         <v>317808787.32</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="11" t="n">
         <v>306559340.8592</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>378256521.6228</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="11" t="n">
         <v>311221923.748</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="11" t="n">
         <v>324688809.3948</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="11" t="n">
         <v>315304593.4065</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="11" t="n">
         <v>395863440.6316</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="11" t="n">
         <v>173160258.7127</v>
       </c>
+      <c r="AW4" s="11"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="11" t="n">
         <v>2276874381</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="11" t="n">
         <v>2374256229</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="11" t="n">
         <v>2621223158</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="11" t="n">
         <v>2448571408</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="11" t="n">
         <v>2755482494</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="11" t="n">
         <v>2962867072</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="11" t="n">
         <v>3046045007</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="11" t="n">
         <v>3537316143</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="11" t="n">
         <v>3543546149</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="11" t="n">
         <v>4302603615</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="11" t="n">
         <v>4890041820.9853</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="11" t="n">
         <v>4686817579.3844</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="11" t="n">
         <v>5862493766.5577</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="11" t="n">
         <v>5691154552.7801</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="11" t="n">
         <v>5817537965.6575</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="11" t="n">
         <v>7101508106.0526</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="11" t="n">
         <v>7278566539.9668</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="11" t="n">
         <v>8487381751.109</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="11" t="n">
         <v>8745970598.4713</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="11" t="n">
         <v>9930456383.6431</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="11" t="n">
         <v>10422444585.3953</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>10513140624.0088</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="11" t="n">
         <v>9704586301.3343</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="11" t="n">
         <v>8462932139.1682</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="11" t="n">
         <v>9461181938.307</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="11" t="n">
         <v>9130859131.8192</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="11" t="n">
         <v>9435027786.3914</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="11" t="n">
         <v>9438451726.1385</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>10368161130.5019</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="11" t="n">
         <v>10884357119.8383</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="11" t="n">
         <v>11602905860.4016</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="11" t="n">
         <v>13544012182.0672</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="11" t="n">
         <v>14796469385.352</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="11" t="n">
         <v>7170530510.56</v>
       </c>
+      <c r="AW5" s="11"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>42</v>
       </c>
       <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="11" t="n">
         <v>1176119000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="11" t="n">
         <v>1501616000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="11" t="n">
         <v>1966710386</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="11" t="n">
         <v>1978926758</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="11" t="n">
         <v>872630570</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="11" t="n">
         <v>882483094</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="11" t="n">
         <v>736842954</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="11" t="n">
         <v>756229375</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="11" t="n">
         <v>845029179</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="11" t="n">
         <v>910155660</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="11" t="n">
         <v>914172128.163</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="11" t="n">
         <v>888546311.8199</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="11" t="n">
         <v>1342965923.5564</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="11" t="n">
         <v>1705487853.5322</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="11" t="n">
         <v>1857584584.79</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="11" t="n">
         <v>2647631499.6078</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="11" t="n">
         <v>3173427629.1982</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="11" t="n">
         <v>2142895899.2875</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="11" t="n">
         <v>2444963407.3387</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="11" t="n">
         <v>2766277622.5581</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="11" t="n">
         <v>3240683701.0503</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>3220672424.2933</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="11" t="n">
         <v>3228311245.9396</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="11" t="n">
         <v>3462541388.7819</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="11" t="n">
         <v>3962892307.4041</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="11" t="n">
         <v>4279557583.8645</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="11" t="n">
         <v>4463910124.2305</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="11" t="n">
         <v>4557760311.0821</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>4899213831.7073</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="11" t="n">
         <v>6007608408.5207</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="11" t="n">
         <v>6763575751.1758</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="11" t="n">
         <v>7702154640.0264</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="11" t="n">
         <v>7965236431.8062</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="11" t="n">
         <v>4505939230.958</v>
       </c>
+      <c r="AW6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>37</v>
       </c>
@@ -2520,554 +2685,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>39</v>
       </c>
       <c r="N11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="11" t="n">
         <v>6457243605.7994</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="11" t="n">
         <v>4526910994.42037</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="11" t="n">
         <v>4714283386.49847</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="11" t="n">
         <v>4531075953.20147</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="11" t="n">
         <v>4731749863.30401</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="11" t="n">
         <v>4164402798.35499</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="11" t="n">
         <v>4307385536.55196</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="11" t="n">
         <v>4079337141.00137</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="11" t="n">
         <v>4429423158.57275</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="11" t="n">
         <v>4217756632.07912</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="11" t="n">
         <v>4341711879.23672</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="11" t="n">
         <v>4640712597.10839</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="11" t="n">
         <v>5016977961.23824</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="11" t="n">
         <v>5993602933.34506</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="11" t="n">
         <v>6029224641.75674</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="11" t="n">
         <v>7878974070.9463</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="11" t="n">
         <v>9132130998.37596</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="11" t="n">
         <v>7768022504.99289</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="11" t="n">
         <v>9204318851.49358</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="11" t="n">
         <v>11820548871.3137</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="11" t="n">
         <v>10762380911.8162</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>10290755288.037</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="11" t="n">
         <v>11446621499.8696</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="11" t="n">
         <v>8230769589.56648</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="11" t="n">
         <v>8361635629.45486</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="11" t="n">
         <v>8532996415.08955</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="11" t="n">
         <v>9148774679.09489</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="11" t="n">
         <v>9697391834.95708</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>11913110140.5943</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="11" t="n">
         <v>14060732150.0497</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="11" t="n">
         <v>14248314247.2319</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="11" t="n">
         <v>19155476144.3145</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="11" t="n">
         <v>19664315190.4223</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="11" t="n">
         <v>13527144670.5654</v>
       </c>
+      <c r="AW11" s="11"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>40</v>
       </c>
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="11" t="n">
         <v>2090754018.45641</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="11" t="n">
         <v>3226026458.60692</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>3119299950.15037</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="11" t="n">
         <v>3017415343.38365</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="11" t="n">
         <v>3899071716.87</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="11" t="n">
         <v>4616221743.68705</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="11" t="n">
         <v>5130370601.95777</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="11" t="n">
         <v>5024013515.26478</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="11" t="n">
         <v>6208228197.39727</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="11" t="n">
         <v>5675711301.7918</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>6144107341.56276</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>5835799253.66638</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>8070560990.9102</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>10482899379.6402</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>12724660435.2394</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>14440627670.2404</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>16118965814.1407</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>18683504017.4543</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>20485462573.0371</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>21748915986.3656</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>23381120063.7437</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>22873003959.769</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>22427209581.4189</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>18543858281.424</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>15411841553.4637</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>14682530757.4236</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>13633393334.0464</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>14093640303.3288</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>14358588370.3053</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>14327660371.2135</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>13997103338.3228</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="11" t="n">
         <v>13555210927.0161</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="11" t="n">
         <v>12158511317.18</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="11" t="n">
         <v>5168744652.63731</v>
       </c>
+      <c r="AW12" s="11"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>41</v>
       </c>
       <c r="N13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="11" t="n">
         <v>39871870.7565145</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="11" t="n">
         <v>22336166.8881934</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="11" t="n">
         <v>27462861.5561042</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="11" t="n">
         <v>25048075.2044009</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="11" t="n">
         <v>25387822.7752486</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="11" t="n">
         <v>42784180.1456998</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="11" t="n">
         <v>35053088.7444628</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="11" t="n">
         <v>30672725.110269</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="11" t="n">
         <v>76831090.3331677</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="11" t="n">
         <v>123076447.700847</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="11" t="n">
         <v>198811941.904584</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="11" t="n">
         <v>324031820.881484</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="11" t="n">
         <v>318159005.678337</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="11" t="n">
         <v>329445626.302981</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="11" t="n">
         <v>380417956.756447</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="11" t="n">
         <v>311517748.678723</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="11" t="n">
         <v>291686916.049731</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="11" t="n">
         <v>310130149.782971</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="11" t="n">
         <v>440278227.829807</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="11" t="n">
         <v>506369871.869148</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="11" t="n">
         <v>407756247.031656</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>342924735.333708</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="11" t="n">
         <v>365070613.543024</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="11" t="n">
         <v>455186905.46755</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="11" t="n">
         <v>548649867.772044</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="11" t="n">
         <v>455942706.105969</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="11" t="n">
         <v>378062163.321041</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="11" t="n">
         <v>358283227.968939</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>431935471.191949</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="11" t="n">
         <v>348560804.557407</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="11" t="n">
         <v>358856080.300165</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="11" t="n">
         <v>337151290.352219</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="11" t="n">
         <v>395863440.6316</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="11" t="n">
         <v>165159974.142774</v>
       </c>
+      <c r="AW13" s="11"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>43</v>
       </c>
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="11" t="n">
         <v>4525359705.30138</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="11" t="n">
         <v>4556386576.70562</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="11" t="n">
         <v>4907681117.75513</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="11" t="n">
         <v>4479206822.1747</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="11" t="n">
         <v>4933151980.5271</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="11" t="n">
         <v>5194401368.54195</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="11" t="n">
         <v>5241711504.82215</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="11" t="n">
         <v>5980856896.80525</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="11" t="n">
         <v>5917501213.00933</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="11" t="n">
         <v>7096619168.25674</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="11" t="n">
         <v>7900987514.79391</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="11" t="n">
         <v>7393347589.89509</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="11" t="n">
         <v>9104252559.12922</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="11" t="n">
         <v>8672399481.77199</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="11" t="n">
         <v>8653467467.75982</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="11" t="n">
         <v>10252125597.9257</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="11" t="n">
         <v>10176417052.3744</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="11" t="n">
         <v>11549772896.4024</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="11" t="n">
         <v>11658516746.1677</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="11" t="n">
         <v>13104289774.3008</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="11" t="n">
         <v>13634930875.9952</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>13481871671.8502</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="11" t="n">
         <v>12220985526.9385</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="11" t="n">
         <v>10465845466.0872</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="11" t="n">
         <v>11478291346.2214</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="11" t="n">
         <v>10951986770.9704</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="11" t="n">
         <v>11223814942.3026</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="11" t="n">
         <v>11030944097.1269</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>11839522406.8688</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="11" t="n">
         <v>12190208932.2374</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="11" t="n">
         <v>12823889203.0697</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="11" t="n">
         <v>14482444211.788</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="11" t="n">
         <v>14796469385.352</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="11" t="n">
         <v>6839240380.66364</v>
       </c>
+      <c r="AW14" s="11"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>42</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="11" t="n">
         <v>2337573638.51658</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="11" t="n">
         <v>2881720558.29379</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="11" t="n">
         <v>3682245594.3925</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="11" t="n">
         <v>3620079122.8947</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="11" t="n">
         <v>1562274205.71085</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="11" t="n">
         <v>1547140414.94088</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="11" t="n">
         <v>1267978043.77581</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="11" t="n">
         <v>1278624666.32671</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="11" t="n">
         <v>1411146061.45934</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="11" t="n">
         <v>1501190600.11373</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="11" t="n">
         <v>1477055378.13439</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="11" t="n">
         <v>1401661494.55014</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="11" t="n">
         <v>2085580204.12888</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="11" t="n">
         <v>2598887772.23875</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="11" t="n">
         <v>2763118671.16034</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="11" t="n">
         <v>3822265674.50775</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="11" t="n">
         <v>4436879550.79076</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="11" t="n">
         <v>2916089048.80101</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="11" t="n">
         <v>3259174783.09471</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="11" t="n">
         <v>3650396533.82643</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="11" t="n">
         <v>4239552236.78544</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>4130135215.94387</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="11" t="n">
         <v>4065412351.23606</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="11" t="n">
         <v>4282017449.62641</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="11" t="n">
         <v>4807774839.83396</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="11" t="n">
         <v>5133104932.12612</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="11" t="n">
         <v>5310222957.23375</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="11" t="n">
         <v>5326763399.17243</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>5594468605.03528</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="11" t="n">
         <v>6728371816.23287</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="11" t="n">
         <v>7475312399.59964</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="11" t="n">
         <v>8235818410.76883</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="11" t="n">
         <v>7965236431.8062</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="11" t="n">
         <v>4297757536.32177</v>
       </c>
+      <c r="AW15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3221,89 +3464,89 @@
       <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>2526871722.5859</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="2" t="n">
         <v>2628650269.6456</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="2" t="n">
         <v>3761977137.1761</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="2" t="n">
         <v>4595945628.2328</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="2" t="n">
         <v>5794732197.7678</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="2" t="n">
         <v>8534494057.8153</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="2" t="n">
         <v>8789690100.7834</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="2" t="n">
         <v>8295843482.2792</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="2" t="n">
         <v>9284666022.7292</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="2" t="n">
         <v>10501611274.7887</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>13559324540.7012</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="2" t="n">
         <v>14762254308.6643</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="2" t="n">
         <v>15515425637.4548</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="2" t="n">
         <v>12141188720.0403</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="2" t="n">
         <v>12741597981.1852</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="2" t="n">
         <v>13242842770.8344</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="2" t="n">
         <v>13525835430.0727</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>13561593160.8861</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="2" t="n">
         <v>13957182419.5419</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="2" t="n">
         <v>14739728564.973</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="2" t="n">
         <v>15492691525.9092</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="2" t="n">
         <v>17770856848.6998</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="2" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="2" t="n">
         <v>8921178070.9692</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3321,89 +3564,89 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>94728582</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="2" t="n">
         <v>126171926</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="2" t="n">
         <v>142387916</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="2" t="n">
         <v>122293882</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="2" t="n">
         <v>154809741.5601</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="2" t="n">
         <v>390063038.6563</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="2" t="n">
         <v>401806186.3927</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="2" t="n">
         <v>273678603.766</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="2" t="n">
         <v>448560074.8284</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="2" t="n">
         <v>265758973.2957</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>342760337.4267</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="2" t="n">
         <v>240595110.3673</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="2" t="n">
         <v>165068862.2906</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="2" t="n">
         <v>37057729.2465</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="2" t="n">
         <v>21377986.7054</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="2" t="n">
         <v>20581211.4037</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="2" t="n">
         <v>12037218.327</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>61635056.7136</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="2" t="n">
         <v>74258106.801</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="2" t="n">
         <v>57129361.3409</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="2" t="n">
         <v>53011459.3802</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="2" t="n">
         <v>59882975.4903</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="2" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="2" t="n">
         <v>12693082.6274</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3421,89 +3664,89 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>1040234215.7181</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="2" t="n">
         <v>956001709.13</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="2" t="n">
         <v>1424542472.5764</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="2" t="n">
         <v>1687784043.0481</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="2" t="n">
         <v>2213685904.6534</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="2" t="n">
         <v>2553315733.3979</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="2" t="n">
         <v>3251255807.9771</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="2" t="n">
         <v>3353815832.8083</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="2" t="n">
         <v>3970583754.1267</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="2" t="n">
         <v>3802095023.9926</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>4027646293.2761</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="2" t="n">
         <v>2923748313.0268</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="2" t="n">
         <v>2907234407.5828</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="2" t="n">
         <v>2591117363.5723</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="2" t="n">
         <v>1640462823.2053</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="2" t="n">
         <v>1060708871.9086</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="2" t="n">
         <v>1231070996.0363</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>1384107541.6294</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="2" t="n">
         <v>2253683572.4918</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="2" t="n">
         <v>2818908907.3165</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="2" t="n">
         <v>3007175068.2425</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="2" t="n">
         <v>2887157551.8173</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="2" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="2" t="n">
         <v>1296031213.0585</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3521,89 +3764,89 @@
       <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>189997975</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="2" t="n">
         <v>247265050</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="2" t="n">
         <v>406050243</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="2" t="n">
         <v>579250799.0469</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="2" t="n">
         <v>612106250</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="2" t="n">
         <v>479530244.6875</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="2" t="n">
         <v>554477945.5431</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="2" t="n">
         <v>468543353.1756</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="2" t="n">
         <v>335276935.0406</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="2" t="n">
         <v>483288292.6509</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>673536704.1128</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="2" t="n">
         <v>559887425.0005</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="2" t="n">
         <v>552854123.8964</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="2" t="n">
         <v>553947496.5383</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="2" t="n">
         <v>727478299.3611</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="2" t="n">
         <v>1249846343.6193</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="2" t="n">
         <v>1576301585.0537</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>1515336963.1023</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="2" t="n">
         <v>1363817873.8574</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="2" t="n">
         <v>1397596506.8604</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="2" t="n">
         <v>1340138768.1312</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="2" t="n">
         <v>4019281959.6482</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="2" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="2" t="n">
         <v>5061412826.7791</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3621,89 +3864,89 @@
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>7414000992.9404</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="2" t="n">
         <v>7038127593.5094</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="2" t="n">
         <v>8671200350.1544</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="2" t="n">
         <v>9720487145.2928</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="2" t="n">
         <v>9811121752.9673</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="2" t="n">
         <v>11215915674.0691</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="2" t="n">
         <v>12262854338.515</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="2" t="n">
         <v>12256315404.0209</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="2" t="n">
         <v>12822459284.7238</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="2" t="n">
         <v>15948914661.7072</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>19705492042.0632</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="2" t="n">
         <v>20303258287.7956</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="2" t="n">
         <v>20255087860.8599</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="2" t="n">
         <v>18133540555.0846</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="2" t="n">
         <v>17845664848.4782</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="2" t="n">
         <v>17133245270.403</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="2" t="n">
         <v>16291890770.7339</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>17171687116.5288</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="2" t="n">
         <v>20148162862.9166</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="2" t="n">
         <v>22303852570.6603</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="2" t="n">
         <v>23134715212.8296</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="2" t="n">
         <v>26349687899.4673</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="2" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="2" t="n">
         <v>15684924657.8426</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3721,89 +3964,89 @@
       <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>192311242</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="2" t="n">
         <v>213986669</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="2" t="n">
         <v>162915729</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="2" t="n">
         <v>252677121</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="2" t="n">
         <v>438129472.25</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="2" t="n">
         <v>558385929.5</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="2" t="n">
         <v>720459166.4083</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="2" t="n">
         <v>757928846.1705</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="2" t="n">
         <v>445819238.5459</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="2" t="n">
         <v>378181272.3348</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>1176419509.774</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="2" t="n">
         <v>789678533.8682</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="2" t="n">
         <v>472570418.8814</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="2" t="n">
         <v>412100084.5611</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="2" t="n">
         <v>350994285.1707</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="2" t="n">
         <v>88385208.6262</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="2" t="n">
         <v>628314359.7392</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>720232138.4067</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="2" t="n">
         <v>855299554.4468</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="2" t="n">
         <v>1233314148.2219</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="2" t="n">
         <v>1219563836.6646</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="2" t="n">
         <v>1065707291.0857</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="2" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="2" t="n">
         <v>474901040.8798</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3821,73 +4064,73 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>1640382</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="2" t="n">
         <v>196362728</v>
       </c>
-      <c r="AB8" s="11" t="n">
+      <c r="AB8" s="2" t="n">
         <v>10876129.1602</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="2" t="n">
         <v>60933248</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="2" t="n">
         <v>167128391.6299</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="2" t="n">
         <v>393353333.3425</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="2" t="n">
         <v>1961977491.3969</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="2" t="n">
         <v>4793586819.0848</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="2" t="n">
         <v>6054351675.739</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="2" t="n">
         <v>6919999050.2569</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>423276507.4227</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="2" t="n">
         <v>105524709.4594</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="2" t="n">
         <v>8120839.0782</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-32566429.6293</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-15220698.7913</v>
       </c>
-      <c r="AO8" s="11" t="n">
+      <c r="AO8" s="2" t="n">
         <v>-28665.0601</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3903,109 +4146,109 @@
         <v>56</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="2" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="2" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="2" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="2" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="2" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="2" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="2" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="2" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="2" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="2" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="2" t="n">
         <v>957310217.8193</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="2" t="n">
         <v>1015517558.6172</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="2" t="n">
         <v>1257829632.084</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="2" t="n">
         <v>1405965346.6476</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="2" t="n">
         <v>1346984598.1199</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="2" t="n">
         <v>1300350575.8011</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="2" t="n">
         <v>778658644.8407</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="2" t="n">
         <v>96440864.1059</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="2" t="n">
         <v>432145127.2349</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="2" t="n">
         <v>219619565.3315</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>165408646.063</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="2" t="n">
         <v>177321602.3162</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="2" t="n">
         <v>245371815.3703</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="2" t="n">
         <v>107765368.3347</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="2" t="n">
         <v>159656363.0453</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="2" t="n">
         <v>350145965.433</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="2" t="n">
         <v>102573273.959</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>244597344.2876</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4020,107 +4263,107 @@
       <c r="O10" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4257,89 +4500,89 @@
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>4082742574.09403</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="2" t="n">
         <v>4146635708.89696</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="2" t="n">
         <v>5842221986.46905</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="2" t="n">
         <v>7003478136.97451</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="2" t="n">
         <v>8619544359.44908</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="2" t="n">
         <v>12320862511.0065</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="2" t="n">
         <v>12289171464.675</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="2" t="n">
         <v>11289124374.7702</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="2" t="n">
         <v>12376606242.8203</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="2" t="n">
         <v>13857989192.5783</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>17738684175.5641</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="2" t="n">
         <v>18930862364.9647</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="2" t="n">
         <v>19538575501.5189</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="2" t="n">
         <v>15014631197.4365</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="2" t="n">
         <v>15458087033.7476</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="2" t="n">
         <v>15884095542.6417</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="2" t="n">
         <v>16090198910.2926</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>15849758028.7903</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="2" t="n">
         <v>15937867082.986</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="2" t="n">
         <v>16508128944.4276</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="2" t="n">
         <v>17123000218.7331</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="2" t="n">
         <v>19002156779.4902</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="2" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="2" t="n">
         <v>8509005186.74433</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4357,89 +4600,89 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>153055816.509423</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="2" t="n">
         <v>199033328.94963</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="2" t="n">
         <v>221123569.636348</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="2" t="n">
         <v>186356105.609994</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="2" t="n">
         <v>230276290.449825</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="2" t="n">
         <v>563116341.443671</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="2" t="n">
         <v>561779205.356394</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="2" t="n">
         <v>372426481.192361</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="2" t="n">
         <v>597937654.279696</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="2" t="n">
         <v>350697134.315382</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>448408573.396946</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="2" t="n">
         <v>308535053.306432</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="2" t="n">
         <v>207871218.242891</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="2" t="n">
         <v>45828143.3952382</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="2" t="n">
         <v>25935740.5237827</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="2" t="n">
         <v>24686083.9456361</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="2" t="n">
         <v>14319354.8531152</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>72034363.7662624</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="2" t="n">
         <v>84796185.9674084</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="2" t="n">
         <v>63983462.067919</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="2" t="n">
         <v>58589898.9239223</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="2" t="n">
         <v>64032122.8389334</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="2" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="2" t="n">
         <v>12106641.6400527</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4457,89 +4700,89 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>1680737681.1338</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="2" t="n">
         <v>1508070841.763</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="2" t="n">
         <v>2212265798.13615</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="2" t="n">
         <v>2571910027.13557</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="2" t="n">
         <v>3292812023.37485</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="2" t="n">
         <v>3686106274.75654</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="2" t="n">
         <v>4545693834.66546</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="2" t="n">
         <v>4563929412.06315</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="2" t="n">
         <v>5292850766.91643</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="2" t="n">
         <v>5017267386.20928</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>5269078511.45892</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="2" t="n">
         <v>3749364815.59069</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="2" t="n">
         <v>3661080288.77049</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="2" t="n">
         <v>3204354408.81468</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="2" t="n">
         <v>1990206968.87315</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="2" t="n">
         <v>1272264675.78625</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="2" t="n">
         <v>1464469777.21432</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>1617639561.98907</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="2" t="n">
         <v>2573507184.02822</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="2" t="n">
         <v>3157107779.79726</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="2" t="n">
         <v>3323622578.11516</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="2" t="n">
         <v>3087201754.75024</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="2" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="2" t="n">
         <v>1236152470.71279</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4557,89 +4800,89 @@
       <c r="O17" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>306985437.602792</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="2" t="n">
         <v>390054963.846685</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="2" t="n">
         <v>630582156.872543</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="2" t="n">
         <v>882684573.557469</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="2" t="n">
         <v>910495393.834324</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="2" t="n">
         <v>692276094.474947</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="2" t="n">
         <v>775234902.25811</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="2" t="n">
         <v>637601733.961115</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="2" t="n">
         <v>446929442.280291</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="2" t="n">
         <v>637750128.16693</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>881139384.122263</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="2" t="n">
         <v>717990054.969997</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="2" t="n">
         <v>696209198.0899</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="2" t="n">
         <v>685049673.063497</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="2" t="n">
         <v>882575551.61386</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="2" t="n">
         <v>1499125156.07248</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="2" t="n">
         <v>1875152642.30797</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>1771010523.05009</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="2" t="n">
         <v>1557359311.18204</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="2" t="n">
         <v>1565273284.77133</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="2" t="n">
         <v>1481162674.7662</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="2" t="n">
         <v>4297768339.95483</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="2" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="2" t="n">
         <v>4827567351.83504</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4657,89 +4900,89 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>11979024193.3123</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="2" t="n">
         <v>11102485385.7618</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="2" t="n">
         <v>13466077939.2128</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="2" t="n">
         <v>14812450953.4236</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="2" t="n">
         <v>14593840798.7575</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="2" t="n">
         <v>16191909446.431</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="2" t="n">
         <v>17145123193.6964</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="2" t="n">
         <v>16678601671.7844</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="2" t="n">
         <v>17092540457.9035</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="2" t="n">
         <v>21046283397.0912</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>25779270848.5592</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="2" t="n">
         <v>26036551069.3715</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="2" t="n">
         <v>25507232138.3141</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="2" t="n">
         <v>22425186694.3594</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="2" t="n">
         <v>21650333090.8896</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="2" t="n">
         <v>20550429355.694</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="2" t="n">
         <v>19380670752.7314</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>20068961110.5613</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="2" t="n">
         <v>23007418834.4713</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="2" t="n">
         <v>24979759469.1756</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="2" t="n">
         <v>25569200354.0594</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="2" t="n">
         <v>28175394401.0272</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="2" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="2" t="n">
         <v>14960255720.2154</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -4757,89 +5000,89 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>310723052.607831</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="2" t="n">
         <v>337559078.569606</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="2" t="n">
         <v>253002562.003842</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="2" t="n">
         <v>385039083.52754</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="2" t="n">
         <v>651708533.259852</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="2" t="n">
         <v>806116474.959644</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="2" t="n">
         <v>1007299020.53081</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="2" t="n">
         <v>1031402416.15239</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="2" t="n">
         <v>594284076.287607</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="2" t="n">
         <v>499050274.069167</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>1539024608.43184</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="2" t="n">
         <v>1012670241.59392</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="2" t="n">
         <v>595107928.3838</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="2" t="n">
         <v>509631381.967085</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="2" t="n">
         <v>425825725.825641</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="2" t="n">
         <v>106013423.452163</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="2" t="n">
         <v>747436495.044101</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>841752512.619875</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="2" t="n">
         <v>976676395.360725</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="2" t="n">
         <v>1381281134.05128</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="2" t="n">
         <v>1347899543.9265</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="2" t="n">
         <v>1139547586.17831</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="2" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="2" t="n">
         <v>452959843.1833</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -4857,73 +5100,73 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>2650414.49050045</v>
       </c>
-      <c r="AA20" s="11" t="n">
+      <c r="AA20" s="2" t="n">
         <v>309757714.528909</v>
       </c>
-      <c r="AB20" s="11" t="n">
+      <c r="AB20" s="2" t="n">
         <v>16890257.0617678</v>
       </c>
-      <c r="AC20" s="11" t="n">
+      <c r="AC20" s="2" t="n">
         <v>92852419.2195317</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="2" t="n">
         <v>248600027.785965</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="2" t="n">
         <v>567866390.85196</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="2" t="n">
         <v>2743108974.85004</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="2" t="n">
         <v>6523194165.54852</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="2" t="n">
         <v>8070546270.88831</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="2" t="n">
         <v>9131672230.2732</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>553742058.578887</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="2" t="n">
         <v>135323082.038108</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="2" t="n">
         <v>10226572.649226</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-40273892.5797363</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-18465728.3158519</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="2" t="n">
         <v>-34382.2365970203</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -4939,109 +5182,109 @@
         <v>56</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="2" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="2" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="2" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="2" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="2" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="2" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="2" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="2" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="2" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="2" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="2" t="n">
         <v>1546754885.88171</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="2" t="n">
         <v>1601955733.78488</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="2" t="n">
         <v>1953366451.69235</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="2" t="n">
         <v>2142463893.85081</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="2" t="n">
         <v>2003611745.76137</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="2" t="n">
         <v>1877257228.37457</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="2" t="n">
         <v>1088669735.69933</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="2" t="n">
         <v>131238361.96132</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="2" t="n">
         <v>576056270.246718</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="2" t="n">
         <v>289811294.972342</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>216392175.260044</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="2" t="n">
         <v>227394189.098394</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="2" t="n">
         <v>308996727.036862</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="2" t="n">
         <v>133270085.714972</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="2" t="n">
         <v>193694853.588238</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="2" t="n">
         <v>419981726.359942</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="2" t="n">
         <v>122020143.555109</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>285866761.777262</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5050,41 +5293,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -554,6 +555,24 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
@@ -562,7 +581,7 @@
   <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -570,7 +589,7 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -610,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -619,7 +638,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,6 +1762,1496 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>330073000</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>472427444</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>452168607</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>395233273</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>448991727</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>589287746</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>740014641</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>1105622392</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>1149671004</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>1252418468</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>1545845785</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>1314647806.2202</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>2247925267.9375</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>2713213577.7642</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>3045257370.6194</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>3704630963.7345</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>4768091736.3777</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>4138593618.7726</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>4496701677.6414</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>4233906188.2285</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>4721997364.105</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>4267456789.2419</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>3754451718.6249</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>3343802748.0109</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>2922902414.8458</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>3717760681.9788</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>3597293396.4982</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>3301864302.832</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>4140595772.8173</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>5305644179.2614</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>5108794847.6822</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>8689990293.7552</v>
+      </c>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>1081405000</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>1454618228</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>2203684312</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>2239499956</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>1835575081</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>1603583152</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>2063478749</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>2621089496</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>2851346475</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>3268640940</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>3853117741.1094</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>3683492050.8355</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>4857032577.1149</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>6510140491.6926</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>6589331998.5954</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>8525968264.5287</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>10286763248.8561</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>10879121919.9568</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>11790996481.804</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>12316336299.0233</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>13183270618.3463</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>13892103506.66</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>13937391916.7212</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>12151539962.0475</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>11322904167.3808</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>10614442780.6441</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>9908028998.8953</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>9646852857.1668</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>10422659436.0829</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>10287713072.3966</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>10759170173.2061</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>11750840278.0262</v>
+      </c>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>4009749617</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>3489204449</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>3487856091</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>3281043437</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>3319114900</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>3708703449</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>3203314946</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>3328406015</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>3980625264</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>3728290363</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>4162424911.7831</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>4478019780.9509</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>5108527788.2271</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>5213784821.3668</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>6114088339.0246</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>6878279487.4023</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>6716496086.412</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>7898862294.3312</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>9205103627.8121</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>11934549524.1454</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>12350574978.0759</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>11995269581.8639</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>13062026115.5996</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>9769689768.8907</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>9721083996.0592</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>8164568259.9278</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>8109956678.8508</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>8867588810.0816</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>10138284134.8965</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>12170385496.7032</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>12634534318.3246</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>14461519830.0582</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>36229984337.8681</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>22928079072.9787</v>
+      </c>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>1558326764</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>1638509648</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>1929191746</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>1995899626</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>2098399210</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>2403416747</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>2692115503</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>2549525532</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>2653106481</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>3024125973</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>2855671666.1712</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>2945335917.8956</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>3616297306.8716</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>3985797175.4446</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>4783058821.9025</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>6292483776.7125</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>6912025427.9456</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>7368903630.947</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>8310901217.9534</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>9492638621.1493</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>9335316859.7283</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>9338196534.1993</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>9168398384.6332</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>8643652076.0794</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>9492106174.8341</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>10651129870.6159</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>11744014208.2883</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>12827293048.7613</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>13945486771.5754</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>14779925020.0068</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>15675600811.1646</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>17219581650.0197</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>18750411427.524</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>8523061819.1779</v>
+      </c>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>794311000</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>872676460</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>713666694</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>655919150</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>761081536</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>573198337</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>588769799</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>91126031</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>169923312</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>12206291</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>35226</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>587948</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>7996669</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>2401147</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>6961778.8065</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>24046094.8917</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>37803182.2658</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>10671741.4036</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>-9840892.2424</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>542037481.8118</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>482704760.5842</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>369241878.5332</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>199465829.8355</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>35466332.72</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>13015135.24</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>-2174615.9985</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>8730351.3892</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>15590302.7128</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>5378274.6834</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>6862291.005</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>69195720.7798</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>30642474.3493</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="12" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="12" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="12" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="12" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="12" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="12" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="12" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="12" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="12" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="12" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="12" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="12" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="12" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="12" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="12" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="12" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="12" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="12" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="12" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="12" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>656030506.765117</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>906625846.872294</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>846589245.117427</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>723005899.27171</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>803831790.662189</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>1033119947.63949</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>1273435963.20884</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>1869374701.36537</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>1919878922.03733</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>2065711299.9445</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>2497669487.13351</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>2073826861.20155</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>3490951152.92005</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>4134498862.66832</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>4529757389.32414</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>5348207925.27152</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>6666434906.78052</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>5631868320.41316</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>5994174256.71037</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>5587087987.12808</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>6177447827.01198</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>5472513576.61255</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>4727981048.36224</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>4135177058.52709</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>3546060704.98817</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>4459259004.96872</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>4279304342.24032</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>3858967720.3064</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>4728193921.08381</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>5942189359.75767</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>5646397538.351</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>9292098821.12497</v>
+      </c>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>2149326573.72258</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>2791528095.12983</v>
+      </c>
+      <c r="N12" s="12" t="n">
+        <v>4125928711.74977</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>4096749414.12824</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>3286237842.54074</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>2811349384.53277</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>3550886567.24806</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>4431710527.29267</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>4761570899.61533</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>5391224017.96075</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>6225598119.60917</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>5810624504.83071</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>7542805678.05822</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>9920401651.86483</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>9801495137.75792</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>12308554209.4049</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>14382281506.1982</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>14804493443.6177</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>15717584273.739</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>16252711213.3522</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>17246720011.5962</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>17814995863.4752</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>17551357637.3782</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>15027432257.0986</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>13736929885.2949</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>12731467569.1065</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>11786492466.611</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>11274507479.433</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>11901754648.6271</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>11521982456.7175</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>11891366514.4045</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>12565027739.2302</v>
+      </c>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>7969503937.74027</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>6696060905.5667</v>
+      </c>
+      <c r="N13" s="12" t="n">
+        <v>6530266386.13572</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>6002059853.69488</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>5942225464.39158</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>6501977241.25298</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>5512345604.68756</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>5627633851.60647</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>6647396093.57225</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>6149359602.32365</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>6725355009.87575</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>7063973836.02552</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>7933369149.94425</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>7944965184.754</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>9094580018.0574</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>9929860552.06817</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>9390566800.57233</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>10748905647.7942</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>12270548315.5653</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>15748903096.5131</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>16157364495.9296</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>15382528490.3563</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>16449009484.2361</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>12081872061.7643</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>11793604122.132</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>9792971535.59289</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>9647523570.07377</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>10363762964.3668</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>11577023222.4872</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>13630528689.6805</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>13964076773.5203</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>15463523758.0329</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>36229984337.8681</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>21868764663.3719</v>
+      </c>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>3097223634.44621</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>3144430358.76304</v>
+      </c>
+      <c r="N14" s="12" t="n">
+        <v>3611999945.70369</v>
+      </c>
+      <c r="O14" s="12" t="n">
+        <v>3651127833.94681</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>3756772993.94522</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>4213591408.73177</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>4632660637.63226</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>4310710930.32446</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>4430522465.1839</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>4987926443.51341</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>4613994523.30721</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>4646200079.51431</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>5615986186.36823</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>6073710534.16367</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>7114701125.46777</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>9084173817.49987</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>9663943174.13381</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>10027728919.0853</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>11078562400.1744</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>12526542830.3129</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>12212720254.3509</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>11975143472.6443</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>11545764083.5657</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>10689336202.0698</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>11515808582.3165</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>12775471809.9163</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>13970562158.1443</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>14991563939.0827</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>15924511688.0978</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>16553147973.0943</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>17325157198.7646</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>18412685048.1521</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>18750411427.524</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>8129282550.95893</v>
+      </c>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>1578718186.15611</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>1674735548.58302</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>1336188621.64597</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>1199882315.81729</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>1362567497.64748</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>1004912523.51357</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>1013170003.07544</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>154074933.919425</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>283761340.36305</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>20132786.1999483</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>56915.7067331688</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>927474.52939156</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>12418553.7941318</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>3658959.84818864</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>10355502.065551</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>34714258.0544596</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>52853944.0467159</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>14522286.5231211</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>-13118064.5662478</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>715275910.369421</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>631487746.483397</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>473509467.845327</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>251187319.463919</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>43860112.7118143</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>15789942.0145731</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>-2608337.86872446</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>10385538.9292003</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>18220759.3652166</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>6141513.69977088</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>7685595.04100562</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>76477243.4839</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>32765617.6994924</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3466,89 +4975,89 @@
       <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>2526871722.5859</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>2628650269.6456</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>3761977137.1761</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>4595945628.2328</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>5794732197.7678</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>8534494057.8153</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>8789690100.7834</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>8295843482.2792</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>9284666022.7292</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>10501611274.7887</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>13559324540.7012</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>14762254308.6643</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>15515425637.4548</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>12141188720.0403</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>12741597981.1852</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>13242842770.8344</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>13525835430.0727</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>13561593160.8861</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>13957182419.5419</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>14739728564.973</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>15492691525.9092</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>17770856848.6998</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>8921178070.9692</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3566,89 +5075,89 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>94728582</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>126171926</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>142387916</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>122293882</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>154809741.5601</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>390063038.6563</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>401806186.3927</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>273678603.766</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>448560074.8284</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>265758973.2957</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>342760337.4267</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>240595110.3673</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>165068862.2906</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>37057729.2465</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>21377986.7054</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>20581211.4037</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>12037218.327</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>61635056.7136</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>74258106.801</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>57129361.3409</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>53011459.3802</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>59882975.4903</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>12693082.6274</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3666,89 +5175,89 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>1040234215.7181</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>956001709.13</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>1424542472.5764</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>1687784043.0481</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>2213685904.6534</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>2553315733.3979</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>3251255807.9771</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>3353815832.8083</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>3970583754.1267</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>3802095023.9926</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>4027646293.2761</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>2923748313.0268</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>2907234407.5828</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>2591117363.5723</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>1640462823.2053</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>1060708871.9086</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>1231070996.0363</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>1384107541.6294</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>2253683572.4918</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>2818908907.3165</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>3007175068.2425</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>2887157551.8173</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>1296031213.0585</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3766,89 +5275,89 @@
       <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>189997975</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>247265050</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>406050243</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>579250799.0469</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>612106250</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>479530244.6875</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>554477945.5431</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>468543353.1756</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>335276935.0406</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>483288292.6509</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>673536704.1128</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>559887425.0005</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>552854123.8964</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>553947496.5383</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>727478299.3611</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>1249846343.6193</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1576301585.0537</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1515336963.1023</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>1363817873.8574</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>1397596506.8604</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>1340138768.1312</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>4019281959.6482</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>5061412826.7791</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3866,89 +5375,89 @@
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>7414000992.9404</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>7038127593.5094</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>8671200350.1544</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>9720487145.2928</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>9811121752.9673</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>11215915674.0691</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>12262854338.515</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>12256315404.0209</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>12822459284.7238</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>15948914661.7072</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>19705492042.0632</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>20303258287.7956</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>20255087860.8599</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>18133540555.0846</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>17845664848.4782</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>17133245270.403</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>16291890770.7339</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>17171687116.5288</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>20148162862.9166</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>22303852570.6603</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>23134715212.8296</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>26349687899.4673</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>15684924657.8426</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3966,89 +5475,89 @@
       <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>192311242</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>213986669</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>162915729</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>252677121</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>438129472.25</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>558385929.5</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>720459166.4083</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>757928846.1705</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>445819238.5459</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>378181272.3348</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1176419509.774</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>789678533.8682</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>472570418.8814</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>412100084.5611</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>350994285.1707</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>88385208.6262</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>628314359.7392</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>720232138.4067</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>855299554.4468</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1233314148.2219</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1219563836.6646</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>1065707291.0857</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>474901040.8798</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4066,73 +5575,73 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>1640382</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="3" t="n">
         <v>196362728</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="3" t="n">
         <v>10876129.1602</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="3" t="n">
         <v>60933248</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="3" t="n">
         <v>167128391.6299</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>393353333.3425</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>1961977491.3969</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>4793586819.0848</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>6054351675.739</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>6919999050.2569</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>423276507.4227</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>105524709.4594</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>8120839.0782</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-32566429.6293</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-15220698.7913</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-28665.0601</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4148,109 +5657,109 @@
         <v>56</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>957310217.8193</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>1015517558.6172</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>1257829632.084</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>1405965346.6476</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>1346984598.1199</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1300350575.8011</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>778658644.8407</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>96440864.1059</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>432145127.2349</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>219619565.3315</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>165408646.063</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>177321602.3162</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>245371815.3703</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>107765368.3347</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>159656363.0453</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>350145965.433</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>102573273.959</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>244597344.2876</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4265,107 +5774,107 @@
       <c r="O10" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4502,89 +6011,89 @@
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>4082742574.09403</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>4146635708.89696</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>5842221986.46905</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>7003478136.97451</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>8619544359.44908</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>12320862511.0065</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>12289171464.675</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>11289124374.7702</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>12376606242.8203</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>13857989192.5783</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>17738684175.5641</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>18930862364.9647</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>19538575501.5189</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>15014631197.4365</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>15458087033.7476</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>15884095542.6417</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>16090198910.2926</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>15849758028.7903</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>15937867082.986</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>16508128944.4276</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>17123000218.7331</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>19002156779.4902</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>18938722248.4085</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>8509005186.74433</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4602,89 +6111,89 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>153055816.509423</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>199033328.94963</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>221123569.636348</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>186356105.609994</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>230276290.449825</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>563116341.443671</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>561779205.356394</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>372426481.192361</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>597937654.279696</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>350697134.315382</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>448408573.396946</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>308535053.306432</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>207871218.242891</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>45828143.3952382</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>25935740.5237827</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>24686083.9456361</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>14319354.8531152</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>72034363.7662624</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>84796185.9674084</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>63983462.067919</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>58589898.9239223</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>64032122.8389334</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>22152557.3492</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>12106641.6400527</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4702,89 +6211,89 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>1680737681.1338</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>1508070841.763</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>2212265798.13615</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>2571910027.13557</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>3292812023.37485</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>3686106274.75654</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>4545693834.66546</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>4563929412.06315</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>5292850766.91643</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>5017267386.20928</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>5269078511.45892</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>3749364815.59069</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>3661080288.77049</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>3204354408.81468</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>1990206968.87315</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>1272264675.78625</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>1464469777.21432</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>1617639561.98907</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>2573507184.02822</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>3157107779.79726</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>3323622578.11516</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>3087201754.75024</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>2286773853.6606</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>1236152470.71279</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4802,89 +6311,89 @@
       <c r="O17" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>306985437.602792</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>390054963.846685</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>630582156.872543</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>882684573.557469</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>910495393.834324</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>692276094.474947</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>775234902.25811</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>637601733.961115</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>446929442.280291</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>637750128.16693</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>881139384.122263</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>717990054.969997</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>696209198.0899</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>685049673.063497</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>882575551.61386</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1499125156.07248</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1875152642.30797</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1771010523.05009</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>1557359311.18204</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>1565273284.77133</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>1481162674.7662</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>4297768339.95483</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>4341233380.0041</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>4827567351.83504</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4902,89 +6411,89 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>11979024193.3123</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>11102485385.7618</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>13466077939.2128</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>14812450953.4236</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>14593840798.7575</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>16191909446.431</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>17145123193.6964</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>16678601671.7844</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>17092540457.9035</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>21046283397.0912</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>25779270848.5592</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>26036551069.3715</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>25507232138.3141</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>22425186694.3594</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>21650333090.8896</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>20550429355.694</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>19380670752.7314</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>20068961110.5613</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>23007418834.4713</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>24979759469.1756</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>25569200354.0594</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>28175394401.0272</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>28655235993.9868</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>14960255720.2154</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5002,89 +6511,89 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>310723052.607831</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>337559078.569606</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>253002562.003842</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>385039083.52754</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>651708533.259852</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>806116474.959644</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1007299020.53081</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1031402416.15239</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>594284076.287607</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>499050274.069167</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1539024608.43184</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>1012670241.59392</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>595107928.3838</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>509631381.967085</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>425825725.825641</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>106013423.452163</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>747436495.044101</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>841752512.619875</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>976676395.360725</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1381281134.05128</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1347899543.9265</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>1139547586.17831</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>736277731.9829</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>452959843.1833</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5102,73 +6611,73 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>2650414.49050045</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="3" t="n">
         <v>309757714.528909</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="3" t="n">
         <v>16890257.0617678</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="3" t="n">
         <v>92852419.2195317</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="3" t="n">
         <v>248600027.785965</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>567866390.85196</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>2743108974.85004</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>6523194165.54852</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>8070546270.88831</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>9131672230.2732</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>553742058.578887</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>135323082.038108</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>10226572.649226</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-40273892.5797363</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-18465728.3158519</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-34382.2365970203</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5184,109 +6693,109 @@
         <v>56</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>1546754885.88171</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>1601955733.78488</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>1953366451.69235</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>2142463893.85081</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>2003611745.76137</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1877257228.37457</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1088669735.69933</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>131238361.96132</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>576056270.246718</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>289811294.972342</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>216392175.260044</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>227394189.098394</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>308996727.036862</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>133270085.714972</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>193694853.588238</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>419981726.359942</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>122020143.555109</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>285866761.777262</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5295,41 +6804,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -578,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -590,6 +590,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -625,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -639,6 +640,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1890,106 +1892,106 @@
       <c r="K2" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="13" t="n">
         <v>330073000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="13" t="n">
         <v>472427444</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="13" t="n">
         <v>452168607</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="13" t="n">
         <v>395233273</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="n">
         <v>448991727</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="13" t="n">
         <v>589287746</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="n">
         <v>740014641</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="13" t="n">
         <v>1105622392</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="n">
         <v>1149671004</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="13" t="n">
         <v>1252418468</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="13" t="n">
         <v>1545845785</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="13" t="n">
         <v>1314647806.2202</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="13" t="n">
         <v>2247925267.9375</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="13" t="n">
         <v>2713213577.7642</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="13" t="n">
         <v>3045257370.6194</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="13" t="n">
         <v>3704630963.7345</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="13" t="n">
         <v>4768091736.3777</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="13" t="n">
         <v>4138593618.7726</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="13" t="n">
         <v>4496701677.6414</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="13" t="n">
         <v>4233906188.2285</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="13" t="n">
         <v>4721997364.105</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="13" t="n">
         <v>4267456789.2419</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="13" t="n">
         <v>3754451718.6249</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="13" t="n">
         <v>3343802748.0109</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>2922902414.8458</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="13" t="n">
         <v>3717760681.9788</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="13" t="n">
         <v>3597293396.4982</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="13" t="n">
         <v>3301864302.832</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="13" t="n">
         <v>4140595772.8173</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="13" t="n">
         <v>5305644179.2614</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="13" t="n">
         <v>5108794847.6822</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>8689990293.7552</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1998,106 +2000,106 @@
       <c r="K3" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="13" t="n">
         <v>1081405000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="13" t="n">
         <v>1454618228</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="13" t="n">
         <v>2203684312</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="13" t="n">
         <v>2239499956</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="13" t="n">
         <v>1835575081</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="13" t="n">
         <v>1603583152</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="13" t="n">
         <v>2063478749</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="13" t="n">
         <v>2621089496</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="13" t="n">
         <v>2851346475</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="13" t="n">
         <v>3268640940</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="13" t="n">
         <v>3853117741.1094</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="13" t="n">
         <v>3683492050.8355</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="13" t="n">
         <v>4857032577.1149</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="13" t="n">
         <v>6510140491.6926</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="13" t="n">
         <v>6589331998.5954</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="13" t="n">
         <v>8525968264.5287</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="13" t="n">
         <v>10286763248.8561</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="13" t="n">
         <v>10879121919.9568</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="13" t="n">
         <v>11790996481.804</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="13" t="n">
         <v>12316336299.0233</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="13" t="n">
         <v>13183270618.3463</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="13" t="n">
         <v>13892103506.66</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="13" t="n">
         <v>13937391916.7212</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="13" t="n">
         <v>12151539962.0475</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>11322904167.3808</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="13" t="n">
         <v>10614442780.6441</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="13" t="n">
         <v>9908028998.8953</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="13" t="n">
         <v>9646852857.1668</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="13" t="n">
         <v>10422659436.0829</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="13" t="n">
         <v>10287713072.3966</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="13" t="n">
         <v>10759170173.2061</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>11750840278.0262</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2106,110 +2108,110 @@
       <c r="K4" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="13" t="n">
         <v>4009749617</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>3489204449</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="13" t="n">
         <v>3487856091</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="13" t="n">
         <v>3281043437</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="13" t="n">
         <v>3319114900</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="13" t="n">
         <v>3708703449</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="13" t="n">
         <v>3203314946</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="13" t="n">
         <v>3328406015</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="13" t="n">
         <v>3980625264</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="13" t="n">
         <v>3728290363</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="13" t="n">
         <v>4162424911.7831</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="13" t="n">
         <v>4478019780.9509</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="13" t="n">
         <v>5108527788.2271</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="13" t="n">
         <v>5213784821.3668</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="13" t="n">
         <v>6114088339.0246</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="13" t="n">
         <v>6878279487.4023</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="13" t="n">
         <v>6716496086.412</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="13" t="n">
         <v>7898862294.3312</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="13" t="n">
         <v>9205103627.8121</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="13" t="n">
         <v>11934549524.1454</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="13" t="n">
         <v>12350574978.0759</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="13" t="n">
         <v>11995269581.8639</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="13" t="n">
         <v>13062026115.5996</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="13" t="n">
         <v>9769689768.8907</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>9721083996.0592</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="13" t="n">
         <v>8164568259.9278</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="13" t="n">
         <v>8109956678.8508</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="13" t="n">
         <v>8867588810.0816</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="13" t="n">
         <v>10138284134.8965</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="13" t="n">
         <v>12170385496.7032</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="13" t="n">
         <v>12634534318.3246</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>14461519830.0582</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="13" t="n">
         <v>36229984337.8681</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="13" t="n">
         <v>22928079072.9787</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2218,110 +2220,110 @@
       <c r="K5" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="13" t="n">
         <v>1558326764</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="13" t="n">
         <v>1638509648</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="13" t="n">
         <v>1929191746</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="13" t="n">
         <v>1995899626</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="13" t="n">
         <v>2098399210</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="13" t="n">
         <v>2403416747</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="13" t="n">
         <v>2692115503</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="13" t="n">
         <v>2549525532</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="13" t="n">
         <v>2653106481</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="13" t="n">
         <v>3024125973</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="13" t="n">
         <v>2855671666.1712</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="13" t="n">
         <v>2945335917.8956</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="13" t="n">
         <v>3616297306.8716</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="13" t="n">
         <v>3985797175.4446</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="13" t="n">
         <v>4783058821.9025</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="13" t="n">
         <v>6292483776.7125</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="13" t="n">
         <v>6912025427.9456</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="13" t="n">
         <v>7368903630.947</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="13" t="n">
         <v>8310901217.9534</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="13" t="n">
         <v>9492638621.1493</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="13" t="n">
         <v>9335316859.7283</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="13" t="n">
         <v>9338196534.1993</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="13" t="n">
         <v>9168398384.6332</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="13" t="n">
         <v>8643652076.0794</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>9492106174.8341</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="13" t="n">
         <v>10651129870.6159</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="13" t="n">
         <v>11744014208.2883</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="13" t="n">
         <v>12827293048.7613</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="13" t="n">
         <v>13945486771.5754</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="13" t="n">
         <v>14779925020.0068</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="13" t="n">
         <v>15675600811.1646</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>17219581650.0197</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="13" t="n">
         <v>18750411427.524</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="13" t="n">
         <v>8523061819.1779</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2330,108 +2332,108 @@
       <c r="K6" t="s">
         <v>178</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="13" t="n">
         <v>794311000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="13" t="n">
         <v>872676460</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="13" t="n">
         <v>713666694</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="13" t="n">
         <v>655919150</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="13" t="n">
         <v>761081536</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="13" t="n">
         <v>573198337</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="13" t="n">
         <v>588769799</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="13" t="n">
         <v>91126031</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="13" t="n">
         <v>169923312</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="13" t="n">
         <v>12206291</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="13" t="n">
         <v>35226</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="13" t="n">
         <v>587948</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="13" t="n">
         <v>7996669</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="13" t="n">
         <v>2401147</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="13" t="n">
         <v>6961778.8065</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="13" t="n">
         <v>24046094.8917</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="13" t="n">
         <v>37803182.2658</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="13" t="n">
         <v>10671741.4036</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="13" t="n">
         <v>-9840892.2424</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="13" t="n">
         <v>542037481.8118</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="13" t="n">
         <v>482704760.5842</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="13" t="n">
         <v>369241878.5332</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="13" t="n">
         <v>199465829.8355</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="13" t="n">
         <v>35466332.72</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>13015135.24</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="13" t="n">
         <v>-2174615.9985</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="13" t="n">
         <v>8730351.3892</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="13" t="n">
         <v>15590302.7128</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="13" t="n">
         <v>5378274.6834</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="13" t="n">
         <v>6862291.005</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="13" t="n">
         <v>69195720.7798</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>30642474.3493</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2440,110 +2442,110 @@
       <c r="K7" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="13" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="13" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="13" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2662,106 +2664,106 @@
       <c r="K11" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="13" t="n">
         <v>656030506.765117</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>906625846.872294</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="13" t="n">
         <v>846589245.117427</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="13" t="n">
         <v>723005899.27171</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="13" t="n">
         <v>803831790.662189</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="13" t="n">
         <v>1033119947.63949</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="13" t="n">
         <v>1273435963.20884</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="13" t="n">
         <v>1869374701.36537</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="13" t="n">
         <v>1919878922.03733</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="13" t="n">
         <v>2065711299.9445</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="13" t="n">
         <v>2497669487.13351</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="13" t="n">
         <v>2073826861.20155</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="13" t="n">
         <v>3490951152.92005</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="13" t="n">
         <v>4134498862.66832</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="13" t="n">
         <v>4529757389.32414</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="13" t="n">
         <v>5348207925.27152</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="13" t="n">
         <v>6666434906.78052</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="13" t="n">
         <v>5631868320.41316</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="13" t="n">
         <v>5994174256.71037</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="13" t="n">
         <v>5587087987.12808</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="13" t="n">
         <v>6177447827.01198</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="13" t="n">
         <v>5472513576.61255</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="13" t="n">
         <v>4727981048.36224</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="13" t="n">
         <v>4135177058.52709</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>3546060704.98817</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="13" t="n">
         <v>4459259004.96872</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="13" t="n">
         <v>4279304342.24032</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="13" t="n">
         <v>3858967720.3064</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="13" t="n">
         <v>4728193921.08381</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="13" t="n">
         <v>5942189359.75767</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="13" t="n">
         <v>5646397538.351</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="13" t="n">
         <v>9292098821.12497</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2770,106 +2772,106 @@
       <c r="K12" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="13" t="n">
         <v>2149326573.72258</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>2791528095.12983</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="13" t="n">
         <v>4125928711.74977</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="13" t="n">
         <v>4096749414.12824</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="13" t="n">
         <v>3286237842.54074</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="13" t="n">
         <v>2811349384.53277</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="13" t="n">
         <v>3550886567.24806</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="13" t="n">
         <v>4431710527.29267</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>4761570899.61533</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="13" t="n">
         <v>5391224017.96075</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="13" t="n">
         <v>6225598119.60917</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="13" t="n">
         <v>5810624504.83071</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="13" t="n">
         <v>7542805678.05822</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="13" t="n">
         <v>9920401651.86483</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="13" t="n">
         <v>9801495137.75792</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="13" t="n">
         <v>12308554209.4049</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="13" t="n">
         <v>14382281506.1982</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="13" t="n">
         <v>14804493443.6177</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="13" t="n">
         <v>15717584273.739</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="13" t="n">
         <v>16252711213.3522</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="13" t="n">
         <v>17246720011.5962</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="13" t="n">
         <v>17814995863.4752</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="13" t="n">
         <v>17551357637.3782</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="13" t="n">
         <v>15027432257.0986</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>13736929885.2949</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="13" t="n">
         <v>12731467569.1065</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="13" t="n">
         <v>11786492466.611</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="13" t="n">
         <v>11274507479.433</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="13" t="n">
         <v>11901754648.6271</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="13" t="n">
         <v>11521982456.7175</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="13" t="n">
         <v>11891366514.4045</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="13" t="n">
         <v>12565027739.2302</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2878,110 +2880,110 @@
       <c r="K13" t="s">
         <v>176</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="13" t="n">
         <v>7969503937.74027</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>6696060905.5667</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="13" t="n">
         <v>6530266386.13572</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="13" t="n">
         <v>6002059853.69488</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="13" t="n">
         <v>5942225464.39158</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="13" t="n">
         <v>6501977241.25298</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="13" t="n">
         <v>5512345604.68756</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="13" t="n">
         <v>5627633851.60647</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="13" t="n">
         <v>6647396093.57225</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="13" t="n">
         <v>6149359602.32365</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="13" t="n">
         <v>6725355009.87575</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="13" t="n">
         <v>7063973836.02552</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="13" t="n">
         <v>7933369149.94425</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="13" t="n">
         <v>7944965184.754</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="13" t="n">
         <v>9094580018.0574</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="13" t="n">
         <v>9929860552.06817</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="13" t="n">
         <v>9390566800.57233</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="13" t="n">
         <v>10748905647.7942</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="13" t="n">
         <v>12270548315.5653</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="13" t="n">
         <v>15748903096.5131</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="13" t="n">
         <v>16157364495.9296</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="13" t="n">
         <v>15382528490.3563</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="13" t="n">
         <v>16449009484.2361</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="13" t="n">
         <v>12081872061.7643</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>11793604122.132</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="13" t="n">
         <v>9792971535.59289</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="13" t="n">
         <v>9647523570.07377</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="13" t="n">
         <v>10363762964.3668</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="13" t="n">
         <v>11577023222.4872</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="13" t="n">
         <v>13630528689.6805</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="13" t="n">
         <v>13964076773.5203</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="13" t="n">
         <v>15463523758.0329</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="13" t="n">
         <v>36229984337.8681</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="13" t="n">
         <v>21868764663.3719</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2990,110 +2992,110 @@
       <c r="K14" t="s">
         <v>177</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="13" t="n">
         <v>3097223634.44621</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>3144430358.76304</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="13" t="n">
         <v>3611999945.70369</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="13" t="n">
         <v>3651127833.94681</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="13" t="n">
         <v>3756772993.94522</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="13" t="n">
         <v>4213591408.73177</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="13" t="n">
         <v>4632660637.63226</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="13" t="n">
         <v>4310710930.32446</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="13" t="n">
         <v>4430522465.1839</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="13" t="n">
         <v>4987926443.51341</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="13" t="n">
         <v>4613994523.30721</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="13" t="n">
         <v>4646200079.51431</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="13" t="n">
         <v>5615986186.36823</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="13" t="n">
         <v>6073710534.16367</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="13" t="n">
         <v>7114701125.46777</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="13" t="n">
         <v>9084173817.49987</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="13" t="n">
         <v>9663943174.13381</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="13" t="n">
         <v>10027728919.0853</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="13" t="n">
         <v>11078562400.1744</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="13" t="n">
         <v>12526542830.3129</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="13" t="n">
         <v>12212720254.3509</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="13" t="n">
         <v>11975143472.6443</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="13" t="n">
         <v>11545764083.5657</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="13" t="n">
         <v>10689336202.0698</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="13" t="n">
         <v>11515808582.3165</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="13" t="n">
         <v>12775471809.9163</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="13" t="n">
         <v>13970562158.1443</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="13" t="n">
         <v>14991563939.0827</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="13" t="n">
         <v>15924511688.0978</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="13" t="n">
         <v>16553147973.0943</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="13" t="n">
         <v>17325157198.7646</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>18412685048.1521</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="13" t="n">
         <v>18750411427.524</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="13" t="n">
         <v>8129282550.95893</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3102,149 +3104,149 @@
       <c r="K15" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="13" t="n">
         <v>1578718186.15611</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>1674735548.58302</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="13" t="n">
         <v>1336188621.64597</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="13" t="n">
         <v>1199882315.81729</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="13" t="n">
         <v>1362567497.64748</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="13" t="n">
         <v>1004912523.51357</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="13" t="n">
         <v>1013170003.07544</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="13" t="n">
         <v>154074933.919425</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="13" t="n">
         <v>283761340.36305</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="13" t="n">
         <v>20132786.1999483</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="13" t="n">
         <v>56915.7067331688</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="13" t="n">
         <v>927474.52939156</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="13" t="n">
         <v>12418553.7941318</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="13" t="n">
         <v>3658959.84818864</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="13" t="n">
         <v>10355502.065551</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="13" t="n">
         <v>34714258.0544596</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="13" t="n">
         <v>52853944.0467159</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="13" t="n">
         <v>14522286.5231211</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="13" t="n">
         <v>-13118064.5662478</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="13" t="n">
         <v>715275910.369421</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="13" t="n">
         <v>631487746.483397</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="13" t="n">
         <v>473509467.845327</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="13" t="n">
         <v>251187319.463919</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="13" t="n">
         <v>43860112.7118143</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="13" t="n">
         <v>15789942.0145731</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="13" t="n">
         <v>-2608337.86872446</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="13" t="n">
         <v>10385538.9292003</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="13" t="n">
         <v>18220759.3652166</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="13" t="n">
         <v>6141513.69977088</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="13" t="n">
         <v>7685595.04100562</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="13" t="n">
         <v>76477243.4839</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>32765617.6994924</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -589,8 +589,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -639,8 +639,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,7 +1929,7 @@
         <v>1314647806.2202</v>
       </c>
       <c r="X2" s="13" t="n">
-        <v>2247925267.9375</v>
+        <v>2248821860.9375</v>
       </c>
       <c r="Y2" s="13" t="n">
         <v>2713213577.7642</v>
@@ -1986,10 +1986,14 @@
         <v>5108794847.6822</v>
       </c>
       <c r="AQ2" s="13" t="n">
-        <v>8689990293.7552</v>
-      </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
+        <v>8709371187.6927</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>9531004137.5119</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>8082244063.0493</v>
+      </c>
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
     </row>
@@ -2034,31 +2038,31 @@
         <v>3853117741.1094</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>3683492050.8355</v>
+        <v>3645730079.8355</v>
       </c>
       <c r="X3" s="13" t="n">
-        <v>4857032577.1149</v>
+        <v>4764537484.1149</v>
       </c>
       <c r="Y3" s="13" t="n">
-        <v>6510140491.6926</v>
+        <v>6412643130.6926</v>
       </c>
       <c r="Z3" s="13" t="n">
-        <v>6589331998.5954</v>
+        <v>6436975020.5954</v>
       </c>
       <c r="AA3" s="13" t="n">
-        <v>8525968264.5287</v>
+        <v>8363192864.6381</v>
       </c>
       <c r="AB3" s="13" t="n">
-        <v>10286763248.8561</v>
+        <v>10117751868.4634</v>
       </c>
       <c r="AC3" s="13" t="n">
-        <v>10879121919.9568</v>
+        <v>10720302107.6913</v>
       </c>
       <c r="AD3" s="13" t="n">
-        <v>11790996481.804</v>
+        <v>11670703073.392</v>
       </c>
       <c r="AE3" s="13" t="n">
-        <v>12316336299.0233</v>
+        <v>12173606170.0199</v>
       </c>
       <c r="AF3" s="13" t="n">
         <v>13183270618.3463</v>
@@ -2091,13 +2095,17 @@
         <v>10287713072.3966</v>
       </c>
       <c r="AP3" s="13" t="n">
-        <v>10759170173.2061</v>
+        <v>10759124819.1175</v>
       </c>
       <c r="AQ3" s="13" t="n">
-        <v>11750840278.0262</v>
-      </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
+        <v>11790829981.0009</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>12474420746.5917</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>6492832905.4279</v>
+      </c>
       <c r="AT3" s="13"/>
       <c r="AU3" s="13"/>
     </row>
@@ -2142,31 +2150,31 @@
         <v>4162424911.7831</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>4478019780.9509</v>
+        <v>4515781751.9509</v>
       </c>
       <c r="X4" s="13" t="n">
-        <v>5108527788.2271</v>
+        <v>5200670337.2271</v>
       </c>
       <c r="Y4" s="13" t="n">
-        <v>5213784821.3668</v>
+        <v>5311117182.3668</v>
       </c>
       <c r="Z4" s="13" t="n">
-        <v>6114088339.0246</v>
+        <v>6266445317.0246</v>
       </c>
       <c r="AA4" s="13" t="n">
-        <v>6878279487.4023</v>
+        <v>7041054887.2929</v>
       </c>
       <c r="AB4" s="13" t="n">
-        <v>6716496086.412</v>
+        <v>6885507466.8047</v>
       </c>
       <c r="AC4" s="13" t="n">
-        <v>7898862294.3312</v>
+        <v>8057682106.5967</v>
       </c>
       <c r="AD4" s="13" t="n">
-        <v>9205103627.8121</v>
+        <v>9325397036.2241</v>
       </c>
       <c r="AE4" s="13" t="n">
-        <v>11934549524.1454</v>
+        <v>12064700673.1488</v>
       </c>
       <c r="AF4" s="13" t="n">
         <v>12350574978.0759</v>
@@ -2199,16 +2207,16 @@
         <v>12170385496.7032</v>
       </c>
       <c r="AP4" s="13" t="n">
-        <v>12634534318.3246</v>
+        <v>12635491331.4132</v>
       </c>
       <c r="AQ4" s="13" t="n">
-        <v>14461519830.0582</v>
+        <v>14403083322.146</v>
       </c>
       <c r="AR4" s="13" t="n">
-        <v>36229984337.8681</v>
+        <v>14667107905.7855</v>
       </c>
       <c r="AS4" s="13" t="n">
-        <v>22928079072.9787</v>
+        <v>8538993678.4236</v>
       </c>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
@@ -2257,10 +2265,10 @@
         <v>2945335917.8956</v>
       </c>
       <c r="X5" s="13" t="n">
-        <v>3616297306.8716</v>
+        <v>3615753257.8716</v>
       </c>
       <c r="Y5" s="13" t="n">
-        <v>3985797175.4446</v>
+        <v>3985962175.4446</v>
       </c>
       <c r="Z5" s="13" t="n">
         <v>4783058821.9025</v>
@@ -2278,7 +2286,7 @@
         <v>8310901217.9534</v>
       </c>
       <c r="AE5" s="13" t="n">
-        <v>9492638621.1493</v>
+        <v>9505217601.1493</v>
       </c>
       <c r="AF5" s="13" t="n">
         <v>9335316859.7283</v>
@@ -2305,22 +2313,22 @@
         <v>12827293048.7613</v>
       </c>
       <c r="AN5" s="13" t="n">
-        <v>13945486771.5754</v>
+        <v>13945249469.5754</v>
       </c>
       <c r="AO5" s="13" t="n">
-        <v>14779925020.0068</v>
+        <v>14779988618.0068</v>
       </c>
       <c r="AP5" s="13" t="n">
-        <v>15675600811.1646</v>
+        <v>15674556314.0748</v>
       </c>
       <c r="AQ5" s="13" t="n">
-        <v>17219581650.0197</v>
+        <v>17218573974.8713</v>
       </c>
       <c r="AR5" s="13" t="n">
-        <v>18750411427.524</v>
+        <v>18307966740.4418</v>
       </c>
       <c r="AS5" s="13" t="n">
-        <v>8523061819.1779</v>
+        <v>8336669062.3518</v>
       </c>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
@@ -2429,9 +2437,11 @@
         <v>30642474.3493</v>
       </c>
       <c r="AR6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="13"/>
+        <v>-179256.5404</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>502805.7009</v>
+      </c>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
     </row>
@@ -2701,7 +2711,7 @@
         <v>2073826861.20155</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>3490951152.92005</v>
+        <v>3492343531.22181</v>
       </c>
       <c r="Y11" s="13" t="n">
         <v>4134498862.66832</v>
@@ -2758,10 +2768,14 @@
         <v>5646397538.351</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>9292098821.12497</v>
-      </c>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
+        <v>9312822570.59088</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>9531004137.5119</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>7708831289.53715</v>
+      </c>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
     </row>
@@ -2806,31 +2820,31 @@
         <v>6225598119.60917</v>
       </c>
       <c r="W12" s="13" t="n">
-        <v>5810624504.83071</v>
+        <v>5751055858.8244</v>
       </c>
       <c r="X12" s="13" t="n">
-        <v>7542805678.05822</v>
+        <v>7399163958.22291</v>
       </c>
       <c r="Y12" s="13" t="n">
-        <v>9920401651.86483</v>
+        <v>9771831435.54598</v>
       </c>
       <c r="Z12" s="13" t="n">
-        <v>9801495137.75792</v>
+        <v>9574867282.40189</v>
       </c>
       <c r="AA12" s="13" t="n">
-        <v>12308554209.4049</v>
+        <v>12073562737.3105</v>
       </c>
       <c r="AB12" s="13" t="n">
-        <v>14382281506.1982</v>
+        <v>14145980816.491</v>
       </c>
       <c r="AC12" s="13" t="n">
-        <v>14804493443.6177</v>
+        <v>14588368752.0571</v>
       </c>
       <c r="AD12" s="13" t="n">
-        <v>15717584273.739</v>
+        <v>15557231263.1</v>
       </c>
       <c r="AE12" s="13" t="n">
-        <v>16252711213.3522</v>
+        <v>16064363679.4901</v>
       </c>
       <c r="AF12" s="13" t="n">
         <v>17246720011.5962</v>
@@ -2863,13 +2877,17 @@
         <v>11521982456.7175</v>
       </c>
       <c r="AP12" s="13" t="n">
-        <v>11891366514.4045</v>
+        <v>11891316387.6678</v>
       </c>
       <c r="AQ12" s="13" t="n">
-        <v>12565027739.2302</v>
-      </c>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
+        <v>12607788232.5457</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>12474420746.5917</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>6192853503.14145</v>
+      </c>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
     </row>
@@ -2914,31 +2932,31 @@
         <v>6725355009.87575</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>7063973836.02552</v>
+        <v>7123542482.03184</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>7933369149.94425</v>
+        <v>8076463380.99032</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>7944965184.754</v>
+        <v>8093283967.74746</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>9094580018.0574</v>
+        <v>9321207873.41343</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>9929860552.06817</v>
+        <v>10164852024.1625</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>9390566800.57233</v>
+        <v>9626867490.27949</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>10748905647.7942</v>
+        <v>10965030339.3548</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>12270548315.5653</v>
+        <v>12430901326.2043</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>15748903096.5131</v>
+        <v>15920651332.9596</v>
       </c>
       <c r="AF13" s="13" t="n">
         <v>16157364495.9296</v>
@@ -2971,16 +2989,16 @@
         <v>13630528689.6805</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>13964076773.5203</v>
+        <v>13965134493.8846</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>15463523758.0329</v>
+        <v>15401038325.0317</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>36229984337.8681</v>
+        <v>14667107905.7855</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>21868764663.3719</v>
+        <v>8144478332.48887</v>
       </c>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
@@ -3029,10 +3047,10 @@
         <v>4646200079.51431</v>
       </c>
       <c r="X14" s="13" t="n">
-        <v>5615986186.36823</v>
+        <v>5615141296.85571</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>6073710534.16367</v>
+        <v>6073961967.48906</v>
       </c>
       <c r="Z14" s="13" t="n">
         <v>7114701125.46777</v>
@@ -3050,7 +3068,7 @@
         <v>11078562400.1744</v>
       </c>
       <c r="AE14" s="13" t="n">
-        <v>12526542830.3129</v>
+        <v>12543142127.7286</v>
       </c>
       <c r="AF14" s="13" t="n">
         <v>12212720254.3509</v>
@@ -3077,22 +3095,22 @@
         <v>14991563939.0827</v>
       </c>
       <c r="AN14" s="13" t="n">
-        <v>15924511688.0978</v>
+        <v>15924240710.2156</v>
       </c>
       <c r="AO14" s="13" t="n">
-        <v>16553147973.0943</v>
+        <v>16553219201.2706</v>
       </c>
       <c r="AP14" s="13" t="n">
-        <v>17325157198.7646</v>
+        <v>17324002788.3855</v>
       </c>
       <c r="AQ14" s="13" t="n">
-        <v>18412685048.1521</v>
+        <v>18411607553.6162</v>
       </c>
       <c r="AR14" s="13" t="n">
-        <v>18750411427.524</v>
+        <v>18307966740.4418</v>
       </c>
       <c r="AS14" s="13" t="n">
-        <v>8129282550.95893</v>
+        <v>7951501441.55971</v>
       </c>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
@@ -3201,9 +3219,11 @@
         <v>32765617.6994924</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="13"/>
+        <v>-179256.5404</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>479575.26268926</v>
+      </c>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
     </row>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -573,6 +573,9 @@
   <si>
     <t xml:space="preserve">Unlabeled</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -589,8 +592,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -639,8 +642,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,110 +1895,110 @@
       <c r="K2" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>330073000</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="12" t="n">
         <v>472427444</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="12" t="n">
         <v>452168607</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="12" t="n">
         <v>395233273</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="12" t="n">
         <v>448991727</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="12" t="n">
         <v>589287746</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="12" t="n">
         <v>740014641</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="12" t="n">
         <v>1105622392</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="12" t="n">
         <v>1149671004</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="12" t="n">
         <v>1252418468</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="12" t="n">
         <v>1545845785</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="12" t="n">
         <v>1314647806.2202</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="12" t="n">
         <v>2248821860.9375</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="12" t="n">
         <v>2713213577.7642</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="12" t="n">
         <v>3045257370.6194</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="12" t="n">
         <v>3704630963.7345</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="12" t="n">
         <v>4768091736.3777</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="12" t="n">
         <v>4138593618.7726</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="12" t="n">
         <v>4496701677.6414</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="12" t="n">
         <v>4233906188.2285</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="12" t="n">
         <v>4721997364.105</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="12" t="n">
         <v>4267456789.2419</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="12" t="n">
         <v>3754451718.6249</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="12" t="n">
         <v>3343802748.0109</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>2922902414.8458</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="12" t="n">
         <v>3717760681.9788</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="12" t="n">
         <v>3597293396.4982</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="12" t="n">
         <v>3301864302.832</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="12" t="n">
         <v>4140595772.8173</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="12" t="n">
         <v>5305644179.2614</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="12" t="n">
         <v>5108794847.6822</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>8709371187.6927</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="12" t="n">
         <v>9531004137.5119</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="12" t="n">
         <v>8082244063.0493</v>
       </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2004,110 +2007,110 @@
       <c r="K3" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>1081405000</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="12" t="n">
         <v>1454618228</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="12" t="n">
         <v>2203684312</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="12" t="n">
         <v>2239499956</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="12" t="n">
         <v>1835575081</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="12" t="n">
         <v>1603583152</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="12" t="n">
         <v>2063478749</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="12" t="n">
         <v>2621089496</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="12" t="n">
         <v>2851346475</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="12" t="n">
         <v>3268640940</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="12" t="n">
         <v>3853117741.1094</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="12" t="n">
         <v>3645730079.8355</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="12" t="n">
         <v>4764537484.1149</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="12" t="n">
         <v>6412643130.6926</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="12" t="n">
         <v>6436975020.5954</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="12" t="n">
         <v>8363192864.6381</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="12" t="n">
         <v>10117751868.4634</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="12" t="n">
         <v>10720302107.6913</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="12" t="n">
         <v>11670703073.392</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="12" t="n">
         <v>12173606170.0199</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="12" t="n">
         <v>13183270618.3463</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="12" t="n">
         <v>13892103506.66</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="12" t="n">
         <v>13937391916.7212</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="12" t="n">
         <v>12151539962.0475</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>11322904167.3808</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="12" t="n">
         <v>10614442780.6441</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="12" t="n">
         <v>9908028998.8953</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="12" t="n">
         <v>9646852857.1668</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="12" t="n">
         <v>10422659436.0829</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="12" t="n">
         <v>10287713072.3966</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="12" t="n">
         <v>10759124819.1175</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>11790829981.0009</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="12" t="n">
         <v>12474420746.5917</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="12" t="n">
         <v>6492832905.4279</v>
       </c>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2116,110 +2119,110 @@
       <c r="K4" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="12" t="n">
         <v>4009749617</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="12" t="n">
         <v>3489204449</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="12" t="n">
         <v>3487856091</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="12" t="n">
         <v>3281043437</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="12" t="n">
         <v>3319114900</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="12" t="n">
         <v>3708703449</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="12" t="n">
         <v>3203314946</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="12" t="n">
         <v>3328406015</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="12" t="n">
         <v>3980625264</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="12" t="n">
         <v>3728290363</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="12" t="n">
         <v>4162424911.7831</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="12" t="n">
         <v>4515781751.9509</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="12" t="n">
         <v>5200670337.2271</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="12" t="n">
         <v>5311117182.3668</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="12" t="n">
         <v>6266445317.0246</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="12" t="n">
         <v>7041054887.2929</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="12" t="n">
         <v>6885507466.8047</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="12" t="n">
         <v>8057682106.5967</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="12" t="n">
         <v>9325397036.2241</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="12" t="n">
         <v>12064700673.1488</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="12" t="n">
         <v>12350574978.0759</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="12" t="n">
         <v>11995269581.8639</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="12" t="n">
         <v>13062026115.5996</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="12" t="n">
         <v>9769689768.8907</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>9721083996.0592</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="12" t="n">
         <v>8164568259.9278</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="12" t="n">
         <v>8109956678.8508</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="12" t="n">
         <v>8867588810.0816</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="12" t="n">
         <v>10138284134.8965</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="12" t="n">
         <v>12170385496.7032</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="12" t="n">
         <v>12635491331.4132</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>14403083322.146</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="12" t="n">
         <v>14667107905.7855</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="12" t="n">
         <v>8538993678.4236</v>
       </c>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2228,110 +2231,110 @@
       <c r="K5" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="12" t="n">
         <v>1558326764</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="12" t="n">
         <v>1638509648</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="12" t="n">
         <v>1929191746</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="12" t="n">
         <v>1995899626</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="12" t="n">
         <v>2098399210</v>
       </c>
-      <c r="Q5" s="13" t="n">
+      <c r="Q5" s="12" t="n">
         <v>2403416747</v>
       </c>
-      <c r="R5" s="13" t="n">
+      <c r="R5" s="12" t="n">
         <v>2692115503</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <v>2549525532</v>
       </c>
-      <c r="T5" s="13" t="n">
+      <c r="T5" s="12" t="n">
         <v>2653106481</v>
       </c>
-      <c r="U5" s="13" t="n">
+      <c r="U5" s="12" t="n">
         <v>3024125973</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="12" t="n">
         <v>2855671666.1712</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="12" t="n">
         <v>2945335917.8956</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="12" t="n">
         <v>3615753257.8716</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="12" t="n">
         <v>3985962175.4446</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="12" t="n">
         <v>4783058821.9025</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="12" t="n">
         <v>6292483776.7125</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="12" t="n">
         <v>6912025427.9456</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="12" t="n">
         <v>7368903630.947</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="12" t="n">
         <v>8310901217.9534</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="12" t="n">
         <v>9505217601.1493</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="12" t="n">
         <v>9335316859.7283</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="12" t="n">
         <v>9338196534.1993</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="12" t="n">
         <v>9168398384.6332</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="12" t="n">
         <v>8643652076.0794</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>9492106174.8341</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="12" t="n">
         <v>10651129870.6159</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="12" t="n">
         <v>11744014208.2883</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="12" t="n">
         <v>12827293048.7613</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="12" t="n">
         <v>13945249469.5754</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="12" t="n">
         <v>14779988618.0068</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="12" t="n">
         <v>15674556314.0748</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>17218573974.8713</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="12" t="n">
         <v>18307966740.4418</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="12" t="n">
         <v>8336669062.3518</v>
       </c>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2340,110 +2343,110 @@
       <c r="K6" t="s">
         <v>178</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="12" t="n">
         <v>794311000</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="12" t="n">
         <v>872676460</v>
       </c>
-      <c r="N6" s="13" t="n">
+      <c r="N6" s="12" t="n">
         <v>713666694</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="12" t="n">
         <v>655919150</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="12" t="n">
         <v>761081536</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="12" t="n">
         <v>573198337</v>
       </c>
-      <c r="R6" s="13" t="n">
+      <c r="R6" s="12" t="n">
         <v>588769799</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <v>91126031</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="12" t="n">
         <v>169923312</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="12" t="n">
         <v>12206291</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="12" t="n">
         <v>35226</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="12" t="n">
         <v>587948</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="12" t="n">
         <v>7996669</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="12" t="n">
         <v>2401147</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="12" t="n">
         <v>6961778.8065</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="12" t="n">
         <v>24046094.8917</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="12" t="n">
         <v>37803182.2658</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="12" t="n">
         <v>10671741.4036</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="12" t="n">
         <v>-9840892.2424</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="12" t="n">
         <v>542037481.8118</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="12" t="n">
         <v>482704760.5842</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="12" t="n">
         <v>369241878.5332</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="12" t="n">
         <v>199465829.8355</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="12" t="n">
         <v>35466332.72</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>13015135.24</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="12" t="n">
         <v>-2174615.9985</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="12" t="n">
         <v>8730351.3892</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="12" t="n">
         <v>15590302.7128</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="12" t="n">
         <v>5378274.6834</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="12" t="n">
         <v>6862291.005</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="12" t="n">
         <v>69195720.7798</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>30642474.3493</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="12" t="n">
         <v>-179256.5404</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="12" t="n">
         <v>502805.7009</v>
       </c>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2452,110 +2455,110 @@
       <c r="K7" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="13" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="13" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="13" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="13" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="13" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="13" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="13" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="13" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="13" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="13" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="13" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="13" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="13" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="13" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="13" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="13" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="13" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="13" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="13" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="13" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="13" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="13" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="13" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="13" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="13" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="13" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="13" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="13" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2674,110 +2677,110 @@
       <c r="K11" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="12" t="n">
         <v>656030506.765117</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="12" t="n">
         <v>906625846.872294</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="12" t="n">
         <v>846589245.117427</v>
       </c>
-      <c r="O11" s="13" t="n">
+      <c r="O11" s="12" t="n">
         <v>723005899.27171</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="12" t="n">
         <v>803831790.662189</v>
       </c>
-      <c r="Q11" s="13" t="n">
+      <c r="Q11" s="12" t="n">
         <v>1033119947.63949</v>
       </c>
-      <c r="R11" s="13" t="n">
+      <c r="R11" s="12" t="n">
         <v>1273435963.20884</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <v>1869374701.36537</v>
       </c>
-      <c r="T11" s="13" t="n">
+      <c r="T11" s="12" t="n">
         <v>1919878922.03733</v>
       </c>
-      <c r="U11" s="13" t="n">
+      <c r="U11" s="12" t="n">
         <v>2065711299.9445</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <v>2497669487.13351</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="12" t="n">
         <v>2073826861.20155</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="12" t="n">
         <v>3492343531.22181</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="12" t="n">
         <v>4134498862.66832</v>
       </c>
-      <c r="Z11" s="13" t="n">
+      <c r="Z11" s="12" t="n">
         <v>4529757389.32414</v>
       </c>
-      <c r="AA11" s="13" t="n">
+      <c r="AA11" s="12" t="n">
         <v>5348207925.27152</v>
       </c>
-      <c r="AB11" s="13" t="n">
+      <c r="AB11" s="12" t="n">
         <v>6666434906.78052</v>
       </c>
-      <c r="AC11" s="13" t="n">
+      <c r="AC11" s="12" t="n">
         <v>5631868320.41316</v>
       </c>
-      <c r="AD11" s="13" t="n">
+      <c r="AD11" s="12" t="n">
         <v>5994174256.71037</v>
       </c>
-      <c r="AE11" s="13" t="n">
+      <c r="AE11" s="12" t="n">
         <v>5587087987.12808</v>
       </c>
-      <c r="AF11" s="13" t="n">
+      <c r="AF11" s="12" t="n">
         <v>6177447827.01198</v>
       </c>
-      <c r="AG11" s="13" t="n">
+      <c r="AG11" s="12" t="n">
         <v>5472513576.61255</v>
       </c>
-      <c r="AH11" s="13" t="n">
+      <c r="AH11" s="12" t="n">
         <v>4727981048.36224</v>
       </c>
-      <c r="AI11" s="13" t="n">
+      <c r="AI11" s="12" t="n">
         <v>4135177058.52709</v>
       </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>3546060704.98817</v>
       </c>
-      <c r="AK11" s="13" t="n">
+      <c r="AK11" s="12" t="n">
         <v>4459259004.96872</v>
       </c>
-      <c r="AL11" s="13" t="n">
+      <c r="AL11" s="12" t="n">
         <v>4279304342.24032</v>
       </c>
-      <c r="AM11" s="13" t="n">
+      <c r="AM11" s="12" t="n">
         <v>3858967720.3064</v>
       </c>
-      <c r="AN11" s="13" t="n">
+      <c r="AN11" s="12" t="n">
         <v>4728193921.08381</v>
       </c>
-      <c r="AO11" s="13" t="n">
+      <c r="AO11" s="12" t="n">
         <v>5942189359.75767</v>
       </c>
-      <c r="AP11" s="13" t="n">
+      <c r="AP11" s="12" t="n">
         <v>5646397538.351</v>
       </c>
-      <c r="AQ11" s="13" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>9312822570.59088</v>
       </c>
-      <c r="AR11" s="13" t="n">
+      <c r="AR11" s="12" t="n">
         <v>9531004137.5119</v>
       </c>
-      <c r="AS11" s="13" t="n">
+      <c r="AS11" s="12" t="n">
         <v>7708831289.53715</v>
       </c>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2786,110 +2789,110 @@
       <c r="K12" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="12" t="n">
         <v>2149326573.72258</v>
       </c>
-      <c r="M12" s="13" t="n">
+      <c r="M12" s="12" t="n">
         <v>2791528095.12983</v>
       </c>
-      <c r="N12" s="13" t="n">
+      <c r="N12" s="12" t="n">
         <v>4125928711.74977</v>
       </c>
-      <c r="O12" s="13" t="n">
+      <c r="O12" s="12" t="n">
         <v>4096749414.12824</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="12" t="n">
         <v>3286237842.54074</v>
       </c>
-      <c r="Q12" s="13" t="n">
+      <c r="Q12" s="12" t="n">
         <v>2811349384.53277</v>
       </c>
-      <c r="R12" s="13" t="n">
+      <c r="R12" s="12" t="n">
         <v>3550886567.24806</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <v>4431710527.29267</v>
       </c>
-      <c r="T12" s="13" t="n">
+      <c r="T12" s="12" t="n">
         <v>4761570899.61533</v>
       </c>
-      <c r="U12" s="13" t="n">
+      <c r="U12" s="12" t="n">
         <v>5391224017.96075</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <v>6225598119.60917</v>
       </c>
-      <c r="W12" s="13" t="n">
+      <c r="W12" s="12" t="n">
         <v>5751055858.8244</v>
       </c>
-      <c r="X12" s="13" t="n">
+      <c r="X12" s="12" t="n">
         <v>7399163958.22291</v>
       </c>
-      <c r="Y12" s="13" t="n">
+      <c r="Y12" s="12" t="n">
         <v>9771831435.54598</v>
       </c>
-      <c r="Z12" s="13" t="n">
+      <c r="Z12" s="12" t="n">
         <v>9574867282.40189</v>
       </c>
-      <c r="AA12" s="13" t="n">
+      <c r="AA12" s="12" t="n">
         <v>12073562737.3105</v>
       </c>
-      <c r="AB12" s="13" t="n">
+      <c r="AB12" s="12" t="n">
         <v>14145980816.491</v>
       </c>
-      <c r="AC12" s="13" t="n">
+      <c r="AC12" s="12" t="n">
         <v>14588368752.0571</v>
       </c>
-      <c r="AD12" s="13" t="n">
+      <c r="AD12" s="12" t="n">
         <v>15557231263.1</v>
       </c>
-      <c r="AE12" s="13" t="n">
+      <c r="AE12" s="12" t="n">
         <v>16064363679.4901</v>
       </c>
-      <c r="AF12" s="13" t="n">
+      <c r="AF12" s="12" t="n">
         <v>17246720011.5962</v>
       </c>
-      <c r="AG12" s="13" t="n">
+      <c r="AG12" s="12" t="n">
         <v>17814995863.4752</v>
       </c>
-      <c r="AH12" s="13" t="n">
+      <c r="AH12" s="12" t="n">
         <v>17551357637.3782</v>
       </c>
-      <c r="AI12" s="13" t="n">
+      <c r="AI12" s="12" t="n">
         <v>15027432257.0986</v>
       </c>
-      <c r="AJ12" s="13" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>13736929885.2949</v>
       </c>
-      <c r="AK12" s="13" t="n">
+      <c r="AK12" s="12" t="n">
         <v>12731467569.1065</v>
       </c>
-      <c r="AL12" s="13" t="n">
+      <c r="AL12" s="12" t="n">
         <v>11786492466.611</v>
       </c>
-      <c r="AM12" s="13" t="n">
+      <c r="AM12" s="12" t="n">
         <v>11274507479.433</v>
       </c>
-      <c r="AN12" s="13" t="n">
+      <c r="AN12" s="12" t="n">
         <v>11901754648.6271</v>
       </c>
-      <c r="AO12" s="13" t="n">
+      <c r="AO12" s="12" t="n">
         <v>11521982456.7175</v>
       </c>
-      <c r="AP12" s="13" t="n">
+      <c r="AP12" s="12" t="n">
         <v>11891316387.6678</v>
       </c>
-      <c r="AQ12" s="13" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>12607788232.5457</v>
       </c>
-      <c r="AR12" s="13" t="n">
+      <c r="AR12" s="12" t="n">
         <v>12474420746.5917</v>
       </c>
-      <c r="AS12" s="13" t="n">
+      <c r="AS12" s="12" t="n">
         <v>6192853503.14145</v>
       </c>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2898,110 +2901,110 @@
       <c r="K13" t="s">
         <v>176</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="12" t="n">
         <v>7969503937.74027</v>
       </c>
-      <c r="M13" s="13" t="n">
+      <c r="M13" s="12" t="n">
         <v>6696060905.5667</v>
       </c>
-      <c r="N13" s="13" t="n">
+      <c r="N13" s="12" t="n">
         <v>6530266386.13572</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="12" t="n">
         <v>6002059853.69488</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="12" t="n">
         <v>5942225464.39158</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="12" t="n">
         <v>6501977241.25298</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="12" t="n">
         <v>5512345604.68756</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <v>5627633851.60647</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="12" t="n">
         <v>6647396093.57225</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="12" t="n">
         <v>6149359602.32365</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <v>6725355009.87575</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="12" t="n">
         <v>7123542482.03184</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="12" t="n">
         <v>8076463380.99032</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="12" t="n">
         <v>8093283967.74746</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="12" t="n">
         <v>9321207873.41343</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="12" t="n">
         <v>10164852024.1625</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="12" t="n">
         <v>9626867490.27949</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="12" t="n">
         <v>10965030339.3548</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="12" t="n">
         <v>12430901326.2043</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="12" t="n">
         <v>15920651332.9596</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="12" t="n">
         <v>16157364495.9296</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AG13" s="12" t="n">
         <v>15382528490.3563</v>
       </c>
-      <c r="AH13" s="13" t="n">
+      <c r="AH13" s="12" t="n">
         <v>16449009484.2361</v>
       </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AI13" s="12" t="n">
         <v>12081872061.7643</v>
       </c>
-      <c r="AJ13" s="13" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>11793604122.132</v>
       </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AK13" s="12" t="n">
         <v>9792971535.59289</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="12" t="n">
         <v>9647523570.07377</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="12" t="n">
         <v>10363762964.3668</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="12" t="n">
         <v>11577023222.4872</v>
       </c>
-      <c r="AO13" s="13" t="n">
+      <c r="AO13" s="12" t="n">
         <v>13630528689.6805</v>
       </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AP13" s="12" t="n">
         <v>13965134493.8846</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>15401038325.0317</v>
       </c>
-      <c r="AR13" s="13" t="n">
+      <c r="AR13" s="12" t="n">
         <v>14667107905.7855</v>
       </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AS13" s="12" t="n">
         <v>8144478332.48887</v>
       </c>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3010,110 +3013,110 @@
       <c r="K14" t="s">
         <v>177</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="12" t="n">
         <v>3097223634.44621</v>
       </c>
-      <c r="M14" s="13" t="n">
+      <c r="M14" s="12" t="n">
         <v>3144430358.76304</v>
       </c>
-      <c r="N14" s="13" t="n">
+      <c r="N14" s="12" t="n">
         <v>3611999945.70369</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="12" t="n">
         <v>3651127833.94681</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="12" t="n">
         <v>3756772993.94522</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="12" t="n">
         <v>4213591408.73177</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="12" t="n">
         <v>4632660637.63226</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <v>4310710930.32446</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="12" t="n">
         <v>4430522465.1839</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="12" t="n">
         <v>4987926443.51341</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="12" t="n">
         <v>4613994523.30721</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="12" t="n">
         <v>4646200079.51431</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="12" t="n">
         <v>5615141296.85571</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="12" t="n">
         <v>6073961967.48906</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="12" t="n">
         <v>7114701125.46777</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="12" t="n">
         <v>9084173817.49987</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="12" t="n">
         <v>9663943174.13381</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="12" t="n">
         <v>10027728919.0853</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="12" t="n">
         <v>11078562400.1744</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="12" t="n">
         <v>12543142127.7286</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="12" t="n">
         <v>12212720254.3509</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="12" t="n">
         <v>11975143472.6443</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="12" t="n">
         <v>11545764083.5657</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="12" t="n">
         <v>10689336202.0698</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>11515808582.3165</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="12" t="n">
         <v>12775471809.9163</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="12" t="n">
         <v>13970562158.1443</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="12" t="n">
         <v>14991563939.0827</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="12" t="n">
         <v>15924240710.2156</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="12" t="n">
         <v>16553219201.2706</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="12" t="n">
         <v>17324002788.3855</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>18411607553.6162</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="12" t="n">
         <v>18307966740.4418</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="12" t="n">
         <v>7951501441.55971</v>
       </c>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3122,151 +3125,151 @@
       <c r="K15" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="12" t="n">
         <v>1578718186.15611</v>
       </c>
-      <c r="M15" s="13" t="n">
+      <c r="M15" s="12" t="n">
         <v>1674735548.58302</v>
       </c>
-      <c r="N15" s="13" t="n">
+      <c r="N15" s="12" t="n">
         <v>1336188621.64597</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="12" t="n">
         <v>1199882315.81729</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="12" t="n">
         <v>1362567497.64748</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="12" t="n">
         <v>1004912523.51357</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="12" t="n">
         <v>1013170003.07544</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <v>154074933.919425</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="12" t="n">
         <v>283761340.36305</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="12" t="n">
         <v>20132786.1999483</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="12" t="n">
         <v>56915.7067331688</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="12" t="n">
         <v>927474.52939156</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="12" t="n">
         <v>12418553.7941318</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="12" t="n">
         <v>3658959.84818864</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="12" t="n">
         <v>10355502.065551</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="12" t="n">
         <v>34714258.0544596</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="12" t="n">
         <v>52853944.0467159</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="12" t="n">
         <v>14522286.5231211</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="12" t="n">
         <v>-13118064.5662478</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="12" t="n">
         <v>715275910.369421</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="12" t="n">
         <v>631487746.483397</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="12" t="n">
         <v>473509467.845327</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="12" t="n">
         <v>251187319.463919</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="12" t="n">
         <v>43860112.7118143</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>15789942.0145731</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="12" t="n">
         <v>-2608337.86872446</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="12" t="n">
         <v>10385538.9292003</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="12" t="n">
         <v>18220759.3652166</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="12" t="n">
         <v>6141513.69977088</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="12" t="n">
         <v>7685595.04100562</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="12" t="n">
         <v>76477243.4839</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>32765617.6994924</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="12" t="n">
         <v>-179256.5404</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="12" t="n">
         <v>479575.26268926</v>
       </c>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4992,94 +4995,94 @@
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="n">
         <v>2526871722.5859</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>2628650269.6456</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>3761977137.1761</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>4595945628.2328</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>5794732197.7678</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>8534494057.8153</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>8789690100.7834</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>8295843482.2792</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>9284666022.7292</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>10501611274.7887</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AA2" s="13" t="n">
+        <v>2628650269.6457</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>3761977140.1733</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>4595945632.1528</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>5794732193.6981</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>8534494056.8896</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>8789690098.0478</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>8296087699.3547</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>9285865106.4297</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>10502311312.9302</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
         <v>13559324540.7012</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="13" t="n">
         <v>14762254308.6643</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="13" t="n">
         <v>15515425637.4548</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="13" t="n">
         <v>12141188720.0403</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="13" t="n">
         <v>12741597981.1852</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="13" t="n">
         <v>13242842770.8344</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="13" t="n">
         <v>13525835430.0727</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>13561593160.8861</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>13957182419.5419</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>14739728564.973</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>15492691525.9092</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>17770856848.6998</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>18938722248.4085</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>8921178070.9692</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="13" t="n">
+        <v>13955501498.3153</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>14740183186.9818</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>15439849169.6595</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>17738619548.5977</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>18957216383.562</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>21648026791.6599</v>
+      </c>
+      <c r="AX2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5097,89 +5100,89 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13" t="n">
         <v>94728582</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="13" t="n">
         <v>126171926</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="13" t="n">
         <v>142387916</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="13" t="n">
         <v>122293882</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="13" t="n">
         <v>154809741.5601</v>
       </c>
-      <c r="AE3" s="3" t="n">
-        <v>390063038.6563</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>401806186.3927</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>273678603.766</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>448560074.8284</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>265758973.2957</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AE3" s="13" t="n">
+        <v>390063039.6563</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>401806190.3944</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>273678603.914</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>448560073.7808</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>265758973.3213</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
         <v>342760337.4267</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="13" t="n">
         <v>240595110.3673</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="13" t="n">
         <v>165068862.2906</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="13" t="n">
         <v>37057729.2465</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="13" t="n">
         <v>21377986.7054</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="13" t="n">
         <v>20581211.4037</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="13" t="n">
         <v>12037218.327</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>61635056.7136</v>
       </c>
-      <c r="AR3" s="3" t="n">
-        <v>74258106.801</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>57129361.3409</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>53011459.3802</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>59882975.4903</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>22152557.3492</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>12693082.6274</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AR3" s="13" t="n">
+        <v>74258106.7965</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>57129361.3354</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>54734722.8602</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>66102986.8834</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>22275338.5734</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>17786027.2782</v>
+      </c>
+      <c r="AX3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5197,89 +5200,89 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="n">
         <v>1040234215.7181</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="13" t="n">
         <v>956001709.13</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="13" t="n">
         <v>1424542472.5764</v>
       </c>
-      <c r="AC4" s="3" t="n">
-        <v>1687784043.0481</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>2213685904.6534</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>2553315733.3979</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>3251255807.9771</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>3353815832.8083</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>3970583754.1267</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>3802095023.9926</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AC4" s="13" t="n">
+        <v>1687784043.0483</v>
+      </c>
+      <c r="AD4" s="13" t="n">
+        <v>2213685905.6531</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>2553315733.3916</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>3251255808.021</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>3353815836.5901</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>3970583754.329</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>3802095023.5435</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
         <v>4027646293.2761</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="13" t="n">
         <v>2923748313.0268</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="13" t="n">
         <v>2907234407.5828</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="13" t="n">
         <v>2591117363.5723</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="13" t="n">
         <v>1640462823.2053</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="13" t="n">
         <v>1060708871.9086</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="13" t="n">
         <v>1231070996.0363</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="13" t="n">
         <v>1384107541.6294</v>
       </c>
-      <c r="AR4" s="3" t="n">
-        <v>2253683572.4918</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>2818908907.3165</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>3007175068.2425</v>
-      </c>
-      <c r="AU4" s="3" t="n">
-        <v>2887157551.8173</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>2286773853.6606</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>1296031213.0585</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AR4" s="13" t="n">
+        <v>2253683573.1968</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>2818908907.4682</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>3037583332.8293</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>2901064159.265</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>2286773854.5766</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>2555910431.3483</v>
+      </c>
+      <c r="AX4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5297,89 +5300,89 @@
       <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13" t="n">
         <v>189997975</v>
       </c>
-      <c r="AA5" s="3" t="n">
-        <v>247265050</v>
-      </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AA5" s="13" t="n">
+        <v>247265051</v>
+      </c>
+      <c r="AB5" s="13" t="n">
         <v>406050243</v>
       </c>
-      <c r="AC5" s="3" t="n">
-        <v>579250799.0469</v>
-      </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AC5" s="13" t="n">
+        <v>579250801.05</v>
+      </c>
+      <c r="AD5" s="13" t="n">
         <v>612106250</v>
       </c>
-      <c r="AE5" s="3" t="n">
-        <v>479530244.6875</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>554477945.5431</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>468543353.1756</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>335276935.0406</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>483288292.6509</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AE5" s="13" t="n">
+        <v>479530244.6825</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>554477945.545</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>468543353.5862</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>335276934.836</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>483288292.5878</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
         <v>673536704.1128</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="13" t="n">
         <v>559887425.0005</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="13" t="n">
         <v>552854123.8964</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="13" t="n">
         <v>553947496.5383</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="13" t="n">
         <v>727478299.3611</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="13" t="n">
         <v>1249846343.6193</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="13" t="n">
         <v>1576301585.0537</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>1515336963.1023</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>1363817873.8574</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>1397596506.8604</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>1340138768.1312</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>4019281959.6482</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>4341233380.0041</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>5061412826.7791</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="13" t="n">
+        <v>1363817875.5449</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>1397596509.8479</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>1340138769.4669</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>4021696342.2935</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>4333451515.7041</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>6489880687.4395</v>
+      </c>
+      <c r="AX5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5397,89 +5400,89 @@
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13" t="n">
         <v>7414000992.9404</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>7038127593.5094</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>8671200350.1544</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>9720487145.2928</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>9811121752.9673</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>11215915674.0691</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>12262854338.515</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>12256315404.0209</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>12822459284.7238</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>15948914661.7072</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="13" t="n">
+        <v>7038127595.5811</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>8671200361.0369</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>9719888940.3587</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>9811121756.5792</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>11215915678.2378</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>12262854330.045</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>12265893973.7726</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>12825737285.7295</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>15948914670.6307</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
         <v>19705492042.0632</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="13" t="n">
         <v>20303258287.7956</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="13" t="n">
         <v>20255087860.8599</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="13" t="n">
         <v>18133540555.0846</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="13" t="n">
         <v>17845664848.4782</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="13" t="n">
         <v>17133245270.403</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="13" t="n">
         <v>16291890770.7339</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="13" t="n">
         <v>17171687116.5288</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>20148162862.9166</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>22303852570.6603</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>23134715212.8296</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>26349687899.4673</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>28655235993.9868</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>15684924657.8426</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="13" t="n">
+        <v>20153167310.5188</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>22319737834.941</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>23180742470.4012</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>26385050498.4085</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>28673743876.8743</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>35459175827.9414</v>
+      </c>
+      <c r="AX6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5497,89 +5500,89 @@
       <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="n">
         <v>192311242</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="13" t="n">
         <v>213986669</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="13" t="n">
         <v>162915729</v>
       </c>
-      <c r="AC7" s="3" t="n">
-        <v>252677121</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>438129472.25</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>558385929.5</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>720459166.4083</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>757928846.1705</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>445819238.5459</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>378181272.3348</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AC7" s="13" t="n">
+        <v>253275325</v>
+      </c>
+      <c r="AD7" s="13" t="n">
+        <v>438129473.25</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>558385928.59</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>720459165.4083</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>757928845.9123</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>445819239.2724</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>378181271.1618</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
         <v>1176419509.774</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="13" t="n">
         <v>789678533.8682</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="13" t="n">
         <v>472570418.8814</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="13" t="n">
         <v>412100084.5611</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="13" t="n">
         <v>350994285.1707</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="13" t="n">
         <v>88385208.6262</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="13" t="n">
         <v>628314359.7392</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="13" t="n">
         <v>720232138.4067</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>855299554.4468</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>1233314148.2219</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>1219563836.6646</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>1065707291.0857</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>736277731.9829</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>474901040.8798</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="13" t="n">
+        <v>855299554.3794</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>1232923981.8005</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>1210881861.4378</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>1048616954.45</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>732814344.0312</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>1163168202.8895</v>
+      </c>
+      <c r="AX7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5597,73 +5600,73 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="n">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13" t="n">
         <v>1640382</v>
       </c>
-      <c r="AA8" s="3" t="n">
+      <c r="AA8" s="13" t="n">
         <v>196362728</v>
       </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AB8" s="13" t="n">
         <v>10876129.1602</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="13" t="n">
         <v>60933248</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AD8" s="13" t="n">
         <v>167128391.6299</v>
       </c>
-      <c r="AE8" s="3" t="n">
+      <c r="AE8" s="13" t="n">
         <v>393353333.3425</v>
       </c>
-      <c r="AF8" s="3" t="n">
-        <v>1961977491.3969</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>4793586819.0848</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>6054351675.739</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>6919999050.2569</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AF8" s="13" t="n">
+        <v>1961977491.3574</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>4783764019.3367</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>6049874590.2309</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>6919299011.7899</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
         <v>423276507.4227</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="13" t="n">
         <v>105524709.4594</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="13" t="n">
         <v>8120839.0782</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="13" t="n">
         <v>-32566429.6293</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="13" t="n">
         <v>-15220698.7913</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AO8" s="13" t="n">
         <v>-28665.0601</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5679,109 +5682,109 @@
         <v>56</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="13" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="13" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="13" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="13" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="13" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="13" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="13" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="13" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="13" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="13" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="13" t="n">
         <v>957310217.8193</v>
       </c>
-      <c r="AA9" s="3" t="n">
-        <v>1015517558.6172</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>1257829632.084</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>1405965346.6476</v>
-      </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AA9" s="13" t="n">
+        <v>1015517558.6196</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>1257829632.0846</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>1405965346.6477</v>
+      </c>
+      <c r="AD9" s="13" t="n">
         <v>1346984598.1199</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="13" t="n">
         <v>1300350575.8011</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="13" t="n">
         <v>778658644.8407</v>
       </c>
-      <c r="AG9" s="3" t="n">
-        <v>96440864.1059</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>432145127.2349</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>219619565.3315</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AG9" s="13" t="n">
+        <v>96440864.1642</v>
+      </c>
+      <c r="AH9" s="13" t="n">
+        <v>432145128.2811</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>219619565.972</v>
+      </c>
+      <c r="AJ9" s="13" t="n">
         <v>165408646.063</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="13" t="n">
         <v>177321602.3162</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="13" t="n">
         <v>245371815.3703</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="13" t="n">
         <v>107765368.3347</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="13" t="n">
         <v>159656363.0453</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="13" t="n">
         <v>350145965.433</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="13" t="n">
         <v>102573273.959</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="13" t="n">
         <v>244597344.2876</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5796,107 +5799,107 @@
       <c r="O10" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="13" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="13" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="13" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="13" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="13" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="13" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="13" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="13" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="13" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="13" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="13" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="13" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="13" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="13" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="13" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="13" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="13" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="13" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="13" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="13" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="13" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="13" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="13" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="13" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="13" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="13" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="13" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="13" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="13" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="13" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="13" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="13" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6028,94 +6031,94 @@
         <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13" t="n">
         <v>4082742574.09403</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>4146635708.89696</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>5842221986.46905</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>7003478136.97451</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>8619544359.44908</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>12320862511.0065</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>12289171464.675</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>11289124374.7702</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>12376606242.8203</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>13857989192.5783</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AA14" s="13" t="n">
+        <v>4146635708.89712</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>5842221991.1236</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>7003478142.94796</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>8619544353.39549</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>12320862509.6702</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>12289171460.8503</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>11289456709.5045</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>12378204640.3046</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>13858912967.1063</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
         <v>17738684175.5641</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="13" t="n">
         <v>18930862364.9647</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="13" t="n">
         <v>19538575501.5189</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="13" t="n">
         <v>15014631197.4365</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="13" t="n">
         <v>15458087033.7476</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="13" t="n">
         <v>15884095542.6417</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="13" t="n">
         <v>16090198910.2926</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="13" t="n">
         <v>15849758028.7903</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>15937867082.986</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>16508128944.4276</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>17123000218.7331</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>19002156779.4902</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>18938722248.4085</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>8509005186.74433</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="13" t="n">
+        <v>15935947619.7103</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>16508638109.7564</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>17064597217.8015</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>18967685834.3971</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>18957216383.562</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>20647852871.8576</v>
+      </c>
+      <c r="AX14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6133,89 +6136,89 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13" t="n">
         <v>153055816.509423</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="13" t="n">
         <v>199033328.94963</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="13" t="n">
         <v>221123569.636348</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="13" t="n">
         <v>186356105.609994</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="13" t="n">
         <v>230276290.449825</v>
       </c>
-      <c r="AE15" s="3" t="n">
-        <v>563116341.443671</v>
-      </c>
-      <c r="AF15" s="3" t="n">
-        <v>561779205.356394</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>372426481.192361</v>
-      </c>
-      <c r="AH15" s="3" t="n">
-        <v>597937654.279696</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>350697134.315382</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AE15" s="13" t="n">
+        <v>563116342.887326</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>561779210.95131</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>372426481.393762</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>597937652.883229</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>350697134.349164</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
         <v>448408573.396946</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="13" t="n">
         <v>308535053.306432</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="13" t="n">
         <v>207871218.242891</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="13" t="n">
         <v>45828143.3952382</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="13" t="n">
         <v>25935740.5237827</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="13" t="n">
         <v>24686083.9456361</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="13" t="n">
         <v>14319354.8531152</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="13" t="n">
         <v>72034363.7662624</v>
       </c>
-      <c r="AR15" s="3" t="n">
-        <v>84796185.9674084</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>63983462.067919</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>58589898.9239223</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>64032122.8389334</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>22152557.3492</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>12106641.6400527</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AR15" s="13" t="n">
+        <v>84796185.9622698</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>63983462.0617591</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>60494502.839622</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>70683103.861863</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>22275338.5734</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>16964283.9945395</v>
+      </c>
+      <c r="AX15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6233,89 +6236,89 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13" t="n">
         <v>1680737681.1338</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="13" t="n">
         <v>1508070841.763</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="13" t="n">
         <v>2212265798.13615</v>
       </c>
-      <c r="AC16" s="3" t="n">
-        <v>2571910027.13557</v>
-      </c>
-      <c r="AD16" s="3" t="n">
-        <v>3292812023.37485</v>
-      </c>
-      <c r="AE16" s="3" t="n">
-        <v>3686106274.75654</v>
-      </c>
-      <c r="AF16" s="3" t="n">
-        <v>4545693834.66546</v>
-      </c>
-      <c r="AG16" s="3" t="n">
-        <v>4563929412.06315</v>
-      </c>
-      <c r="AH16" s="3" t="n">
-        <v>5292850766.91643</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>5017267386.20928</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AC16" s="13" t="n">
+        <v>2571910027.13587</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>3292812024.86188</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>3686106274.74744</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>4545693834.72684</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>4563929417.20949</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>5292850767.1861</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>5017267385.61665</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
         <v>5269078511.45892</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="13" t="n">
         <v>3749364815.59069</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="13" t="n">
         <v>3661080288.77049</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="13" t="n">
         <v>3204354408.81468</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="13" t="n">
         <v>1990206968.87315</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="13" t="n">
         <v>1272264675.78625</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="13" t="n">
         <v>1464469777.21432</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="13" t="n">
         <v>1617639561.98907</v>
       </c>
-      <c r="AR16" s="3" t="n">
-        <v>2573507184.02822</v>
-      </c>
-      <c r="AS16" s="3" t="n">
-        <v>3157107779.79726</v>
-      </c>
-      <c r="AT16" s="3" t="n">
-        <v>3323622578.11516</v>
-      </c>
-      <c r="AU16" s="3" t="n">
-        <v>3087201754.75024</v>
-      </c>
-      <c r="AV16" s="3" t="n">
-        <v>2286773853.6606</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>1236152470.71279</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AR16" s="13" t="n">
+        <v>2573507184.83326</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>3157107779.96716</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>3357230729.43607</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>3102071917.58154</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>2286773854.5766</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>2437823227.40184</v>
+      </c>
+      <c r="AX16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6333,89 +6336,89 @@
       <c r="O17" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13" t="n">
         <v>306985437.602792</v>
       </c>
-      <c r="AA17" s="3" t="n">
-        <v>390054963.846685</v>
-      </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AA17" s="13" t="n">
+        <v>390054965.424162</v>
+      </c>
+      <c r="AB17" s="13" t="n">
         <v>630582156.872543</v>
       </c>
-      <c r="AC17" s="3" t="n">
-        <v>882684573.557469</v>
-      </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AC17" s="13" t="n">
+        <v>882684576.609869</v>
+      </c>
+      <c r="AD17" s="13" t="n">
         <v>910495393.834324</v>
       </c>
-      <c r="AE17" s="3" t="n">
-        <v>692276094.474947</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>775234902.25811</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>637601733.961115</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>446929442.280291</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>637750128.16693</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AE17" s="13" t="n">
+        <v>692276094.467728</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>775234902.260767</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>637601734.519866</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>446929442.007556</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>637750128.083663</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
         <v>881139384.122263</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="13" t="n">
         <v>717990054.969997</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="13" t="n">
         <v>696209198.0899</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="13" t="n">
         <v>685049673.063497</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="13" t="n">
         <v>882575551.61386</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="13" t="n">
         <v>1499125156.07248</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="13" t="n">
         <v>1875152642.30797</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="13" t="n">
         <v>1771010523.05009</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>1557359311.18204</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>1565273284.77133</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>1481162674.7662</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>4297768339.95483</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>4341233380.0041</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>4827567351.83504</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="13" t="n">
+        <v>1557359313.10901</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>1565273288.11725</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>1481162676.24246</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>4300350009.36685</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>4333451515.7041</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>6190037682.40837</v>
+      </c>
+      <c r="AX17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6433,89 +6436,89 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13" t="n">
         <v>11979024193.3123</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>11102485385.7618</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>13466077939.2128</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>14812450953.4236</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>14593840798.7575</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>16191909446.431</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>17145123193.6964</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>16678601671.7844</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>17092540457.9035</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>21046283397.0912</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="13" t="n">
+        <v>11102485389.0299</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>13466077956.113</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>14811539385.8124</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>14593840804.1301</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>16191909452.4492</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>17145123181.8542</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>16691636351.801</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>17096910084.9436</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>21046283408.8667</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
         <v>25779270848.5592</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="13" t="n">
         <v>26036551069.3715</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="13" t="n">
         <v>25507232138.3141</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="13" t="n">
         <v>22425186694.3594</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="13" t="n">
         <v>21650333090.8896</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="13" t="n">
         <v>20550429355.694</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="13" t="n">
         <v>19380670752.7314</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="13" t="n">
         <v>20068961110.5613</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>23007418834.4713</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>24979759469.1756</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>25569200354.0594</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>28175394401.0272</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>28655235993.9868</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>14960255720.2154</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="13" t="n">
+        <v>23013133470.7288</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>24997550569.5955</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>25620071097.8645</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>28213207189.3993</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>28673743876.8743</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>33820904440.8026</v>
+      </c>
+      <c r="AX18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6533,89 +6536,89 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13" t="n">
         <v>310723052.607831</v>
       </c>
-      <c r="AA19" s="3" t="n">
+      <c r="AA19" s="13" t="n">
         <v>337559078.569606</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="13" t="n">
         <v>253002562.003842</v>
       </c>
-      <c r="AC19" s="3" t="n">
-        <v>385039083.52754</v>
-      </c>
-      <c r="AD19" s="3" t="n">
-        <v>651708533.259852</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>806116474.959644</v>
-      </c>
-      <c r="AF19" s="3" t="n">
-        <v>1007299020.53081</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>1031402416.15239</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>594284076.287607</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>499050274.069167</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AC19" s="13" t="n">
+        <v>385950649.715294</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>651708534.747331</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>806116473.645918</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>1007299019.13267</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>1031402415.80103</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>594284077.256043</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>499050272.521269</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
         <v>1539024608.43184</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="13" t="n">
         <v>1012670241.59392</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="13" t="n">
         <v>595107928.3838</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="13" t="n">
         <v>509631381.967085</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="13" t="n">
         <v>425825725.825641</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="13" t="n">
         <v>106013423.452163</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="13" t="n">
         <v>747436495.044101</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="13" t="n">
         <v>841752512.619875</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>976676395.360725</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>1381281134.05128</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>1347899543.9265</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>1139547586.17831</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>736277731.9829</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>452959843.1833</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="13" t="n">
+        <v>976676395.28376</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>1380844157.37523</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>1338303957.294</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>1121273101.22068</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>732814344.0312</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>1109427946.9267</v>
+      </c>
+      <c r="AX19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6633,73 +6636,73 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="n">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13" t="n">
         <v>2650414.49050045</v>
       </c>
-      <c r="AA20" s="3" t="n">
+      <c r="AA20" s="13" t="n">
         <v>309757714.528909</v>
       </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AB20" s="13" t="n">
         <v>16890257.0617678</v>
       </c>
-      <c r="AC20" s="3" t="n">
+      <c r="AC20" s="13" t="n">
         <v>92852419.2195317</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="13" t="n">
         <v>248600027.785965</v>
       </c>
-      <c r="AE20" s="3" t="n">
+      <c r="AE20" s="13" t="n">
         <v>567866390.85196</v>
       </c>
-      <c r="AF20" s="3" t="n">
-        <v>2743108974.85004</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>6523194165.54852</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>8070546270.88831</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>9131672230.2732</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AF20" s="13" t="n">
+        <v>2743108974.79481</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>6509827133.2146</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>8064578245.29498</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>9130748455.31561</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
         <v>553742058.578887</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="13" t="n">
         <v>135323082.038108</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="13" t="n">
         <v>10226572.649226</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="13" t="n">
         <v>-40273892.5797363</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="13" t="n">
         <v>-18465728.3158519</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="13" t="n">
         <v>-34382.2365970203</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6715,109 +6718,109 @@
         <v>56</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="13" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="13" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="13" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="13" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="13" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="13" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="13" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="13" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="13" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="13" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="13" t="n">
         <v>1546754885.88171</v>
       </c>
-      <c r="AA21" s="3" t="n">
-        <v>1601955733.78488</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>1953366451.69235</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>2142463893.85081</v>
-      </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AA21" s="13" t="n">
+        <v>1601955733.78867</v>
+      </c>
+      <c r="AB21" s="13" t="n">
+        <v>1953366451.69328</v>
+      </c>
+      <c r="AC21" s="13" t="n">
+        <v>2142463893.85096</v>
+      </c>
+      <c r="AD21" s="13" t="n">
         <v>2003611745.76137</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="13" t="n">
         <v>1877257228.37457</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="13" t="n">
         <v>1088669735.69933</v>
       </c>
-      <c r="AG21" s="3" t="n">
-        <v>131238361.96132</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>576056270.246718</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>289811294.972342</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AG21" s="13" t="n">
+        <v>131238362.040656</v>
+      </c>
+      <c r="AH21" s="13" t="n">
+        <v>576056271.641319</v>
+      </c>
+      <c r="AI21" s="13" t="n">
+        <v>289811295.81755</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
         <v>216392175.260044</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="13" t="n">
         <v>227394189.098394</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="13" t="n">
         <v>308996727.036862</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="13" t="n">
         <v>133270085.714972</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="13" t="n">
         <v>193694853.588238</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="13" t="n">
         <v>419981726.359942</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="13" t="n">
         <v>122020143.555109</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="13" t="n">
         <v>285866761.777262</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6826,41 +6829,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -582,9 +582,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -593,7 +593,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -631,9 +631,9 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -643,7 +643,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,110 +1057,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="13" t="n">
         <v>4144502764</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="13" t="n">
         <v>4530258367</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="13" t="n">
         <v>5017065966</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="13" t="n">
         <v>4881442888</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="13" t="n">
         <v>4439142916</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="13" t="n">
         <v>4646306843</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="13" t="n">
         <v>4488650595</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="13" t="n">
         <v>4296749720</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="13" t="n">
         <v>4328212581</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="13" t="n">
         <v>4471931855</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="13" t="n">
         <v>4670769527.203</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>4396131217.0486</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>5435870210.4239</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>5881243311.4307</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>6502565795.5015</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>7486383875.7439</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>7285559679.3573</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>8095339110.4458</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>8154382839.9812</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>10499601528.0809</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="13" t="n">
+        <v>4396131221.0502</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>5435870217.4191</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>5881243312.3819</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>6502565798.1184</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>7486383878.6962</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>7285559671.4854</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>8095339104.5864</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>8154382843.233</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>10499601531.6725</v>
+      </c>
+      <c r="AH2" s="13" t="n">
         <v>10609745344.9903</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="13" t="n">
         <v>10687407965.9184</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>10376595511.0704</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="13" t="n">
         <v>8397922811.1648</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="13" t="n">
         <v>9167183980.9116</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="13" t="n">
         <v>7873142627.8377</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="13" t="n">
         <v>8041066904.8764</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="13" t="n">
         <v>8171404262.0036</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>9337947495.017</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>10267701018.262</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>10554633163.7919</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>16807597533.2972</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>19699777615.2684</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>12772538371.6993</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="13" t="n">
+        <v>9336871115.9153</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>10265340899.4261</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>10535940228.0006</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>16812920490.9989</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>19700194046.4749</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>26588969504.4727</v>
+      </c>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1169,110 +1169,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="13" t="n">
         <v>3629362617</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="13" t="n">
         <v>3397177862</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="13" t="n">
         <v>3769501484</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="13" t="n">
         <v>3686152554</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="13" t="n">
         <v>4024019538</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="13" t="n">
         <v>4231882588</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="13" t="n">
         <v>4799043043</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="13" t="n">
         <v>5399019746</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="13" t="n">
         <v>6476459955</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="13" t="n">
         <v>6813750180</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="13" t="n">
         <v>7746325802.8607</v>
       </c>
-      <c r="Y3" s="1" t="n">
-        <v>8025952286.8536</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>10401909398.7272</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>12544093901.8375</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>14036132513.4469</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>17939024711.5258</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>21435620002.4999</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>22200814094.9654</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>25639479272.9873</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>28019866586.2774</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="Y3" s="13" t="n">
+        <v>8025952285.9262</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>10401909405.6123</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>12544093905.8756</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>14036132512.3719</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>17939024711.8952</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>21435620002.1742</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>22200814092.0444</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>25639479269.6564</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>28019866590.2647</v>
+      </c>
+      <c r="AH3" s="13" t="n">
         <v>29464119235.8494</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="13" t="n">
         <v>29174860324.5799</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>29745138454.344</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="13" t="n">
         <v>25546228076.5837</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="13" t="n">
         <v>24304827907.4483</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="13" t="n">
         <v>25272584349.3304</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="13" t="n">
         <v>25326956729.0454</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="13" t="n">
         <v>26487785059.5509</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>29314456895.0385</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>32282829041.111</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>33692662707.3654</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>35344976992.9114</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>35280618150.1237</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>18678602520.4573</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AP3" s="13" t="n">
+        <v>29318856802.8364</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>32301138882.9487</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>33727990098.6543</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>35348229998.8992</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>35306081266.8467</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>40744978464.0841</v>
+      </c>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1281,110 +1281,110 @@
       <c r="M4" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="1" t="str">
+      <c r="N4" s="13" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="1" t="str">
+      <c r="O4" s="13" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="P4" s="13" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="1" t="str">
+      <c r="Q4" s="13" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="1" t="str">
+      <c r="R4" s="13" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="1" t="str">
+      <c r="S4" s="13" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="1" t="str">
+      <c r="T4" s="13" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="1" t="str">
+      <c r="U4" s="13" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="1" t="str">
+      <c r="V4" s="13" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="1" t="str">
+      <c r="W4" s="13" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="1" t="str">
+      <c r="X4" s="13" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="1" t="str">
+      <c r="Y4" s="13" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="1" t="str">
+      <c r="Z4" s="13" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="1" t="str">
+      <c r="AA4" s="13" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="1" t="str">
+      <c r="AB4" s="13" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="1" t="str">
+      <c r="AC4" s="13" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="1" t="str">
+      <c r="AD4" s="13" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="1" t="str">
+      <c r="AE4" s="13" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="1" t="str">
+      <c r="AF4" s="13" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="1" t="str">
+      <c r="AG4" s="13" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="1" t="str">
+      <c r="AH4" s="13" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="1" t="str">
+      <c r="AI4" s="13" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="1" t="str">
+      <c r="AJ4" s="13" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="1" t="str">
+      <c r="AK4" s="13" t="str">
         <f>Sum(AK2:AK3)</f>
       </c>
-      <c r="AL4" s="1" t="str">
+      <c r="AL4" s="13" t="str">
         <f>Sum(AL2:AL3)</f>
       </c>
-      <c r="AM4" s="1" t="str">
+      <c r="AM4" s="13" t="str">
         <f>Sum(AM2:AM3)</f>
       </c>
-      <c r="AN4" s="1" t="str">
+      <c r="AN4" s="13" t="str">
         <f>Sum(AN2:AN3)</f>
       </c>
-      <c r="AO4" s="1" t="str">
+      <c r="AO4" s="13" t="str">
         <f>Sum(AO2:AO3)</f>
       </c>
-      <c r="AP4" s="1" t="str">
+      <c r="AP4" s="13" t="str">
         <f>Sum(AP2:AP3)</f>
       </c>
-      <c r="AQ4" s="1" t="str">
+      <c r="AQ4" s="13" t="str">
         <f>Sum(AQ2:AQ3)</f>
       </c>
-      <c r="AR4" s="1" t="str">
+      <c r="AR4" s="13" t="str">
         <f>Sum(AR2:AR3)</f>
       </c>
-      <c r="AS4" s="1" t="str">
+      <c r="AS4" s="13" t="str">
         <f>Sum(AS2:AS3)</f>
       </c>
-      <c r="AT4" s="1" t="str">
+      <c r="AT4" s="13" t="str">
         <f>Sum(AT2:AT3)</f>
       </c>
-      <c r="AU4" s="1" t="str">
+      <c r="AU4" s="13" t="str">
         <f>Sum(AU2:AU3)</f>
       </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1503,110 +1503,110 @@
       <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="13" t="n">
         <v>8237330071.09442</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="13" t="n">
         <v>8693926190.56159</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="13" t="n">
         <v>9393385615.68976</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="Q8" s="13" t="n">
         <v>8929693540.71041</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R8" s="13" t="n">
         <v>7947416365.58852</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="13" t="n">
         <v>8145752758.20711</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="13" t="n">
         <v>7724183789.42826</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="U8" s="13" t="n">
         <v>7264899194.14252</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="V8" s="13" t="n">
         <v>7227845249.16025</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="W8" s="13" t="n">
         <v>7375905419.38197</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="X8" s="13" t="n">
         <v>7546702680.64803</v>
       </c>
-      <c r="Y8" s="1" t="n">
-        <v>6934796498.45853</v>
-      </c>
-      <c r="Z8" s="1" t="n">
-        <v>8441720749.73566</v>
-      </c>
-      <c r="AA8" s="1" t="n">
-        <v>8962064019.38446</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>9672432204.22719</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>10807753314.116</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>10186194403.801</v>
-      </c>
-      <c r="AE8" s="1" t="n">
-        <v>11016274628.2498</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>10869920933.7841</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>13855337118.7748</v>
-      </c>
-      <c r="AH8" s="1" t="n">
+      <c r="Y8" s="13" t="n">
+        <v>6934796504.77097</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>8441720760.59897</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>8962064020.83394</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>9672432208.11978</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>10807753318.3781</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>10186194392.795</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>11016274620.2763</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>10869920938.1188</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>13855337123.5142</v>
+      </c>
+      <c r="AH8" s="13" t="n">
         <v>13879962920.9415</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AI8" s="13" t="n">
         <v>13705349129.6571</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="AJ8" s="13" t="n">
         <v>13067246724.5977</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="AK8" s="13" t="n">
         <v>10385450448.1963</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="AL8" s="13" t="n">
         <v>11121613477.4115</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="AM8" s="13" t="n">
         <v>9443421770.19896</v>
       </c>
-      <c r="AN8" s="1" t="n">
+      <c r="AN8" s="13" t="n">
         <v>9565572982.11462</v>
       </c>
-      <c r="AO8" s="1" t="n">
+      <c r="AO8" s="13" t="n">
         <v>9550115445.2653</v>
       </c>
-      <c r="AP8" s="1" t="n">
-        <v>10663109611.2282</v>
-      </c>
-      <c r="AQ8" s="1" t="n">
-        <v>11499569454.4264</v>
-      </c>
-      <c r="AR8" s="1" t="n">
-        <v>11665305906.9832</v>
-      </c>
-      <c r="AS8" s="1" t="n">
-        <v>17972155542.8349</v>
-      </c>
-      <c r="AT8" s="1" t="n">
-        <v>19699777615.2684</v>
-      </c>
-      <c r="AU8" s="1" t="n">
-        <v>12182426400.2022</v>
-      </c>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
+      <c r="AP8" s="13" t="n">
+        <v>10661880481.5559</v>
+      </c>
+      <c r="AQ8" s="13" t="n">
+        <v>11496926180.1018</v>
+      </c>
+      <c r="AR8" s="13" t="n">
+        <v>11644645898.1585</v>
+      </c>
+      <c r="AS8" s="13" t="n">
+        <v>17977847315.4736</v>
+      </c>
+      <c r="AT8" s="13" t="n">
+        <v>19700194046.4749</v>
+      </c>
+      <c r="AU8" s="13" t="n">
+        <v>25360516024.2212</v>
+      </c>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1615,151 +1615,151 @@
       <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="13" t="n">
         <v>7213472767.73587</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="13" t="n">
         <v>6519454564.35329</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="13" t="n">
         <v>7057587294.66281</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="13" t="n">
         <v>6743131776.14851</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="13" t="n">
         <v>7204219223.59869</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="13" t="n">
         <v>7419197747.46346</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="13" t="n">
         <v>8258314986.4239</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="13" t="n">
         <v>9128605750.36587</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="13" t="n">
         <v>10815284471.6116</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="13" t="n">
         <v>11238448730.5603</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="13" t="n">
         <v>12515971374.9843</v>
       </c>
-      <c r="Y9" s="1" t="n">
-        <v>12660756257.643</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>16153809971.3492</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>19115171173.9146</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>20878456968.4456</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>25897757448.1828</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>29969885927.9306</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>30211243989.1836</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>34177830247.8388</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>36975183918.901</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="Y9" s="13" t="n">
+        <v>12660756256.18</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>16153809982.0415</v>
+      </c>
+      <c r="AA9" s="13" t="n">
+        <v>19115171180.068</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>20878456966.8465</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>25897757448.7161</v>
+      </c>
+      <c r="AD9" s="13" t="n">
+        <v>29969885927.4752</v>
+      </c>
+      <c r="AE9" s="13" t="n">
+        <v>30211243985.2087</v>
+      </c>
+      <c r="AF9" s="13" t="n">
+        <v>34177830243.3986</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>36975183924.1627</v>
+      </c>
+      <c r="AH9" s="13" t="n">
         <v>38545777414.4307</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="13" t="n">
         <v>37413341741.2766</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="13" t="n">
         <v>37458052848.4084</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="13" t="n">
         <v>31592227243.9753</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="13" t="n">
         <v>29486579759.3345</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="13" t="n">
         <v>30313139811.5167</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="13" t="n">
         <v>30128695093.884</v>
       </c>
-      <c r="AO9" s="1" t="n">
+      <c r="AO9" s="13" t="n">
         <v>30956907417.2888</v>
       </c>
-      <c r="AP9" s="1" t="n">
-        <v>33474515382.7674</v>
-      </c>
-      <c r="AQ9" s="1" t="n">
-        <v>36155964619.8646</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>37238169361.5411</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>37793945441.4048</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>35280618150.1237</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>17815620814.1286</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AP9" s="13" t="n">
+        <v>33479539688.0715</v>
+      </c>
+      <c r="AQ9" s="13" t="n">
+        <v>36176471186.7716</v>
+      </c>
+      <c r="AR9" s="13" t="n">
+        <v>37277214283.3196</v>
+      </c>
+      <c r="AS9" s="13" t="n">
+        <v>37797423840.3538</v>
+      </c>
+      <c r="AT9" s="13" t="n">
+        <v>35306081266.8467</v>
+      </c>
+      <c r="AU9" s="13" t="n">
+        <v>38862494429.1704</v>
+      </c>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5000,89 +5000,89 @@
       <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>2526871722.5859</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="3" t="n">
         <v>2628650269.6457</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="3" t="n">
         <v>3761977140.1733</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="3" t="n">
         <v>4595945632.1528</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="3" t="n">
         <v>5794732193.6981</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="3" t="n">
         <v>8534494056.8896</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="3" t="n">
         <v>8789690098.0478</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="3" t="n">
         <v>8296087699.3547</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="3" t="n">
         <v>9285865106.4297</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="3" t="n">
         <v>10502311312.9302</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>13559324540.7012</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="3" t="n">
         <v>14762254308.6643</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="3" t="n">
         <v>15515425637.4548</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="3" t="n">
         <v>12141188720.0403</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="3" t="n">
         <v>12741597981.1852</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="3" t="n">
         <v>13242842770.8344</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="3" t="n">
         <v>13525835430.0727</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>13561593160.8861</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="3" t="n">
         <v>13955501498.3153</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="3" t="n">
         <v>14740183186.9818</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="3" t="n">
         <v>15439849169.6595</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="3" t="n">
         <v>17738619548.5977</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="3" t="n">
         <v>18957216383.562</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="3" t="n">
         <v>21648026791.6599</v>
       </c>
-      <c r="AX2" s="13"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5100,89 +5100,89 @@
       <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>94728582</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="3" t="n">
         <v>126171926</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="3" t="n">
         <v>142387916</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="3" t="n">
         <v>122293882</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="3" t="n">
         <v>154809741.5601</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="3" t="n">
         <v>390063039.6563</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="3" t="n">
         <v>401806190.3944</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="3" t="n">
         <v>273678603.914</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="3" t="n">
         <v>448560073.7808</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="3" t="n">
         <v>265758973.3213</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>342760337.4267</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="3" t="n">
         <v>240595110.3673</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="3" t="n">
         <v>165068862.2906</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="3" t="n">
         <v>37057729.2465</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="3" t="n">
         <v>21377986.7054</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="3" t="n">
         <v>20581211.4037</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="3" t="n">
         <v>12037218.327</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>61635056.7136</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="3" t="n">
         <v>74258106.7965</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="3" t="n">
         <v>57129361.3354</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="3" t="n">
         <v>54734722.8602</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="3" t="n">
         <v>66102986.8834</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="3" t="n">
         <v>22275338.5734</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="3" t="n">
         <v>17786027.2782</v>
       </c>
-      <c r="AX3" s="13"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5200,89 +5200,89 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>1040234215.7181</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="3" t="n">
         <v>956001709.13</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="3" t="n">
         <v>1424542472.5764</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="3" t="n">
         <v>1687784043.0483</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="3" t="n">
         <v>2213685905.6531</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="3" t="n">
         <v>2553315733.3916</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="3" t="n">
         <v>3251255808.021</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="3" t="n">
         <v>3353815836.5901</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="3" t="n">
         <v>3970583754.329</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="3" t="n">
         <v>3802095023.5435</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>4027646293.2761</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="3" t="n">
         <v>2923748313.0268</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="3" t="n">
         <v>2907234407.5828</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="3" t="n">
         <v>2591117363.5723</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="3" t="n">
         <v>1640462823.2053</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="3" t="n">
         <v>1060708871.9086</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="3" t="n">
         <v>1231070996.0363</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>1384107541.6294</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="3" t="n">
         <v>2253683573.1968</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="3" t="n">
         <v>2818908907.4682</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="3" t="n">
         <v>3037583332.8293</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="3" t="n">
         <v>2901064159.265</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="3" t="n">
         <v>2286773854.5766</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="3" t="n">
         <v>2555910431.3483</v>
       </c>
-      <c r="AX4" s="13"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5300,89 +5300,89 @@
       <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>189997975</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="3" t="n">
         <v>247265051</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="3" t="n">
         <v>406050243</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="3" t="n">
         <v>579250801.05</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="3" t="n">
         <v>612106250</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="3" t="n">
         <v>479530244.6825</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="3" t="n">
         <v>554477945.545</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="3" t="n">
         <v>468543353.5862</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="3" t="n">
         <v>335276934.836</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="3" t="n">
         <v>483288292.5878</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>673536704.1128</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="3" t="n">
         <v>559887425.0005</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="3" t="n">
         <v>552854123.8964</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="3" t="n">
         <v>553947496.5383</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="3" t="n">
         <v>727478299.3611</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="3" t="n">
         <v>1249846343.6193</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1576301585.0537</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1515336963.1023</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="3" t="n">
         <v>1363817875.5449</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="3" t="n">
         <v>1397596509.8479</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="3" t="n">
         <v>1340138769.4669</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="3" t="n">
         <v>4021696342.2935</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="3" t="n">
         <v>4333451515.7041</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="3" t="n">
         <v>6489880687.4395</v>
       </c>
-      <c r="AX5" s="13"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5400,89 +5400,89 @@
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>7414000992.9404</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="3" t="n">
         <v>7038127595.5811</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="3" t="n">
         <v>8671200361.0369</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="3" t="n">
         <v>9719888940.3587</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="3" t="n">
         <v>9811121756.5792</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="3" t="n">
         <v>11215915678.2378</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="3" t="n">
         <v>12262854330.045</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="3" t="n">
         <v>12265893973.7726</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="3" t="n">
         <v>12825737285.7295</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="3" t="n">
         <v>15948914670.6307</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>19705492042.0632</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="3" t="n">
         <v>20303258287.7956</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="3" t="n">
         <v>20255087860.8599</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="3" t="n">
         <v>18133540555.0846</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="3" t="n">
         <v>17845664848.4782</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="3" t="n">
         <v>17133245270.403</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="3" t="n">
         <v>16291890770.7339</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>17171687116.5288</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="3" t="n">
         <v>20153167310.5188</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="3" t="n">
         <v>22319737834.941</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="3" t="n">
         <v>23180742470.4012</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="3" t="n">
         <v>26385050498.4085</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="3" t="n">
         <v>28673743876.8743</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="3" t="n">
         <v>35459175827.9414</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5500,89 +5500,89 @@
       <c r="O7" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>192311242</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="3" t="n">
         <v>213986669</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="3" t="n">
         <v>162915729</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="3" t="n">
         <v>253275325</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="3" t="n">
         <v>438129473.25</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="3" t="n">
         <v>558385928.59</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="3" t="n">
         <v>720459165.4083</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="3" t="n">
         <v>757928845.9123</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="3" t="n">
         <v>445819239.2724</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="3" t="n">
         <v>378181271.1618</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1176419509.774</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="3" t="n">
         <v>789678533.8682</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="3" t="n">
         <v>472570418.8814</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="3" t="n">
         <v>412100084.5611</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="3" t="n">
         <v>350994285.1707</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="3" t="n">
         <v>88385208.6262</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="3" t="n">
         <v>628314359.7392</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>720232138.4067</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="3" t="n">
         <v>855299554.3794</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1232923981.8005</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1210881861.4378</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="3" t="n">
         <v>1048616954.45</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="3" t="n">
         <v>732814344.0312</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="3" t="n">
         <v>1163168202.8895</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5600,73 +5600,73 @@
       <c r="O8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>1640382</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="3" t="n">
         <v>196362728</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="3" t="n">
         <v>10876129.1602</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="3" t="n">
         <v>60933248</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="3" t="n">
         <v>167128391.6299</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="3" t="n">
         <v>393353333.3425</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="3" t="n">
         <v>1961977491.3574</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="3" t="n">
         <v>4783764019.3367</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="3" t="n">
         <v>6049874590.2309</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="3" t="n">
         <v>6919299011.7899</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>423276507.4227</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="3" t="n">
         <v>105524709.4594</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="3" t="n">
         <v>8120839.0782</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-32566429.6293</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-15220698.7913</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-28665.0601</v>
       </c>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5682,109 +5682,109 @@
         <v>56</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="3" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="3" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="3" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="3" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="3" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="3" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="3" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="3" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="3" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="3" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="3" t="n">
         <v>957310217.8193</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="3" t="n">
         <v>1015517558.6196</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="3" t="n">
         <v>1257829632.0846</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="3" t="n">
         <v>1405965346.6477</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="3" t="n">
         <v>1346984598.1199</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1300350575.8011</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="3" t="n">
         <v>778658644.8407</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="3" t="n">
         <v>96440864.1642</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="3" t="n">
         <v>432145128.2811</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="3" t="n">
         <v>219619565.972</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>165408646.063</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="3" t="n">
         <v>177321602.3162</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="3" t="n">
         <v>245371815.3703</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="3" t="n">
         <v>107765368.3347</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="3" t="n">
         <v>159656363.0453</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="3" t="n">
         <v>350145965.433</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="3" t="n">
         <v>102573273.959</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>244597344.2876</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5799,107 +5799,107 @@
       <c r="O10" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6036,89 +6036,89 @@
       <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>4082742574.09403</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="3" t="n">
         <v>4146635708.89712</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="3" t="n">
         <v>5842221991.1236</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="3" t="n">
         <v>7003478142.94796</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="3" t="n">
         <v>8619544353.39549</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="3" t="n">
         <v>12320862509.6702</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="3" t="n">
         <v>12289171460.8503</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="3" t="n">
         <v>11289456709.5045</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="3" t="n">
         <v>12378204640.3046</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="3" t="n">
         <v>13858912967.1063</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>17738684175.5641</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="3" t="n">
         <v>18930862364.9647</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="3" t="n">
         <v>19538575501.5189</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="3" t="n">
         <v>15014631197.4365</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="3" t="n">
         <v>15458087033.7476</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="3" t="n">
         <v>15884095542.6417</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="3" t="n">
         <v>16090198910.2926</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>15849758028.7903</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="3" t="n">
         <v>15935947619.7103</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="3" t="n">
         <v>16508638109.7564</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="3" t="n">
         <v>17064597217.8015</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="3" t="n">
         <v>18967685834.3971</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="3" t="n">
         <v>18957216383.562</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="3" t="n">
         <v>20647852871.8576</v>
       </c>
-      <c r="AX14" s="13"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6136,89 +6136,89 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>153055816.509423</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="3" t="n">
         <v>199033328.94963</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="3" t="n">
         <v>221123569.636348</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="3" t="n">
         <v>186356105.609994</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="3" t="n">
         <v>230276290.449825</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="3" t="n">
         <v>563116342.887326</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="3" t="n">
         <v>561779210.95131</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="3" t="n">
         <v>372426481.393762</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="3" t="n">
         <v>597937652.883229</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="3" t="n">
         <v>350697134.349164</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>448408573.396946</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="3" t="n">
         <v>308535053.306432</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="3" t="n">
         <v>207871218.242891</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="3" t="n">
         <v>45828143.3952382</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="3" t="n">
         <v>25935740.5237827</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="3" t="n">
         <v>24686083.9456361</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="3" t="n">
         <v>14319354.8531152</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>72034363.7662624</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="3" t="n">
         <v>84796185.9622698</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="3" t="n">
         <v>63983462.0617591</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="3" t="n">
         <v>60494502.839622</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="3" t="n">
         <v>70683103.861863</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="3" t="n">
         <v>22275338.5734</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="3" t="n">
         <v>16964283.9945395</v>
       </c>
-      <c r="AX15" s="13"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6236,89 +6236,89 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>1680737681.1338</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="3" t="n">
         <v>1508070841.763</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="3" t="n">
         <v>2212265798.13615</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="3" t="n">
         <v>2571910027.13587</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="3" t="n">
         <v>3292812024.86188</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="3" t="n">
         <v>3686106274.74744</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="3" t="n">
         <v>4545693834.72684</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="3" t="n">
         <v>4563929417.20949</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="3" t="n">
         <v>5292850767.1861</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="3" t="n">
         <v>5017267385.61665</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>5269078511.45892</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="3" t="n">
         <v>3749364815.59069</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="3" t="n">
         <v>3661080288.77049</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="3" t="n">
         <v>3204354408.81468</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="3" t="n">
         <v>1990206968.87315</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="3" t="n">
         <v>1272264675.78625</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="3" t="n">
         <v>1464469777.21432</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>1617639561.98907</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="3" t="n">
         <v>2573507184.83326</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="3" t="n">
         <v>3157107779.96716</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="3" t="n">
         <v>3357230729.43607</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="3" t="n">
         <v>3102071917.58154</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="3" t="n">
         <v>2286773854.5766</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="3" t="n">
         <v>2437823227.40184</v>
       </c>
-      <c r="AX16" s="13"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6336,89 +6336,89 @@
       <c r="O17" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>306985437.602792</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="3" t="n">
         <v>390054965.424162</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="3" t="n">
         <v>630582156.872543</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="3" t="n">
         <v>882684576.609869</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="3" t="n">
         <v>910495393.834324</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="3" t="n">
         <v>692276094.467728</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="3" t="n">
         <v>775234902.260767</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="3" t="n">
         <v>637601734.519866</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="3" t="n">
         <v>446929442.007556</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="3" t="n">
         <v>637750128.083663</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>881139384.122263</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="3" t="n">
         <v>717990054.969997</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="3" t="n">
         <v>696209198.0899</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="3" t="n">
         <v>685049673.063497</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="3" t="n">
         <v>882575551.61386</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1499125156.07248</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1875152642.30797</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1771010523.05009</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="3" t="n">
         <v>1557359313.10901</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="3" t="n">
         <v>1565273288.11725</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="3" t="n">
         <v>1481162676.24246</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="3" t="n">
         <v>4300350009.36685</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="3" t="n">
         <v>4333451515.7041</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="3" t="n">
         <v>6190037682.40837</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6436,89 +6436,89 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>11979024193.3123</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="3" t="n">
         <v>11102485389.0299</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="3" t="n">
         <v>13466077956.113</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="3" t="n">
         <v>14811539385.8124</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="3" t="n">
         <v>14593840804.1301</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="3" t="n">
         <v>16191909452.4492</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="3" t="n">
         <v>17145123181.8542</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="3" t="n">
         <v>16691636351.801</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="3" t="n">
         <v>17096910084.9436</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="3" t="n">
         <v>21046283408.8667</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>25779270848.5592</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="3" t="n">
         <v>26036551069.3715</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="3" t="n">
         <v>25507232138.3141</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="3" t="n">
         <v>22425186694.3594</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="3" t="n">
         <v>21650333090.8896</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="3" t="n">
         <v>20550429355.694</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="3" t="n">
         <v>19380670752.7314</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>20068961110.5613</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="3" t="n">
         <v>23013133470.7288</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="3" t="n">
         <v>24997550569.5955</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="3" t="n">
         <v>25620071097.8645</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="3" t="n">
         <v>28213207189.3993</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="3" t="n">
         <v>28673743876.8743</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="3" t="n">
         <v>33820904440.8026</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6536,89 +6536,89 @@
       <c r="O19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>310723052.607831</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="3" t="n">
         <v>337559078.569606</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="3" t="n">
         <v>253002562.003842</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="3" t="n">
         <v>385950649.715294</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="3" t="n">
         <v>651708534.747331</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="3" t="n">
         <v>806116473.645918</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1007299019.13267</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1031402415.80103</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="3" t="n">
         <v>594284077.256043</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="3" t="n">
         <v>499050272.521269</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1539024608.43184</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="3" t="n">
         <v>1012670241.59392</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="3" t="n">
         <v>595107928.3838</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="3" t="n">
         <v>509631381.967085</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="3" t="n">
         <v>425825725.825641</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="3" t="n">
         <v>106013423.452163</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="3" t="n">
         <v>747436495.044101</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>841752512.619875</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="3" t="n">
         <v>976676395.28376</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1380844157.37523</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1338303957.294</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="3" t="n">
         <v>1121273101.22068</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="3" t="n">
         <v>732814344.0312</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="3" t="n">
         <v>1109427946.9267</v>
       </c>
-      <c r="AX19" s="13"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6636,73 +6636,73 @@
       <c r="O20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>2650414.49050045</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="3" t="n">
         <v>309757714.528909</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="3" t="n">
         <v>16890257.0617678</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="3" t="n">
         <v>92852419.2195317</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="3" t="n">
         <v>248600027.785965</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="3" t="n">
         <v>567866390.85196</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="3" t="n">
         <v>2743108974.79481</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="3" t="n">
         <v>6509827133.2146</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="3" t="n">
         <v>8064578245.29498</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="3" t="n">
         <v>9130748455.31561</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>553742058.578887</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="3" t="n">
         <v>135323082.038108</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="3" t="n">
         <v>10226572.649226</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-40273892.5797363</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-18465728.3158519</v>
       </c>
-      <c r="AO20" s="13" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-34382.2365970203</v>
       </c>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6718,109 +6718,109 @@
         <v>56</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="3" t="n">
         <v>15450802838.8303</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="3" t="n">
         <v>15213380754.9149</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="3" t="n">
         <v>16450972910.3526</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="3" t="n">
         <v>15672825316.8589</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="3" t="n">
         <v>15151635589.1872</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="3" t="n">
         <v>15564950505.6706</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="3" t="n">
         <v>15982498775.8522</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="3" t="n">
         <v>16393504944.5084</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="3" t="n">
         <v>18043129720.7719</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="3" t="n">
         <v>18614354149.9422</v>
       </c>
-      <c r="Z21" s="13" t="n">
+      <c r="Z21" s="3" t="n">
         <v>1546754885.88171</v>
       </c>
-      <c r="AA21" s="13" t="n">
+      <c r="AA21" s="3" t="n">
         <v>1601955733.78867</v>
       </c>
-      <c r="AB21" s="13" t="n">
+      <c r="AB21" s="3" t="n">
         <v>1953366451.69328</v>
       </c>
-      <c r="AC21" s="13" t="n">
+      <c r="AC21" s="3" t="n">
         <v>2142463893.85096</v>
       </c>
-      <c r="AD21" s="13" t="n">
+      <c r="AD21" s="3" t="n">
         <v>2003611745.76137</v>
       </c>
-      <c r="AE21" s="13" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1877257228.37457</v>
       </c>
-      <c r="AF21" s="13" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1088669735.69933</v>
       </c>
-      <c r="AG21" s="13" t="n">
+      <c r="AG21" s="3" t="n">
         <v>131238362.040656</v>
       </c>
-      <c r="AH21" s="13" t="n">
+      <c r="AH21" s="3" t="n">
         <v>576056271.641319</v>
       </c>
-      <c r="AI21" s="13" t="n">
+      <c r="AI21" s="3" t="n">
         <v>289811295.81755</v>
       </c>
-      <c r="AJ21" s="13" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>216392175.260044</v>
       </c>
-      <c r="AK21" s="13" t="n">
+      <c r="AK21" s="3" t="n">
         <v>227394189.098394</v>
       </c>
-      <c r="AL21" s="13" t="n">
+      <c r="AL21" s="3" t="n">
         <v>308996727.036862</v>
       </c>
-      <c r="AM21" s="13" t="n">
+      <c r="AM21" s="3" t="n">
         <v>133270085.714972</v>
       </c>
-      <c r="AN21" s="13" t="n">
+      <c r="AN21" s="3" t="n">
         <v>193694853.588238</v>
       </c>
-      <c r="AO21" s="13" t="n">
+      <c r="AO21" s="3" t="n">
         <v>419981726.359942</v>
       </c>
-      <c r="AP21" s="13" t="n">
+      <c r="AP21" s="3" t="n">
         <v>122020143.555109</v>
       </c>
-      <c r="AQ21" s="13" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>285866761.777262</v>
       </c>
-      <c r="AR21" s="13" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="13" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="13" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="13" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6829,41 +6829,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -576,24 +576,30 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -631,11 +637,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -643,7 +649,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,110 +1063,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="13" t="n">
+      <c r="N2" s="1" t="n">
         <v>4144502764</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="1" t="n">
         <v>4530258367</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="1" t="n">
         <v>5017065966</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="1" t="n">
         <v>4881442888</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="1" t="n">
         <v>4439142916</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="1" t="n">
         <v>4646306843</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="1" t="n">
         <v>4488650595</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="1" t="n">
         <v>4296749720</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="1" t="n">
         <v>4328212581</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="1" t="n">
         <v>4471931855</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="1" t="n">
         <v>4670769527.203</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="1" t="n">
         <v>4396131221.0502</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="1" t="n">
         <v>5435870217.4191</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="1" t="n">
         <v>5881243312.3819</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="1" t="n">
         <v>6502565798.1184</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="1" t="n">
         <v>7486383878.6962</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="1" t="n">
         <v>7285559671.4854</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="1" t="n">
         <v>8095339104.5864</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="1" t="n">
         <v>8154382843.233</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="1" t="n">
         <v>10499601531.6725</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="1" t="n">
         <v>10609745344.9903</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="1" t="n">
         <v>10687407965.9184</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>10376595511.0704</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="1" t="n">
         <v>8397922811.1648</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="1" t="n">
         <v>9167183980.9116</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="1" t="n">
         <v>7873142627.8377</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="1" t="n">
         <v>8041066904.8764</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="1" t="n">
         <v>8171404262.0036</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="1" t="n">
         <v>9336871115.9153</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>10265340899.4261</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="1" t="n">
         <v>10535940228.0006</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="1" t="n">
         <v>16812920490.9989</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="1" t="n">
         <v>19700194046.4749</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="1" t="n">
         <v>26588969504.4727</v>
       </c>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1169,110 +1175,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="1" t="n">
         <v>3629362617</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="1" t="n">
         <v>3397177862</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="1" t="n">
         <v>3769501484</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="1" t="n">
         <v>3686152554</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="1" t="n">
         <v>4024019538</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="1" t="n">
         <v>4231882588</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="1" t="n">
         <v>4799043043</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="1" t="n">
         <v>5399019746</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="1" t="n">
         <v>6476459955</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="1" t="n">
         <v>6813750180</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="1" t="n">
         <v>7746325802.8607</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="1" t="n">
         <v>8025952285.9262</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="1" t="n">
         <v>10401909405.6123</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="1" t="n">
         <v>12544093905.8756</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="1" t="n">
         <v>14036132512.3719</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="1" t="n">
         <v>17939024711.8952</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="1" t="n">
         <v>21435620002.1742</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="1" t="n">
         <v>22200814092.0444</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="1" t="n">
         <v>25639479269.6564</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="1" t="n">
         <v>28019866590.2647</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="1" t="n">
         <v>29464119235.8494</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="1" t="n">
         <v>29174860324.5799</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>29745138454.344</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="1" t="n">
         <v>25546228076.5837</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="1" t="n">
         <v>24304827907.4483</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="1" t="n">
         <v>25272584349.3304</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="1" t="n">
         <v>25326956729.0454</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="1" t="n">
         <v>26487785059.5509</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="1" t="n">
         <v>29318856802.8364</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>32301138882.9487</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="1" t="n">
         <v>33727990098.6543</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="1" t="n">
         <v>35348229998.8992</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="1" t="n">
         <v>35306081266.8467</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="1" t="n">
         <v>40744978464.0841</v>
       </c>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1281,110 +1287,110 @@
       <c r="M4" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="13" t="str">
+      <c r="N4" s="1" t="str">
         <f>Sum(N2:N3)</f>
       </c>
-      <c r="O4" s="13" t="str">
+      <c r="O4" s="1" t="str">
         <f>Sum(O2:O3)</f>
       </c>
-      <c r="P4" s="13" t="str">
+      <c r="P4" s="1" t="str">
         <f>Sum(P2:P3)</f>
       </c>
-      <c r="Q4" s="13" t="str">
+      <c r="Q4" s="1" t="str">
         <f>Sum(Q2:Q3)</f>
       </c>
-      <c r="R4" s="13" t="str">
+      <c r="R4" s="1" t="str">
         <f>Sum(R2:R3)</f>
       </c>
-      <c r="S4" s="13" t="str">
+      <c r="S4" s="1" t="str">
         <f>Sum(S2:S3)</f>
       </c>
-      <c r="T4" s="13" t="str">
+      <c r="T4" s="1" t="str">
         <f>Sum(T2:T3)</f>
       </c>
-      <c r="U4" s="13" t="str">
+      <c r="U4" s="1" t="str">
         <f>Sum(U2:U3)</f>
       </c>
-      <c r="V4" s="13" t="str">
+      <c r="V4" s="1" t="str">
         <f>Sum(V2:V3)</f>
       </c>
-      <c r="W4" s="13" t="str">
+      <c r="W4" s="1" t="str">
         <f>Sum(W2:W3)</f>
       </c>
-      <c r="X4" s="13" t="str">
+      <c r="X4" s="1" t="str">
         <f>Sum(X2:X3)</f>
       </c>
-      <c r="Y4" s="13" t="str">
+      <c r="Y4" s="1" t="str">
         <f>Sum(Y2:Y3)</f>
       </c>
-      <c r="Z4" s="13" t="str">
+      <c r="Z4" s="1" t="str">
         <f>Sum(Z2:Z3)</f>
       </c>
-      <c r="AA4" s="13" t="str">
+      <c r="AA4" s="1" t="str">
         <f>Sum(AA2:AA3)</f>
       </c>
-      <c r="AB4" s="13" t="str">
+      <c r="AB4" s="1" t="str">
         <f>Sum(AB2:AB3)</f>
       </c>
-      <c r="AC4" s="13" t="str">
+      <c r="AC4" s="1" t="str">
         <f>Sum(AC2:AC3)</f>
       </c>
-      <c r="AD4" s="13" t="str">
+      <c r="AD4" s="1" t="str">
         <f>Sum(AD2:AD3)</f>
       </c>
-      <c r="AE4" s="13" t="str">
+      <c r="AE4" s="1" t="str">
         <f>Sum(AE2:AE3)</f>
       </c>
-      <c r="AF4" s="13" t="str">
+      <c r="AF4" s="1" t="str">
         <f>Sum(AF2:AF3)</f>
       </c>
-      <c r="AG4" s="13" t="str">
+      <c r="AG4" s="1" t="str">
         <f>Sum(AG2:AG3)</f>
       </c>
-      <c r="AH4" s="13" t="str">
+      <c r="AH4" s="1" t="str">
         <f>Sum(AH2:AH3)</f>
       </c>
-      <c r="AI4" s="13" t="str">
+      <c r="AI4" s="1" t="str">
         <f>Sum(AI2:AI3)</f>
       </c>
-      <c r="AJ4" s="13" t="str">
+      <c r="AJ4" s="1" t="str">
         <f>Sum(AJ2:AJ3)</f>
       </c>
-      <c r="AK4" s="13" t="str">
+      <c r="AK4" s="1" t="str">
         <f>Sum(AK2:AK3)</f>
       </c>
-      <c r="AL4" s="13" t="str">
+      <c r="AL4" s="1" t="str">
         <f>Sum(AL2:AL3)</f>
       </c>
-      <c r="AM4" s="13" t="str">
+      <c r="AM4" s="1" t="str">
         <f>Sum(AM2:AM3)</f>
       </c>
-      <c r="AN4" s="13" t="str">
+      <c r="AN4" s="1" t="str">
         <f>Sum(AN2:AN3)</f>
       </c>
-      <c r="AO4" s="13" t="str">
+      <c r="AO4" s="1" t="str">
         <f>Sum(AO2:AO3)</f>
       </c>
-      <c r="AP4" s="13" t="str">
+      <c r="AP4" s="1" t="str">
         <f>Sum(AP2:AP3)</f>
       </c>
-      <c r="AQ4" s="13" t="str">
+      <c r="AQ4" s="1" t="str">
         <f>Sum(AQ2:AQ3)</f>
       </c>
-      <c r="AR4" s="13" t="str">
+      <c r="AR4" s="1" t="str">
         <f>Sum(AR2:AR3)</f>
       </c>
-      <c r="AS4" s="13" t="str">
+      <c r="AS4" s="1" t="str">
         <f>Sum(AS2:AS3)</f>
       </c>
-      <c r="AT4" s="13" t="str">
+      <c r="AT4" s="1" t="str">
         <f>Sum(AT2:AT3)</f>
       </c>
-      <c r="AU4" s="13" t="str">
+      <c r="AU4" s="1" t="str">
         <f>Sum(AU2:AU3)</f>
       </c>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1503,110 +1509,110 @@
       <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="13" t="n">
+      <c r="N8" s="1" t="n">
         <v>8237330071.09442</v>
       </c>
-      <c r="O8" s="13" t="n">
+      <c r="O8" s="1" t="n">
         <v>8693926190.56159</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="1" t="n">
         <v>9393385615.68976</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="1" t="n">
         <v>8929693540.71041</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="1" t="n">
         <v>7947416365.58852</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="1" t="n">
         <v>8145752758.20711</v>
       </c>
-      <c r="T8" s="13" t="n">
+      <c r="T8" s="1" t="n">
         <v>7724183789.42826</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="1" t="n">
         <v>7264899194.14252</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="1" t="n">
         <v>7227845249.16025</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="1" t="n">
         <v>7375905419.38197</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="1" t="n">
         <v>7546702680.64803</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="1" t="n">
         <v>6934796504.77097</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="1" t="n">
         <v>8441720760.59897</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="1" t="n">
         <v>8962064020.83394</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="1" t="n">
         <v>9672432208.11978</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="1" t="n">
         <v>10807753318.3781</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="1" t="n">
         <v>10186194392.795</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="1" t="n">
         <v>11016274620.2763</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="1" t="n">
         <v>10869920938.1188</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="1" t="n">
         <v>13855337123.5142</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="1" t="n">
         <v>13879962920.9415</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="1" t="n">
         <v>13705349129.6571</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>13067246724.5977</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="1" t="n">
         <v>10385450448.1963</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="1" t="n">
         <v>11121613477.4115</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="1" t="n">
         <v>9443421770.19896</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="1" t="n">
         <v>9565572982.11462</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="1" t="n">
         <v>9550115445.2653</v>
       </c>
-      <c r="AP8" s="13" t="n">
+      <c r="AP8" s="1" t="n">
         <v>10661880481.5559</v>
       </c>
-      <c r="AQ8" s="13" t="n">
+      <c r="AQ8" s="1" t="n">
         <v>11496926180.1018</v>
       </c>
-      <c r="AR8" s="13" t="n">
+      <c r="AR8" s="1" t="n">
         <v>11644645898.1585</v>
       </c>
-      <c r="AS8" s="13" t="n">
+      <c r="AS8" s="1" t="n">
         <v>17977847315.4736</v>
       </c>
-      <c r="AT8" s="13" t="n">
+      <c r="AT8" s="1" t="n">
         <v>19700194046.4749</v>
       </c>
-      <c r="AU8" s="13" t="n">
+      <c r="AU8" s="1" t="n">
         <v>25360516024.2212</v>
       </c>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1615,151 +1621,151 @@
       <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="13" t="n">
+      <c r="N9" s="1" t="n">
         <v>7213472767.73587</v>
       </c>
-      <c r="O9" s="13" t="n">
+      <c r="O9" s="1" t="n">
         <v>6519454564.35329</v>
       </c>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="1" t="n">
         <v>7057587294.66281</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="1" t="n">
         <v>6743131776.14851</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="1" t="n">
         <v>7204219223.59869</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="1" t="n">
         <v>7419197747.46346</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="1" t="n">
         <v>8258314986.4239</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="1" t="n">
         <v>9128605750.36587</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="1" t="n">
         <v>10815284471.6116</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="1" t="n">
         <v>11238448730.5603</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="1" t="n">
         <v>12515971374.9843</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="1" t="n">
         <v>12660756256.18</v>
       </c>
-      <c r="Z9" s="13" t="n">
+      <c r="Z9" s="1" t="n">
         <v>16153809982.0415</v>
       </c>
-      <c r="AA9" s="13" t="n">
+      <c r="AA9" s="1" t="n">
         <v>19115171180.068</v>
       </c>
-      <c r="AB9" s="13" t="n">
+      <c r="AB9" s="1" t="n">
         <v>20878456966.8465</v>
       </c>
-      <c r="AC9" s="13" t="n">
+      <c r="AC9" s="1" t="n">
         <v>25897757448.7161</v>
       </c>
-      <c r="AD9" s="13" t="n">
+      <c r="AD9" s="1" t="n">
         <v>29969885927.4752</v>
       </c>
-      <c r="AE9" s="13" t="n">
+      <c r="AE9" s="1" t="n">
         <v>30211243985.2087</v>
       </c>
-      <c r="AF9" s="13" t="n">
+      <c r="AF9" s="1" t="n">
         <v>34177830243.3986</v>
       </c>
-      <c r="AG9" s="13" t="n">
+      <c r="AG9" s="1" t="n">
         <v>36975183924.1627</v>
       </c>
-      <c r="AH9" s="13" t="n">
+      <c r="AH9" s="1" t="n">
         <v>38545777414.4307</v>
       </c>
-      <c r="AI9" s="13" t="n">
+      <c r="AI9" s="1" t="n">
         <v>37413341741.2766</v>
       </c>
-      <c r="AJ9" s="13" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>37458052848.4084</v>
       </c>
-      <c r="AK9" s="13" t="n">
+      <c r="AK9" s="1" t="n">
         <v>31592227243.9753</v>
       </c>
-      <c r="AL9" s="13" t="n">
+      <c r="AL9" s="1" t="n">
         <v>29486579759.3345</v>
       </c>
-      <c r="AM9" s="13" t="n">
+      <c r="AM9" s="1" t="n">
         <v>30313139811.5167</v>
       </c>
-      <c r="AN9" s="13" t="n">
+      <c r="AN9" s="1" t="n">
         <v>30128695093.884</v>
       </c>
-      <c r="AO9" s="13" t="n">
+      <c r="AO9" s="1" t="n">
         <v>30956907417.2888</v>
       </c>
-      <c r="AP9" s="13" t="n">
+      <c r="AP9" s="1" t="n">
         <v>33479539688.0715</v>
       </c>
-      <c r="AQ9" s="13" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>36176471186.7716</v>
       </c>
-      <c r="AR9" s="13" t="n">
+      <c r="AR9" s="1" t="n">
         <v>37277214283.3196</v>
       </c>
-      <c r="AS9" s="13" t="n">
+      <c r="AS9" s="1" t="n">
         <v>37797423840.3538</v>
       </c>
-      <c r="AT9" s="13" t="n">
+      <c r="AT9" s="1" t="n">
         <v>35306081266.8467</v>
       </c>
-      <c r="AU9" s="13" t="n">
+      <c r="AU9" s="1" t="n">
         <v>38862494429.1704</v>
       </c>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>M10</f>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6883,6 +6889,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>58</v>
       </c>
@@ -6991,736 +7003,1033 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>60</v>
       </c>
       <c r="O2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
-        <v>6271017175.4697</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>5462701070.0159</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>6870303597.4269</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>7766156006.8904</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>8176281494.9251</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>9126333804.2327</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>9361270101.9756</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>9065766799.9883</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>9040425044.3047</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>10925233114.2902</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>11122529684.8693</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>11141785269.072</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>11138064932.0544</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>10088368654.9534</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>9824107038.4001</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>10215391236.3396</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>9343548754.2237</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>9404790061.3202</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>10759304071.8315</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>12409335974.5661</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>13179581963.7275</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>17507035081.1277</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>19436284053.7692</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>13282635696.7505</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="P2" s="13" t="n">
+        <v>2127000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>17932000</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>11224000</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>4190000</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>10793045</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>17742532</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>555624033</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>728413158</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>803825522</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>6278406790.4697</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>5465086499.03</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>6870303614.31</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>7766156014.89</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>8176281496.69</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>9126333807.63</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>9361270093.04</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>9065766792.36</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>9040425044.73</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>10925233121.79</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>11008792630.0225</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>11009219363.5727</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>10980232780.6897</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>9970854297.719</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>9677440172.8192</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>10147013625.7694</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>9322212322.9952</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>9381105885.3315</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>10761999120.64</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>12397801877.55</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>13085261690.91</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>17537064556.54</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>19466900351.97</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>23390878218.27</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>24507653654.18</v>
+      </c>
+      <c r="AY2" s="13" t="n">
+        <v>11235667519.15</v>
+      </c>
+      <c r="AZ2" s="13"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="13" t="n">
+        <v>6898000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>8113000</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>7840000</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>7125000</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>7343000</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>899000</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>21949000</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>1641248</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>10455988</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>37984454</v>
+      </c>
+      <c r="Z3" s="13" t="n">
         <v>180613800</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>207696935.6699</v>
-      </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AA3" s="13" t="n">
+        <v>207696935.67</v>
+      </c>
+      <c r="AB3" s="13" t="n">
         <v>277660182.21</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="13" t="n">
         <v>334222378.09</v>
       </c>
-      <c r="AD3" s="4" t="n">
-        <v>438331188.4861</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>626849177.5709</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>652063984.1709</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>699164742.5933</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>792044934.5504</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>918793300.3838</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>870467853.5533</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>801172094.9453</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>596522964.0268</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>460475144.7347</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>483111976.1876</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>563521363.0512</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>591559178.4025</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>590133373.3203</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>623049142.8178</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>723800769.9278</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>666123822.4483</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>711256682.1468</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>711489580.2949</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>565216046.2794</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AD3" s="13" t="n">
+        <v>438331188.49</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>626849177.53</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>652063984.15</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>699164742.54</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>792044934.93</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>918793300.56</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>872109741.0526</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>801172094.9605</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>596522963.9351</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>465788094.4349</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>483115576.5811</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>567640151.8912</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>591571433.1707</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>590575483.5991</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>622926722.47</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>724461726.17</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>666782257.89</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>711496882.06</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>711734688.39</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>1412432483.72</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>1488996736.33</v>
+      </c>
+      <c r="AY3" s="13" t="n">
+        <v>313118448.57</v>
+      </c>
+      <c r="AZ3" s="13"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>63</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
+      <c r="P4" s="13" t="n">
+        <v>171000</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>648000</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>103000</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>28000</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="n">
+        <v>930028</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>2332568</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>324485</v>
+      </c>
+      <c r="Z4" s="13" t="n">
         <v>1927173</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="13" t="n">
         <v>3651959</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="13" t="n">
         <v>439591</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="13" t="n">
         <v>260024</v>
       </c>
-      <c r="AD4" s="4" t="n">
-        <v>662789</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>377782.5</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>30745.5903</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>726517.5613</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>553950.72</v>
-      </c>
-      <c r="AI4" s="4" t="n">
-        <v>1619936.4727</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
-        <v>84738935.1693</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>299335439.1314</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>790223242.5627</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>983948827.3485</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>1201776519.2544</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>1640338311.9802</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>1837525425.3985</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>2132451977.5959</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>1906189467.228</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>2012555086.0805</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>2069365412.0399</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>1771937599.0814</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>1358778972.4948</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>848864670.4563</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AD4" s="13" t="n">
+        <v>370965</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>87547</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>37950</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>54446.4219</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>30170</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>849903.3301</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>84242720.7509</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>298802539.2281</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>789956793.0662</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>985009664.2154</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>1194626342.119</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>1585340035.0667</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>1787921798.0502</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>2049423567.6582</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>1904746120.7358</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>1939781754.5262</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>2073723677.4955</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>1797328810.9802</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>1399696959.2607</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>1691169098.2859</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>1911401411.45</v>
+      </c>
+      <c r="AY4" s="13" t="n">
+        <v>1002996314.33</v>
+      </c>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>63</v>
       </c>
       <c r="O5" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>598093950.9453</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="n">
+        <v>230000</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="n">
+        <v>476000</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>3256000</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>3908937</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>67603101</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>152444986</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>605566107.9453</v>
+      </c>
+      <c r="AA5" s="13" t="n">
         <v>916370419.4629</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>1235618524.4805</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1657588846.8712</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2174918553.6565</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>2949984735.5231</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>3392988156.1162</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2969658602.8259</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2759947259.6236</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>2606847439.0442</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>2248617845.3752</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>2074688347.6369</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>1726644279.2421</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>1624727049.4162</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>1612472068.8563</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>1535548012.3237</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>1539966134.6575</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>1588850044.3354</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>1709995922.6836</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>2023376978.097</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>2252470550.0335</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>2383870675.9671</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>2410117179.4506</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>1237137200.5873</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="AB5" s="13" t="n">
+        <v>1235689363.4805</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>1658052567.8712</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>2175299950.6565</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>2951010598.0231</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>3394566656.7065</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>2970542715.9881</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>2761271674.04</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>2608574574.8196</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>2335295065.6495</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>2145932873.8538</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>1833075702.8907</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>1713437786.1735</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>1686748867.9642</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>1628933794.2094</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>1539369582.6028</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>1613990679.2395</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>1706351845.3602</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>1999044605.5854</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>2259337965.4025</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>2396469280.852</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>2419031761.2282</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>2772522734.7615</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>2918484526.52</v>
+      </c>
+      <c r="AY5" s="13" t="n">
+        <v>1204267722.12</v>
+      </c>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>63</v>
       </c>
       <c r="O6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
-        <v>1057003135.3984</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1206091135.6701</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2014681791.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2028106759.1153</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2479785462.2314</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>3300345103.3939</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4309803379.4762</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5555599147.8499</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6878885403.0467</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>8250297524.481</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>9496404240.5198</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>10136574640.0809</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>10916347079.7894</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>10051927006.0261</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>9819414579.3114</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>9636489162.8508</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>10760397583.8317</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>11911183628.2584</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>13361162262.7677</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>14488495439.8378</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>15280648811.2408</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>17381429515.2406</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>18538313854.4563</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>8472330609.9175</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13" t="n">
+        <v>111334608</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>204940982</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>573224781.22</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>1071904646.3984</v>
+      </c>
+      <c r="AA6" s="13" t="n">
+        <v>1207084352.6701</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>2015886273.5</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>2028124934.1753</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>2480027371.2314</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>3300173830.0039</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>4309686557.4087</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>5555589628.7925</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>6878851496.1828</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>8250297523.6334</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>9496243886.2755</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>10137603037.2029</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>10914447534.5452</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>10069410767.4191</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>9815149779.799</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>9644687925.279</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>10757197439.5072</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>11904481529.1121</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>13421652171.7755</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>14441817067.395</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>15218232632.9083</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>17298986009.2756</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>18496126704.9786</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>21719588676.5611</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>24547112938.89</v>
+      </c>
+      <c r="AY6" s="13" t="n">
+        <v>10207389091.3</v>
+      </c>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>4126558334.2503</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>4597132425.0834</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>5405934601.1509</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>6607544034.3013</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>7230279239.6493</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>9397180299.0491</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>10994324851.378</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>11990263946.4206</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>14317173466.4284</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>15814840602.5353</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>16148160506.9644</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>15337937898.1212</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>14847218246.9347</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>10655845009.9496</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>10456711543.2085</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>9461979773.0459</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>9292689305.6482</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>8996331767.5234</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>10292703522.7269</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>10892965810.8638</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>10799016848.6673</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>12397044972.645</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>12525412124.9263</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>7044956668.1656</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="P7" s="13" t="n">
+        <v>453000</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>3112000</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>5528000</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>3214000</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>8582000</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>10262000</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>5612000</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>466901945.06</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>619120675</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>1241669745.76</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>4189483084.2503</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>4602782456.0834</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>5410658032.5309</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>6606173121.3013</v>
+      </c>
+      <c r="AD7" s="13" t="n">
+        <v>7236514368.6493</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>9397697893.0491</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>10994620968.3761</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>11992396599.3834</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>14320191812.6175</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>15815791298.1373</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>16164550098.9122</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>15337749620.6281</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>14847082168.8783</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>10726833438.9235</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>10456230342.4903</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>9468955480.112</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>9266208430.0335</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>9453753816.6251</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>10271395659.6553</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>10859038865.6454</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>10783769996.4566</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>12421182003.7164</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>12519645840.293</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>16431518464.1799</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>20796425477.9191</v>
+      </c>
+      <c r="AY7" s="13" t="n">
+        <v>9656811176.91</v>
+      </c>
+      <c r="AZ7" s="13"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>63</v>
       </c>
       <c r="O8" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>181881761</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>28439559</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>33025559</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>31459164</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>38439581</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>24121130</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>10698463.15</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>14973448.1719</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>4832054.2947</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>1836197.1511</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>102945514.3884</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>70774601.5106</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>106713220.8043</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>78859195.32</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>74418163.1416</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>92459117.5767</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>2337251.7597</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>35448469.2009</v>
-      </c>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4" t="n">
+      <c r="P8" s="13" t="n">
+        <v>54000</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>46000</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>24963227</v>
+      </c>
+      <c r="X8" s="13" t="n">
+        <v>28454547</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>37096946</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>96033343</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>21796311</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>27142569</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>32348182</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>31872970</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>23255737</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>8933462.15</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>12638272.1719</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>621016.9453</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>75220.6899</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
+        <v>300839.9992</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>126032.7969</v>
+      </c>
+      <c r="AL8" s="13" t="n">
+        <v>31803</v>
+      </c>
+      <c r="AM8" s="13" t="n">
+        <v>25370</v>
+      </c>
+      <c r="AN8" s="13" t="n">
+        <v>-97892.58</v>
+      </c>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13" t="n">
+        <v>-954863.53</v>
+      </c>
+      <c r="AQ8" s="13" t="n">
+        <v>75961</v>
+      </c>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13" t="n">
         <v>88463</v>
       </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="13"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="13" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="13" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="13" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="13" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="13" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="13" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="13" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="13" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="13" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="13" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="4" t="n">
-        <v>115762.3828</v>
-      </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AV9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="4" t="n">
+      <c r="AW9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="4" t="n">
-        <v>216555</v>
-      </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AX9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="4" t="n">
+      <c r="AY9" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="13" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="13" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="13" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="13" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="13" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="13" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="13" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="13" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="13" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="13" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="13" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="13" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="13" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="13" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="13" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="13" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="13" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="13" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="13" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="13" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="13" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="13" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="13" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="13" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="13" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="13" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="13" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="13" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="13" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="13" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="13" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="13" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="13" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="13" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="13"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>58</v>
       </c>
@@ -7829,734 +8138,947 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>60</v>
       </c>
       <c r="O14" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>10132270893.025</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>8617286059.51508</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>10669346800.1068</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>11834366244.1246</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>12162049709.2165</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>13175274746.197</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>13088317345.8027</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>12336849071.0257</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>12051029166.4967</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>14417003111.4847</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>14550801606.7466</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>14288034809.4936</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>14026165166.2599</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>12475972347.5743</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>11918591518.3235</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>12252826165.1527</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>11114992398.1197</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>10991602904.9906</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>12286173028.8905</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>13898147274.5483</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>14566480231.6829</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>18720055436.1543</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>19436284053.7692</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>12668956402.1904</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="13" t="n">
+        <v>4399235.68047442</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>3504545.23142002</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>34933917.0178114</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>21364629.3428584</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>7805177.78505425</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>19687791.45478</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>31766366.6856396</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>977446688.777363</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>1265547883.12768</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>1379487999.73816</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>10555090436.3768</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>8970325515.1249</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>11102170538.2571</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>12313477908.0215</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>12654731613.3413</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>13708029635.7752</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>13618522700.5102</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>12835283607.1481</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>12539082885.6215</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>14999923590.2897</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>14984871943.0675</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>14690592572.9264</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>14390777496.8048</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>12834990864.7719</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>12234104410.9225</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>12696247983.5701</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>11571715057.5018</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>11451515956.424</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>12851861007.7113</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>14536544768.1735</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>15144760542.0738</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>19621901653.6544</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>20357444752.7996</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>23390878218.27</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>23870176993.825</v>
+      </c>
+      <c r="AY14" s="13" t="n">
+        <v>10708447330.6826</v>
+      </c>
+      <c r="AZ14" s="13"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>60</v>
       </c>
       <c r="O15" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>291823144.062999</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>327637168.02593</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>431196778.216446</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>509300872.373675</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>652008581.991311</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>904953765.234168</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>911673337.231892</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>951435228.310437</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>1055808389.61283</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>1212445147.10798</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>1138770171.9812</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>1027409387.68126</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>751201368.45562</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>569455317.201822</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>586110704.950923</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>675914327.906876</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>703712897.951053</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>689702976.698747</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>711466979.932501</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>810638838.250951</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>736220581.066286</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>760537947.026586</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>711489580.2949</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>539102148.97213</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="13" t="n">
+        <v>14267008.8029678</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>16200783.7393223</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>15273360.9981955</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>13562275.8435376</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>13678620.6385808</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>1639882.39814133</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>39297659.5664646</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>2887262.47927161</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>18166274.6397127</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>65187154.4700791</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>303643114.675445</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>340911186.270252</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>448689150.819802</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>529919803.450652</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>678421303.173507</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>941546439.5526</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>948605059.150487</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>989875204.619448</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>1098567494.23672</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>1261467755.42782</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>1187092284.247</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>1069076057.00057</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>781807582.515142</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>599586129.581606</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>610748948.160571</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>710248394.221076</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>734320976.998504</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>720915492.967909</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>743892242.085364</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>849438506.866962</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>771727602.242936</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>796080883.528294</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>744294126.726969</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>1412432483.72</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>1450265951.23939</v>
+      </c>
+      <c r="AY15" s="13" t="n">
+        <v>298425741.86732</v>
+      </c>
+      <c r="AZ15" s="13"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>63</v>
       </c>
       <c r="O16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>3113791.3272038</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>5760881.83798954</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>682669.806755314</v>
-      </c>
-      <c r="AC16" s="4" t="n">
-        <v>396234.539395299</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>985884.936780269</v>
-      </c>
-      <c r="AE16" s="4" t="n">
-        <v>545387.484018688</v>
-      </c>
-      <c r="AF16" s="4" t="n">
-        <v>42986.4792327176</v>
-      </c>
-      <c r="AG16" s="4" t="n">
-        <v>988657.407470408</v>
-      </c>
-      <c r="AH16" s="4" t="n">
-        <v>738425.046478028</v>
-      </c>
-      <c r="AI16" s="4" t="n">
-        <v>2137677.88046331</v>
-      </c>
-      <c r="AJ16" s="4" t="n">
-        <v>110857823.620179</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>383862645.952854</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>995128129.169338</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>1216818970.56772</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>1457993421.01208</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>1967499797.48551</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>2185901917.13008</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>2492247588.60868</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>2176699669.77941</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>2254011579.81509</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>2287126439.18201</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>1894710893.67768</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>1358778972.4948</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>809645747.041115</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="13" t="n">
+        <v>353676.211265221</v>
+      </c>
+      <c r="Q16" s="13" t="n">
+        <v>1293985.93160124</v>
+      </c>
+      <c r="R16" s="13" t="n">
+        <v>200657.676379354</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <v>53297.3647184637</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13" t="n">
+        <v>1636093.35644096</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>4052612.80940695</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>556866.075216551</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>3239911.96817973</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>5994280.42057604</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>710363.693231503</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>412276.005454511</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>574156.175376742</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>131498.244072541</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>55208.6342288761</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>77085.0698553008</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>41845.8345473179</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>1166884.48370098</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
+        <v>114668921.92566</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>398719129.721417</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>1035323446.06551</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>1267954546.76425</v>
+      </c>
+      <c r="AN16" s="13" t="n">
+        <v>1510232369.35854</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>1983625031.54345</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>2219357473.87975</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>2501731349.52095</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>2274626872.2254</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>2274413205.95846</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>2400108554.79604</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>2010998423.0617</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>1463728328.7849</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>1691169098.2859</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>1861683319.07109</v>
+      </c>
+      <c r="AY16" s="13" t="n">
+        <v>955931918.291946</v>
+      </c>
+      <c r="AZ16" s="13"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>63</v>
       </c>
       <c r="O17" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>966358369.12749</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>1445553388.29233</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>1918873360.30626</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>2525897429.64801</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>3235146390.13905</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>4258759346.45061</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>4743854760.52304</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>4041161744.37482</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>3679053226.00621</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>3440011507.91993</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>2941704188.2077</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>2660544842.14233</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>2174363140.43471</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>2009249506.45216</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>1956248628.83558</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>1841809327.5094</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>1831928352.95501</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>1856927017.93919</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>1952664005.45288</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>2266131829.38709</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>2489499881.69665</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>2549043341.71541</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>2410117179.4506</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>1179979457.05931</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13" t="n">
+        <v>448070.539487878</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13" t="n">
+        <v>868280.335389624</v>
+      </c>
+      <c r="V17" s="13" t="n">
+        <v>5829567.6134862</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>6876551.94945341</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>117453893.334827</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>261618999.461492</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>1018061627.39723</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>1504119094.26735</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>1996830826.67501</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>2628893061.85403</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>3366791745.76079</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>4432507246.15917</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>4938323818.59415</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>4205684869.25856</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>3829887889.03127</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>3581472254.70422</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>3178740728.8063</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>2863511435.05644</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>2402443108.62799</v>
+      </c>
+      <c r="AM17" s="13" t="n">
+        <v>2205624280.15049</v>
+      </c>
+      <c r="AN17" s="13" t="n">
+        <v>2132367795.32244</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>2038170851.33087</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>1910828198.38004</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>1970198422.52613</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>2037706610.17457</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>2343899482.31779</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>2614936810.42747</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>2681365766.39023</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>2529694226.8206</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>2772522734.7615</v>
+      </c>
+      <c r="AX17" s="13" t="n">
+        <v>2842570863.15932</v>
+      </c>
+      <c r="AY17" s="13" t="n">
+        <v>1147758907.28197</v>
+      </c>
+      <c r="AZ17" s="13"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>63</v>
       </c>
       <c r="O18" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>1707831728.56343</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>1902581195.03589</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>3128732001.51221</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>3090506828.37947</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>3688629614.64453</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>4764558740.36885</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>6025686014.19729</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>7560153454.00583</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>9169662733.64855</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>10887142071.6449</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>12423459230.6142</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>12998969896.5514</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>13746955874.9559</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>12430906091.5852</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>11912898634.1889</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>11558463481.5316</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>12800461633.0566</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>13920884965.7048</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>15257264812.9929</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>16226754100.477</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>16888644074.5102</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>18585746962.6978</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>18538313854.4563</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>8080895205.77956</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13" t="n">
+        <v>195858417.693616</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>356065267.475863</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>983741726.535426</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>1802057569.61811</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>1981293355.48238</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>3257601767.04744</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>3215654118.17557</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>3838429583.10314</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>4956960989.86447</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>6269615514.86379</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>7865586014.25477</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>9540977182.12913</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>11327340210.694</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>12926031342.2477</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>13527516435.7593</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>14304558847.4604</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>12961857766.0919</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>12408195253.1381</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>12067722991.1773</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>13352970225.7705</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>14531800605.3787</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>16027989435.0379</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>16933172703.3088</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>17613441331.4084</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>19355519909.7083</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>19342261517.2157</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>21719588676.5611</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>23908609890.0691</v>
+      </c>
+      <c r="AY18" s="13" t="n">
+        <v>9728419631.64813</v>
+      </c>
+      <c r="AZ18" s="13"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>63</v>
       </c>
       <c r="O19" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>6667404302.77363</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>7251871309.20576</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>8395231771.12258</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>10068828904.1224</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>10754890909.6037</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>13566283563.0776</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>15371547994.0391</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>16316554340.3281</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>19085018036.2278</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>20869358464.8696</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>21125471139.0325</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>19669109150.9844</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>18697101934.7975</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>13177752739.9234</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>12686066328.6031</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>11349148618.4982</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>11054490505.4064</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>10514227935.4919</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>11753356496.9474</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>12199850451.8126</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>11935406288.3519</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>13256006402.9679</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>12525412124.9263</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>6719468253.2884</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="13" t="n">
+        <v>936931.717562252</v>
+      </c>
+      <c r="Q19" s="13" t="n">
+        <v>6214327.49867755</v>
+      </c>
+      <c r="R19" s="13" t="n">
+        <v>10769278.0099521</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <v>6117776.07875508</v>
+      </c>
+      <c r="T19" s="13" t="n">
+        <v>15986643.3774071</v>
+      </c>
+      <c r="U19" s="13" t="n">
+        <v>18719102.5247234</v>
+      </c>
+      <c r="V19" s="13" t="n">
+        <v>10047768.2576427</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>821367927.01083</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>1075662693.68082</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>2130895905.93249</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>7043247484.86466</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>7554950303.84285</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>8743434289.60408</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>10474289549.3918</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>11200219462.6515</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>14115626706.3426</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>15994677405.2229</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>16978796720.4497</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>19862127188.4869</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>21714471292.9622</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>22002750109.8459</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>20466540198.8214</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>19458700032.7406</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>13808125671.6397</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>13218641652.1566</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>11847841281.6531</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>11502197107.3619</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>11540197286.1711</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>12265987749.4256</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>12732329986.3044</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>12481035396.5322</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>13897833979.7565</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>13092377004.5697</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>16431518464.1799</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>20255482797.3976</v>
+      </c>
+      <c r="AY19" s="13" t="n">
+        <v>9203676923.871</v>
+      </c>
+      <c r="AZ19" s="13"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>63</v>
       </c>
       <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>293871826.752634</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>44862754.1885141</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>51287564.9877186</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>47938680.1114557</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>57178082.1408398</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>34822582.8416819</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>14957893.4582846</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>20376121.9811868</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>6441204.58431429</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <v>2423056.76810521</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
-        <v>134676175.169739</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>90760138.1278208</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>134383958.933215</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>97522718.8670603</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>90284000.8320115</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>110899863.631328</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>2780371.37975161</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>41429473.1201462</v>
-      </c>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4" t="n">
-        <v>97772.0343696636</v>
-      </c>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="13" t="n">
+        <v>111687.22461007</v>
+      </c>
+      <c r="Q20" s="13" t="n">
+        <v>91857.0260087298</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13" t="n">
+        <v>43914989.4949696</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>49437041.7745901</v>
+      </c>
+      <c r="Y20" s="13" t="n">
+        <v>63664054.4910869</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <v>161448700.936558</v>
+      </c>
+      <c r="AA20" s="13" t="n">
+        <v>35776195.8083555</v>
+      </c>
+      <c r="AB20" s="13" t="n">
+        <v>43861442.9290657</v>
+      </c>
+      <c r="AC20" s="13" t="n">
+        <v>51289032.0073359</v>
+      </c>
+      <c r="AD20" s="13" t="n">
+        <v>49330968.0242007</v>
+      </c>
+      <c r="AE20" s="13" t="n">
+        <v>34930820.9317603</v>
+      </c>
+      <c r="AF20" s="13" t="n">
+        <v>12996159.2684284</v>
+      </c>
+      <c r="AG20" s="13" t="n">
+        <v>17893225.2887166</v>
+      </c>
+      <c r="AH20" s="13" t="n">
+        <v>861351.420089645</v>
+      </c>
+      <c r="AI20" s="13" t="n">
+        <v>103275.105284345</v>
+      </c>
+      <c r="AJ20" s="13" t="n">
+        <v>409495.302061595</v>
+      </c>
+      <c r="AK20" s="13" t="n">
+        <v>168176.907820595</v>
+      </c>
+      <c r="AL20" s="13" t="n">
+        <v>41681.2562968392</v>
+      </c>
+      <c r="AM20" s="13" t="n">
+        <v>32657.5545601699</v>
+      </c>
+      <c r="AN20" s="13" t="n">
+        <v>-123754.631740151</v>
+      </c>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13" t="n">
+        <v>-1185277.51837455</v>
+      </c>
+      <c r="AQ20" s="13" t="n">
+        <v>92725.5927178126</v>
+      </c>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13" t="n">
+        <v>102386.25588697</v>
+      </c>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="13"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>15450802838.8303</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>15213380754.9149</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>16450972910.3526</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>15672825316.8589</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>15151635589.1872</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>15564950505.6706</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>15982498775.8522</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>16393504944.5084</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>18043129720.7719</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>18614354149.9422</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="13" t="n">
+        <v>16078545349.9295</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>15830232953.6913</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>17117400076.3832</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>16308223536.8757</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>15765271498.1542</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>16194868270.591</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>16628758610.5856</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>17056673572.0922</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>18772080522.7719</v>
+      </c>
+      <c r="Y21" s="13" t="n">
+        <v>19367962959.6819</v>
+      </c>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" s="4" t="n">
-        <v>179775.026093825</v>
-      </c>
-      <c r="AC21" s="4" t="n">
+      <c r="AV21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="4" t="n">
+      <c r="AW21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="4" t="n">
-        <v>312630.644886058</v>
-      </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AX21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="4" t="n">
+      <c r="AY21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8576,6 +9098,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>58</v>
       </c>
@@ -8684,120 +9212,184 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>60</v>
       </c>
       <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>2127000</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>1755000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>17932000</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>11224000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>4190000</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>10793045</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>17742532</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>555624033</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>728413158</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>803825522</v>
+      </c>
       <c r="Y2" s="5" t="n">
-        <v>6271017175.4697</v>
+        <v>6278406790.4697</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>5462701070.0159</v>
+        <v>5465086499.03</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>6870303597.4269</v>
+        <v>6870303614.31</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>7766156006.8904</v>
+        <v>7766156014.89</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>8176281494.9251</v>
+        <v>8176281496.69</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>9126333804.2327</v>
+        <v>9126333807.63</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>9361270101.9756</v>
+        <v>9361270093.04</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>9065766799.9883</v>
+        <v>9065766792.36</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>9040425044.3047</v>
+        <v>9040425044.73</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>10925233114.2902</v>
+        <v>10925233121.79</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>11122529684.8693</v>
+        <v>11008792630.0225</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>11141785269.072</v>
+        <v>11009219363.5727</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>11138064932.0544</v>
+        <v>10980232780.6897</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>10088368654.9534</v>
+        <v>9970854297.719</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>9824107038.4001</v>
+        <v>9677440172.8192</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>10215391236.3396</v>
+        <v>10147013625.7694</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>9343548754.2237</v>
+        <v>9322212322.9952</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>9404790061.3202</v>
+        <v>9381105885.3315</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>10759304071.8315</v>
+        <v>10761999120.64</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>12409335974.5661</v>
+        <v>12397801877.55</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>13179581963.7275</v>
+        <v>13085261690.91</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>17507035081.1277</v>
+        <v>17537064556.54</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>19436284053.7692</v>
+        <v>19466900351.97</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>13282635696.7505</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>23390878218.27</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>24507653654.18</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>11235667519.15</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>60</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>6898000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>8113000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>7840000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>7125000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>7343000</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>899000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>21949000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>1641248</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>10455988</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>37984454</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>180613800</v>
       </c>
       <c r="Z3" s="5" t="n">
-        <v>207696935.6699</v>
+        <v>207696935.67</v>
       </c>
       <c r="AA3" s="5" t="n">
         <v>277660182.21</v>
@@ -8806,84 +9398,110 @@
         <v>334222378.09</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>438331188.4861</v>
+        <v>438331188.49</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>626849177.5709</v>
+        <v>626849177.53</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>652063984.1709</v>
+        <v>652063984.15</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>699164742.5933</v>
+        <v>699164742.54</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>792044934.5504</v>
+        <v>792044934.93</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>918793300.3838</v>
+        <v>918793300.56</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>870467853.5533</v>
+        <v>872109741.0526</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>801172094.9453</v>
+        <v>801172094.9605</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>596522964.0268</v>
+        <v>596522963.9351</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>460475144.7347</v>
+        <v>465788094.4349</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>483111976.1876</v>
+        <v>483115576.5811</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>563521363.0512</v>
+        <v>567640151.8912</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>591559178.4025</v>
+        <v>591571433.1707</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>590133373.3203</v>
+        <v>590575483.5991</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>623049142.8178</v>
+        <v>622926722.47</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>723800769.9278</v>
+        <v>724461726.17</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>666123822.4483</v>
+        <v>666782257.89</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>711256682.1468</v>
+        <v>711496882.06</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>711489580.2949</v>
+        <v>711734688.39</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>565216046.2794</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>1412432483.72</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>1488996736.33</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>313118448.57</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>63</v>
       </c>
       <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>171000</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>648000</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>103000</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>28000</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="V4" s="5" t="n">
+        <v>930028</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>2332568</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>324485</v>
+      </c>
       <c r="Y4" s="5" t="n">
         <v>1927173</v>
       </c>
@@ -8897,68 +9515,80 @@
         <v>260024</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>662789</v>
+        <v>370965</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <v>377782.5</v>
+        <v>87547</v>
       </c>
       <c r="AE4" s="5" t="n">
-        <v>30745.5903</v>
+        <v>37950</v>
       </c>
       <c r="AF4" s="5" t="n">
-        <v>726517.5613</v>
+        <v>54446.4219</v>
       </c>
       <c r="AG4" s="5" t="n">
-        <v>553950.72</v>
+        <v>30170</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>1619936.4727</v>
+        <v>849903.3301</v>
       </c>
       <c r="AI4" s="5" t="n">
-        <v>84738935.1693</v>
+        <v>84242720.7509</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>299335439.1314</v>
+        <v>298802539.2281</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>790223242.5627</v>
+        <v>789956793.0662</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>983948827.3485</v>
+        <v>985009664.2154</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>1201776519.2544</v>
+        <v>1194626342.119</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>1640338311.9802</v>
+        <v>1585340035.0667</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>1837525425.3985</v>
+        <v>1787921798.0502</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>2132451977.5959</v>
+        <v>2049423567.6582</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>1906189467.228</v>
+        <v>1904746120.7358</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>2012555086.0805</v>
+        <v>1939781754.5262</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>2069365412.0399</v>
+        <v>2073723677.4955</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>1771937599.0814</v>
+        <v>1797328810.9802</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>1358778972.4948</v>
+        <v>1399696959.2607</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>848864670.4563</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>1691169098.2859</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>1911401411.45</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>1002996314.33</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>63</v>
       </c>
@@ -8967,89 +9597,113 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5" t="n">
+        <v>230000</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="T5" s="5" t="n">
+        <v>476000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>3256000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>3908937</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>67603101</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>152444986</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>598093950.9453</v>
+        <v>605566107.9453</v>
       </c>
       <c r="Z5" s="5" t="n">
         <v>916370419.4629</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>1235618524.4805</v>
+        <v>1235689363.4805</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>1657588846.8712</v>
+        <v>1658052567.8712</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>2174918553.6565</v>
+        <v>2175299950.6565</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>2949984735.5231</v>
+        <v>2951010598.0231</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>3392988156.1162</v>
+        <v>3394566656.7065</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>2969658602.8259</v>
+        <v>2970542715.9881</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>2759947259.6236</v>
+        <v>2761271674.04</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>2606847439.0442</v>
+        <v>2608574574.8196</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>2248617845.3752</v>
+        <v>2335295065.6495</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>2074688347.6369</v>
+        <v>2145932873.8538</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>1726644279.2421</v>
+        <v>1833075702.8907</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>1624727049.4162</v>
+        <v>1713437786.1735</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>1612472068.8563</v>
+        <v>1686748867.9642</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>1535548012.3237</v>
+        <v>1628933794.2094</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>1539966134.6575</v>
+        <v>1539369582.6028</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>1588850044.3354</v>
+        <v>1613990679.2395</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>1709995922.6836</v>
+        <v>1706351845.3602</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>2023376978.097</v>
+        <v>1999044605.5854</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>2252470550.0335</v>
+        <v>2259337965.4025</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>2383870675.9671</v>
+        <v>2396469280.852</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>2410117179.4506</v>
+        <v>2419031761.2282</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>1237137200.5873</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>2772522734.7615</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>2918484526.52</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>1204267722.12</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>63</v>
       </c>
@@ -9063,244 +9717,304 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>111334608</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>204940982</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>573224781.22</v>
+      </c>
       <c r="Y6" s="5" t="n">
-        <v>1057003135.3984</v>
+        <v>1071904646.3984</v>
       </c>
       <c r="Z6" s="5" t="n">
-        <v>1206091135.6701</v>
+        <v>1207084352.6701</v>
       </c>
       <c r="AA6" s="5" t="n">
-        <v>2014681791.5</v>
+        <v>2015886273.5</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>2028106759.1153</v>
+        <v>2028124934.1753</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>2479785462.2314</v>
+        <v>2480027371.2314</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>3300345103.3939</v>
+        <v>3300173830.0039</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>4309803379.4762</v>
+        <v>4309686557.4087</v>
       </c>
       <c r="AF6" s="5" t="n">
-        <v>5555599147.8499</v>
+        <v>5555589628.7925</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>6878885403.0467</v>
+        <v>6878851496.1828</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>8250297524.481</v>
+        <v>8250297523.6334</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>9496404240.5198</v>
+        <v>9496243886.2755</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>10136574640.0809</v>
+        <v>10137603037.2029</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>10916347079.7894</v>
+        <v>10914447534.5452</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>10051927006.0261</v>
+        <v>10069410767.4191</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>9819414579.3114</v>
+        <v>9815149779.799</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>9636489162.8508</v>
+        <v>9644687925.279</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>10760397583.8317</v>
+        <v>10757197439.5072</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>11911183628.2584</v>
+        <v>11904481529.1121</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>13361162262.7677</v>
+        <v>13421652171.7755</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>14488495439.8378</v>
+        <v>14441817067.395</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>15280648811.2408</v>
+        <v>15218232632.9083</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>17381429515.2406</v>
+        <v>17298986009.2756</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>18538313854.4563</v>
+        <v>18496126704.9786</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>8472330609.9175</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>21719588676.5611</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>24547112938.89</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>10207389091.3</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>453000</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>3112000</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>5528000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>3214000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>8582000</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>10262000</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>5612000</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>466901945.06</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>619120675</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>1241669745.76</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>4126558334.2503</v>
+        <v>4189483084.2503</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>4597132425.0834</v>
+        <v>4602782456.0834</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>5405934601.1509</v>
+        <v>5410658032.5309</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>6607544034.3013</v>
+        <v>6606173121.3013</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>7230279239.6493</v>
+        <v>7236514368.6493</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>9397180299.0491</v>
+        <v>9397697893.0491</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>10994324851.378</v>
+        <v>10994620968.3761</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>11990263946.4206</v>
+        <v>11992396599.3834</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>14317173466.4284</v>
+        <v>14320191812.6175</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>15814840602.5353</v>
+        <v>15815791298.1373</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>16148160506.9644</v>
+        <v>16164550098.9122</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>15337937898.1212</v>
+        <v>15337749620.6281</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>14847218246.9347</v>
+        <v>14847082168.8783</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>10655845009.9496</v>
+        <v>10726833438.9235</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>10456711543.2085</v>
+        <v>10456230342.4903</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>9461979773.0459</v>
+        <v>9468955480.112</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>9292689305.6482</v>
+        <v>9266208430.0335</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>8996331767.5234</v>
+        <v>9453753816.6251</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>10292703522.7269</v>
+        <v>10271395659.6553</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>10892965810.8638</v>
+        <v>10859038865.6454</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>10799016848.6673</v>
+        <v>10783769996.4566</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>12397044972.645</v>
+        <v>12421182003.7164</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>12525412124.9263</v>
+        <v>12519645840.293</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>7044956668.1656</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>16431518464.1799</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>20796425477.9191</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>9656811176.91</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
       <c r="N8" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="O8" s="5" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>46000</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>24963227</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>28454547</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>37096946</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>181881761</v>
+        <v>96033343</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>28439559</v>
+        <v>21796311</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>33025559</v>
+        <v>27142569</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>31459164</v>
+        <v>32348182</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>38439581</v>
+        <v>31872970</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>24121130</v>
+        <v>23255737</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>10698463.15</v>
+        <v>8933462.15</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>14973448.1719</v>
+        <v>12638272.1719</v>
       </c>
       <c r="AG8" s="5" t="n">
-        <v>4832054.2947</v>
+        <v>621016.9453</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>1836197.1511</v>
+        <v>75220.6899</v>
       </c>
       <c r="AI8" s="5" t="n">
-        <v>102945514.3884</v>
+        <v>300839.9992</v>
       </c>
       <c r="AJ8" s="5" t="n">
-        <v>70774601.5106</v>
+        <v>126032.7969</v>
       </c>
       <c r="AK8" s="5" t="n">
-        <v>106713220.8043</v>
+        <v>31803</v>
       </c>
       <c r="AL8" s="5" t="n">
-        <v>78859195.32</v>
+        <v>25370</v>
       </c>
       <c r="AM8" s="5" t="n">
-        <v>74418163.1416</v>
-      </c>
-      <c r="AN8" s="5" t="n">
-        <v>92459117.5767</v>
-      </c>
+        <v>-97892.58</v>
+      </c>
+      <c r="AN8" s="5"/>
       <c r="AO8" s="5" t="n">
-        <v>2337251.7597</v>
+        <v>-954863.53</v>
       </c>
       <c r="AP8" s="5" t="n">
-        <v>35448469.2009</v>
+        <v>75961</v>
       </c>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
@@ -9311,8 +10025,18 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9345,75 +10069,176 @@
       <c r="X9" s="5" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5" t="n">
-        <v>115762.3828</v>
-      </c>
-      <c r="AB9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5" t="n">
-        <v>216555</v>
-      </c>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
       <c r="AJ9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="5" t="n">
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="5" t="n">
+      <c r="AU9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
       <c r="AV9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AW9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>58</v>
       </c>
@@ -9522,281 +10347,383 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>60</v>
       </c>
       <c r="N14" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>4399235.68047442</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>3504545.23142002</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>34933917.0178114</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>21364629.3428584</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>7805177.78505425</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>19687791.45478</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>31766366.6856396</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>977446688.777363</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>1265547883.12768</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>1379487999.73816</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>10132270893.025</v>
+        <v>10555090436.3768</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>8617286059.51508</v>
+        <v>8970325515.1249</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>10669346800.1068</v>
+        <v>11102170538.2571</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>11834366244.1246</v>
+        <v>12313477908.0215</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>12162049709.2165</v>
+        <v>12654731613.3413</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>13175274746.197</v>
+        <v>13708029635.7752</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>13088317345.8027</v>
+        <v>13618522700.5102</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>12336849071.0257</v>
+        <v>12835283607.1481</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>12051029166.4967</v>
+        <v>12539082885.6215</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>14417003111.4847</v>
+        <v>14999923590.2897</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>14550801606.7466</v>
+        <v>14984871943.0675</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>14288034809.4936</v>
+        <v>14690592572.9264</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>14026165166.2599</v>
+        <v>14390777496.8048</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>12475972347.5743</v>
+        <v>12834990864.7719</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>11918591518.3235</v>
+        <v>12234104410.9225</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>12252826165.1527</v>
+        <v>12696247983.5701</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>11114992398.1197</v>
+        <v>11571715057.5018</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>10991602904.9906</v>
+        <v>11451515956.424</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>12286173028.8905</v>
+        <v>12851861007.7113</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>13898147274.5483</v>
+        <v>14536544768.1735</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>14566480231.6829</v>
+        <v>15144760542.0738</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>18720055436.1543</v>
+        <v>19621901653.6544</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>19436284053.7692</v>
+        <v>20357444752.7996</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>12668956402.1904</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>23390878218.27</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>23870176993.825</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>10708447330.6826</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>60</v>
       </c>
       <c r="N15" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>14267008.8029678</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>16200783.7393223</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>15273360.9981955</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>13562275.8435376</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>13678620.6385808</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>1639882.39814133</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>39297659.5664646</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>2887262.47927161</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>18166274.6397127</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>65187154.4700791</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>291823144.062999</v>
+        <v>303643114.675445</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>327637168.02593</v>
+        <v>340911186.270252</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>431196778.216446</v>
+        <v>448689150.819802</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>509300872.373675</v>
+        <v>529919803.450652</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>652008581.991311</v>
+        <v>678421303.173507</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>904953765.234168</v>
+        <v>941546439.5526</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>911673337.231892</v>
+        <v>948605059.150487</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>951435228.310437</v>
+        <v>989875204.619448</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>1055808389.61283</v>
+        <v>1098567494.23672</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>1212445147.10798</v>
+        <v>1261467755.42782</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>1138770171.9812</v>
+        <v>1187092284.247</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>1027409387.68126</v>
+        <v>1069076057.00057</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>751201368.45562</v>
+        <v>781807582.515142</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>569455317.201822</v>
+        <v>599586129.581606</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>586110704.950923</v>
+        <v>610748948.160571</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>675914327.906876</v>
+        <v>710248394.221076</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>703712897.951053</v>
+        <v>734320976.998504</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>689702976.698747</v>
+        <v>720915492.967909</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>711466979.932501</v>
+        <v>743892242.085364</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>810638838.250951</v>
+        <v>849438506.866962</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>736220581.066286</v>
+        <v>771727602.242936</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>760537947.026586</v>
+        <v>796080883.528294</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>711489580.2949</v>
+        <v>744294126.726969</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>539102148.97213</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>1412432483.72</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>1450265951.23939</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>298425741.86732</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>63</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="O16" s="5" t="n">
+        <v>353676.211265221</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>1293985.93160124</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>200657.676379354</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>53297.3647184637</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="V16" s="5" t="n">
+        <v>1636093.35644096</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>4052612.80940695</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>556866.075216551</v>
+      </c>
       <c r="Y16" s="5" t="n">
-        <v>3113791.3272038</v>
+        <v>3239911.96817973</v>
       </c>
       <c r="Z16" s="5" t="n">
-        <v>5760881.83798954</v>
+        <v>5994280.42057604</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>682669.806755314</v>
+        <v>710363.693231503</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>396234.539395299</v>
+        <v>412276.005454511</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>985884.936780269</v>
+        <v>574156.175376742</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <v>545387.484018688</v>
+        <v>131498.244072541</v>
       </c>
       <c r="AE16" s="5" t="n">
-        <v>42986.4792327176</v>
+        <v>55208.6342288761</v>
       </c>
       <c r="AF16" s="5" t="n">
-        <v>988657.407470408</v>
+        <v>77085.0698553008</v>
       </c>
       <c r="AG16" s="5" t="n">
-        <v>738425.046478028</v>
+        <v>41845.8345473179</v>
       </c>
       <c r="AH16" s="5" t="n">
-        <v>2137677.88046331</v>
+        <v>1166884.48370098</v>
       </c>
       <c r="AI16" s="5" t="n">
-        <v>110857823.620179</v>
+        <v>114668921.92566</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>383862645.952854</v>
+        <v>398719129.721417</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>995128129.169338</v>
+        <v>1035323446.06551</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>1216818970.56772</v>
+        <v>1267954546.76425</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>1457993421.01208</v>
+        <v>1510232369.35854</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>1967499797.48551</v>
+        <v>1983625031.54345</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>2185901917.13008</v>
+        <v>2219357473.87975</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>2492247588.60868</v>
+        <v>2501731349.52095</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>2176699669.77941</v>
+        <v>2274626872.2254</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>2254011579.81509</v>
+        <v>2274413205.95846</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>2287126439.18201</v>
+        <v>2400108554.79604</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>1894710893.67768</v>
+        <v>2010998423.0617</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>1358778972.4948</v>
+        <v>1463728328.7849</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>809645747.041115</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>1691169098.2859</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>1861683319.07109</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>955931918.291946</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>63</v>
       </c>
@@ -9805,89 +10732,113 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="5" t="n">
+        <v>448070.539487878</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="T17" s="5" t="n">
+        <v>868280.335389624</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>5829567.6134862</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>6876551.94945341</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>117453893.334827</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>261618999.461492</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>966358369.12749</v>
+        <v>1018061627.39723</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>1445553388.29233</v>
+        <v>1504119094.26735</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>1918873360.30626</v>
+        <v>1996830826.67501</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>2525897429.64801</v>
+        <v>2628893061.85403</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>3235146390.13905</v>
+        <v>3366791745.76079</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>4258759346.45061</v>
+        <v>4432507246.15917</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>4743854760.52304</v>
+        <v>4938323818.59415</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>4041161744.37482</v>
+        <v>4205684869.25856</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>3679053226.00621</v>
+        <v>3829887889.03127</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>3440011507.91993</v>
+        <v>3581472254.70422</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>2941704188.2077</v>
+        <v>3178740728.8063</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>2660544842.14233</v>
+        <v>2863511435.05644</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>2174363140.43471</v>
+        <v>2402443108.62799</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>2009249506.45216</v>
+        <v>2205624280.15049</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>1956248628.83558</v>
+        <v>2132367795.32244</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>1841809327.5094</v>
+        <v>2038170851.33087</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>1831928352.95501</v>
+        <v>1910828198.38004</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>1856927017.93919</v>
+        <v>1970198422.52613</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>1952664005.45288</v>
+        <v>2037706610.17457</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>2266131829.38709</v>
+        <v>2343899482.31779</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>2489499881.69665</v>
+        <v>2614936810.42747</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>2549043341.71541</v>
+        <v>2681365766.39023</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>2410117179.4506</v>
+        <v>2529694226.8206</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>1179979457.05931</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>2772522734.7615</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>2842570863.15932</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>1147758907.28197</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>63</v>
       </c>
@@ -9901,355 +10852,442 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>195858417.693616</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>356065267.475863</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>983741726.535426</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>1707831728.56343</v>
+        <v>1802057569.61811</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>1902581195.03589</v>
+        <v>1981293355.48238</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>3128732001.51221</v>
+        <v>3257601767.04744</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>3090506828.37947</v>
+        <v>3215654118.17557</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>3688629614.64453</v>
+        <v>3838429583.10314</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>4764558740.36885</v>
+        <v>4956960989.86447</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>6025686014.19729</v>
+        <v>6269615514.86379</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>7560153454.00583</v>
+        <v>7865586014.25477</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>9169662733.64855</v>
+        <v>9540977182.12913</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>10887142071.6449</v>
+        <v>11327340210.694</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>12423459230.6142</v>
+        <v>12926031342.2477</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>12998969896.5514</v>
+        <v>13527516435.7593</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>13746955874.9559</v>
+        <v>14304558847.4604</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>12430906091.5852</v>
+        <v>12961857766.0919</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>11912898634.1889</v>
+        <v>12408195253.1381</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>11558463481.5316</v>
+        <v>12067722991.1773</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>12800461633.0566</v>
+        <v>13352970225.7705</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>13920884965.7048</v>
+        <v>14531800605.3787</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>15257264812.9929</v>
+        <v>16027989435.0379</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>16226754100.477</v>
+        <v>16933172703.3088</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>16888644074.5102</v>
+        <v>17613441331.4084</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>18585746962.6978</v>
+        <v>19355519909.7083</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>18538313854.4563</v>
+        <v>19342261517.2157</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>8080895205.77956</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>21719588676.5611</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>23908609890.0691</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>9728419631.64813</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>63</v>
       </c>
       <c r="N19" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="O19" s="5" t="n">
+        <v>936931.717562252</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>6214327.49867755</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>10769278.0099521</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>6117776.07875508</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>15986643.3774071</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>18719102.5247234</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>10047768.2576427</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>821367927.01083</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>1075662693.68082</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>2130895905.93249</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>6667404302.77363</v>
+        <v>7043247484.86466</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>7251871309.20576</v>
+        <v>7554950303.84285</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>8395231771.12258</v>
+        <v>8743434289.60408</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>10068828904.1224</v>
+        <v>10474289549.3918</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>10754890909.6037</v>
+        <v>11200219462.6515</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>13566283563.0776</v>
+        <v>14115626706.3426</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>15371547994.0391</v>
+        <v>15994677405.2229</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>16316554340.3281</v>
+        <v>16978796720.4497</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>19085018036.2278</v>
+        <v>19862127188.4869</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>20869358464.8696</v>
+        <v>21714471292.9622</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>21125471139.0325</v>
+        <v>22002750109.8459</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>19669109150.9844</v>
+        <v>20466540198.8214</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>18697101934.7975</v>
+        <v>19458700032.7406</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>13177752739.9234</v>
+        <v>13808125671.6397</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>12686066328.6031</v>
+        <v>13218641652.1566</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>11349148618.4982</v>
+        <v>11847841281.6531</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>11054490505.4064</v>
+        <v>11502197107.3619</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>10514227935.4919</v>
+        <v>11540197286.1711</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>11753356496.9474</v>
+        <v>12265987749.4256</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>12199850451.8126</v>
+        <v>12732329986.3044</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>11935406288.3519</v>
+        <v>12481035396.5322</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>13256006402.9679</v>
+        <v>13897833979.7565</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>12525412124.9263</v>
+        <v>13092377004.5697</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>6719468253.2884</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>16431518464.1799</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>20255482797.3976</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>9203676923.871</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>63</v>
       </c>
       <c r="N20" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="O20" s="5" t="n">
+        <v>111687.22461007</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>91857.0260087298</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>43914989.4949696</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>49437041.7745901</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>63664054.4910869</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>293871826.752634</v>
+        <v>161448700.936558</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>44862754.1885141</v>
+        <v>35776195.8083555</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>51287564.9877186</v>
+        <v>43861442.9290657</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>47938680.1114557</v>
+        <v>51289032.0073359</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>57178082.1408398</v>
+        <v>49330968.0242007</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>34822582.8416819</v>
+        <v>34930820.9317603</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>14957893.4582846</v>
+        <v>12996159.2684284</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>20376121.9811868</v>
+        <v>17893225.2887166</v>
       </c>
       <c r="AG20" s="5" t="n">
-        <v>6441204.58431429</v>
+        <v>861351.420089645</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>2423056.76810521</v>
+        <v>103275.105284345</v>
       </c>
       <c r="AI20" s="5" t="n">
-        <v>134676175.169739</v>
+        <v>409495.302061595</v>
       </c>
       <c r="AJ20" s="5" t="n">
-        <v>90760138.1278208</v>
+        <v>168176.907820595</v>
       </c>
       <c r="AK20" s="5" t="n">
-        <v>134383958.933215</v>
+        <v>41681.2562968392</v>
       </c>
       <c r="AL20" s="5" t="n">
-        <v>97522718.8670603</v>
+        <v>32657.5545601699</v>
       </c>
       <c r="AM20" s="5" t="n">
-        <v>90284000.8320115</v>
-      </c>
-      <c r="AN20" s="5" t="n">
-        <v>110899863.631328</v>
-      </c>
+        <v>-123754.631740151</v>
+      </c>
+      <c r="AN20" s="5"/>
       <c r="AO20" s="5" t="n">
-        <v>2780371.37975161</v>
+        <v>-1185277.51837455</v>
       </c>
       <c r="AP20" s="5" t="n">
-        <v>41429473.1201462</v>
+        <v>92725.5927178126</v>
       </c>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5" t="n">
-        <v>97772.0343696636</v>
+        <v>102386.25588697</v>
       </c>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
+      <c r="AX20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>15450802838.8303</v>
+        <v>16078545349.9295</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>15213380754.9149</v>
+        <v>15830232953.6913</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>16450972910.3526</v>
+        <v>17117400076.3832</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>15672825316.8589</v>
+        <v>16308223536.8757</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15151635589.1872</v>
+        <v>15765271498.1542</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15564950505.6706</v>
+        <v>16194868270.591</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>15982498775.8522</v>
+        <v>16628758610.5856</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>16393504944.5084</v>
+        <v>17056673572.0922</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>18043129720.7719</v>
+        <v>18772080522.7719</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>18614354149.9422</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5" t="n">
-        <v>179775.026093825</v>
-      </c>
-      <c r="AB21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="5" t="n">
-        <v>312630.644886058</v>
-      </c>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>19367962959.6819</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
       <c r="AJ21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="5" t="n">
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="5" t="n">
+      <c r="AU21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
       <c r="AV21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AW21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -591,15 +591,15 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -640,8 +640,8 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -588,18 +588,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -637,11 +637,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,6 +1055,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1064,109 +1070,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>4144502764</v>
+        <v>4152641764</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>4530258367</v>
+        <v>4537304367</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>5017065966</v>
+        <v>5032342966</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>4881442888</v>
+        <v>4890117888</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>4439142916</v>
+        <v>4446316916</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>4646306843</v>
+        <v>4654010888</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>4488650595</v>
+        <v>4522586127</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>4296749720</v>
+        <v>4860276388</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>4328212581</v>
+        <v>5057910768</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>4471931855</v>
+        <v>5411644296.4</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>4670769527.203</v>
+        <v>4678159142.203</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>4396131221.0502</v>
+        <v>4398516647.0502</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>5435870217.4191</v>
+        <v>5435870220.4191</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>5881243312.3819</v>
+        <v>5881243313.3819</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>6502565798.1184</v>
+        <v>6502565798.3261</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>7486383878.6962</v>
+        <v>7486383879.6962</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>7285559671.4854</v>
+        <v>7285559671.6348</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>8095339104.5864</v>
+        <v>8095339103.612</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>8154382843.233</v>
+        <v>8153969331.5376</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>10499601531.6725</v>
+        <v>10499736596.5687</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>10609745344.9903</v>
+        <v>10495583868.9737</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>10687407965.9184</v>
+        <v>10554530292.9937</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>10376595511.0704</v>
+        <v>10218655349.0252</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>8397922811.1648</v>
+        <v>8279745499.636</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>9167183980.9116</v>
+        <v>9008793995.869</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>7873142627.8377</v>
+        <v>7823446832.4768</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>8041066904.8764</v>
+        <v>8054874771.0337</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>8171404262.0036</v>
+        <v>8271007302.2137</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>9336871115.9153</v>
+        <v>9303166052.1967</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>10265340899.4261</v>
+        <v>10164819907.5447</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>10535940228.0006</v>
+        <v>10297112849.4463</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>16812920490.9989</v>
+        <v>16745049272.6601</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>19700194046.4749</v>
+        <v>19634074316.1479</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>26588969504.4727</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>26594588592.035</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>30204656994.25</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>12644542365.93</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1176,109 +1188,115 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>3629362617</v>
+        <v>3630926617</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>3397177862</v>
+        <v>3403805862</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>3769501484</v>
+        <v>3785857484</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>3686152554</v>
+        <v>3699068554</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>4024019538</v>
+        <v>4036960538</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>4231882588</v>
+        <v>4246608588</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>4799043043</v>
+        <v>4813667043</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>5399019746</v>
+        <v>6000797104.06</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>6476459955</v>
+        <v>7408082787</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>6813750180</v>
+        <v>8720608658.58</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>7746325802.8607</v>
+        <v>7745775802.8607</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>8025952285.9262</v>
+        <v>8025952285.8662</v>
       </c>
       <c r="Z3" s="1" t="n">
         <v>10401909405.6123</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>12544093905.8756</v>
+        <v>12544093908.9459</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>14036132512.3719</v>
+        <v>14036132512.3911</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>17939024711.8952</v>
+        <v>17939024710.5399</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>21435620002.1742</v>
+        <v>21435620000.1965</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>22200814092.0444</v>
+        <v>22200814094.0458</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>25639479269.6564</v>
+        <v>25639466817.908</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>28019866590.2647</v>
+        <v>28019878346.3916</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>29464119235.8494</v>
+        <v>29465951113.6887</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>29174860324.5799</v>
+        <v>29176075269.2493</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>29745138454.344</v>
+        <v>29742694397.98</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>25546228076.5837</v>
+        <v>25651613919.2494</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>24304827907.4483</v>
+        <v>24304419193.3238</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>25272584349.3304</v>
+        <v>25219124179.8509</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>25326956729.0454</v>
+        <v>25208651371.7959</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>26487785059.5509</v>
+        <v>26722399620.3518</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>29318856802.8364</v>
+        <v>29385905588.4401</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>32301138882.9487</v>
+        <v>32197125989.3273</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>33727990098.6543</v>
+        <v>33790083834.6166</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>35348229998.8992</v>
+        <v>35417478270.7641</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>35306081266.8467</v>
+        <v>35379061989.9726</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>40744978464.0841</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>40823521083.7434</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>45965417751.0391</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>20975707906.45</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1389,8 +1407,16 @@
       <c r="AU4" s="1" t="str">
         <f>Sum(AU2:AU3)</f>
       </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AV4" s="1" t="str">
+        <f>Sum(AV2:AV3)</f>
+      </c>
+      <c r="AW4" s="1" t="str">
+        <f>Sum(AW2:AW3)</f>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f>Sum(AX2:AX3)</f>
+      </c>
+      <c r="AY4" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1501,6 +1527,12 @@
       <c r="AU7" t="s">
         <v>34</v>
       </c>
+      <c r="AV7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1510,109 +1542,115 @@
         <v>35</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>8237330071.09442</v>
+        <v>8588833952.24119</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>8693926190.56159</v>
+        <v>9060506201.06614</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>9393385615.68976</v>
+        <v>9803672294.18978</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>8929693540.71041</v>
+        <v>9308228449.75069</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>7947416365.58852</v>
+        <v>8282647737.01053</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>8145752758.20711</v>
+        <v>8489466669.62101</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>7724183789.42826</v>
+        <v>8097273223.32961</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>7264899194.14252</v>
+        <v>8550136026.95152</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>7227845249.16025</v>
+        <v>8787634044.2097</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>7375905419.38197</v>
+        <v>9287212412.9137</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>7546702680.64803</v>
+        <v>7864796670.49763</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>6934796504.77097</v>
+        <v>7219670926.47831</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>8441720760.59897</v>
+        <v>8784176304.11919</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>8962064020.83394</v>
+        <v>9324891165.22759</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>9672432208.11978</v>
+        <v>10064260264.1827</v>
       </c>
       <c r="AC8" s="1" t="n">
-        <v>10807753318.3781</v>
+        <v>11244775202.2688</v>
       </c>
       <c r="AD8" s="1" t="n">
-        <v>10186194392.795</v>
+        <v>10598835284.9522</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>11016274620.2763</v>
+        <v>11461355191.5388</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>10869920938.1188</v>
+        <v>11309567502.5332</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>13855337123.5142</v>
+        <v>14415733276.4443</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>13879962920.9415</v>
+        <v>14286306003.747</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>13705349129.6571</v>
+        <v>14083860009.7312</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>13067246724.5977</v>
+        <v>13392648259.9688</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>10385450448.1963</v>
+        <v>10658109593.9568</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>11121613477.4115</v>
+        <v>11388809891.2262</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>9443421770.19896</v>
+        <v>9788931476.26676</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>9565572982.11462</v>
+        <v>9998561762.46312</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>9550115445.2653</v>
+        <v>10096418615.7518</v>
       </c>
       <c r="AP8" s="1" t="n">
-        <v>10661880481.5559</v>
+        <v>11109738599.1405</v>
       </c>
       <c r="AQ8" s="1" t="n">
-        <v>11496926180.1018</v>
+        <v>11918351422.7641</v>
       </c>
       <c r="AR8" s="1" t="n">
-        <v>11644645898.1585</v>
+        <v>11917782927.3302</v>
       </c>
       <c r="AS8" s="1" t="n">
-        <v>17977847315.4736</v>
+        <v>18735730198.9974</v>
       </c>
       <c r="AT8" s="1" t="n">
-        <v>19700194046.4749</v>
+        <v>20532266356.5642</v>
       </c>
       <c r="AU8" s="1" t="n">
-        <v>25360516024.2212</v>
-      </c>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
+        <v>26594588592.035</v>
+      </c>
+      <c r="AV8" s="1" t="n">
+        <v>29418993701.486</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>12051212419.3214</v>
+      </c>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1622,109 +1660,115 @@
         <v>36</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>7213472767.73587</v>
+        <v>7509779937.32518</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>6519454564.35329</v>
+        <v>6797032252.0522</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>7057587294.66281</v>
+        <v>7375353066.43522</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>6743131776.14851</v>
+        <v>7041093065.75493</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>7204219223.59869</v>
+        <v>7520094202.94469</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>7419197747.46346</v>
+        <v>7746316657.68298</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>8258314986.4239</v>
+        <v>8618426749.37921</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>9128605750.36587</v>
+        <v>10556525475.9026</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>10815284471.6116</v>
+        <v>12870832145.4051</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>11238448730.5603</v>
+        <v>14965903253.4722</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>12515971374.9843</v>
+        <v>13021992175.3394</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>12660756256.18</v>
+        <v>13173699004.7384</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>16153809982.0415</v>
+        <v>16809122074.9066</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>19115171180.068</v>
+        <v>19889044583.6787</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>20878456966.8465</v>
+        <v>21724238568.0471</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>25897757448.7161</v>
+        <v>26944958134.6011</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>29969885927.4752</v>
+        <v>31183960581.2919</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>30211243985.2087</v>
+        <v>31431841534.5503</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>34177830243.3986</v>
+        <v>35561978334.2269</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>36975183924.1627</v>
+        <v>38470211987.2226</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>38545777414.4307</v>
+        <v>40108258821.6951</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>37413341741.2766</v>
+        <v>38932263996.4621</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>37458052848.4084</v>
+        <v>38981003935.5019</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>31592227243.9753</v>
+        <v>33020062322.5976</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>29486579759.3345</v>
+        <v>30725356783.2009</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>30313139811.5167</v>
+        <v>31554925057.2292</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>30128695093.884</v>
+        <v>31291641999.911</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>30956907417.2888</v>
+        <v>32620033222.8298</v>
       </c>
       <c r="AP9" s="1" t="n">
-        <v>33479539688.0715</v>
+        <v>35092325317.5197</v>
       </c>
       <c r="AQ9" s="1" t="n">
-        <v>36176471186.7716</v>
+        <v>37751447230.1659</v>
       </c>
       <c r="AR9" s="1" t="n">
-        <v>37277214283.3196</v>
+        <v>39108329696.4065</v>
       </c>
       <c r="AS9" s="1" t="n">
-        <v>37797423840.3538</v>
+        <v>39627970417.102</v>
       </c>
       <c r="AT9" s="1" t="n">
-        <v>35306081266.8467</v>
+        <v>36997533600.3532</v>
       </c>
       <c r="AU9" s="1" t="n">
-        <v>38862494429.1704</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+        <v>40823521083.7434</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>44769796113.2755</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>19991448034.3216</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1766,6 +1810,8 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,6 +3455,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3423,109 +3475,115 @@
       <c r="N2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>3248876000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2358897000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>2517928221</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>2476925819</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>2642986465</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>2375359748</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>2503092777</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>2412681890</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>2652448189</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>2557180328</v>
-      </c>
-      <c r="Y2" s="2" t="n">
+      <c r="O2" s="13" t="n">
+        <v>3249201000</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>2362010000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>2525247221</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>2480737819</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>2643255465</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>2376684748</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>2508277777</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>2598898896</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>2970128882</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>3119194273</v>
+      </c>
+      <c r="Y2" s="13" t="n">
         <v>2687151780</v>
       </c>
-      <c r="Z2" s="2" t="n">
-        <v>2941857273.25</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>3230578439.4375</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>3933227556.3825</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>4053316591.0171</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>5457658287.3238</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>6531652818.5983</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>5708352280.3827</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>6904883683.4737</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>8957635020.2135</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>8226687739.0483</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>8024713489.618</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>9089670056.4231</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>6655596503.4397</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>6892224078.1199</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>7114105400.9507</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>7690695521.3025</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>8297418960.4978</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>10432603719.8459</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>12554504269.6363</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>12891709079.994</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>17914241440.0409</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>19664315190.4223</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>14182394269.294</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="Z2" s="13" t="n">
+        <v>2941857275.2</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>3230578440.44</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>3933227555.3884</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>4053316596.0544</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>5457658284.3542</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>6531652813.8371</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>5708352280.4122</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>6904883687.4233</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>8957635027.8719</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>8226652739.3145</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>8026250869.4554</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>9089230187.2105</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>6663407085.8258</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>6892289077.947</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>7107241516.7858</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>7681351241.303</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>8647612926.0749</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>10450123996.8928</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>12511164872.5053</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>12842111111.6714</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>17836641852.6198</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>19646224184.3784</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>27636253263.2176</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>32269413837.01</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>14866355613.04</v>
+      </c>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3540,109 +3598,115 @@
       <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>1051935000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>1681028000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>1666037599</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1649478854</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>2177882194</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>2633075581</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>2981342972</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>2971400991</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>3717640661</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>3441122510</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3802681854.2123</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>3699450918.4479</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>5196869616.0995</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>6879272646.0734</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>8554512449.247</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>10002826582.3674</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>11528906945.328</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>13729623297.9531</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>15367757087.8612</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>16481371010.1008</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>17872362568.2523</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>17836329626.5941</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>17809266724.1309</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>14995005873.397</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>12703479337.0776</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>12241077609.7714</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>11460581414.6774</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>12058998982.9769</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>12574169186.3776</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>12792838337.6297</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>12664416370.1911</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>12676861670.6676</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>12158511317.18</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>5419116622.6319</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="O3" s="13" t="n">
+        <v>1054032000</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>1684852000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>1681122599</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>1654212854</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>2182586194</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>2636761581</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>2987399972</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>3307396015.06</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>4243681530</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>4347642056.38</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>3810071469.2123</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>3701836344.5103</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>5196869619.9827</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>6879272651.0099</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>8554512446.203</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>10002826586.523</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>11528906940.8962</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>13729623287.9063</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>15367757083.3165</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>16481382768.3477</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>17759898484.3937</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>17703627782.1464</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>17649388939.897</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>14927768294.936</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>12549663201.8174</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>12148247098.3214</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>11411397903.7555</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>12035514171.8276</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>12552200901.887</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>12677819234.6451</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>12510881745.9047</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>12671962491.3587</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>12127645943.5951</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>12837188276.3395</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>15005515907.84</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>6680111943.74</v>
+      </c>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3657,109 +3721,115 @@
       <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="13" t="n">
         <v>20061000</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="13" t="n">
         <v>11639000</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="13" t="n">
         <v>14668086</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="13" t="n">
         <v>13692603</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="13" t="n">
         <v>14180731</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="13" t="n">
         <v>24403936</v>
       </c>
-      <c r="U4" s="2" t="n">
-        <v>20369928</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>18141067</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>46008358</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>74619922</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="U4" s="13" t="n">
+        <v>21694928</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>18695721</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>50351653</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>83169120</v>
+      </c>
+      <c r="Y4" s="13" t="n">
         <v>123047746.7031</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="13" t="n">
         <v>205411421</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="13" t="n">
         <v>204871863.5</v>
       </c>
-      <c r="AB4" s="2" t="n">
-        <v>216194604.5</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>255746718.2368</v>
-      </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AB4" s="13" t="n">
+        <v>216194604.56</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <v>255746718.2376</v>
+      </c>
+      <c r="AD4" s="13" t="n">
         <v>215784111.9181</v>
       </c>
-      <c r="AE4" s="2" t="n">
-        <v>208625748.7659</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>227899976.6789</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>330287335.8236</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>383728077.8428</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>311685987.0935</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>267412125.9841</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>289899637.5865</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>368074982.9617</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>452234227.4513</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>380127250.7623</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>317808787.32</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>306559340.8592</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>378256521.6228</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>311221923.748</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>324688809.3948</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>315304593.4065</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>395863440.6316</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>173160258.7127</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AE4" s="13" t="n">
+        <v>208625748.7461</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>227899976.5064</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>330287335.493</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>383728077.7067</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>311685987.074</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>267412126.0344</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>289972262.6088</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>368747210.2117</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>452184393.9238</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>396024213.4249</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>317877819.8666</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>312156993.2307</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>378319485.8254</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>318739347.7588</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>342197571.0839</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>329538299.7157</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>402106714.327</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>489472520.7895</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>569127794.93</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>244525943.57</v>
+      </c>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3774,109 +3844,115 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>2276874381</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>2374256229</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>2621223158</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>2448571408</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>2755482494</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>2962867072</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>3046045007</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>3537316143</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>3543546149</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>4302603615</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4890041820.9853</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>4686817579.3844</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>5862493766.5577</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>5691154552.7801</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>5817537965.6575</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>7101508106.0526</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>7278566539.9668</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>8487381751.109</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>8745970598.4713</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>9930456383.6431</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>10422444585.3953</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>10513140624.0088</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>9704586301.3343</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>8462932139.1682</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>9461181938.307</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>9130859131.8192</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>9435027786.3914</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>9438451726.1385</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>10368161130.5019</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>10884357119.8383</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>11602905860.4016</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>13544012182.0672</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>14796469385.352</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>7170530510.56</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="O5" s="13" t="n">
+        <v>2279551381</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>2379347229</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>2628615158</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>2459184408</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>2769625494</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>2978813117</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>3065232539</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>4043547424</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>4174692846</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>5466533849.2</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>4889491820.9853</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>4686817580.3836</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>5862493768.5523</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>5691154554.8071</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>5817537966.5187</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>7101508104.6045</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>7278566538.0995</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>8487381750.5371</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>8745970599.2781</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>9930456381.3355</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>10422829935.0726</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>10513342613.8526</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>9704586301.4683</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>8499130220.2833</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>9456563053.1445</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>9104169279.5511</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>9383958348.1866</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>9438538348.7832</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>10408087513.3617</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>10889881245.3778</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>11620017550.8709</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>13587483698.5426</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>14846454842.4433</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>16681820070.7643</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>17734823184.5891</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>7287631677.95</v>
+      </c>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3891,109 +3967,115 @@
       <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>1176119000</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>1501616000</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>1966710386</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1978926758</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>872630570</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>882483094</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>736842954</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>756229375</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>845029179</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>910155660</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="O6" s="13" t="n">
+        <v>1180723000</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>1503262000</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>1968547386</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>1981358758</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>873629570</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>883956094</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>753647954</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>892535436</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>1027138644</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>1115713656.4</v>
+      </c>
+      <c r="Y6" s="13" t="n">
         <v>914172128.163</v>
       </c>
-      <c r="Z6" s="2" t="n">
-        <v>888546311.8199</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>1342965923.5564</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>1705487853.5322</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>1857584584.79</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>2647631499.6078</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>3173427629.1982</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>2142895899.2875</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>2444963407.3387</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>2766277622.5581</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>3240683701.0503</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>3220672424.2933</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>3228311245.9396</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>3462541388.7819</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>3962892307.4041</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>4279557583.8645</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>4463910124.2305</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>4557760311.0821</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>4899213831.7073</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>6007608408.5207</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>6763575751.1758</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>7702154640.0264</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>7965236431.8062</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>4505939230.958</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="Z6" s="13" t="n">
+        <v>888546311.8225</v>
+      </c>
+      <c r="AA6" s="13" t="n">
+        <v>1342965933.5564</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>1705487856.5624</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>1857584583.7035</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>2647631502.8363</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>3173427630.2524</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>2142895902.2958</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>2444537443.9347</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>2766412687.6985</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>3240467836.8076</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>3219972170.7542</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>3228172055.8206</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>3472306607.6286</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>3962513462.3601</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>4286888904.2445</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>4468940829.7179</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>4559584482.6491</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>4900339742.6699</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>5964341196.585</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>6771988704.532</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>7736901201.1874</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>7990704621.3767</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>9773375544.6675</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>10591194020.92</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>4541625094.08</v>
+      </c>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4008,107 +4090,115 @@
       <c r="N7" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="13" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="13" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="13" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="13" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="13" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="13" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="13" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="13" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="13" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="13" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="13" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="13" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="13" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="13" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="13" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="13" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="13" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="13" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="13" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="13" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="13" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="13" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="13" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="13" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="13" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="13" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="13" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="13" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="13" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="13" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="13" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="13" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="13" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="13" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="13" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="13"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4225,6 +4315,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4239,109 +4335,115 @@
       <c r="N11" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>6457243605.7994</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>4526910994.42037</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>4714283386.49847</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>4531075953.20147</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>4731749863.30401</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>4164402798.35499</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>4307385536.55196</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>4079337141.00137</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>4429423158.57275</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>4217756632.07912</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>4341711879.23672</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>4640712597.10839</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>5016977961.23824</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>5993602933.34506</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>6029224641.75674</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>7878974070.9463</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>9132130998.37596</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>7768022504.99289</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>9204318851.49358</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>11820548871.3137</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>10762380911.8162</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>10290755288.037</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>11446621499.8696</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>8230769589.56648</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>8361635629.45486</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>8532996415.08955</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>9148774679.09489</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>9697391834.95708</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>11913110140.5943</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>14060732150.0497</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>14248314247.2319</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>19155476144.3145</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>19664315190.4223</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>13527144670.5654</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="13" t="n">
+        <v>6720263738.70858</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>4716678565.28</v>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v>4919516889.79885</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>4722028153.93318</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>4923885163.63753</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>4335354264.93454</v>
+      </c>
+      <c r="U11" s="13" t="n">
+        <v>4490839955.29065</v>
+      </c>
+      <c r="V11" s="13" t="n">
+        <v>4571949680.87772</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>5160313591.19337</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>5353016233.85813</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>4517568071.12671</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>4828728215.42097</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>5220501857.92027</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>6236252596.21858</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>6273467185.26456</v>
+      </c>
+      <c r="AD11" s="13" t="n">
+        <v>8197567947.96548</v>
+      </c>
+      <c r="AE11" s="13" t="n">
+        <v>9502071965.98528</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>8081866887.45914</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>9577083869.81737</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>12298487315.5518</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>11197898076.7177</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>10710149150.212</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>11912414960.038</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>8577476565.31254</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>8713149624.7008</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>8892793890.32018</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>9534904885.36603</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>10556141100.8875</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>12479423164.4044</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>14669463995.9123</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>14863340316.3863</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>19957093225.9038</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>20544972039.8925</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>27636253263.2176</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>31430043473.1759</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>14168769751.3392</v>
+      </c>
+      <c r="AY11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4356,109 +4458,115 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>2090754018.45641</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>3226026458.60692</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>3119299950.15037</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>3017415343.38365</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>3899071716.87</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>4616221743.68705</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>5130370601.95777</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>5024013515.26478</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>6208228197.39727</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>5675711301.7918</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>6144107341.56276</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>5835799253.66638</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>8070560990.9102</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>10482899379.6402</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>12724660435.2394</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>14440627670.2404</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>16118965814.1407</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>18683504017.4543</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>20485462573.0371</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>21748915986.3656</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>23381120063.7437</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>22873003959.769</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>22427209581.4189</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>18543858281.424</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>15411841553.4637</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>14682530757.4236</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>13633393334.0464</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>14093640303.3288</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>14358588370.3053</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>14327660371.2135</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>13997103338.3228</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>13555210927.0161</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>12158511317.18</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>5168744652.63731</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="13" t="n">
+        <v>2180035346.85558</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>3364467260.54044</v>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v>3275050042.95302</v>
+      </c>
+      <c r="R12" s="13" t="n">
+        <v>3148756635.77174</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>4065745411.78399</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>4809765188.85116</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>5348664043.39705</v>
+      </c>
+      <c r="V12" s="13" t="n">
+        <v>5818328746.40223</v>
+      </c>
+      <c r="W12" s="13" t="n">
+        <v>7372988966.46171</v>
+      </c>
+      <c r="X12" s="13" t="n">
+        <v>7461221222.49949</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v>6405390773.28349</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v>6076148478.13869</v>
+      </c>
+      <c r="AA12" s="13" t="n">
+        <v>8397959686.37554</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>10907297207.1456</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>13240133566.0363</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>15024548321.3577</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>16771942196.5399</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>19438356705.5895</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>21315101765.7221</v>
+      </c>
+      <c r="AH12" s="13" t="n">
+        <v>22628302703.6249</v>
+      </c>
+      <c r="AI12" s="13" t="n">
+        <v>24174295352.3119</v>
+      </c>
+      <c r="AJ12" s="13" t="n">
+        <v>23623544433.2043</v>
+      </c>
+      <c r="AK12" s="13" t="n">
+        <v>23131424830.5646</v>
+      </c>
+      <c r="AL12" s="13" t="n">
+        <v>19215782717.9128</v>
+      </c>
+      <c r="AM12" s="13" t="n">
+        <v>15865134497.4648</v>
+      </c>
+      <c r="AN12" s="13" t="n">
+        <v>15200251366.0052</v>
+      </c>
+      <c r="AO12" s="13" t="n">
+        <v>14165032974.448</v>
+      </c>
+      <c r="AP12" s="13" t="n">
+        <v>14691752152.3722</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>14989700289.283</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>14864867876.373</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>14479978519.9215</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>14178427693.1062</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>12682444447.4678</v>
+      </c>
+      <c r="AV12" s="13" t="n">
+        <v>12837188276.3395</v>
+      </c>
+      <c r="AW12" s="13" t="n">
+        <v>14615202485.6409</v>
+      </c>
+      <c r="AX12" s="13" t="n">
+        <v>6366655723.0073</v>
+      </c>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4473,109 +4581,115 @@
       <c r="N13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>39871870.7565145</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>22336166.8881934</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>27462861.5561042</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>25048075.2044009</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>25387822.7752486</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>42784180.1456998</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>35053088.7444628</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>30672725.110269</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>76831090.3331677</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>123076447.700847</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>198811941.904584</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>324031820.881484</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>318159005.678337</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>329445626.302981</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>380417956.756447</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>311517748.678723</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>291686916.049731</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>310130149.782971</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>440278227.829807</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>506369871.869148</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>407756247.031656</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>342924735.333708</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>365070613.543024</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>455186905.46755</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>548649867.772044</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>455942706.105969</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>378062163.321041</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>358283227.968939</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>431935471.191949</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>348560804.557407</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>358856080.300165</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>337151290.352219</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>395863440.6316</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>165159974.142774</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="13" t="n">
+        <v>41491803.9426409</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>23241824.4720784</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>28575379.1620634</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>26063559.1441475</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>26416020.6627757</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>44515667.5103086</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>38842767.0902073</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>32889273.1422858</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>87481159.7872447</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>142730978.114903</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>206864597.62612</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>337159770.70471</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>331065771.581039</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>342783158.357745</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>395828602.721156</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>324114267.947306</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>303503100.217361</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>322660057.281326</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>458109022.012415</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>526843846.798045</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>424258568.556844</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>356832075.27228</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>380039876.63968</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>474670166.98459</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>571646116.06603</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>495517381.426556</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>394583541.668823</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>381050041.709915</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>451784969.858622</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>373725023.503106</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>396056295.591328</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>368714392.724441</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>420501727.220958</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>489472520.7895</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>554324024.191821</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>233051857.688194</v>
+      </c>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4590,109 +4704,115 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>4525359705.30138</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>4556386576.70562</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>4907681117.75513</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>4479206822.1747</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>4933151980.5271</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>5194401368.54195</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>5241711504.82215</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>5980856896.80525</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>5917501213.00933</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>7096619168.25674</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>7900987514.79391</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>7393347589.89509</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>9104252559.12922</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>8672399481.77199</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>8653467467.75982</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>10252125597.9257</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>10176417052.3744</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>11549772896.4024</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>11658516746.1677</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>13104289774.3008</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>13634930875.9952</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>13481871671.8502</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>12220985526.9385</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>10465845466.0872</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>11478291346.2214</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>10951986770.9704</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>11223814942.3026</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>11030944097.1269</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>11839522406.8688</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>12190208932.2374</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>12823889203.0697</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>14482444211.788</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>14796469385.352</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>6839240380.66364</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="13" t="n">
+        <v>4714754946.29522</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>4751299136.91418</v>
+      </c>
+      <c r="Q14" s="13" t="n">
+        <v>5120891356.30902</v>
+      </c>
+      <c r="R14" s="13" t="n">
+        <v>4681001725.11197</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <v>5159288634.53191</v>
+      </c>
+      <c r="T14" s="13" t="n">
+        <v>5433707672.88187</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>5488016074.06587</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>7113356884.80386</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>7253127755.77781</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>9381411312.2099</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>8220083546.7948</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>7692884519.48803</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>9473585048.31874</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>9023499624.18898</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>9004017492.12288</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>10666680137.7821</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>10588661863.3062</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>12016407916.2153</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>12130674135.0049</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>13634133503.2613</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>14187275308.9649</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>14028899581.2663</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>12718905414.1526</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>10940512766.3733</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>11954874191.3781</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>11391409839.446</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>11648360748.9635</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>11521623764.573</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>12429223658.0173</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>12768492980.2097</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>13448900561.5291</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>15202787672.5817</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>15525629595.129</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>16681820070.7643</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>17273516850.8524</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>6945668324.17674</v>
+      </c>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4707,109 +4827,115 @@
       <c r="N15" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>2337573638.51658</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>2881720558.29379</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>3682245594.3925</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>3620079122.8947</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>1562274205.71085</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>1547140414.94088</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>1267978043.77581</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>1278624666.32671</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>1411146061.45934</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>1501190600.11373</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1477055378.13439</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>1401661494.55014</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>2085580204.12888</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>2598887772.23875</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>2763118671.16034</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>3822265674.50775</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>4436879550.79076</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>2916089048.80101</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>3259174783.09471</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>3650396533.82643</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>4239552236.78544</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>4130135215.94387</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>4065412351.23606</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>4282017449.62641</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>4807774839.83396</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>5133104932.12612</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>5310222957.23375</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>5326763399.17243</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>5594468605.03528</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>6728371816.23287</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>7475312399.59964</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>8235818410.76883</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>7965236431.8062</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>4297757536.32177</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="13" t="n">
+        <v>2442068053.76436</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>3001851665.91164</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>3834991692.40205</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>3771471441.54458</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>1627406709.33902</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>1612440533.1261</v>
+      </c>
+      <c r="U15" s="13" t="n">
+        <v>1349337132.86503</v>
+      </c>
+      <c r="V15" s="13" t="n">
+        <v>1570136917.628</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>1784554716.39467</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>1914735919.70346</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>1536881857.0059</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>1458448947.46427</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>2170186014.83019</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>2704103162.99542</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>2875051986.08494</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>3976822661.81727</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>4616616740.19535</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>3033905159.54382</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>3390577044.20335</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>3798177894.43076</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>4410837518.89072</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>4296698766.23846</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>4230867114.0758</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>4469729699.97121</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>5009362244.81736</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>5363884056.29804</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>5547321611.92785</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>5565884779.03896</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>5851931835.09684</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>6993248776.93182</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>7837836930.3085</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>8656677631.78333</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>8356252147.20712</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>9773375544.6675</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>10315702980.9005</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>4328514797.43157</v>
+      </c>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4818,41 +4944,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4989,6 +5117,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5001,94 +5135,110 @@
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="n">
+        <v>1067000</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="n">
+        <v>1225000</v>
+      </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>133193667</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>65887022</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>82001552</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>2526871722.5859</v>
+        <v>189997975</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>2628650269.6457</v>
+        <v>247265051</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>3761977140.1733</v>
+        <v>406050243</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4595945632.1528</v>
+        <v>579250801.05</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>5794732193.6981</v>
+        <v>612106250</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>8534494056.8896</v>
+        <v>479530244.6825</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>8789690098.0478</v>
+        <v>554477945.53</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>8296087699.3547</v>
+        <v>468543353.5862</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>9285865106.4297</v>
+        <v>335276934.8388</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>10502311312.9302</v>
+        <v>483288293.6253</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>13559324540.7012</v>
+        <v>673536704.1058</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>14762254308.6643</v>
+        <v>559829474.4627</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>15515425637.4548</v>
+        <v>552854124.0729</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>12141188720.0403</v>
+        <v>553853750.6383</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>12741597981.1852</v>
+        <v>723624027.1473</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>13242842770.8344</v>
+        <v>1249832517.2121</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>13525835430.0727</v>
+        <v>1588217383.2603</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>13561593160.8861</v>
+        <v>1548682487.6962</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>13955501498.3153</v>
+        <v>1363525839.9719</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>14740183186.9818</v>
+        <v>1397205325.1925</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>15439849169.6595</v>
+        <v>1340654997.6969</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>17738619548.5977</v>
+        <v>4011027621.4364</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>18957216383.562</v>
+        <v>4322820493.4804</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>21648026791.6599</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>6646052557.7191</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>8453982222.91</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>3695215857.11</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5100,11 +5250,9 @@
       <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5115,80 +5263,68 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>568000</v>
+      </c>
       <c r="Z3" s="3" t="n">
-        <v>94728582</v>
+        <v>1640382</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>126171926</v>
+        <v>196362728</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>142387916</v>
+        <v>10876129.1602</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>122293882</v>
+        <v>60933248</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>154809741.5601</v>
+        <v>167128391.6699</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>390063039.6563</v>
+        <v>392987285.3875</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>401806190.3944</v>
+        <v>1959785129.3574</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>273678603.914</v>
+        <v>4783364019.3242</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>448560073.7808</v>
+        <v>6049950268.4364</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>265758973.3213</v>
+        <v>6919310769.573</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>342760337.4267</v>
+        <v>422744810.8302</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>240595110.3673</v>
+        <v>105723260.8161</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>165068862.2906</v>
+        <v>8016786.0985</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>37057729.2465</v>
+        <v>-32670961.4193</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>21377986.7054</v>
+        <v>-15230698.7913</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>20581211.4037</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>12037218.327</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>61635056.7136</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>74258106.7965</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>57129361.3354</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>54734722.8602</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>66102986.8834</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>22275338.5734</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>17786027.2782</v>
-      </c>
+        <v>-1964.47</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5200,95 +5336,119 @@
       <c r="M4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1011000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>2252000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>5387000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>10578000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>8310000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>8591000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>8104000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>99291142</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>221643996</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>535973688.38</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>1040234215.7181</v>
+        <v>2526871722.5859</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>956001709.13</v>
+        <v>2628650269.5957</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>1424542472.5764</v>
+        <v>3761977140.1733</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>1687784043.0483</v>
+        <v>4595945633.2369</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>2213685905.6531</v>
+        <v>5794732193.715</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>2553315733.3916</v>
+        <v>8534860103.4995</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>3251255808.021</v>
+        <v>8791882459.2935</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>3353815836.5901</v>
+        <v>8296087699.5218</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>3970583754.329</v>
+        <v>9285789426.7796</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>3802095023.5435</v>
+        <v>10502311312.2265</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>4027646293.2761</v>
+        <v>13561093497.8123</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>2923748313.0268</v>
+        <v>14763824190.296</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>2907234407.5828</v>
+        <v>15513598710.9259</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>2591117363.5723</v>
+        <v>12221137367.2928</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>1640462823.2053</v>
+        <v>12717962770.554</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>1060708871.9086</v>
+        <v>13118194518.6515</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>1231070996.0363</v>
+        <v>13535029407.571</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>1384107541.6294</v>
+        <v>13955713068.1898</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>2253683573.1968</v>
+        <v>13951957095.5161</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>2818908907.4682</v>
+        <v>14490869012.2246</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>3037583332.8293</v>
+        <v>15246556820.6533</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>2901064159.265</v>
+        <v>17611793310.7038</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>2286773854.5766</v>
+        <v>18847583222.0327</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>2555910431.3483</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>21805139371.8971</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>24523139734.5891</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>9777216325.16</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5300,95 +5460,119 @@
       <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>8642000</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>7840000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>18239000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>10081000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>11154000</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>8500045</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>33818532</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>743784053</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>1010150630</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>1631457745</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>189997975</v>
+        <v>7421390607.9404</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>247265051</v>
+        <v>7038532234.5711</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>406050243</v>
+        <v>8669810364.0369</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>579250801.05</v>
+        <v>9718052001.3449</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>612106250</v>
+        <v>9809786591.7092</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>479530244.6825</v>
+        <v>11215133395.2415</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>554477945.545</v>
+        <v>12262854329.0635</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>468543353.5862</v>
+        <v>12263305612.6588</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>335276934.836</v>
+        <v>12821870789.7413</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>483288292.5878</v>
+        <v>15947472811.7638</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>673536704.1128</v>
+        <v>19591928012.2092</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>559887425.0005</v>
+        <v>20203810625.0331</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>552854123.8964</v>
+        <v>20111344791.6337</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>553947496.5383</v>
+        <v>18068288929.5382</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>727478299.3611</v>
+        <v>17750997511.488</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>1249846343.6193</v>
+        <v>16961622936.7503</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>1576301585.0537</v>
+        <v>16246283492.7937</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>1515336963.1023</v>
+        <v>17174341292.5511</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>1363817875.5449</v>
+        <v>20203522929.0823</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>1397596509.8479</v>
+        <v>22382589995.8982</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>1340138769.4669</v>
+        <v>23191495288.6093</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>4021696342.2935</v>
+        <v>26421579190.1505</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>4333451515.7041</v>
+        <v>28664283833.9191</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>6489880687.4395</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>35346517499.4943</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>39285330272.45</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>18559872880.62</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5400,11 +5584,9 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -5412,83 +5594,97 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="V6" s="3" t="n">
+        <v>2905000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>535953</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>2545169</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>9998542</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>7414000992.9404</v>
+        <v>94728582</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>7038127595.5811</v>
+        <v>126171926</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>8671200361.0369</v>
+        <v>142387916</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>9719888940.3587</v>
+        <v>122293882</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>9811121756.5792</v>
+        <v>154809741.5601</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>11215915678.2378</v>
+        <v>390063039.65</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>12262854330.045</v>
+        <v>401806190.3944</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>12265893973.7726</v>
+        <v>273678605.8971</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>12825737285.7295</v>
+        <v>448560074.2887</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>15948914670.6307</v>
+        <v>265758973.0553</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>19705492042.0632</v>
+        <v>342760337.9475</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>20303258287.7956</v>
+        <v>240595109.9055</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>20255087860.8599</v>
+        <v>165068863.1674</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>18133540555.0846</v>
+        <v>36680097.4965</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>17845664848.4782</v>
+        <v>21377986.7054</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>17133245270.403</v>
+        <v>20562069.9721</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>16291890770.7339</v>
+        <v>12037218.2802</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>17171687116.5288</v>
+        <v>61614588.7454</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>20153167310.5188</v>
+        <v>74258107.7571</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>22319737834.941</v>
+        <v>57138620.9307</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>23180742470.4012</v>
+        <v>54734723.5715</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>26385050498.4085</v>
+        <v>66865291.1318</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>28673743876.8743</v>
+        <v>23881589.8382</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>35459175827.9414</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>20902156.2497</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>21955233.04</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>17168415.63</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5500,95 +5696,117 @@
       <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="Q7" s="3" t="n">
+        <v>2323000</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>5209000</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>182000</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>651000</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>4065000</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>3232000</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>162097625.06</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>278630612</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>406062335</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>192311242</v>
+        <v>1040234215.7181</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>213986669</v>
+        <v>956001709.13</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>162915729</v>
+        <v>1424542472.5764</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>253275325</v>
+        <v>1687784043.0483</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>438129473.25</v>
+        <v>2213685905.6531</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>558385928.59</v>
+        <v>2553315733.384</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>720459165.4083</v>
+        <v>3251255808.001</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>757928845.9123</v>
+        <v>3353815836.6436</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>445819239.2724</v>
+        <v>3970583752.7592</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>378181271.1618</v>
+        <v>3802087945.6477</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>1176419509.774</v>
+        <v>4027678463.9005</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>789678533.8682</v>
+        <v>2923998518.3526</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>472570418.8814</v>
+        <v>2906794534.0853</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>412100084.5611</v>
+        <v>2596238044.4369</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>350994285.1707</v>
+        <v>1640442822.4673</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>88385208.6262</v>
+        <v>1204899199.7486</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>628314359.7392</v>
+        <v>1222859223.6959</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>720232138.4067</v>
+        <v>1465869182.2214</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>855299554.3794</v>
+        <v>2249716188.8171</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>1232923981.8005</v>
+        <v>2822114263.9186</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>1210881861.4378</v>
+        <v>3052429439.9437</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>1048616954.45</v>
+        <v>2923743455.0045</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>732814344.0312</v>
+        <v>2307644783.7916</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>1163168202.8895</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>2618314760.1472</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>2772625343.17</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>1248850240.8</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5600,79 +5818,117 @@
       <c r="M8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>750000</v>
+      </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="U8" s="3" t="n">
+        <v>49000</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>22015795</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>15711643</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>14943429</v>
+      </c>
       <c r="Z8" s="3" t="n">
-        <v>1640382</v>
+        <v>192311242</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>196362728</v>
+        <v>215967456</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>10876129.1602</v>
+        <v>164305729</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60933248</v>
+        <v>255112267</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>167128391.6299</v>
+        <v>439464638.29</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>393353333.3425</v>
+        <v>559168212.59</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>1961977491.3574</v>
+        <v>720459165.4108</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>4783764019.3367</v>
+        <v>760917205.902</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>6049874590.2309</v>
+        <v>449259773.4151</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>6919299011.7899</v>
+        <v>379765271.0882</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>423276507.4227</v>
+        <v>1176419509.8077</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>105524709.4594</v>
+        <v>790228653.0218</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>8120839.0782</v>
+        <v>482884071.0028</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-32566429.6293</v>
+        <v>411387176.9998</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-15220698.7913</v>
+        <v>369095988.5844</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>-28665.0601</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>353999053.1546</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>600535962.6267</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>714568021.9862</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>846091479.4923</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1212028678.7074</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>1201325413.5882</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>1127518674.9972</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>846922383.0585</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>981183330.271</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>1113041939.13</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>321926553.06</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5684,18 +5940,16 @@
       <c r="M9" t="s">
         <v>56</v>
       </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
         <v>7773865381</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>7927436229</v>
+        <v>7927478229</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>8786567450</v>
+        <v>8786605450</v>
       </c>
       <c r="S9" s="3" t="n">
         <v>8567595442</v>
@@ -5710,16 +5964,16 @@
         <v>9287693638</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>9695769466</v>
+        <v>9700155257</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>10804672536</v>
+        <v>10871424483</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>11285682035</v>
+        <v>11451247663.6</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>957310217.8193</v>
+        <v>956760217.8193</v>
       </c>
       <c r="AA9" s="3" t="n">
         <v>1015517558.6196</v>
@@ -5737,40 +5991,40 @@
         <v>1300350575.8011</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>778658644.8407</v>
+        <v>778658644.7807</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>96440864.1642</v>
+        <v>96440864.1241</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>432145128.2811</v>
+        <v>432145129.1865</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>219619565.972</v>
+        <v>219619565.9805</v>
       </c>
       <c r="AJ9" s="3" t="n">
-        <v>165408646.063</v>
+        <v>165373646.0492</v>
       </c>
       <c r="AK9" s="3" t="n">
-        <v>177321602.3162</v>
+        <v>142595730.3552</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>245371815.3703</v>
+        <v>220787866.0187</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>107765368.3347</v>
+        <v>76445013.9022</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>159656363.0453</v>
+        <v>104942781.0377</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>350145965.433</v>
+        <v>133462681.3085</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>102573273.959</v>
+        <v>58563454.6018</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>244597344.2876</v>
+        <v>72618281.1754</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -5790,7 +6044,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -5904,8 +6164,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6025,6 +6293,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6037,94 +6311,110 @@
         <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="n">
+        <v>2130683.62502858</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="n">
+        <v>2234544.98078212</v>
+      </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>234312594.565658</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>114472370.936615</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>140727252.180859</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>4082742574.09403</v>
+        <v>319419539.985468</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>4146635708.89712</v>
+        <v>405857802.319806</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>5842221991.1236</v>
+        <v>656163002.097471</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>7003478142.94796</v>
+        <v>918419862.832736</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>8619544353.39549</v>
+        <v>947379357.686573</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>12320862509.6702</v>
+        <v>720268943.02974</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>12289171460.8503</v>
+        <v>806639527.872054</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>11289456709.5045</v>
+        <v>663362180.305721</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>12378204640.3046</v>
+        <v>465029603.6724</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>13858912967.1063</v>
+        <v>663536182.308325</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>17738684175.5641</v>
+        <v>916800016.057759</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>18930862364.9647</v>
+        <v>747030870.041462</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>19538575501.5189</v>
+        <v>724574865.272053</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>15014631197.4365</v>
+        <v>712948722.105835</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>15458087033.7476</v>
+        <v>914796862.008733</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>15884095542.6417</v>
+        <v>1563827955.85842</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>16090198910.2926</v>
+        <v>1971463250.53391</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>15849758028.7903</v>
+        <v>1890476713.09391</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>15935947619.7103</v>
+        <v>1628307564.35702</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>16508638109.7564</v>
+        <v>1638237000.44519</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>17064597217.8015</v>
+        <v>1551661662.5068</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>18967685834.3971</v>
+        <v>4487865643.88656</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>18957216383.562</v>
+        <v>4520574810.63704</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>20647852871.8576</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>6646052557.7191</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>8234082903.69297</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>3521822296.17623</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6136,11 +6426,9 @@
       <c r="M15" t="s">
         <v>48</v>
       </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6151,80 +6439,68 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>974775.199848995</v>
+      </c>
       <c r="Z15" s="3" t="n">
-        <v>153055816.509423</v>
+        <v>2757766.5700934</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>199033328.94963</v>
+        <v>322307357.717132</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>221123569.636348</v>
+        <v>17575444.6253507</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>186356105.609994</v>
+        <v>96611528.4927893</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>230276290.449825</v>
+        <v>258670759.122979</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>563116342.887326</v>
+        <v>590278798.488706</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>561779210.95131</v>
+        <v>2851042434.09442</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>372426481.393762</v>
+        <v>6772271468.08959</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>597937652.883229</v>
+        <v>8391289955.33614</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>350697134.349164</v>
+        <v>9499946745.67263</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>448408573.396946</v>
+        <v>575428847.447906</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>308535053.306432</v>
+        <v>141076065.326628</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>207871218.242891</v>
+        <v>10506861.4925798</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>45828143.3952382</v>
+        <v>-42055723.4956246</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>25935740.5237827</v>
+        <v>-19254467.7039106</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>24686083.9456361</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>14319354.8531152</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>72034363.7662624</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>84796185.9622698</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>63983462.0617591</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>60494502.839622</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>70683103.861863</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>22275338.5734</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>16964283.9945395</v>
-      </c>
+        <v>-2458.00382222241</v>
+      </c>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6236,95 +6512,119 @@
       <c r="M16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>2091033.03853297</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>4497000.49068825</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>10494591.2879183</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>20134982.999711</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>15479958.8052031</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>15671000.7591014</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>14509464.3549423</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>174671706.421351</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>385085149.636685</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>919813132.402143</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>1680737681.1338</v>
+        <v>4248109503.43378</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>1508070841.763</v>
+        <v>4314634102.84164</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>2212265798.13615</v>
+        <v>6079223585.43736</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>2571910027.13587</v>
+        <v>7287012379.46117</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>3292812024.86188</v>
+        <v>8968720158.71007</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>3686106274.74744</v>
+        <v>12819618228.0943</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>4545693834.72684</v>
+        <v>12790192961.2228</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>4563929417.20949</v>
+        <v>11745574411.077</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>5292850767.1861</v>
+        <v>12879403645.8155</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>5017267385.61665</v>
+        <v>14419268261.7121</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>5269078511.45892</v>
+        <v>18458995123.4523</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>3749364815.59069</v>
+        <v>19700699825.7839</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>3661080288.77049</v>
+        <v>20332241736.8304</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>3204354408.81468</v>
+        <v>15731669702.7866</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>1990206968.87315</v>
+        <v>16077896804.3835</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>1272264675.78625</v>
+        <v>16413878688.6552</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>1464469777.21432</v>
+        <v>16801108811.1536</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>1617639561.98907</v>
+        <v>17035738945.6119</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>2573507184.83326</v>
+        <v>16661273743.5776</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>3157107779.96716</v>
+        <v>16990686591.579</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>3357230729.43607</v>
+        <v>17646223483.6557</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>3102071917.58154</v>
+        <v>19705514293.6247</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>2286773854.5766</v>
+        <v>19709795973.1167</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>2437823227.40184</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>21805139371.8971</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>23885260260.6902</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>9318432205.31561</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6336,95 +6636,119 @@
       <c r="M17" t="s">
         <v>51</v>
       </c>
-      <c r="N17" t="s">
-        <v>51</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>17874092.5014856</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>15655632.2588792</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>35531993.7813887</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>19188954.7759583</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>20777793.0822184</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>15505088.0744262</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>60548961.5733559</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>1308455388.16039</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>1755039674.11389</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>2799831953.21755</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>306985437.602792</v>
+        <v>12476644417.0828</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>390054965.424162</v>
+        <v>11552959921.8619</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>630582156.872543</v>
+        <v>14010110556.8904</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>882684576.609869</v>
+        <v>15408268697.9421</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>910495393.834324</v>
+        <v>15182967532.6723</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>692276094.467728</v>
+        <v>16845469844.9241</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>775234902.260767</v>
+        <v>17839669018.5838</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>637601734.519866</v>
+        <v>17362348834.3264</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>446929442.007556</v>
+        <v>17783953717.4214</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>637750128.083663</v>
+        <v>21895264931.0139</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>881139384.122263</v>
+        <v>26668004589.3599</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>717990054.969997</v>
+        <v>26959763495.5839</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>696209198.0899</v>
+        <v>26358083097.0093</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>685049673.063497</v>
+        <v>23258420635.6054</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>882575551.61386</v>
+        <v>22440599277.8465</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>1499125156.07248</v>
+        <v>21222891675.4277</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>1875152642.30797</v>
+        <v>20166603892.7551</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>1771010523.05009</v>
+        <v>20964718419.8444</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>1557359313.10901</v>
+        <v>24126824917.9371</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>1565273288.11725</v>
+        <v>26243807145.5409</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>1481162676.24246</v>
+        <v>26841621593.4459</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>4300350009.36685</v>
+        <v>29562623022.3368</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>4333451515.7041</v>
+        <v>29975577209.3692</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>6190037682.40837</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>35346517499.4943</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>38263466592.7847</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>17688973162.2567</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6436,11 +6760,9 @@
       <c r="M18" t="s">
         <v>52</v>
       </c>
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -6448,83 +6770,97 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="V18" s="3" t="n">
+        <v>5201134.49544761</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>942841.659245315</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>4421986.6222573</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>17159033.0567757</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>11979024193.3123</v>
+        <v>159255171.461252</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>11102485389.0299</v>
+        <v>207097041.792684</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>13466077956.113</v>
+        <v>230093896.101824</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>14811539385.8124</v>
+        <v>193900690.561199</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>14593840804.1301</v>
+        <v>239604731.242055</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>16191909452.4492</v>
+        <v>585886492.873233</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>17145123181.8542</v>
+        <v>584536785.148421</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>16691636351.801</v>
+        <v>387473294.245609</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>17096910084.9436</v>
+        <v>622153485.356897</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>21046283408.8667</v>
+        <v>364876817.256439</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>25779270848.5592</v>
+        <v>466556137.80013</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>26036551069.3715</v>
+        <v>321047716.276328</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>25507232138.3141</v>
+        <v>216340521.09261</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>22425186694.3594</v>
+        <v>47216487.3970951</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>21650333090.8896</v>
+        <v>27025795.7454244</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>20550429355.694</v>
+        <v>25727879.0636795</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>19380670752.7314</v>
+        <v>14941867.3590855</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>20068961110.5613</v>
+        <v>75212928.4959582</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>23013133470.7288</v>
+        <v>88678215.7191949</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>24997550569.5955</v>
+        <v>66995595.6188386</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>25620071097.8645</v>
+        <v>63349461.5092654</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>28213207189.3993</v>
+        <v>74814354.614545</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>28673743876.8743</v>
+        <v>24974091.2497647</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>33820904440.8026</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>20902156.2497</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>21384148.2338759</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>16362808.3700212</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6536,95 +6872,117 @@
       <c r="M19" t="s">
         <v>54</v>
       </c>
-      <c r="N19" t="s">
-        <v>54</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="Q19" s="3" t="n">
+        <v>4638779.81344086</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>10147823.6530102</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>346432.870670014</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>1212689.9136206</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <v>7415041.09949332</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>5786597.82763741</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>285160067.713578</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>484093920.2133</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>696865305.899251</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>310723052.607831</v>
+        <v>1748814084.26495</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>337559078.569606</v>
+        <v>1569169403.89396</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>253002562.003842</v>
+        <v>2302010850.96034</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>385950649.715294</v>
+        <v>2676033225.15544</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>651708534.747331</v>
+        <v>3426203100.22558</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>806116473.645918</v>
+        <v>3835157521.1348</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>1007299019.13267</v>
+        <v>4729839069.52401</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>1031402415.80103</v>
+        <v>4748321726.71178</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>594284077.256043</v>
+        <v>5507205527.81671</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>499050272.521269</v>
+        <v>5220120068.15037</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>1539024608.43184</v>
+        <v>5482367416.45995</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>1012670241.59392</v>
+        <v>3901754474.89845</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>595107928.3838</v>
+        <v>3809667263.38587</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>509631381.967085</v>
+        <v>3342009680.2281</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>425825725.825641</v>
+        <v>2073828245.05406</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>106013423.452163</v>
+        <v>1507606040.49681</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>747436495.044101</v>
+        <v>1517942093.76046</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>841752512.619875</v>
+        <v>1789386511.0814</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>976676395.28376</v>
+        <v>2686586334.13417</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>1380844157.37523</v>
+        <v>3308956760.52381</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>1338303957.294</v>
+        <v>3532853528.76338</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>1121273101.22068</v>
+        <v>3271323222.29034</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>732814344.0312</v>
+        <v>2413211674.47028</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>1109427946.9267</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>2618314760.1472</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>2700505671.12306</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>1190249444.87934</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6636,79 +6994,117 @@
       <c r="M20" t="s">
         <v>56</v>
       </c>
-      <c r="N20" t="s">
-        <v>56</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>103414.096861176</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>299533.780463249</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>5376846.47385454</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>1427607.98353028</v>
+      </c>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="U20" s="3" t="n">
+        <v>89381.7992312848</v>
+      </c>
+      <c r="V20" s="3" t="n">
+        <v>895203.871849847</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>38729904.8375599</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>27297470.2896674</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>25645218.292085</v>
+      </c>
       <c r="Z20" s="3" t="n">
-        <v>2650414.49050045</v>
+        <v>323308542.913018</v>
       </c>
       <c r="AA20" s="3" t="n">
-        <v>309757714.528909</v>
+        <v>354486316.243533</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>16890257.0617678</v>
+        <v>265512315.928976</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>92852419.2195317</v>
+        <v>404488302.545936</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>248600027.785965</v>
+        <v>680175585.119646</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>567866390.85196</v>
+        <v>839887581.4907</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>2743108974.79481</v>
+        <v>1048104520.15827</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>6509827133.2146</v>
+        <v>1077304144.59166</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>8064578245.29498</v>
+        <v>623123969.07835</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>9130748455.31561</v>
+        <v>521403066.192454</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>553742058.578887</v>
+        <v>1601310543.14887</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>135323082.038108</v>
+        <v>1054473237.16769</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>10226572.649226</v>
+        <v>632871575.798787</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-40273892.5797363</v>
+        <v>529558501.309628</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-18465728.3158519</v>
+        <v>466606745.312354</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>-34382.2365970203</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>442934239.625507</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>745448698.283454</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>872273184.606118</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>1010393140.93507</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>1421115559.22219</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>1390402893.85575</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>1261560079.34653</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>885666198.074415</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>981183330.271</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>1084090238.23673</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>306820536.645072</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6720,93 +7116,91 @@
       <c r="M21" t="s">
         <v>56</v>
       </c>
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>15450802838.8303</v>
+        <v>16078545349.9295</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>15213380754.9149</v>
+        <v>15830316823.1498</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>16450972910.3526</v>
+        <v>17117474105.4288</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>15672825316.8589</v>
+        <v>16308223536.8757</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>15151635589.1872</v>
+        <v>15765271498.1542</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>15564950505.6706</v>
+        <v>16194868270.591</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>15982498775.8522</v>
+        <v>16628758610.5856</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>16393504944.5084</v>
+        <v>17064388999.4963</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>18043129720.7719</v>
+        <v>18888055617.8024</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>18614354149.9422</v>
+        <v>19652098996.1374</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>1546754885.88171</v>
+        <v>1608479820.12564</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>1601955733.78867</v>
+        <v>1666857984.54601</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>1953366451.69328</v>
+        <v>2032608726.98404</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>2142463893.85096</v>
+        <v>2229201061.91498</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>2003611745.76137</v>
+        <v>2084777607.45057</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>1877257228.37457</v>
+        <v>1953165926.8343</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>1088669735.69933</v>
+        <v>1132771549.64032</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>131238362.040656</v>
+        <v>136540666.741441</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>576056271.641319</v>
+        <v>599385932.262765</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>289811295.81755</v>
+        <v>301529191.360665</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>216392175.260044</v>
+        <v>225102151.715285</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>227394189.098394</v>
+        <v>190278321.114978</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>308996727.036862</v>
+        <v>289366274.589115</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>133270085.714972</v>
+        <v>98403910.617424</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>193694853.588238</v>
+        <v>132667411.780421</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>419981726.359942</v>
+        <v>166992512.372469</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>122020143.555109</v>
+        <v>72695148.5285671</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>285866761.777262</v>
+        <v>88645135.8478395</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -6826,7 +7220,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6870,6 +7270,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,115 +7425,115 @@
       <c r="O2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="4" t="n">
         <v>2127000</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="4" t="n">
         <v>1755000</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="4" t="n">
         <v>17932000</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="4" t="n">
         <v>11224000</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="4" t="n">
         <v>4190000</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="4" t="n">
         <v>10793045</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="4" t="n">
         <v>17742532</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="4" t="n">
         <v>555624033</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="4" t="n">
         <v>728413158</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="4" t="n">
         <v>803825522</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="4" t="n">
         <v>6278406790.4697</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="4" t="n">
         <v>5465086499.03</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="4" t="n">
         <v>6870303614.31</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="4" t="n">
         <v>7766156014.89</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="4" t="n">
         <v>8176281496.69</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="4" t="n">
         <v>9126333807.63</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="4" t="n">
         <v>9361270093.04</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="4" t="n">
         <v>9065766792.36</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="4" t="n">
         <v>9040425044.73</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="4" t="n">
         <v>10925233121.79</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>11008792630.0225</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="4" t="n">
         <v>11009219363.5727</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="4" t="n">
         <v>10980232780.6897</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="4" t="n">
         <v>9970854297.719</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="4" t="n">
         <v>9677440172.8192</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="4" t="n">
         <v>10147013625.7694</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="4" t="n">
         <v>9322212322.9952</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>9381105885.3315</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="4" t="n">
         <v>10761999120.64</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="4" t="n">
         <v>12397801877.55</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="4" t="n">
         <v>13085261690.91</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="4" t="n">
         <v>17537064556.54</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="4" t="n">
         <v>19466900351.97</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="4" t="n">
         <v>23390878218.27</v>
       </c>
-      <c r="AX2" s="13" t="n">
+      <c r="AX2" s="4" t="n">
         <v>24507653654.18</v>
       </c>
-      <c r="AY2" s="13" t="n">
+      <c r="AY2" s="4" t="n">
         <v>11235667519.15</v>
       </c>
-      <c r="AZ2" s="13"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7146,115 +7548,115 @@
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="4" t="n">
         <v>6898000</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="4" t="n">
         <v>8113000</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="4" t="n">
         <v>7840000</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="4" t="n">
         <v>7125000</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="4" t="n">
         <v>7343000</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="4" t="n">
         <v>899000</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="4" t="n">
         <v>21949000</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="4" t="n">
         <v>1641248</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="4" t="n">
         <v>10455988</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="4" t="n">
         <v>37984454</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="4" t="n">
         <v>180613800</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="4" t="n">
         <v>207696935.67</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="4" t="n">
         <v>277660182.21</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="4" t="n">
         <v>334222378.09</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="4" t="n">
         <v>438331188.49</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="4" t="n">
         <v>626849177.53</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="4" t="n">
         <v>652063984.15</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="4" t="n">
         <v>699164742.54</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="4" t="n">
         <v>792044934.93</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="4" t="n">
         <v>918793300.56</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>872109741.0526</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="4" t="n">
         <v>801172094.9605</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="4" t="n">
         <v>596522963.9351</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="4" t="n">
         <v>465788094.4349</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="4" t="n">
         <v>483115576.5811</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="4" t="n">
         <v>567640151.8912</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="4" t="n">
         <v>591571433.1707</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>590575483.5991</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="4" t="n">
         <v>622926722.47</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="4" t="n">
         <v>724461726.17</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="4" t="n">
         <v>666782257.89</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="4" t="n">
         <v>711496882.06</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="4" t="n">
         <v>711734688.39</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="4" t="n">
         <v>1412432483.72</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="4" t="n">
         <v>1488996736.33</v>
       </c>
-      <c r="AY3" s="13" t="n">
+      <c r="AY3" s="4" t="n">
         <v>313118448.57</v>
       </c>
-      <c r="AZ3" s="13"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7269,109 +7671,109 @@
       <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="4" t="n">
         <v>171000</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="4" t="n">
         <v>648000</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="4" t="n">
         <v>103000</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="4" t="n">
         <v>28000</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="n">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>930028</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="4" t="n">
         <v>2332568</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="4" t="n">
         <v>324485</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="4" t="n">
         <v>1927173</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="4" t="n">
         <v>3651959</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="4" t="n">
         <v>439591</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="4" t="n">
         <v>260024</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="4" t="n">
         <v>370965</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="4" t="n">
         <v>87547</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="4" t="n">
         <v>37950</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="4" t="n">
         <v>54446.4219</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="4" t="n">
         <v>30170</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="4" t="n">
         <v>849903.3301</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>84242720.7509</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="4" t="n">
         <v>298802539.2281</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="4" t="n">
         <v>789956793.0662</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="4" t="n">
         <v>985009664.2154</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="4" t="n">
         <v>1194626342.119</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="4" t="n">
         <v>1585340035.0667</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="4" t="n">
         <v>1787921798.0502</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>2049423567.6582</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="4" t="n">
         <v>1904746120.7358</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="4" t="n">
         <v>1939781754.5262</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="4" t="n">
         <v>2073723677.4955</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="4" t="n">
         <v>1797328810.9802</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="4" t="n">
         <v>1399696959.2607</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="4" t="n">
         <v>1691169098.2859</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="4" t="n">
         <v>1911401411.45</v>
       </c>
-      <c r="AY4" s="13" t="n">
+      <c r="AY4" s="4" t="n">
         <v>1002996314.33</v>
       </c>
-      <c r="AZ4" s="13"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7386,107 +7788,107 @@
       <c r="O5" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="n">
         <v>230000</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13" t="n">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
         <v>476000</v>
       </c>
-      <c r="V5" s="13" t="n">
+      <c r="V5" s="4" t="n">
         <v>3256000</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="4" t="n">
         <v>3908937</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="4" t="n">
         <v>67603101</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="4" t="n">
         <v>152444986</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="4" t="n">
         <v>605566107.9453</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="4" t="n">
         <v>916370419.4629</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="4" t="n">
         <v>1235689363.4805</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="4" t="n">
         <v>1658052567.8712</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="4" t="n">
         <v>2175299950.6565</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="4" t="n">
         <v>2951010598.0231</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="4" t="n">
         <v>3394566656.7065</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="4" t="n">
         <v>2970542715.9881</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="4" t="n">
         <v>2761271674.04</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="4" t="n">
         <v>2608574574.8196</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>2335295065.6495</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="4" t="n">
         <v>2145932873.8538</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="4" t="n">
         <v>1833075702.8907</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="4" t="n">
         <v>1713437786.1735</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="4" t="n">
         <v>1686748867.9642</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="4" t="n">
         <v>1628933794.2094</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="4" t="n">
         <v>1539369582.6028</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>1613990679.2395</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="4" t="n">
         <v>1706351845.3602</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="4" t="n">
         <v>1999044605.5854</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="4" t="n">
         <v>2259337965.4025</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="4" t="n">
         <v>2396469280.852</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="4" t="n">
         <v>2419031761.2282</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="4" t="n">
         <v>2772522734.7615</v>
       </c>
-      <c r="AX5" s="13" t="n">
+      <c r="AX5" s="4" t="n">
         <v>2918484526.52</v>
       </c>
-      <c r="AY5" s="13" t="n">
+      <c r="AY5" s="4" t="n">
         <v>1204267722.12</v>
       </c>
-      <c r="AZ5" s="13"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7501,101 +7903,101 @@
       <c r="O6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>111334608</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="4" t="n">
         <v>204940982</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="4" t="n">
         <v>573224781.22</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="4" t="n">
         <v>1071904646.3984</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="4" t="n">
         <v>1207084352.6701</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="4" t="n">
         <v>2015886273.5</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="4" t="n">
         <v>2028124934.1753</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="4" t="n">
         <v>2480027371.2314</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="4" t="n">
         <v>3300173830.0039</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="4" t="n">
         <v>4309686557.4087</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="4" t="n">
         <v>5555589628.7925</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="4" t="n">
         <v>6878851496.1828</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="4" t="n">
         <v>8250297523.6334</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>9496243886.2755</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="4" t="n">
         <v>10137603037.2029</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="4" t="n">
         <v>10914447534.5452</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="4" t="n">
         <v>10069410767.4191</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="4" t="n">
         <v>9815149779.799</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="4" t="n">
         <v>9644687925.279</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="4" t="n">
         <v>10757197439.5072</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>11904481529.1121</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="4" t="n">
         <v>13421652171.7755</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="4" t="n">
         <v>14441817067.395</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="4" t="n">
         <v>15218232632.9083</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="4" t="n">
         <v>17298986009.2756</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="4" t="n">
         <v>18496126704.9786</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="4" t="n">
         <v>21719588676.5611</v>
       </c>
-      <c r="AX6" s="13" t="n">
+      <c r="AX6" s="4" t="n">
         <v>24547112938.89</v>
       </c>
-      <c r="AY6" s="13" t="n">
+      <c r="AY6" s="4" t="n">
         <v>10207389091.3</v>
       </c>
-      <c r="AZ6" s="13"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7610,115 +8012,115 @@
       <c r="O7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="4" t="n">
         <v>453000</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="4" t="n">
         <v>3112000</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="4" t="n">
         <v>5528000</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="4" t="n">
         <v>3214000</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="4" t="n">
         <v>8582000</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="4" t="n">
         <v>10262000</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="4" t="n">
         <v>5612000</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="4" t="n">
         <v>466901945.06</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="4" t="n">
         <v>619120675</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="4" t="n">
         <v>1241669745.76</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="4" t="n">
         <v>4189483084.2503</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="4" t="n">
         <v>4602782456.0834</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="4" t="n">
         <v>5410658032.5309</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="4" t="n">
         <v>6606173121.3013</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="4" t="n">
         <v>7236514368.6493</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="4" t="n">
         <v>9397697893.0491</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="4" t="n">
         <v>10994620968.3761</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="4" t="n">
         <v>11992396599.3834</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="4" t="n">
         <v>14320191812.6175</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="4" t="n">
         <v>15815791298.1373</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>16164550098.9122</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="4" t="n">
         <v>15337749620.6281</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="4" t="n">
         <v>14847082168.8783</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="4" t="n">
         <v>10726833438.9235</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="4" t="n">
         <v>10456230342.4903</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="4" t="n">
         <v>9468955480.112</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="4" t="n">
         <v>9266208430.0335</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>9453753816.6251</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="4" t="n">
         <v>10271395659.6553</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="4" t="n">
         <v>10859038865.6454</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="4" t="n">
         <v>10783769996.4566</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="4" t="n">
         <v>12421182003.7164</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="4" t="n">
         <v>12519645840.293</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="4" t="n">
         <v>16431518464.1799</v>
       </c>
-      <c r="AX7" s="13" t="n">
+      <c r="AX7" s="4" t="n">
         <v>20796425477.9191</v>
       </c>
-      <c r="AY7" s="13" t="n">
+      <c r="AY7" s="4" t="n">
         <v>9656811176.91</v>
       </c>
-      <c r="AZ7" s="13"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7733,93 +8135,93 @@
       <c r="O8" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="4" t="n">
         <v>54000</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="4" t="n">
         <v>46000</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13" t="n">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="4" t="n">
         <v>24963227</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="4" t="n">
         <v>28454547</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="4" t="n">
         <v>37096946</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="4" t="n">
         <v>96033343</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="4" t="n">
         <v>21796311</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="4" t="n">
         <v>27142569</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="4" t="n">
         <v>32348182</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="4" t="n">
         <v>31872970</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="4" t="n">
         <v>23255737</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="4" t="n">
         <v>8933462.15</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="4" t="n">
         <v>12638272.1719</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="4" t="n">
         <v>621016.9453</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="4" t="n">
         <v>75220.6899</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>300839.9992</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="4" t="n">
         <v>126032.7969</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="4" t="n">
         <v>31803</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="4" t="n">
         <v>25370</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="4" t="n">
         <v>-97892.58</v>
       </c>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13" t="n">
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4" t="n">
         <v>-954863.53</v>
       </c>
-      <c r="AQ8" s="13" t="n">
+      <c r="AQ8" s="4" t="n">
         <v>75961</v>
       </c>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13" t="n">
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4" t="n">
         <v>88463</v>
       </c>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13" t="n">
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ8" s="13"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7830,75 +8232,75 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="4" t="n">
         <v>7773865381</v>
       </c>
-      <c r="Q9" s="13" t="n">
+      <c r="Q9" s="4" t="n">
         <v>7927436229</v>
       </c>
-      <c r="R9" s="13" t="n">
+      <c r="R9" s="4" t="n">
         <v>8786567450</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="4" t="n">
         <v>8567595442</v>
       </c>
-      <c r="T9" s="13" t="n">
+      <c r="T9" s="4" t="n">
         <v>8463162454</v>
       </c>
-      <c r="U9" s="13" t="n">
+      <c r="U9" s="4" t="n">
         <v>8878189431</v>
       </c>
-      <c r="V9" s="13" t="n">
+      <c r="V9" s="4" t="n">
         <v>9287693638</v>
       </c>
-      <c r="W9" s="13" t="n">
+      <c r="W9" s="4" t="n">
         <v>9695769466</v>
       </c>
-      <c r="X9" s="13" t="n">
+      <c r="X9" s="4" t="n">
         <v>10804672536</v>
       </c>
-      <c r="Y9" s="13" t="n">
+      <c r="Y9" s="4" t="n">
         <v>11285682035</v>
       </c>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13" t="n">
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="13" t="n">
+      <c r="AV9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="13" t="n">
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="13" t="n">
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="13" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="13"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -7913,115 +8315,115 @@
       <c r="O10" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="13" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="13" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="13" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="13" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="13" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="13" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="13" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="13" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="13" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="13" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="13" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="13" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="13" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="13" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="13" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="13" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="13" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="13" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="13" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="13" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="13" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="13" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="13" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="13" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="13" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="13"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8158,115 +8560,115 @@
       <c r="O14" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="4" t="n">
         <v>4399235.68047442</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="4" t="n">
         <v>3504545.23142002</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="4" t="n">
         <v>34933917.0178114</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="4" t="n">
         <v>21364629.3428584</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="4" t="n">
         <v>7805177.78505425</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="4" t="n">
         <v>19687791.45478</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="4" t="n">
         <v>31766366.6856396</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="4" t="n">
         <v>977446688.777363</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="4" t="n">
         <v>1265547883.12768</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1379487999.73816</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="4" t="n">
         <v>10555090436.3768</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="4" t="n">
         <v>8970325515.1249</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="4" t="n">
         <v>11102170538.2571</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="4" t="n">
         <v>12313477908.0215</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="4" t="n">
         <v>12654731613.3413</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="4" t="n">
         <v>13708029635.7752</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="4" t="n">
         <v>13618522700.5102</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="4" t="n">
         <v>12835283607.1481</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="4" t="n">
         <v>12539082885.6215</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="4" t="n">
         <v>14999923590.2897</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>14984871943.0675</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="4" t="n">
         <v>14690592572.9264</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="4" t="n">
         <v>14390777496.8048</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="4" t="n">
         <v>12834990864.7719</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="4" t="n">
         <v>12234104410.9225</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="4" t="n">
         <v>12696247983.5701</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="4" t="n">
         <v>11571715057.5018</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>11451515956.424</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="4" t="n">
         <v>12851861007.7113</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="4" t="n">
         <v>14536544768.1735</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="4" t="n">
         <v>15144760542.0738</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="4" t="n">
         <v>19621901653.6544</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="4" t="n">
         <v>20357444752.7996</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="4" t="n">
         <v>23390878218.27</v>
       </c>
-      <c r="AX14" s="13" t="n">
+      <c r="AX14" s="4" t="n">
         <v>23870176993.825</v>
       </c>
-      <c r="AY14" s="13" t="n">
+      <c r="AY14" s="4" t="n">
         <v>10708447330.6826</v>
       </c>
-      <c r="AZ14" s="13"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8281,115 +8683,115 @@
       <c r="O15" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="4" t="n">
         <v>14267008.8029678</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="4" t="n">
         <v>16200783.7393223</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="4" t="n">
         <v>15273360.9981955</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="4" t="n">
         <v>13562275.8435376</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="4" t="n">
         <v>13678620.6385808</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="4" t="n">
         <v>1639882.39814133</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="4" t="n">
         <v>39297659.5664646</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="4" t="n">
         <v>2887262.47927161</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="4" t="n">
         <v>18166274.6397127</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="4" t="n">
         <v>65187154.4700791</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="4" t="n">
         <v>303643114.675445</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="4" t="n">
         <v>340911186.270252</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="4" t="n">
         <v>448689150.819802</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="4" t="n">
         <v>529919803.450652</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="4" t="n">
         <v>678421303.173507</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="4" t="n">
         <v>941546439.5526</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="4" t="n">
         <v>948605059.150487</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="4" t="n">
         <v>989875204.619448</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="4" t="n">
         <v>1098567494.23672</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="4" t="n">
         <v>1261467755.42782</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>1187092284.247</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="4" t="n">
         <v>1069076057.00057</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="4" t="n">
         <v>781807582.515142</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="4" t="n">
         <v>599586129.581606</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="4" t="n">
         <v>610748948.160571</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="4" t="n">
         <v>710248394.221076</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="4" t="n">
         <v>734320976.998504</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>720915492.967909</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="4" t="n">
         <v>743892242.085364</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="4" t="n">
         <v>849438506.866962</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="4" t="n">
         <v>771727602.242936</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="4" t="n">
         <v>796080883.528294</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="4" t="n">
         <v>744294126.726969</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="4" t="n">
         <v>1412432483.72</v>
       </c>
-      <c r="AX15" s="13" t="n">
+      <c r="AX15" s="4" t="n">
         <v>1450265951.23939</v>
       </c>
-      <c r="AY15" s="13" t="n">
+      <c r="AY15" s="4" t="n">
         <v>298425741.86732</v>
       </c>
-      <c r="AZ15" s="13"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8404,109 +8806,109 @@
       <c r="O16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="4" t="n">
         <v>353676.211265221</v>
       </c>
-      <c r="Q16" s="13" t="n">
+      <c r="Q16" s="4" t="n">
         <v>1293985.93160124</v>
       </c>
-      <c r="R16" s="13" t="n">
+      <c r="R16" s="4" t="n">
         <v>200657.676379354</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="4" t="n">
         <v>53297.3647184637</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13" t="n">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>1636093.35644096</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="4" t="n">
         <v>4052612.80940695</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="4" t="n">
         <v>556866.075216551</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="4" t="n">
         <v>3239911.96817973</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="4" t="n">
         <v>5994280.42057604</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="4" t="n">
         <v>710363.693231503</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="4" t="n">
         <v>412276.005454511</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="4" t="n">
         <v>574156.175376742</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="4" t="n">
         <v>131498.244072541</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="4" t="n">
         <v>55208.6342288761</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="4" t="n">
         <v>77085.0698553008</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="4" t="n">
         <v>41845.8345473179</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="4" t="n">
         <v>1166884.48370098</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="4" t="n">
         <v>114668921.92566</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="4" t="n">
         <v>398719129.721417</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="4" t="n">
         <v>1035323446.06551</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="4" t="n">
         <v>1267954546.76425</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="4" t="n">
         <v>1510232369.35854</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="4" t="n">
         <v>1983625031.54345</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="4" t="n">
         <v>2219357473.87975</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>2501731349.52095</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="4" t="n">
         <v>2274626872.2254</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="4" t="n">
         <v>2274413205.95846</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="4" t="n">
         <v>2400108554.79604</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="4" t="n">
         <v>2010998423.0617</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="4" t="n">
         <v>1463728328.7849</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="4" t="n">
         <v>1691169098.2859</v>
       </c>
-      <c r="AX16" s="13" t="n">
+      <c r="AX16" s="4" t="n">
         <v>1861683319.07109</v>
       </c>
-      <c r="AY16" s="13" t="n">
+      <c r="AY16" s="4" t="n">
         <v>955931918.291946</v>
       </c>
-      <c r="AZ16" s="13"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8521,107 +8923,107 @@
       <c r="O17" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="n">
         <v>448070.539487878</v>
       </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13" t="n">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
         <v>868280.335389624</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="4" t="n">
         <v>5829567.6134862</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="4" t="n">
         <v>6876551.94945341</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="4" t="n">
         <v>117453893.334827</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="4" t="n">
         <v>261618999.461492</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="4" t="n">
         <v>1018061627.39723</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="4" t="n">
         <v>1504119094.26735</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="4" t="n">
         <v>1996830826.67501</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="4" t="n">
         <v>2628893061.85403</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="4" t="n">
         <v>3366791745.76079</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="4" t="n">
         <v>4432507246.15917</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="4" t="n">
         <v>4938323818.59415</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="4" t="n">
         <v>4205684869.25856</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="4" t="n">
         <v>3829887889.03127</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="4" t="n">
         <v>3581472254.70422</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>3178740728.8063</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="4" t="n">
         <v>2863511435.05644</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="4" t="n">
         <v>2402443108.62799</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="4" t="n">
         <v>2205624280.15049</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="4" t="n">
         <v>2132367795.32244</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="4" t="n">
         <v>2038170851.33087</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="4" t="n">
         <v>1910828198.38004</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>1970198422.52613</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="4" t="n">
         <v>2037706610.17457</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="4" t="n">
         <v>2343899482.31779</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="4" t="n">
         <v>2614936810.42747</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="4" t="n">
         <v>2681365766.39023</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="4" t="n">
         <v>2529694226.8206</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="4" t="n">
         <v>2772522734.7615</v>
       </c>
-      <c r="AX17" s="13" t="n">
+      <c r="AX17" s="4" t="n">
         <v>2842570863.15932</v>
       </c>
-      <c r="AY17" s="13" t="n">
+      <c r="AY17" s="4" t="n">
         <v>1147758907.28197</v>
       </c>
-      <c r="AZ17" s="13"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8636,101 +9038,101 @@
       <c r="O18" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>195858417.693616</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="4" t="n">
         <v>356065267.475863</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="4" t="n">
         <v>983741726.535426</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="4" t="n">
         <v>1802057569.61811</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="4" t="n">
         <v>1981293355.48238</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="4" t="n">
         <v>3257601767.04744</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="4" t="n">
         <v>3215654118.17557</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="4" t="n">
         <v>3838429583.10314</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="4" t="n">
         <v>4956960989.86447</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="4" t="n">
         <v>6269615514.86379</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="4" t="n">
         <v>7865586014.25477</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="4" t="n">
         <v>9540977182.12913</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="4" t="n">
         <v>11327340210.694</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>12926031342.2477</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="4" t="n">
         <v>13527516435.7593</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="4" t="n">
         <v>14304558847.4604</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="4" t="n">
         <v>12961857766.0919</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="4" t="n">
         <v>12408195253.1381</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="4" t="n">
         <v>12067722991.1773</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="4" t="n">
         <v>13352970225.7705</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>14531800605.3787</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="4" t="n">
         <v>16027989435.0379</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="4" t="n">
         <v>16933172703.3088</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="4" t="n">
         <v>17613441331.4084</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="4" t="n">
         <v>19355519909.7083</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="4" t="n">
         <v>19342261517.2157</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="4" t="n">
         <v>21719588676.5611</v>
       </c>
-      <c r="AX18" s="13" t="n">
+      <c r="AX18" s="4" t="n">
         <v>23908609890.0691</v>
       </c>
-      <c r="AY18" s="13" t="n">
+      <c r="AY18" s="4" t="n">
         <v>9728419631.64813</v>
       </c>
-      <c r="AZ18" s="13"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -8745,115 +9147,115 @@
       <c r="O19" t="s">
         <v>67</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="4" t="n">
         <v>936931.717562252</v>
       </c>
-      <c r="Q19" s="13" t="n">
+      <c r="Q19" s="4" t="n">
         <v>6214327.49867755</v>
       </c>
-      <c r="R19" s="13" t="n">
+      <c r="R19" s="4" t="n">
         <v>10769278.0099521</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="4" t="n">
         <v>6117776.07875508</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="4" t="n">
         <v>15986643.3774071</v>
       </c>
-      <c r="U19" s="13" t="n">
+      <c r="U19" s="4" t="n">
         <v>18719102.5247234</v>
       </c>
-      <c r="V19" s="13" t="n">
+      <c r="V19" s="4" t="n">
         <v>10047768.2576427</v>
       </c>
-      <c r="W19" s="13" t="n">
+      <c r="W19" s="4" t="n">
         <v>821367927.01083</v>
       </c>
-      <c r="X19" s="13" t="n">
+      <c r="X19" s="4" t="n">
         <v>1075662693.68082</v>
       </c>
-      <c r="Y19" s="13" t="n">
+      <c r="Y19" s="4" t="n">
         <v>2130895905.93249</v>
       </c>
-      <c r="Z19" s="13" t="n">
+      <c r="Z19" s="4" t="n">
         <v>7043247484.86466</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="4" t="n">
         <v>7554950303.84285</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="4" t="n">
         <v>8743434289.60408</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="4" t="n">
         <v>10474289549.3918</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="4" t="n">
         <v>11200219462.6515</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="4" t="n">
         <v>14115626706.3426</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="4" t="n">
         <v>15994677405.2229</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="4" t="n">
         <v>16978796720.4497</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="4" t="n">
         <v>19862127188.4869</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="4" t="n">
         <v>21714471292.9622</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>22002750109.8459</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="4" t="n">
         <v>20466540198.8214</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="4" t="n">
         <v>19458700032.7406</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="4" t="n">
         <v>13808125671.6397</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="4" t="n">
         <v>13218641652.1566</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="4" t="n">
         <v>11847841281.6531</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="4" t="n">
         <v>11502197107.3619</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>11540197286.1711</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="4" t="n">
         <v>12265987749.4256</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="4" t="n">
         <v>12732329986.3044</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="4" t="n">
         <v>12481035396.5322</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="4" t="n">
         <v>13897833979.7565</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="4" t="n">
         <v>13092377004.5697</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="4" t="n">
         <v>16431518464.1799</v>
       </c>
-      <c r="AX19" s="13" t="n">
+      <c r="AX19" s="4" t="n">
         <v>20255482797.3976</v>
       </c>
-      <c r="AY19" s="13" t="n">
+      <c r="AY19" s="4" t="n">
         <v>9203676923.871</v>
       </c>
-      <c r="AZ19" s="13"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8868,93 +9270,93 @@
       <c r="O20" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="13" t="n">
+      <c r="P20" s="4" t="n">
         <v>111687.22461007</v>
       </c>
-      <c r="Q20" s="13" t="n">
+      <c r="Q20" s="4" t="n">
         <v>91857.0260087298</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13" t="n">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="13" t="n">
+      <c r="W20" s="4" t="n">
         <v>43914989.4949696</v>
       </c>
-      <c r="X20" s="13" t="n">
+      <c r="X20" s="4" t="n">
         <v>49437041.7745901</v>
       </c>
-      <c r="Y20" s="13" t="n">
+      <c r="Y20" s="4" t="n">
         <v>63664054.4910869</v>
       </c>
-      <c r="Z20" s="13" t="n">
+      <c r="Z20" s="4" t="n">
         <v>161448700.936558</v>
       </c>
-      <c r="AA20" s="13" t="n">
+      <c r="AA20" s="4" t="n">
         <v>35776195.8083555</v>
       </c>
-      <c r="AB20" s="13" t="n">
+      <c r="AB20" s="4" t="n">
         <v>43861442.9290657</v>
       </c>
-      <c r="AC20" s="13" t="n">
+      <c r="AC20" s="4" t="n">
         <v>51289032.0073359</v>
       </c>
-      <c r="AD20" s="13" t="n">
+      <c r="AD20" s="4" t="n">
         <v>49330968.0242007</v>
       </c>
-      <c r="AE20" s="13" t="n">
+      <c r="AE20" s="4" t="n">
         <v>34930820.9317603</v>
       </c>
-      <c r="AF20" s="13" t="n">
+      <c r="AF20" s="4" t="n">
         <v>12996159.2684284</v>
       </c>
-      <c r="AG20" s="13" t="n">
+      <c r="AG20" s="4" t="n">
         <v>17893225.2887166</v>
       </c>
-      <c r="AH20" s="13" t="n">
+      <c r="AH20" s="4" t="n">
         <v>861351.420089645</v>
       </c>
-      <c r="AI20" s="13" t="n">
+      <c r="AI20" s="4" t="n">
         <v>103275.105284345</v>
       </c>
-      <c r="AJ20" s="13" t="n">
+      <c r="AJ20" s="4" t="n">
         <v>409495.302061595</v>
       </c>
-      <c r="AK20" s="13" t="n">
+      <c r="AK20" s="4" t="n">
         <v>168176.907820595</v>
       </c>
-      <c r="AL20" s="13" t="n">
+      <c r="AL20" s="4" t="n">
         <v>41681.2562968392</v>
       </c>
-      <c r="AM20" s="13" t="n">
+      <c r="AM20" s="4" t="n">
         <v>32657.5545601699</v>
       </c>
-      <c r="AN20" s="13" t="n">
+      <c r="AN20" s="4" t="n">
         <v>-123754.631740151</v>
       </c>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13" t="n">
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4" t="n">
         <v>-1185277.51837455</v>
       </c>
-      <c r="AQ20" s="13" t="n">
+      <c r="AQ20" s="4" t="n">
         <v>92725.5927178126</v>
       </c>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13" t="n">
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4" t="n">
         <v>102386.25588697</v>
       </c>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13" t="n">
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="13"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8965,75 +9367,75 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="4" t="n">
         <v>16078545349.9295</v>
       </c>
-      <c r="Q21" s="13" t="n">
+      <c r="Q21" s="4" t="n">
         <v>15830232953.6913</v>
       </c>
-      <c r="R21" s="13" t="n">
+      <c r="R21" s="4" t="n">
         <v>17117400076.3832</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="4" t="n">
         <v>16308223536.8757</v>
       </c>
-      <c r="T21" s="13" t="n">
+      <c r="T21" s="4" t="n">
         <v>15765271498.1542</v>
       </c>
-      <c r="U21" s="13" t="n">
+      <c r="U21" s="4" t="n">
         <v>16194868270.591</v>
       </c>
-      <c r="V21" s="13" t="n">
+      <c r="V21" s="4" t="n">
         <v>16628758610.5856</v>
       </c>
-      <c r="W21" s="13" t="n">
+      <c r="W21" s="4" t="n">
         <v>17056673572.0922</v>
       </c>
-      <c r="X21" s="13" t="n">
+      <c r="X21" s="4" t="n">
         <v>18772080522.7719</v>
       </c>
-      <c r="Y21" s="13" t="n">
+      <c r="Y21" s="4" t="n">
         <v>19367962959.6819</v>
       </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13" t="n">
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="n">
+      <c r="AV21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="13" t="n">
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="13" t="n">
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="13" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="13"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9042,43 +9444,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Other_RandD_and_Knowledge_Based/DoD_Other_RandD_and_Knowledge_Based_Contracts.xlsx
@@ -588,18 +588,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -637,11 +637,11 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -649,7 +649,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4735,7 +4735,7 @@
         <v>9381411312.2099</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>8220083546.7948</v>
+        <v>8220083546.79481</v>
       </c>
       <c r="Z14" s="13" t="n">
         <v>7692884519.48803</v>
